--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="VIP Levels" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Missions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Affiliate Projection" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Reward Triggers" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Revenue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Costs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Summary" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIP Levels" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Missions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Affiliate Projection" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reward Triggers" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AffAttrition">Inputs!$B$10</definedName>
-    <definedName name="AvgAffSales">Inputs!$B$14</definedName>
     <definedName name="SampleAffConv">Inputs!$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -41,34 +40,40 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF4472C4"/>
       <sz val="16"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF4472C4"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <i val="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -159,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -207,8 +212,6 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -218,11 +221,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,34 +594,34 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" style="28" min="1" max="1"/>
-    <col width="18" customWidth="1" style="28" min="2" max="2"/>
-    <col width="12" customWidth="1" style="28" min="3" max="4"/>
-    <col width="45" customWidth="1" style="28" min="5" max="5"/>
-    <col width="32.7109375" customWidth="1" style="28" min="7" max="7"/>
+    <col width="40" customWidth="1" style="29" min="1" max="1"/>
+    <col width="18" customWidth="1" style="29" min="2" max="2"/>
+    <col width="12" customWidth="1" style="29" min="3" max="4"/>
+    <col width="45" customWidth="1" style="29" min="5" max="5"/>
+    <col width="32.7109375" customWidth="1" style="29" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="28">
+    <row r="3" ht="18.75" customHeight="1" s="29">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ACQUISITION INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="28">
+    <row r="4" ht="15.75" customHeight="1" s="29">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -633,7 +637,7 @@
           <t>Unit</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -643,7 +647,7 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="G4" s="23" t="inlineStr">
+      <c r="G4" s="21" t="inlineStr">
         <is>
           <t>Used by</t>
         </is>
@@ -751,7 +755,7 @@
           <t>Organic inbound affiliates monthly</t>
         </is>
       </c>
-      <c r="G8" s="24" t="inlineStr">
+      <c r="G8" s="22" t="inlineStr">
         <is>
           <t>Won't this be gradual and dynamic? M1 we may have 0, M7 we could have 100</t>
         </is>
@@ -777,7 +781,7 @@
           <t>Lag between conversion and first sale</t>
         </is>
       </c>
-      <c r="G9" s="25" t="inlineStr">
+      <c r="G9" s="23" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
@@ -813,14 +817,14 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="28">
+    <row r="12" ht="18.75" customHeight="1" s="29">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>PERFORMANCE INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="28">
+    <row r="13" ht="15.75" customHeight="1" s="29">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -843,31 +847,25 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" s="28">
+    <row r="14" ht="75" customHeight="1" s="29">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Average Sales per Affiliate per Month</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>3</v>
-      </c>
+          <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
       <c r="C14" s="3" t="inlineStr">
         <is>
           <t>sales</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>AvgAffSales</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Monthly sales velocity per active affiliate</t>
         </is>
       </c>
-      <c r="G14" s="26" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
 Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
@@ -920,20 +918,20 @@
           <t>Time period for VIP level qualification</t>
         </is>
       </c>
-      <c r="G16" s="25" t="inlineStr">
+      <c r="G16" s="23" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="28">
+    <row r="19" ht="18.75" customHeight="1" s="29">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>REDEMPTION &amp; BEHAVIOR INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="28">
+    <row r="20" ht="15.75" customHeight="1" s="29">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -1002,7 +1000,7 @@
           <t>Default completion rate for missions</t>
         </is>
       </c>
-      <c r="G22" s="25" t="inlineStr">
+      <c r="G22" s="23" t="inlineStr">
         <is>
           <t>Overriden by mission sheet… delete?</t>
         </is>
@@ -1011,12 +1009,10 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Avg Sales During Commission Boost</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>3</v>
-      </c>
+          <t>(DEPRECATED) Avg Sales During Commission Boost</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n"/>
       <c r="C23" s="3" t="inlineStr">
         <is>
           <t>sales</t>
@@ -1034,14 +1030,14 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="28">
+    <row r="26" ht="18.75" customHeight="1" s="29">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>COST INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="28">
+    <row r="27" ht="15.75" customHeight="1" s="29">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -1090,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="28">
+    <row r="31" ht="18.75" customHeight="1" s="29">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>LEVEL DISTRIBUTION ASSUMPTIONS</t>
@@ -1104,7 +1100,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="31.5" customHeight="1" s="28">
+    <row r="33" ht="31.5" customHeight="1" s="29">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -1120,7 +1116,7 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="D33" s="27" t="n"/>
+      <c r="D33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1129,14 +1125,14 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Affiliates below Silver threshold</t>
         </is>
       </c>
-      <c r="G34" s="24" t="inlineStr">
+      <c r="G34" s="22" t="inlineStr">
         <is>
           <t>This is static through time? We assume each month we will have this breakdown?</t>
         </is>
@@ -1149,14 +1145,14 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Affiliates at Silver, below Gold</t>
         </is>
       </c>
-      <c r="G35" s="24" t="n"/>
+      <c r="G35" s="22" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1165,14 +1161,14 @@
         </is>
       </c>
       <c r="B36" s="5" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Affiliates at Gold, below Platinum</t>
         </is>
       </c>
-      <c r="G36" s="24" t="n"/>
+      <c r="G36" s="22" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1181,14 +1177,14 @@
         </is>
       </c>
       <c r="B37" s="5" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Affiliates at Platinum, below Diamond</t>
         </is>
       </c>
-      <c r="G37" s="24" t="n"/>
+      <c r="G37" s="22" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1197,14 +1193,14 @@
         </is>
       </c>
       <c r="B38" s="5" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Top performers at Diamond</t>
         </is>
       </c>
-      <c r="G38" s="24" t="n"/>
+      <c r="G38" s="22" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -1217,7 +1213,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" s="28">
+    <row r="42" ht="18.75" customHeight="1" s="29">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>LEGEND</t>
@@ -1268,25 +1264,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" style="28" min="1" max="1"/>
-    <col width="13" customWidth="1" style="28" min="2" max="14"/>
+    <col width="45" customWidth="1" style="29" min="1" max="1"/>
+    <col width="13" customWidth="1" style="29" min="2" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>VIP LEVEL CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="28">
+    <row r="3" ht="18.75" customHeight="1" s="29">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>LEVEL THRESHOLDS &amp; COMMISSION</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" s="28">
+    <row r="4" ht="47.25" customHeight="1" s="29">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Level #</t>
@@ -1305,6 +1301,11 @@
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Base Commission %</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Avg Sales/Month</t>
         </is>
       </c>
     </row>
@@ -1323,6 +1324,9 @@
       <c r="D5" s="5" t="n">
         <v>0.1</v>
       </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -1339,6 +1343,9 @@
       <c r="D6" s="5" t="n">
         <v>0.12</v>
       </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1355,6 +1362,9 @@
       <c r="D7" s="5" t="n">
         <v>0.18</v>
       </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1371,6 +1381,9 @@
       <c r="D8" s="5" t="n">
         <v>0.22</v>
       </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -1387,15 +1400,18 @@
       <c r="D9" s="5" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="28">
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="29">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>WELCOME REWARDS (Per Level)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="31.5" customHeight="1" s="28">
+    <row r="13" ht="31.5" customHeight="1" s="29">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -1697,7 +1713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" s="28">
+    <row r="21" ht="18.75" customHeight="1" s="29">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>WELCOME REWARD SUMMARY (Weighted by Level Distribution)</t>
@@ -1776,30 +1792,30 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="28" min="1" max="10"/>
+    <col width="18" customWidth="1" style="29" min="1" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>MISSION CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="28">
+    <row r="3" ht="18.75" customHeight="1" s="29">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MISSIONS BY VIP LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1" s="28">
+    <row r="4" ht="31.5" customHeight="1" s="29">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>VIP Level</t>
@@ -1890,7 +1906,7 @@
         </is>
       </c>
       <c r="J5" s="14">
-        <f>IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -1933,7 +1949,7 @@
         </is>
       </c>
       <c r="J6" s="14">
-        <f>IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -1976,7 +1992,7 @@
         </is>
       </c>
       <c r="J7" s="14">
-        <f>IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2019,7 +2035,7 @@
         </is>
       </c>
       <c r="J8" s="14">
-        <f>IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2062,7 +2078,7 @@
         </is>
       </c>
       <c r="J9" s="14">
-        <f>IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2105,7 +2121,7 @@
         </is>
       </c>
       <c r="J10" s="14">
-        <f>IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2148,7 +2164,7 @@
         </is>
       </c>
       <c r="J11" s="14">
-        <f>IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2191,7 +2207,7 @@
         </is>
       </c>
       <c r="J12" s="14">
-        <f>IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2250,7 @@
         </is>
       </c>
       <c r="J13" s="14">
-        <f>IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2277,7 +2293,7 @@
         </is>
       </c>
       <c r="J14" s="14">
-        <f>IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2292,7 +2308,7 @@
       <c r="H15" s="4" t="n"/>
       <c r="I15" s="4" t="n"/>
       <c r="J15" s="15">
-        <f>IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2307,7 +2323,7 @@
       <c r="H16" s="4" t="n"/>
       <c r="I16" s="4" t="n"/>
       <c r="J16" s="15">
-        <f>IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2322,7 +2338,7 @@
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="15">
-        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2337,7 +2353,7 @@
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="15">
-        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2352,7 +2368,7 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="15">
-        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2367,7 +2383,7 @@
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="15">
-        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2398,7 @@
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="15">
-        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2397,7 +2413,7 @@
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="15">
-        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2412,7 +2428,7 @@
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="15">
-        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*Inputs!$B$23*Revenue!$B$10,0)))</f>
+        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
@@ -2427,18 +2443,18 @@
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="15">
-        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*Inputs!$B$23*Revenue!$B$10,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" s="28">
+        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" s="29">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>MISSION SUMMARY BY LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="31.5" customHeight="1" s="28">
+    <row r="28" ht="31.5" customHeight="1" s="29">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -2555,14 +2571,14 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1" s="28">
+    <row r="36" ht="18.75" customHeight="1" s="29">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>MISSION REWARD TYPE BREAKDOWN</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="31.5" customHeight="1" s="28">
+    <row r="37" ht="31.5" customHeight="1" s="29">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Reward Type</t>
@@ -2611,7 +2627,7 @@
         <f>B38*D38</f>
         <v/>
       </c>
-      <c r="G38" s="23" t="inlineStr">
+      <c r="G38" s="21" t="inlineStr">
         <is>
           <t>Used in Costs</t>
         </is>
@@ -2639,7 +2655,7 @@
         <f>B39*D39</f>
         <v/>
       </c>
-      <c r="G39" s="23" t="inlineStr">
+      <c r="G39" s="21" t="inlineStr">
         <is>
           <t>Used in Costs</t>
         </is>
@@ -2667,7 +2683,7 @@
         <f>B40*D40</f>
         <v/>
       </c>
-      <c r="G40" s="23" t="inlineStr">
+      <c r="G40" s="21" t="inlineStr">
         <is>
           <t>Used in Costs</t>
         </is>
@@ -2726,24 +2742,24 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="28" min="1" max="1"/>
-    <col width="12" customWidth="1" style="28" min="2" max="13"/>
+    <col width="35" customWidth="1" style="29" min="1" max="1"/>
+    <col width="12" customWidth="1" style="29" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>AFFILIATE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="28">
+    <row r="3" ht="15.75" customHeight="1" s="29">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -3151,55 +3167,55 @@
         </is>
       </c>
       <c r="B10" s="15">
-        <f>ROUND(B9*AvgAffSales,0)</f>
+        <f>ROUND(B12*'VIP Levels'!$E$5+B13*'VIP Levels'!$E$6+B14*'VIP Levels'!$E$7+B15*'VIP Levels'!$E$8+B16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="C10" s="15">
-        <f>ROUND(C9*AvgAffSales,0)</f>
+        <f>ROUND(C12*'VIP Levels'!$E$5+C13*'VIP Levels'!$E$6+C14*'VIP Levels'!$E$7+C15*'VIP Levels'!$E$8+C16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="D10" s="15">
-        <f>ROUND(D9*AvgAffSales,0)</f>
+        <f>ROUND(D12*'VIP Levels'!$E$5+D13*'VIP Levels'!$E$6+D14*'VIP Levels'!$E$7+D15*'VIP Levels'!$E$8+D16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="E10" s="15">
-        <f>ROUND(E9*AvgAffSales,0)</f>
+        <f>ROUND(E12*'VIP Levels'!$E$5+E13*'VIP Levels'!$E$6+E14*'VIP Levels'!$E$7+E15*'VIP Levels'!$E$8+E16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="F10" s="15">
-        <f>ROUND(F9*AvgAffSales,0)</f>
+        <f>ROUND(F12*'VIP Levels'!$E$5+F13*'VIP Levels'!$E$6+F14*'VIP Levels'!$E$7+F15*'VIP Levels'!$E$8+F16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="G10" s="15">
-        <f>ROUND(G9*AvgAffSales,0)</f>
+        <f>ROUND(G12*'VIP Levels'!$E$5+G13*'VIP Levels'!$E$6+G14*'VIP Levels'!$E$7+G15*'VIP Levels'!$E$8+G16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="H10" s="15">
-        <f>ROUND(H9*AvgAffSales,0)</f>
+        <f>ROUND(H12*'VIP Levels'!$E$5+H13*'VIP Levels'!$E$6+H14*'VIP Levels'!$E$7+H15*'VIP Levels'!$E$8+H16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="I10" s="15">
-        <f>ROUND(I9*AvgAffSales,0)</f>
+        <f>ROUND(I12*'VIP Levels'!$E$5+I13*'VIP Levels'!$E$6+I14*'VIP Levels'!$E$7+I15*'VIP Levels'!$E$8+I16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="J10" s="15">
-        <f>ROUND(J9*AvgAffSales,0)</f>
+        <f>ROUND(J12*'VIP Levels'!$E$5+J13*'VIP Levels'!$E$6+J14*'VIP Levels'!$E$7+J15*'VIP Levels'!$E$8+J16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="K10" s="15">
-        <f>ROUND(K9*AvgAffSales,0)</f>
+        <f>ROUND(K12*'VIP Levels'!$E$5+K13*'VIP Levels'!$E$6+K14*'VIP Levels'!$E$7+K15*'VIP Levels'!$E$8+K16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="L10" s="15">
-        <f>ROUND(L9*AvgAffSales,0)</f>
+        <f>ROUND(L12*'VIP Levels'!$E$5+L13*'VIP Levels'!$E$6+L14*'VIP Levels'!$E$7+L15*'VIP Levels'!$E$8+L16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="M10" s="15">
-        <f>ROUND(M9*AvgAffSales,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="28">
+        <f>ROUND(M12*'VIP Levels'!$E$5+M13*'VIP Levels'!$E$6+M14*'VIP Levels'!$E$7+M15*'VIP Levels'!$E$8+M16*'VIP Levels'!$E$9,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="29">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>--- Level Distribution ---</t>
@@ -3477,7 +3493,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="28">
+    <row r="17" ht="18.75" customHeight="1" s="29">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>--- Level Events ---</t>
@@ -3719,24 +3735,24 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" style="28" min="1" max="1"/>
-    <col width="12" customWidth="1" style="28" min="2" max="13"/>
+    <col width="38" customWidth="1" style="29" min="1" max="1"/>
+    <col width="12" customWidth="1" style="29" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>REWARD TRIGGERS (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="28">
+    <row r="3" ht="15.75" customHeight="1" s="29">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -3803,7 +3819,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="28">
+    <row r="4" ht="18.75" customHeight="1" s="29">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- WELCOME REWARDS (per level-up) ---</t>
@@ -3811,7 +3827,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Commission Boosts Triggered</t>
         </is>
@@ -4143,7 +4159,7 @@
     <row r="11">
       <c r="A11" s="18" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="28">
+    <row r="12" ht="18.75" customHeight="1" s="29">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- MISSION COMPLETIONS ---</t>
@@ -4502,18 +4518,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="28" min="1" max="1"/>
-    <col width="12" customWidth="1" style="28" min="2" max="13"/>
+    <col width="35" customWidth="1" style="29" min="1" max="1"/>
+    <col width="12" customWidth="1" style="29" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>REVENUE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="28">
+    <row r="3" ht="15.75" customHeight="1" s="29">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5092,23 +5108,23 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="28" min="1" max="1"/>
-    <col width="12" customWidth="1" style="28" min="2" max="13"/>
+    <col width="35" customWidth="1" style="29" min="1" max="1"/>
+    <col width="12" customWidth="1" style="29" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>COST PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="28">
+    <row r="3" ht="15.75" customHeight="1" s="29">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5175,7 +5191,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="28">
+    <row r="4" ht="18.75" customHeight="1" s="29">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- CM1 COSTS (Per Sale) ---</t>
@@ -5244,51 +5260,51 @@
         </is>
       </c>
       <c r="B6" s="19">
-        <f>'Reward Triggers'!B5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!B10</f>
+        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!B10</f>
         <v/>
       </c>
       <c r="C6" s="19">
-        <f>'Reward Triggers'!C5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!C10</f>
+        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!C10</f>
         <v/>
       </c>
       <c r="D6" s="19">
-        <f>'Reward Triggers'!D5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!D10</f>
+        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!D10</f>
         <v/>
       </c>
       <c r="E6" s="19">
-        <f>'Reward Triggers'!E5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!E10</f>
+        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!E10</f>
         <v/>
       </c>
       <c r="F6" s="19">
-        <f>'Reward Triggers'!F5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!F10</f>
+        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!F10</f>
         <v/>
       </c>
       <c r="G6" s="19">
-        <f>'Reward Triggers'!G5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!G10</f>
+        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!G10</f>
         <v/>
       </c>
       <c r="H6" s="19">
-        <f>'Reward Triggers'!H5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!H10</f>
+        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!H10</f>
         <v/>
       </c>
       <c r="I6" s="19">
-        <f>'Reward Triggers'!I5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!I10</f>
+        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!I10</f>
         <v/>
       </c>
       <c r="J6" s="19">
-        <f>'Reward Triggers'!J5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!J10</f>
+        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!J10</f>
         <v/>
       </c>
       <c r="K6" s="19">
-        <f>'Reward Triggers'!K5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!K10</f>
+        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!K10</f>
         <v/>
       </c>
       <c r="L6" s="19">
-        <f>'Reward Triggers'!L5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!L10</f>
+        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!L10</f>
         <v/>
       </c>
       <c r="M6" s="19">
-        <f>'Reward Triggers'!M5*Inputs!$B$23*'VIP Levels'!$B$22*Revenue!M10</f>
+        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!M10</f>
         <v/>
       </c>
     </row>
@@ -5299,51 +5315,51 @@
         </is>
       </c>
       <c r="B7" s="19">
-        <f>'Reward Triggers'!B18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="C7" s="19">
-        <f>'Reward Triggers'!C18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="D7" s="19">
-        <f>'Reward Triggers'!D18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="E7" s="19">
-        <f>'Reward Triggers'!E18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="F7" s="19">
-        <f>'Reward Triggers'!F18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="G7" s="19">
-        <f>'Reward Triggers'!G18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="H7" s="19">
-        <f>'Reward Triggers'!H18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="I7" s="19">
-        <f>'Reward Triggers'!I18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="J7" s="19">
-        <f>'Reward Triggers'!J18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="K7" s="19">
-        <f>'Reward Triggers'!K18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="L7" s="19">
-        <f>'Reward Triggers'!L18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="M7" s="19">
-        <f>'Reward Triggers'!M18*Missions!$C$39*Missions!$D$39</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
     </row>
@@ -5460,7 +5476,7 @@
     <row r="10">
       <c r="A10" s="18" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="28">
+    <row r="11" ht="18.75" customHeight="1" s="29">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>--- LOYALTY PROGRAM COSTS ---</t>
@@ -5529,51 +5545,51 @@
         </is>
       </c>
       <c r="B13" s="19">
-        <f>'Reward Triggers'!B18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="C13" s="19">
-        <f>'Reward Triggers'!C18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="D13" s="19">
-        <f>'Reward Triggers'!D18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="E13" s="19">
-        <f>'Reward Triggers'!E18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="F13" s="19">
-        <f>'Reward Triggers'!F18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="G13" s="19">
-        <f>'Reward Triggers'!G18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="H13" s="19">
-        <f>'Reward Triggers'!H18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="I13" s="19">
-        <f>'Reward Triggers'!I18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="J13" s="19">
-        <f>'Reward Triggers'!J18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="K13" s="19">
-        <f>'Reward Triggers'!K18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="L13" s="19">
-        <f>'Reward Triggers'!L18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="M13" s="19">
-        <f>'Reward Triggers'!M18*Missions!$C$38*Missions!$D$38</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
     </row>
@@ -5690,7 +5706,7 @@
     <row r="16">
       <c r="A16" s="18" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="28">
+    <row r="17" ht="18.75" customHeight="1" s="29">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>--- MARKETING OPEX ---</t>
@@ -5759,51 +5775,51 @@
         </is>
       </c>
       <c r="B19" s="19">
-        <f>'Reward Triggers'!B18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="C19" s="19">
-        <f>'Reward Triggers'!C18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="D19" s="19">
-        <f>'Reward Triggers'!D18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="E19" s="19">
-        <f>'Reward Triggers'!E18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="F19" s="19">
-        <f>'Reward Triggers'!F18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="G19" s="19">
-        <f>'Reward Triggers'!G18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="H19" s="19">
-        <f>'Reward Triggers'!H18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="I19" s="19">
-        <f>'Reward Triggers'!I18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="J19" s="19">
-        <f>'Reward Triggers'!J18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="K19" s="19">
-        <f>'Reward Triggers'!K18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="L19" s="19">
-        <f>'Reward Triggers'!L18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
       <c r="M19" s="19">
-        <f>'Reward Triggers'!M18*Missions!$C$40*Missions!$D$40</f>
+        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
         <v/>
       </c>
     </row>
@@ -6030,7 +6046,7 @@
     <row r="24">
       <c r="A24" s="18" t="n"/>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="28">
+    <row r="25" ht="18.75" customHeight="1" s="29">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>--- TOTALS ---</t>
@@ -6114,26 +6130,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" style="28" min="1" max="1"/>
-    <col width="15" customWidth="1" style="28" min="2" max="2"/>
-    <col width="10" customWidth="1" style="28" min="3" max="14"/>
+    <col width="32" customWidth="1" style="29" min="1" max="1"/>
+    <col width="15" customWidth="1" style="29" min="2" max="2"/>
+    <col width="10" customWidth="1" style="29" min="3" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
-      <c r="A1" s="21" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="29">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>SUMMARY DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="28">
+    <row r="3" ht="18.75" customHeight="1" s="29">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>12-MONTH TOTALS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="28">
+    <row r="4" ht="15.75" customHeight="1" s="29">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6261,14 +6277,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="28">
+    <row r="19" ht="18.75" customHeight="1" s="29">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>KEY RATIOS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="28">
+    <row r="20" ht="15.75" customHeight="1" s="29">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6346,14 +6362,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="28">
+    <row r="29" ht="18.75" customHeight="1" s="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MONTHLY TREND</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="28">
+    <row r="30" ht="15.75" customHeight="1" s="29">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Metric</t>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,8 +98,28 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -136,8 +156,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6DCE5"/>
+        <bgColor rgb="00D6DCE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,11 +198,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -199,12 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -225,8 +263,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,36 +651,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" style="29" min="1" max="1"/>
-    <col width="18" customWidth="1" style="29" min="2" max="2"/>
-    <col width="12" customWidth="1" style="29" min="3" max="4"/>
-    <col width="45" customWidth="1" style="29" min="5" max="5"/>
-    <col width="32.7109375" customWidth="1" style="29" min="7" max="7"/>
+    <col width="40" customWidth="1" style="30" min="1" max="1"/>
+    <col width="18" customWidth="1" style="30" min="2" max="2"/>
+    <col width="12" customWidth="1" style="30" min="3" max="4"/>
+    <col width="45" customWidth="1" style="30" min="5" max="5"/>
+    <col width="32.7109375" customWidth="1" style="30" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="29">
+    <row r="3" ht="18.75" customHeight="1" s="30">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ACQUISITION INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="29">
+    <row r="4" ht="15.75" customHeight="1" s="30">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -637,7 +696,7 @@
           <t>Unit</t>
         </is>
       </c>
-      <c r="D4" s="26" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -647,7 +706,7 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="G4" s="21" t="inlineStr">
+      <c r="G4" s="19" t="inlineStr">
         <is>
           <t>Used by</t>
         </is>
@@ -738,230 +797,230 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Flywheel Affiliates per Month</t>
+          <t>Time to First Sale</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>affiliates</t>
+          <t>days</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Organic inbound affiliates monthly</t>
-        </is>
-      </c>
-      <c r="G8" s="22" t="inlineStr">
-        <is>
-          <t>Won't this be gradual and dynamic? M1 we may have 0, M7 we could have 100</t>
+          <t>Lag between conversion and first sale</t>
+        </is>
+      </c>
+      <c r="G8" s="21" t="inlineStr">
+        <is>
+          <t>Placeholder..</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Time to First Sale</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>14</v>
+          <t>Affiliate Attrition Rate</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.05</v>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n"/>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>AffAttrition</t>
+        </is>
+      </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Lag between conversion and first sale</t>
-        </is>
-      </c>
-      <c r="G9" s="23" t="inlineStr">
-        <is>
-          <t>Placeholder..</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Affiliate Attrition Rate</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>AffAttrition</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
           <t>Monthly churn rate of affiliates</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Affiliate Projection | Row 8</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="29">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>PERFORMANCE INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="29">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1" s="30">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" s="29">
+    <row r="13" ht="15.75" customHeight="1" s="30">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Monthly sales velocity per active affiliate</t>
+        </is>
+      </c>
+      <c r="G13" s="22" t="inlineStr">
+        <is>
+          <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
+Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="75" customHeight="1" s="30">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n"/>
+          <t>Gross AOV</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>sales</t>
+          <t>$</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Monthly sales velocity per active affiliate</t>
-        </is>
-      </c>
-      <c r="G14" s="24" t="inlineStr">
-        <is>
-          <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
-Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
+          <t>Average order value before discounts</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Revenue | Row 5 &amp; Missions | Col J</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Gross AOV</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>100</v>
+          <t>Rolling Window Duration</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>days</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Average order value before discounts</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Revenue | Row 5 &amp; Missions | Col J</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Rolling Window Duration</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
           <t>Time period for VIP level qualification</t>
         </is>
       </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="29">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>REDEMPTION &amp; BEHAVIOR INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="29">
-      <c r="A20" s="2" t="inlineStr">
+    <row r="19" ht="18.75" customHeight="1" s="30">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="30">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Discount Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Percentage of discount coupons redeemed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Revenue | Row 8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Discount Redemption Rate</t>
+          <t>Default Mission Completion Rate</t>
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
@@ -971,273 +1030,723 @@
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Percentage of discount coupons redeemed</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Revenue | Row 8</t>
+          <t>Default completion rate for missions</t>
+        </is>
+      </c>
+      <c r="G21" s="21" t="inlineStr">
+        <is>
+          <t>Overriden by mission sheet… delete?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Default Mission Completion Rate</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0.25</v>
-      </c>
+          <t>(DEPRECATED) Avg Sales During Commission Boost</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sales</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Default completion rate for missions</t>
-        </is>
-      </c>
-      <c r="G22" s="23" t="inlineStr">
-        <is>
-          <t>Overriden by mission sheet… delete?</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>(DEPRECATED) Avg Sales During Commission Boost</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
           <t>Expected sales an affiliate makes during boost period</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Costs | Rows 6-7 &amp; Misions | Col J</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="29">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>COST INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="29">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="26" ht="18.75" customHeight="1" s="30">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1" s="30">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Cost per Sample</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B27" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Cost of each sample sent (product + shipping)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Costs row 22</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="29">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>LEVEL DISTRIBUTION ASSUMPTIONS</t>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>(DEPRECATED) LEVEL DISTRIBUTION ASSUMPTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="30">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>(Use Monthly Distribution below instead)</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>(Estimated % of affiliates at each level based on sales velocity vs thresholds)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="31.5" customHeight="1" s="29">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>% of Affiliates</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D33" s="25" t="n"/>
+      <c r="D32" s="23" t="n"/>
+    </row>
+    <row r="33" ht="31.5" customHeight="1" s="30">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Affiliates below Silver threshold</t>
+        </is>
+      </c>
+      <c r="G33" s="20" t="inlineStr">
+        <is>
+          <t>This is static through time? We assume each month we will have this breakdown?</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Bronze</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Affiliates below Silver threshold</t>
-        </is>
-      </c>
-      <c r="G34" s="22" t="inlineStr">
-        <is>
-          <t>This is static through time? We assume each month we will have this breakdown?</t>
-        </is>
-      </c>
+          <t>Affiliates at Silver, below Gold</t>
+        </is>
+      </c>
+      <c r="G34" s="20" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Affiliates at Silver, below Gold</t>
-        </is>
-      </c>
-      <c r="G35" s="22" t="n"/>
+          <t>Affiliates at Gold, below Platinum</t>
+        </is>
+      </c>
+      <c r="G35" s="20" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="B36" s="5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Affiliates at Gold, below Platinum</t>
-        </is>
-      </c>
-      <c r="G36" s="22" t="n"/>
+          <t>Affiliates at Platinum, below Diamond</t>
+        </is>
+      </c>
+      <c r="G36" s="20" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Top performers at Diamond</t>
+        </is>
+      </c>
+      <c r="G37" s="20" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Total (must = 100%)</t>
+        </is>
+      </c>
+      <c r="B38" s="9">
+        <f>SUM(B34:B38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="31" t="inlineStr">
+        <is>
+          <t>MONTHLY LEVEL DISTRIBUTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="30">
+      <c r="A42" s="32" t="inlineStr">
+        <is>
+          <t>(% of affiliates at each level per month)</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="33" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B43" s="33" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C43" s="33" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D43" s="33" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E43" s="33" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F43" s="33" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="G43" s="33" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="H43" s="33" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="I43" s="33" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="J43" s="33" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="K43" s="33" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="L43" s="33" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="M43" s="33" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="34" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="B44" s="35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C44" s="35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D44" s="35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E44" s="35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F44" s="35" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G44" s="35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="35" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I44" s="35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J44" s="35" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K44" s="35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M44" s="35" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="34" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="B45" s="35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="35" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F45" s="35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G45" s="35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H45" s="35" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I45" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K45" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L45" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="35" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="34" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D46" s="35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E46" s="35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G46" s="35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H46" s="35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I46" s="35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J46" s="35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K46" s="35" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L46" s="35" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M46" s="35" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="34" t="inlineStr">
+        <is>
           <t>Platinum</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E47" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Affiliates at Platinum, below Diamond</t>
-        </is>
-      </c>
-      <c r="G37" s="22" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="F47" s="35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G47" s="35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H47" s="35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I47" s="35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J47" s="35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K47" s="35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L47" s="35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M47" s="35" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="34" t="inlineStr">
         <is>
           <t>Diamond</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B48" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>Top performers at Diamond</t>
-        </is>
-      </c>
-      <c r="G38" s="22" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
+      <c r="C48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="36" t="inlineStr">
         <is>
           <t>Total (must = 100%)</t>
         </is>
       </c>
-      <c r="B39" s="9">
-        <f>SUM(B34:B38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" s="29">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="B49" s="37">
+        <f>SUM(B44:B48)</f>
+        <v/>
+      </c>
+      <c r="C49" s="37">
+        <f>SUM(C44:C48)</f>
+        <v/>
+      </c>
+      <c r="D49" s="37">
+        <f>SUM(D44:D48)</f>
+        <v/>
+      </c>
+      <c r="E49" s="37">
+        <f>SUM(E44:E48)</f>
+        <v/>
+      </c>
+      <c r="F49" s="37">
+        <f>SUM(F44:F48)</f>
+        <v/>
+      </c>
+      <c r="G49" s="37">
+        <f>SUM(G44:G48)</f>
+        <v/>
+      </c>
+      <c r="H49" s="37">
+        <f>SUM(H44:H48)</f>
+        <v/>
+      </c>
+      <c r="I49" s="37">
+        <f>SUM(I44:I48)</f>
+        <v/>
+      </c>
+      <c r="J49" s="37">
+        <f>SUM(J44:J48)</f>
+        <v/>
+      </c>
+      <c r="K49" s="37">
+        <f>SUM(K44:K48)</f>
+        <v/>
+      </c>
+      <c r="L49" s="37">
+        <f>SUM(L44:L48)</f>
+        <v/>
+      </c>
+      <c r="M49" s="37">
+        <f>SUM(M44:M48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="31" t="inlineStr">
+        <is>
+          <t>MONTHLY FLYWHEEL AFFILIATES</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="32" t="inlineStr">
+        <is>
+          <t>(Organic inbound affiliates per month)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="33" t="inlineStr">
+        <is>
+          <t>Flywheel</t>
+        </is>
+      </c>
+      <c r="B53" s="33" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C53" s="33" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D53" s="33" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E53" s="33" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F53" s="33" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="G53" s="33" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="H53" s="33" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="I53" s="33" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="J53" s="33" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="K53" s="33" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="L53" s="33" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="M53" s="33" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="34" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="B54" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="H54" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I54" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="K54" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="L54" s="38" t="n">
+        <v>30</v>
+      </c>
+      <c r="M54" s="38" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>LEGEND</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="62" ht="18.75" customHeight="1" s="30">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Yellow cells</t>
         </is>
       </c>
-      <c r="B43" s="10">
+      <c r="B62" s="10">
         <f>Editable inputs</f>
         <v/>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Green cells</t>
         </is>
       </c>
-      <c r="B44" s="11">
+      <c r="B63" s="11">
         <f>Calculated values</f>
         <v/>
       </c>
@@ -1256,33 +1765,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" style="29" min="1" max="1"/>
-    <col width="13" customWidth="1" style="29" min="2" max="14"/>
+    <col width="45" customWidth="1" style="30" min="1" max="1"/>
+    <col width="13" customWidth="1" style="30" min="2" max="4"/>
+    <col width="17.28515625" customWidth="1" style="30" min="5" max="5"/>
+    <col width="13" customWidth="1" style="30" min="6" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>VIP LEVEL CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="29">
+    <row r="3" ht="18.75" customHeight="1" s="30">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>LEVEL THRESHOLDS &amp; COMMISSION</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" s="29">
+    <row r="4" ht="47.25" customHeight="1" s="30">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Level #</t>
@@ -1303,7 +1814,7 @@
           <t>Base Commission %</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Avg Sales/Month</t>
         </is>
@@ -1324,7 +1835,7 @@
       <c r="D5" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1343,7 +1854,7 @@
       <c r="D6" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1362,7 +1873,7 @@
       <c r="D7" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1381,7 +1892,7 @@
       <c r="D8" s="5" t="n">
         <v>0.22</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1395,23 +1906,23 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="30">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>WELCOME REWARDS (Per Level)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="31.5" customHeight="1" s="29">
+    <row r="13" ht="31.5" customHeight="1" s="30">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -1490,13 +2001,13 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -1536,13 +2047,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -1578,7 +2089,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
@@ -1588,7 +2099,7 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
@@ -1634,7 +2145,7 @@
         <v>0.25</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2</v>
@@ -1674,107 +2185,46 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" s="29">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>WELCOME REWARD SUMMARY (Weighted by Level Distribution)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Weighted Avg Commission Boost %</t>
-        </is>
-      </c>
-      <c r="B22" s="13">
-        <f>SUMPRODUCT(C14:C18,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Weighted Avg Gift Card Value</t>
-        </is>
-      </c>
-      <c r="B23" s="14">
-        <f t="array" ref="B23">SUMPRODUCT(E14:E18*F14:F18,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Weighted Avg Spark Ads Value</t>
-        </is>
-      </c>
-      <c r="B24" s="14">
-        <f>SUMPRODUCT(I14:I18*J14:J18,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Weighted Avg Physical Gift Value</t>
-        </is>
-      </c>
-      <c r="B25" s="14">
-        <f>SUMPRODUCT(K14:K18*L14:L18,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Weighted Avg Experience Value</t>
-        </is>
-      </c>
-      <c r="B26" s="14">
-        <f>SUMPRODUCT(M14:M18*N14:N18,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" s="30"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
@@ -1790,32 +2240,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="29" min="1" max="10"/>
+    <col width="18" customWidth="1" style="30" min="1" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>MISSION CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="29">
+    <row r="3" ht="18.75" customHeight="1" s="30">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MISSIONS BY VIP LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1" s="29">
+    <row r="4" ht="31.5" customHeight="1" s="30">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>VIP Level</t>
@@ -1875,19 +2325,19 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Videos</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>One-time</t>
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
@@ -1895,7 +2345,7 @@
         </is>
       </c>
       <c r="G5" s="12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0</v>
@@ -1906,7 +2356,7 @@
         </is>
       </c>
       <c r="J5" s="14">
-        <f>IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -1918,19 +2368,19 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Likes</t>
+          <t>Videos</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>One-time</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -1938,7 +2388,7 @@
         </is>
       </c>
       <c r="G6" s="12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -1949,42 +2399,42 @@
         </is>
       </c>
       <c r="J6" s="14">
-        <f>IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Bronze</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Videos</t>
+          <t>Views</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>One-time</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Commission Boost</t>
+          <t>Discount</t>
         </is>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
@@ -1992,7 +2442,7 @@
         </is>
       </c>
       <c r="J7" s="14">
-        <f>IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2004,11 +2454,11 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Likes</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
@@ -2016,7 +2466,7 @@
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -2035,42 +2485,42 @@
         </is>
       </c>
       <c r="J8" s="14">
-        <f>IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Videos</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>One-time</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="E9" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Commission Boost</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Commission Boost</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.3</v>
-      </c>
       <c r="H9" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
@@ -2078,14 +2528,14 @@
         </is>
       </c>
       <c r="J9" s="14">
-        <f>IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -2094,7 +2544,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
@@ -2102,18 +2552,18 @@
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Spark Ads</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>50</v>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
@@ -2121,14 +2571,14 @@
         </is>
       </c>
       <c r="J10" s="14">
-        <f>IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -2137,15 +2587,15 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>One-time</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
@@ -2153,7 +2603,7 @@
         </is>
       </c>
       <c r="G11" s="12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -2164,42 +2614,42 @@
         </is>
       </c>
       <c r="J11" s="14">
-        <f>IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Videos</t>
+          <t>Views</t>
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Commission Boost</t>
+          <t>Discount</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
@@ -2207,42 +2657,42 @@
         </is>
       </c>
       <c r="J12" s="14">
-        <f>IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Videos</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>One-time</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Gift Card</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>300</v>
+          <t>Commission Boost</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
@@ -2250,23 +2700,23 @@
         </is>
       </c>
       <c r="J13" s="14">
-        <f>IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Views</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
@@ -2274,15 +2724,15 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Spark Ads</t>
+          <t>Gift Card</t>
         </is>
       </c>
       <c r="G14" s="12" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -2293,37 +2743,93 @@
         </is>
       </c>
       <c r="J14" s="14">
-        <f>IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="15">
-        <f>IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Videos</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Commission Boost</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J15" s="14">
+        <f>IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="15">
-        <f>IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J16" s="14">
+        <f>IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2338,7 +2844,7 @@
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="15">
-        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Revenue!$B$10,IF(F17="Discount",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2353,7 +2859,7 @@
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="15">
-        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Revenue!$B$10,IF(F18="Discount",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2368,7 +2874,7 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="15">
-        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Revenue!$B$10,IF(F19="Discount",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2383,7 +2889,7 @@
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="15">
-        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Revenue!$B$10,IF(F20="Discount",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2398,7 +2904,7 @@
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="15">
-        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Revenue!$B$10,IF(F21="Discount",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2413,7 +2919,7 @@
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="15">
-        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Revenue!$B$10,IF(F22="Discount",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2428,7 +2934,7 @@
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="15">
-        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Revenue!$B$10,IF(F23="Discount",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
     </row>
@@ -2443,283 +2949,180 @@
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="15">
-        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" s="29">
-      <c r="A27" s="1" t="inlineStr">
+        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Revenue!$B$10,IF(F24="Discount",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="4" t="n"/>
+      <c r="I25" s="4" t="n"/>
+      <c r="J25" s="15">
+        <f>IF(F25="Gift Card",G25,IF(F25="Spark Ads",G25,IF(F25="Commission Boost",G25*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A25,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="15">
+        <f>IF(F26="Gift Card",G26,IF(F26="Spark Ads",G26,IF(F26="Commission Boost",G26*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A26,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="30">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MISSION SUMMARY BY LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="31.5" customHeight="1" s="29">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="30" ht="31.5" customHeight="1" s="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Active Missions</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Avg Completion Rate</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Avg Cost per Completion</t>
         </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="B29" s="15">
-        <f>COUNTIFS(A$5:A$24,A29,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C29" s="9">
-        <f>IFERROR(AVERAGEIFS(E$5:E$24,A$5:A$24,A29,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="D29" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,A$5:A$24,A29,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="B30" s="15">
-        <f>COUNTIFS(A$5:A$24,A30,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C30" s="9">
-        <f>IFERROR(AVERAGEIFS(E$5:E$24,A$5:A$24,A30,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="D30" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,A$5:A$24,A30,I$5:I$24,"Yes"),0)</f>
-        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Bronze</t>
         </is>
       </c>
       <c r="B31" s="15">
-        <f>COUNTIFS(A$5:A$24,A31,I$5:I$24,"Yes")</f>
+        <f>COUNTIFS(A$6:A$26,A31,I$6:I$26,"Yes")</f>
         <v/>
       </c>
       <c r="C31" s="9">
-        <f>IFERROR(AVERAGEIFS(E$5:E$24,A$5:A$24,A31,I$5:I$24,"Yes"),0)</f>
+        <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A31,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
       <c r="D31" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,A$5:A$24,A31,I$5:I$24,"Yes"),0)</f>
+        <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A31,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B32" s="15">
-        <f>COUNTIFS(A$5:A$24,A32,I$5:I$24,"Yes")</f>
+        <f>COUNTIFS(A$6:A$26,A32,I$6:I$26,"Yes")</f>
         <v/>
       </c>
       <c r="C32" s="9">
-        <f>IFERROR(AVERAGEIFS(E$5:E$24,A$5:A$24,A32,I$5:I$24,"Yes"),0)</f>
+        <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A32,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
       <c r="D32" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,A$5:A$24,A32,I$5:I$24,"Yes"),0)</f>
+        <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A32,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B33" s="15">
+        <f>COUNTIFS(A$6:A$26,A33,I$6:I$26,"Yes")</f>
+        <v/>
+      </c>
+      <c r="C33" s="9">
+        <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A33,I$6:I$26,"Yes"),0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="14">
+        <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A33,I$6:I$26,"Yes"),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="B34" s="15">
+        <f>COUNTIFS(A$6:A$26,A34,I$6:I$26,"Yes")</f>
+        <v/>
+      </c>
+      <c r="C34" s="9">
+        <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A34,I$6:I$26,"Yes"),0)</f>
+        <v/>
+      </c>
+      <c r="D34" s="14">
+        <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A34,I$6:I$26,"Yes"),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
           <t>Diamond</t>
         </is>
       </c>
-      <c r="B33" s="15">
-        <f>COUNTIFS(A$5:A$24,A33,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C33" s="9">
-        <f>IFERROR(AVERAGEIFS(E$5:E$24,A$5:A$24,A33,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="D33" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,A$5:A$24,A33,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1" s="29">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>MISSION REWARD TYPE BREAKDOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="31.5" customHeight="1" s="29">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Reward Type</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>% of Total</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Avg Value</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Total Expected Cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Gift Card</t>
-        </is>
-      </c>
-      <c r="B38" s="15">
-        <f>COUNTIFS(F$5:F$24,A38,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C38" s="9">
-        <f>IFERROR(B38/SUM($B$38:$B$40),0)</f>
-        <v/>
-      </c>
-      <c r="D38" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,F$5:F$24,A38,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="E38" s="14">
-        <f>B38*D38</f>
-        <v/>
-      </c>
-      <c r="G38" s="21" t="inlineStr">
-        <is>
-          <t>Used in Costs</t>
-        </is>
+      <c r="B35" s="15">
+        <f>COUNTIFS(A$6:A$26,A35,I$6:I$26,"Yes")</f>
+        <v/>
+      </c>
+      <c r="C35" s="9">
+        <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A35,I$6:I$26,"Yes"),0)</f>
+        <v/>
+      </c>
+      <c r="D35" s="14">
+        <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A35,I$6:I$26,"Yes"),0)</f>
+        <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Commission Boost</t>
-        </is>
-      </c>
-      <c r="B39" s="15">
-        <f>COUNTIFS(F$5:F$24,A39,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C39" s="9">
-        <f>IFERROR(B39/SUM($B$38:$B$40),0)</f>
-        <v/>
-      </c>
-      <c r="D39" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,F$5:F$24,A39,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="E39" s="14">
-        <f>B39*D39</f>
-        <v/>
-      </c>
-      <c r="G39" s="21" t="inlineStr">
-        <is>
-          <t>Used in Costs</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mission Types: Videos, Likes, Sales, Views</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>Spark Ads</t>
-        </is>
-      </c>
-      <c r="B40" s="15">
-        <f>COUNTIFS(F$5:F$24,A40,I$5:I$24,"Yes")</f>
-        <v/>
-      </c>
-      <c r="C40" s="9">
-        <f>IFERROR(B40/SUM($B$38:$B$40),0)</f>
-        <v/>
-      </c>
-      <c r="D40" s="14">
-        <f>IFERROR(AVERAGEIFS(J$5:J$24,F$5:F$24,A40,I$5:I$24,"Yes"),0)</f>
-        <v/>
-      </c>
-      <c r="E40" s="14">
-        <f>B40*D40</f>
-        <v/>
-      </c>
-      <c r="G40" s="21" t="inlineStr">
-        <is>
-          <t>Used in Costs</t>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Repeatability: One-time, Weekly, Monthly</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B41" s="16">
-        <f>SUM(B38:B40)</f>
-        <v/>
-      </c>
-      <c r="C41" s="17">
-        <f>SUM(C38:C40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mission Types: Videos, Likes, Sales, Views</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Repeatability: One-time, Weekly, Monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Reward Types: Gift Card, Commission Boost, Spark Ads</t>
         </is>
@@ -2743,23 +3146,23 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="29" min="1" max="1"/>
-    <col width="12" customWidth="1" style="29" min="2" max="13"/>
+    <col width="35" customWidth="1" style="30" min="1" max="1"/>
+    <col width="12" customWidth="1" style="30" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>AFFILIATE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="29">
+    <row r="3" ht="15.75" customHeight="1" s="30">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -2827,7 +3230,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Samples Sent</t>
         </is>
@@ -2882,7 +3285,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>New Affiliates (from Samples)</t>
         </is>
@@ -2937,62 +3340,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Flywheel Affiliates</t>
         </is>
       </c>
       <c r="B6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!B$54</f>
         <v/>
       </c>
       <c r="C6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!C$54</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!D$54</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!E$54</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!F$54</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!G$54</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!H$54</f>
         <v/>
       </c>
       <c r="I6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!I$54</f>
         <v/>
       </c>
       <c r="J6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!J$54</f>
         <v/>
       </c>
       <c r="K6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!K$54</f>
         <v/>
       </c>
       <c r="L6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!L$54</f>
         <v/>
       </c>
       <c r="M6" s="15">
-        <f>Inputs!$B$8</f>
+        <f>Inputs!M$54</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Total New Affiliates</t>
         </is>
@@ -3052,7 +3455,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Churned Affiliates</t>
         </is>
@@ -3106,7 +3509,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Active Affiliates (End of Month)</t>
         </is>
@@ -3161,7 +3564,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Total Sales</t>
         </is>
@@ -3215,7 +3618,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="29">
+    <row r="11" ht="18.75" customHeight="1" s="30">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>--- Level Distribution ---</t>
@@ -3223,277 +3626,281 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>Affiliates at Bronze</t>
         </is>
       </c>
       <c r="B12" s="15">
-        <f>B9</f>
+        <f>ROUND(B9*Inputs!B$44,0)</f>
         <v/>
       </c>
       <c r="C12" s="15">
-        <f>ROUND(C9*Inputs!$B$34,0)</f>
+        <f>ROUND(C9*Inputs!C$44,0)</f>
         <v/>
       </c>
       <c r="D12" s="15">
-        <f>ROUND(D9*Inputs!$B$34,0)</f>
+        <f>ROUND(D9*Inputs!D$44,0)</f>
         <v/>
       </c>
       <c r="E12" s="15">
-        <f>ROUND(E9*Inputs!$B$34,0)</f>
+        <f>ROUND(E9*Inputs!E$44,0)</f>
         <v/>
       </c>
       <c r="F12" s="15">
-        <f>ROUND(F9*Inputs!$B$34,0)</f>
+        <f>ROUND(F9*Inputs!F$44,0)</f>
         <v/>
       </c>
       <c r="G12" s="15">
-        <f>ROUND(G9*Inputs!$B$34,0)</f>
+        <f>ROUND(G9*Inputs!G$44,0)</f>
         <v/>
       </c>
       <c r="H12" s="15">
-        <f>ROUND(H9*Inputs!$B$34,0)</f>
+        <f>ROUND(H9*Inputs!H$44,0)</f>
         <v/>
       </c>
       <c r="I12" s="15">
-        <f>ROUND(I9*Inputs!$B$34,0)</f>
+        <f>ROUND(I9*Inputs!I$44,0)</f>
         <v/>
       </c>
       <c r="J12" s="15">
-        <f>ROUND(J9*Inputs!$B$34,0)</f>
+        <f>ROUND(J9*Inputs!J$44,0)</f>
         <v/>
       </c>
       <c r="K12" s="15">
-        <f>ROUND(K9*Inputs!$B$34,0)</f>
+        <f>ROUND(K9*Inputs!K$44,0)</f>
         <v/>
       </c>
       <c r="L12" s="15">
-        <f>ROUND(L9*Inputs!$B$34,0)</f>
+        <f>ROUND(L9*Inputs!L$44,0)</f>
         <v/>
       </c>
       <c r="M12" s="15">
-        <f>ROUND(M9*Inputs!$B$34,0)</f>
+        <f>ROUND(M9*Inputs!M$44,0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="inlineStr">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Affiliates at Silver</t>
         </is>
       </c>
-      <c r="B13" s="15" t="n">
-        <v>0</v>
+      <c r="B13" s="15">
+        <f>ROUND(B9*Inputs!B$45,0)</f>
+        <v/>
       </c>
       <c r="C13" s="15">
-        <f>ROUND(C9*Inputs!$B$35,0)</f>
+        <f>ROUND(C9*Inputs!C$45,0)</f>
         <v/>
       </c>
       <c r="D13" s="15">
-        <f>ROUND(D9*Inputs!$B$35,0)</f>
+        <f>ROUND(D9*Inputs!D$45,0)</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>ROUND(E9*Inputs!$B$35,0)</f>
+        <f>ROUND(E9*Inputs!E$45,0)</f>
         <v/>
       </c>
       <c r="F13" s="15">
-        <f>ROUND(F9*Inputs!$B$35,0)</f>
+        <f>ROUND(F9*Inputs!F$45,0)</f>
         <v/>
       </c>
       <c r="G13" s="15">
-        <f>ROUND(G9*Inputs!$B$35,0)</f>
+        <f>ROUND(G9*Inputs!G$45,0)</f>
         <v/>
       </c>
       <c r="H13" s="15">
-        <f>ROUND(H9*Inputs!$B$35,0)</f>
+        <f>ROUND(H9*Inputs!H$45,0)</f>
         <v/>
       </c>
       <c r="I13" s="15">
-        <f>ROUND(I9*Inputs!$B$35,0)</f>
+        <f>ROUND(I9*Inputs!I$45,0)</f>
         <v/>
       </c>
       <c r="J13" s="15">
-        <f>ROUND(J9*Inputs!$B$35,0)</f>
+        <f>ROUND(J9*Inputs!J$45,0)</f>
         <v/>
       </c>
       <c r="K13" s="15">
-        <f>ROUND(K9*Inputs!$B$35,0)</f>
+        <f>ROUND(K9*Inputs!K$45,0)</f>
         <v/>
       </c>
       <c r="L13" s="15">
-        <f>ROUND(L9*Inputs!$B$35,0)</f>
+        <f>ROUND(L9*Inputs!L$45,0)</f>
         <v/>
       </c>
       <c r="M13" s="15">
-        <f>ROUND(M9*Inputs!$B$35,0)</f>
+        <f>ROUND(M9*Inputs!M$45,0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Affiliates at Gold</t>
         </is>
       </c>
-      <c r="B14" s="15" t="n">
-        <v>0</v>
+      <c r="B14" s="15">
+        <f>ROUND(B9*Inputs!B$46,0)</f>
+        <v/>
       </c>
       <c r="C14" s="15">
-        <f>ROUND(C9*Inputs!$B$36,0)</f>
+        <f>ROUND(C9*Inputs!C$46,0)</f>
         <v/>
       </c>
       <c r="D14" s="15">
-        <f>ROUND(D9*Inputs!$B$36,0)</f>
+        <f>ROUND(D9*Inputs!D$46,0)</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>ROUND(E9*Inputs!$B$36,0)</f>
+        <f>ROUND(E9*Inputs!E$46,0)</f>
         <v/>
       </c>
       <c r="F14" s="15">
-        <f>ROUND(F9*Inputs!$B$36,0)</f>
+        <f>ROUND(F9*Inputs!F$46,0)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>ROUND(G9*Inputs!$B$36,0)</f>
+        <f>ROUND(G9*Inputs!G$46,0)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>ROUND(H9*Inputs!$B$36,0)</f>
+        <f>ROUND(H9*Inputs!H$46,0)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>ROUND(I9*Inputs!$B$36,0)</f>
+        <f>ROUND(I9*Inputs!I$46,0)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>ROUND(J9*Inputs!$B$36,0)</f>
+        <f>ROUND(J9*Inputs!J$46,0)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>ROUND(K9*Inputs!$B$36,0)</f>
+        <f>ROUND(K9*Inputs!K$46,0)</f>
         <v/>
       </c>
       <c r="L14" s="15">
-        <f>ROUND(L9*Inputs!$B$36,0)</f>
+        <f>ROUND(L9*Inputs!L$46,0)</f>
         <v/>
       </c>
       <c r="M14" s="15">
-        <f>ROUND(M9*Inputs!$B$36,0)</f>
+        <f>ROUND(M9*Inputs!M$46,0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Affiliates at Platinum</t>
         </is>
       </c>
-      <c r="B15" s="15" t="n">
-        <v>0</v>
+      <c r="B15" s="15">
+        <f>ROUND(B9*Inputs!B$47,0)</f>
+        <v/>
       </c>
       <c r="C15" s="15">
-        <f>ROUND(C9*Inputs!$B$37,0)</f>
+        <f>ROUND(C9*Inputs!C$47,0)</f>
         <v/>
       </c>
       <c r="D15" s="15">
-        <f>ROUND(D9*Inputs!$B$37,0)</f>
+        <f>ROUND(D9*Inputs!D$47,0)</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>ROUND(E9*Inputs!$B$37,0)</f>
+        <f>ROUND(E9*Inputs!E$47,0)</f>
         <v/>
       </c>
       <c r="F15" s="15">
-        <f>ROUND(F9*Inputs!$B$37,0)</f>
+        <f>ROUND(F9*Inputs!F$47,0)</f>
         <v/>
       </c>
       <c r="G15" s="15">
-        <f>ROUND(G9*Inputs!$B$37,0)</f>
+        <f>ROUND(G9*Inputs!G$47,0)</f>
         <v/>
       </c>
       <c r="H15" s="15">
-        <f>ROUND(H9*Inputs!$B$37,0)</f>
+        <f>ROUND(H9*Inputs!H$47,0)</f>
         <v/>
       </c>
       <c r="I15" s="15">
-        <f>ROUND(I9*Inputs!$B$37,0)</f>
+        <f>ROUND(I9*Inputs!I$47,0)</f>
         <v/>
       </c>
       <c r="J15" s="15">
-        <f>ROUND(J9*Inputs!$B$37,0)</f>
+        <f>ROUND(J9*Inputs!J$47,0)</f>
         <v/>
       </c>
       <c r="K15" s="15">
-        <f>ROUND(K9*Inputs!$B$37,0)</f>
+        <f>ROUND(K9*Inputs!K$47,0)</f>
         <v/>
       </c>
       <c r="L15" s="15">
-        <f>ROUND(L9*Inputs!$B$37,0)</f>
+        <f>ROUND(L9*Inputs!L$47,0)</f>
         <v/>
       </c>
       <c r="M15" s="15">
-        <f>ROUND(M9*Inputs!$B$37,0)</f>
+        <f>ROUND(M9*Inputs!M$47,0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>Affiliates at Diamond</t>
         </is>
       </c>
-      <c r="B16" s="15" t="n">
-        <v>0</v>
+      <c r="B16" s="15">
+        <f>ROUND(B9*Inputs!B$48,0)</f>
+        <v/>
       </c>
       <c r="C16" s="15">
-        <f>ROUND(C9*Inputs!$B$38,0)</f>
+        <f>ROUND(C9*Inputs!C$48,0)</f>
         <v/>
       </c>
       <c r="D16" s="15">
-        <f>ROUND(D9*Inputs!$B$38,0)</f>
+        <f>ROUND(D9*Inputs!D$48,0)</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>ROUND(E9*Inputs!$B$38,0)</f>
+        <f>ROUND(E9*Inputs!E$48,0)</f>
         <v/>
       </c>
       <c r="F16" s="15">
-        <f>ROUND(F9*Inputs!$B$38,0)</f>
+        <f>ROUND(F9*Inputs!F$48,0)</f>
         <v/>
       </c>
       <c r="G16" s="15">
-        <f>ROUND(G9*Inputs!$B$38,0)</f>
+        <f>ROUND(G9*Inputs!G$48,0)</f>
         <v/>
       </c>
       <c r="H16" s="15">
-        <f>ROUND(H9*Inputs!$B$38,0)</f>
+        <f>ROUND(H9*Inputs!H$48,0)</f>
         <v/>
       </c>
       <c r="I16" s="15">
-        <f>ROUND(I9*Inputs!$B$38,0)</f>
+        <f>ROUND(I9*Inputs!I$48,0)</f>
         <v/>
       </c>
       <c r="J16" s="15">
-        <f>ROUND(J9*Inputs!$B$38,0)</f>
+        <f>ROUND(J9*Inputs!J$48,0)</f>
         <v/>
       </c>
       <c r="K16" s="15">
-        <f>ROUND(K9*Inputs!$B$38,0)</f>
+        <f>ROUND(K9*Inputs!K$48,0)</f>
         <v/>
       </c>
       <c r="L16" s="15">
-        <f>ROUND(L9*Inputs!$B$38,0)</f>
+        <f>ROUND(L9*Inputs!L$48,0)</f>
         <v/>
       </c>
       <c r="M16" s="15">
-        <f>ROUND(M9*Inputs!$B$38,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="29">
+        <f>ROUND(M9*Inputs!M$48,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="30">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>--- Level Events ---</t>
@@ -3501,7 +3908,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>New Affiliate Level-Ups (to Bronze)</t>
         </is>
@@ -3556,7 +3963,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>Promotion Events (Bronze to higher)</t>
         </is>
@@ -3610,7 +4017,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Total Level-Up Events</t>
         </is>
@@ -3665,7 +4072,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Demotion Events</t>
         </is>
@@ -3735,24 +4142,24 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" style="29" min="1" max="1"/>
-    <col width="12" customWidth="1" style="29" min="2" max="13"/>
+    <col width="38" customWidth="1" style="30" min="1" max="1"/>
+    <col width="12" customWidth="1" style="30" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>REWARD TRIGGERS (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="29">
+    <row r="3" ht="15.75" customHeight="1" s="30">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -3819,7 +4226,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="29">
+    <row r="4" ht="18.75" customHeight="1" s="30">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- WELCOME REWARDS (per level-up) ---</t>
@@ -3827,339 +4234,339 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Commission Boosts Triggered</t>
         </is>
       </c>
       <c r="B5" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$B$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$B$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C5" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$B$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$B$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D5" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$B$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$B$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E5" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$B$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$B$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F5" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$B$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$B$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G5" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$B$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$B$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H5" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$B$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$B$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I5" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$B$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$B$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J5" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$B$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$B$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K5" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$B$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$B$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L5" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$B$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$B$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M5" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$B$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$B$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Gift Cards Triggered</t>
         </is>
       </c>
       <c r="B6" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$E$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$E$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C6" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$E$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$E$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$E$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$E$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$E$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$E$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$E$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$E$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$E$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$E$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$E$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$E$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I6" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$E$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$E$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J6" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$E$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$E$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K6" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$E$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$E$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L6" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$E$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$E$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M6" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$E$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$E$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Discount Coupons Triggered</t>
         </is>
       </c>
       <c r="B7" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$G$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$G$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C7" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$G$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$G$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D7" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$G$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$G$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E7" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$G$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$G$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F7" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$G$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$G$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G7" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$G$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$G$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H7" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$G$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$G$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I7" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$G$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$G$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J7" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$G$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$G$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K7" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$G$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$G$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L7" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$G$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$G$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M7" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$G$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$G$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Spark Ads Triggered</t>
         </is>
       </c>
       <c r="B8" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$I$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$I$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C8" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$I$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$I$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D8" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$I$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$I$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E8" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$I$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$I$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F8" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$I$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$I$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G8" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$I$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$I$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$I$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$I$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I8" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$I$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$I$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J8" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$I$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$I$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K8" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$I$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$I$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L8" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$I$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$I$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M8" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$I$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$I$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Physical Gifts Triggered</t>
         </is>
       </c>
       <c r="B9" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$K$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$K$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C9" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$K$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$K$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D9" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$K$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$K$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E9" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$K$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$K$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F9" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$K$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$K$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G9" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$K$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$K$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H9" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$K$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$K$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I9" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$K$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$K$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J9" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$K$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$K$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K9" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$K$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$K$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L9" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$K$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$K$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M9" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$K$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$K$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Experiences Triggered</t>
         </is>
       </c>
       <c r="B10" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$M$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$M$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
         <v/>
       </c>
       <c r="C10" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$M$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$M$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
         <v/>
       </c>
       <c r="D10" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$M$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$M$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
         <v/>
       </c>
       <c r="E10" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$M$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$M$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
         <v/>
       </c>
       <c r="F10" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$M$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$M$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
         <v/>
       </c>
       <c r="G10" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$M$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$M$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
         <v/>
       </c>
       <c r="H10" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$M$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$M$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
         <v/>
       </c>
       <c r="I10" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$M$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$M$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
         <v/>
       </c>
       <c r="J10" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$M$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$M$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
         <v/>
       </c>
       <c r="K10" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$M$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$M$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
         <v/>
       </c>
       <c r="L10" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$M$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$M$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
         <v/>
       </c>
       <c r="M10" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$M$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!$B$35:$B$38)/SUM(Inputs!$B$35:$B$38),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$M$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="29">
+      <c r="A11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="30">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- MISSION COMPLETIONS ---</t>
@@ -4167,282 +4574,282 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="inlineStr">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Mission Completions (Bronze)</t>
         </is>
       </c>
       <c r="B13" s="15">
-        <f>ROUND('Affiliate Projection'!B12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!B12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="C13" s="15">
-        <f>ROUND('Affiliate Projection'!C12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!C12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="D13" s="15">
-        <f>ROUND('Affiliate Projection'!D12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!D12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>ROUND('Affiliate Projection'!E12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!E12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="F13" s="15">
-        <f>ROUND('Affiliate Projection'!F12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!F12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="G13" s="15">
-        <f>ROUND('Affiliate Projection'!G12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!G12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="H13" s="15">
-        <f>ROUND('Affiliate Projection'!H12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!H12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="I13" s="15">
-        <f>ROUND('Affiliate Projection'!I12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!I12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="J13" s="15">
-        <f>ROUND('Affiliate Projection'!J12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!J12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="K13" s="15">
-        <f>ROUND('Affiliate Projection'!K12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!K12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="L13" s="15">
-        <f>ROUND('Affiliate Projection'!L12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!L12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="M13" s="15">
-        <f>ROUND('Affiliate Projection'!M12*Missions!$B$29*Missions!$C$29,0)</f>
+        <f>ROUND('Affiliate Projection'!M12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Mission Completions (Silver)</t>
         </is>
       </c>
       <c r="B14" s="15">
-        <f>ROUND('Affiliate Projection'!B13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!B13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="C14" s="15">
-        <f>ROUND('Affiliate Projection'!C13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!C13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="D14" s="15">
-        <f>ROUND('Affiliate Projection'!D13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!D13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>ROUND('Affiliate Projection'!E13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!E13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="F14" s="15">
-        <f>ROUND('Affiliate Projection'!F13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!F13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>ROUND('Affiliate Projection'!G13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!G13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>ROUND('Affiliate Projection'!H13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!H13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>ROUND('Affiliate Projection'!I13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!I13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>ROUND('Affiliate Projection'!J13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!J13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>ROUND('Affiliate Projection'!K13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!K13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="L14" s="15">
-        <f>ROUND('Affiliate Projection'!L13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!L13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="M14" s="15">
-        <f>ROUND('Affiliate Projection'!M13*Missions!$B$30*Missions!$C$30,0)</f>
+        <f>ROUND('Affiliate Projection'!M13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Mission Completions (Gold)</t>
         </is>
       </c>
       <c r="B15" s="15">
-        <f>ROUND('Affiliate Projection'!B14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!B14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="C15" s="15">
-        <f>ROUND('Affiliate Projection'!C14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!C14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="D15" s="15">
-        <f>ROUND('Affiliate Projection'!D14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!D14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>ROUND('Affiliate Projection'!E14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!E14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="F15" s="15">
-        <f>ROUND('Affiliate Projection'!F14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!F14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="G15" s="15">
-        <f>ROUND('Affiliate Projection'!G14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!G14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="H15" s="15">
-        <f>ROUND('Affiliate Projection'!H14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!H14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="I15" s="15">
-        <f>ROUND('Affiliate Projection'!I14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!I14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="J15" s="15">
-        <f>ROUND('Affiliate Projection'!J14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!J14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="K15" s="15">
-        <f>ROUND('Affiliate Projection'!K14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!K14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="L15" s="15">
-        <f>ROUND('Affiliate Projection'!L14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!L14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="M15" s="15">
-        <f>ROUND('Affiliate Projection'!M14*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!M14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>Mission Completions (Platinum)</t>
         </is>
       </c>
       <c r="B16" s="15">
-        <f>ROUND('Affiliate Projection'!B15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!B15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="C16" s="15">
-        <f>ROUND('Affiliate Projection'!C15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!C15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="D16" s="15">
-        <f>ROUND('Affiliate Projection'!D15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!D15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>ROUND('Affiliate Projection'!E15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!E15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="F16" s="15">
-        <f>ROUND('Affiliate Projection'!F15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!F15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="G16" s="15">
-        <f>ROUND('Affiliate Projection'!G15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!G15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="H16" s="15">
-        <f>ROUND('Affiliate Projection'!H15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!H15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="I16" s="15">
-        <f>ROUND('Affiliate Projection'!I15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!I15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="J16" s="15">
-        <f>ROUND('Affiliate Projection'!J15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!J15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="K16" s="15">
-        <f>ROUND('Affiliate Projection'!K15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!K15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="L16" s="15">
-        <f>ROUND('Affiliate Projection'!L15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!L15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="M16" s="15">
-        <f>ROUND('Affiliate Projection'!M15*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!M15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Mission Completions (Diamond)</t>
         </is>
       </c>
       <c r="B17" s="15">
-        <f>ROUND('Affiliate Projection'!B16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!B16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="C17" s="15">
-        <f>ROUND('Affiliate Projection'!C16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!C16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="D17" s="15">
-        <f>ROUND('Affiliate Projection'!D16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!D16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="E17" s="15">
-        <f>ROUND('Affiliate Projection'!E16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!E16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="F17" s="15">
-        <f>ROUND('Affiliate Projection'!F16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!F16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="G17" s="15">
-        <f>ROUND('Affiliate Projection'!G16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!G16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="H17" s="15">
-        <f>ROUND('Affiliate Projection'!H16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!H16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="I17" s="15">
-        <f>ROUND('Affiliate Projection'!I16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!I16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="J17" s="15">
-        <f>ROUND('Affiliate Projection'!J16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!J16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="K17" s="15">
-        <f>ROUND('Affiliate Projection'!K16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!K16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="L17" s="15">
-        <f>ROUND('Affiliate Projection'!L16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!L16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="M17" s="15">
-        <f>ROUND('Affiliate Projection'!M16*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!M16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>Total Mission Completions</t>
         </is>
@@ -4513,23 +4920,23 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="29" min="1" max="1"/>
-    <col width="12" customWidth="1" style="29" min="2" max="13"/>
+    <col width="35" customWidth="1" style="30" min="1" max="1"/>
+    <col width="12" customWidth="1" style="30" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>REVENUE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="29">
+    <row r="3" ht="15.75" customHeight="1" s="30">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -4597,7 +5004,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Total Sales Volume</t>
         </is>
@@ -4652,7 +5059,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Gross AOV</t>
         </is>
@@ -4707,117 +5114,117 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Gross Revenue</t>
         </is>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <f>B4*B5</f>
         <v/>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>C4*C5</f>
         <v/>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>D4*D5</f>
         <v/>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>E4*E5</f>
         <v/>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <f>F4*F5</f>
         <v/>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <f>G4*G5</f>
         <v/>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>H4*H5</f>
         <v/>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f>I4*I5</f>
         <v/>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <f>J4*J5</f>
         <v/>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="17">
         <f>K4*K5</f>
         <v/>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <f>L4*L5</f>
         <v/>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <f>M4*M5</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Avg Discount % (when redeemed)</t>
         </is>
       </c>
       <c r="B7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$44:B$48)</f>
         <v/>
       </c>
       <c r="C7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$44:C$48)</f>
         <v/>
       </c>
       <c r="D7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$44:D$48)</f>
         <v/>
       </c>
       <c r="E7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$44:E$48)</f>
         <v/>
       </c>
       <c r="F7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$44:F$48)</f>
         <v/>
       </c>
       <c r="G7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$44:G$48)</f>
         <v/>
       </c>
       <c r="H7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$44:H$48)</f>
         <v/>
       </c>
       <c r="I7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$44:I$48)</f>
         <v/>
       </c>
       <c r="J7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$44:J$48)</f>
         <v/>
       </c>
       <c r="K7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$44:K$48)</f>
         <v/>
       </c>
       <c r="L7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$44:L$48)</f>
         <v/>
       </c>
       <c r="M7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!$B$34:$B$38)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$44:M$48)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Discount Redemption Rate</t>
         </is>
@@ -4872,7 +5279,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Discounted Sales Count</t>
         </is>
@@ -4927,7 +5334,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Net AOV (weighted avg)</t>
         </is>
@@ -4982,111 +5389,111 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <f>B4*B10</f>
         <v/>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <f>C4*C10</f>
         <v/>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <f>D4*D10</f>
         <v/>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <f>E4*E10</f>
         <v/>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <f>F4*F10</f>
         <v/>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <f>G4*G10</f>
         <v/>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>H4*H10</f>
         <v/>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f>I4*I10</f>
         <v/>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <f>J4*J10</f>
         <v/>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <f>K4*K10</f>
         <v/>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <f>L4*L10</f>
         <v/>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <f>M4*M10</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>Discount Margin Erosion</t>
         </is>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <f>B6-B11</f>
         <v/>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <f>C6-C11</f>
         <v/>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <f>D6-D11</f>
         <v/>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f>E6-E11</f>
         <v/>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <f>F6-F11</f>
         <v/>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <f>G6-G11</f>
         <v/>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>H6-H11</f>
         <v/>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f>I6-I11</f>
         <v/>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <f>J6-J11</f>
         <v/>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <f>K6-K11</f>
         <v/>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <f>L6-L11</f>
         <v/>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <f>M6-M11</f>
         <v/>
       </c>
@@ -5105,26 +5512,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="29" min="1" max="1"/>
-    <col width="12" customWidth="1" style="29" min="2" max="13"/>
+    <col width="35" customWidth="1" style="30" min="1" max="1"/>
+    <col width="12" customWidth="1" style="30" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>COST PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="29">
+    <row r="3" ht="15.75" customHeight="1" s="30">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5191,7 +5598,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="29">
+    <row r="4" ht="18.75" customHeight="1" s="30">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- CM1 COSTS (Per Sale) ---</t>
@@ -5199,912 +5606,967 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Base Commission Cost</t>
         </is>
       </c>
-      <c r="B5" s="19">
-        <f>'Affiliate Projection'!B10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!B10</f>
-        <v/>
-      </c>
-      <c r="C5" s="19">
-        <f>'Affiliate Projection'!C10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!C10</f>
-        <v/>
-      </c>
-      <c r="D5" s="19">
-        <f>'Affiliate Projection'!D10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!D10</f>
-        <v/>
-      </c>
-      <c r="E5" s="19">
-        <f>'Affiliate Projection'!E10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!E10</f>
-        <v/>
-      </c>
-      <c r="F5" s="19">
-        <f>'Affiliate Projection'!F10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!F10</f>
-        <v/>
-      </c>
-      <c r="G5" s="19">
-        <f>'Affiliate Projection'!G10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!G10</f>
-        <v/>
-      </c>
-      <c r="H5" s="19">
-        <f>'Affiliate Projection'!H10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!H10</f>
-        <v/>
-      </c>
-      <c r="I5" s="19">
-        <f>'Affiliate Projection'!I10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!I10</f>
-        <v/>
-      </c>
-      <c r="J5" s="19">
-        <f>'Affiliate Projection'!J10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!J10</f>
-        <v/>
-      </c>
-      <c r="K5" s="19">
-        <f>'Affiliate Projection'!K10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!K10</f>
-        <v/>
-      </c>
-      <c r="L5" s="19">
-        <f>'Affiliate Projection'!L10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!L10</f>
-        <v/>
-      </c>
-      <c r="M5" s="19">
-        <f>'Affiliate Projection'!M10*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)*Revenue!M10</f>
+      <c r="B5" s="17">
+        <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$44:B$48)</f>
+        <v/>
+      </c>
+      <c r="C5" s="17">
+        <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$44:C$48)</f>
+        <v/>
+      </c>
+      <c r="D5" s="17">
+        <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$44:D$48)</f>
+        <v/>
+      </c>
+      <c r="E5" s="17">
+        <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$44:E$48)</f>
+        <v/>
+      </c>
+      <c r="F5" s="17">
+        <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$44:F$48)</f>
+        <v/>
+      </c>
+      <c r="G5" s="17">
+        <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$44:G$48)</f>
+        <v/>
+      </c>
+      <c r="H5" s="17">
+        <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$44:H$48)</f>
+        <v/>
+      </c>
+      <c r="I5" s="17">
+        <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$44:I$48)</f>
+        <v/>
+      </c>
+      <c r="J5" s="17">
+        <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$44:J$48)</f>
+        <v/>
+      </c>
+      <c r="K5" s="17">
+        <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$44:K$48)</f>
+        <v/>
+      </c>
+      <c r="L5" s="17">
+        <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$44:L$48)</f>
+        <v/>
+      </c>
+      <c r="M5" s="17">
+        <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$44:M$48)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Commission Boost Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B6" s="19">
-        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!B10</f>
-        <v/>
-      </c>
-      <c r="C6" s="19">
-        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!C10</f>
-        <v/>
-      </c>
-      <c r="D6" s="19">
-        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!D10</f>
-        <v/>
-      </c>
-      <c r="E6" s="19">
-        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!E10</f>
-        <v/>
-      </c>
-      <c r="F6" s="19">
-        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!F10</f>
-        <v/>
-      </c>
-      <c r="G6" s="19">
-        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!G10</f>
-        <v/>
-      </c>
-      <c r="H6" s="19">
-        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!H10</f>
-        <v/>
-      </c>
-      <c r="I6" s="19">
-        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!I10</f>
-        <v/>
-      </c>
-      <c r="J6" s="19">
-        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!J10</f>
-        <v/>
-      </c>
-      <c r="K6" s="19">
-        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!K10</f>
-        <v/>
-      </c>
-      <c r="L6" s="19">
-        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!L10</f>
-        <v/>
-      </c>
-      <c r="M6" s="19">
-        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!$B$34:$B$38)*'VIP Levels'!$B$22*Revenue!M10</f>
+      <c r="B6" s="17">
+        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!B$44:B$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!B$44:B$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!B$44:B$48)*Revenue!B10</f>
+        <v/>
+      </c>
+      <c r="C6" s="17">
+        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!C$44:C$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!C$44:C$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!C$44:C$48)*Revenue!C10</f>
+        <v/>
+      </c>
+      <c r="D6" s="17">
+        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!D$44:D$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!D$44:D$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!D$44:D$48)*Revenue!D10</f>
+        <v/>
+      </c>
+      <c r="E6" s="17">
+        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!E$44:E$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!E$44:E$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!E$44:E$48)*Revenue!E10</f>
+        <v/>
+      </c>
+      <c r="F6" s="17">
+        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!F$44:F$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!F$44:F$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!F$44:F$48)*Revenue!F10</f>
+        <v/>
+      </c>
+      <c r="G6" s="17">
+        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!G$44:G$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!G$44:G$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!G$44:G$48)*Revenue!G10</f>
+        <v/>
+      </c>
+      <c r="H6" s="17">
+        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!H$44:H$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!H$44:H$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!H$44:H$48)*Revenue!H10</f>
+        <v/>
+      </c>
+      <c r="I6" s="17">
+        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!I$44:I$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!I$44:I$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!I$44:I$48)*Revenue!I10</f>
+        <v/>
+      </c>
+      <c r="J6" s="17">
+        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!J$44:J$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!J$44:J$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!J$44:J$48)*Revenue!J10</f>
+        <v/>
+      </c>
+      <c r="K6" s="17">
+        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!K$44:K$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!K$44:K$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!K$44:K$48)*Revenue!K10</f>
+        <v/>
+      </c>
+      <c r="L6" s="17">
+        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!L$44:L$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!L$44:L$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!L$44:L$48)*Revenue!L10</f>
+        <v/>
+      </c>
+      <c r="M6" s="17">
+        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!M$44:M$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!M$44:M$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!M$44:M$48)*Revenue!M10</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Commission Boost Cost (Missions)</t>
         </is>
       </c>
-      <c r="B7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="C7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="D7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="E7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="F7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="G7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="H7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="I7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="J7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="K7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="L7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="M7" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Commission Boost")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
+      <c r="B7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M7" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Discount Cost (Margin Erosion)</t>
         </is>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <f>Revenue!B12</f>
         <v/>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>Revenue!C12</f>
         <v/>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>Revenue!D12</f>
         <v/>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>Revenue!E12</f>
         <v/>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <f>Revenue!F12</f>
         <v/>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <f>Revenue!G12</f>
         <v/>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>Revenue!H12</f>
         <v/>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <f>Revenue!I12</f>
         <v/>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <f>Revenue!J12</f>
         <v/>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <f>Revenue!K12</f>
         <v/>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <f>Revenue!L12</f>
         <v/>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <f>Revenue!M12</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
+        <is>
+          <t>Discount Cost (Missions)</t>
+        </is>
+      </c>
+      <c r="B9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M9" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Total CM1 Costs</t>
         </is>
       </c>
-      <c r="B9" s="20">
-        <f>SUM(B5:B8)</f>
-        <v/>
-      </c>
-      <c r="C9" s="20">
-        <f>SUM(C5:C8)</f>
-        <v/>
-      </c>
-      <c r="D9" s="20">
-        <f>SUM(D5:D8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="20">
-        <f>SUM(E5:E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="20">
-        <f>SUM(F5:F8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="20">
-        <f>SUM(G5:G8)</f>
-        <v/>
-      </c>
-      <c r="H9" s="20">
-        <f>SUM(H5:H8)</f>
-        <v/>
-      </c>
-      <c r="I9" s="20">
-        <f>SUM(I5:I8)</f>
-        <v/>
-      </c>
-      <c r="J9" s="20">
-        <f>SUM(J5:J8)</f>
-        <v/>
-      </c>
-      <c r="K9" s="20">
-        <f>SUM(K5:K8)</f>
-        <v/>
-      </c>
-      <c r="L9" s="20">
-        <f>SUM(L5:L8)</f>
-        <v/>
-      </c>
-      <c r="M9" s="20">
-        <f>SUM(M5:M8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="29">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="B10" s="18">
+        <f>SUM(B5:B9)</f>
+        <v/>
+      </c>
+      <c r="C10" s="18">
+        <f>SUM(C5:C9)</f>
+        <v/>
+      </c>
+      <c r="D10" s="18">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E10" s="18">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F10" s="18">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H10" s="18">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I10" s="18">
+        <f>SUM(I5:I9)</f>
+        <v/>
+      </c>
+      <c r="J10" s="18">
+        <f>SUM(J5:J9)</f>
+        <v/>
+      </c>
+      <c r="K10" s="18">
+        <f>SUM(K5:K9)</f>
+        <v/>
+      </c>
+      <c r="L10" s="18">
+        <f>SUM(L5:L9)</f>
+        <v/>
+      </c>
+      <c r="M10" s="18">
+        <f>SUM(M5:M9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="30">
+      <c r="A11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="30">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- LOYALTY PROGRAM COSTS ---</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="18" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Gift Card Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B12" s="19">
-        <f>'Reward Triggers'!B6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="C12" s="19">
-        <f>'Reward Triggers'!C6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="D12" s="19">
-        <f>'Reward Triggers'!D6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="E12" s="19">
-        <f>'Reward Triggers'!E6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="F12" s="19">
-        <f>'Reward Triggers'!F6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="G12" s="19">
-        <f>'Reward Triggers'!G6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="H12" s="19">
-        <f>'Reward Triggers'!H6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="I12" s="19">
-        <f>'Reward Triggers'!I6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="J12" s="19">
-        <f>'Reward Triggers'!J6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="K12" s="19">
-        <f>'Reward Triggers'!K6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="L12" s="19">
-        <f>'Reward Triggers'!L6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-      <c r="M12" s="19">
-        <f>'Reward Triggers'!M6*'VIP Levels'!$B$23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="inlineStr">
+      <c r="B13" s="17">
+        <f>'Reward Triggers'!B6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!B$44:B$48)</f>
+        <v/>
+      </c>
+      <c r="C13" s="17">
+        <f>'Reward Triggers'!C6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!C$44:C$48)</f>
+        <v/>
+      </c>
+      <c r="D13" s="17">
+        <f>'Reward Triggers'!D6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!D$44:D$48)</f>
+        <v/>
+      </c>
+      <c r="E13" s="17">
+        <f>'Reward Triggers'!E6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!E$44:E$48)</f>
+        <v/>
+      </c>
+      <c r="F13" s="17">
+        <f>'Reward Triggers'!F6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!F$44:F$48)</f>
+        <v/>
+      </c>
+      <c r="G13" s="17">
+        <f>'Reward Triggers'!G6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!G$44:G$48)</f>
+        <v/>
+      </c>
+      <c r="H13" s="17">
+        <f>'Reward Triggers'!H6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!H$44:H$48)</f>
+        <v/>
+      </c>
+      <c r="I13" s="17">
+        <f>'Reward Triggers'!I6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!I$44:I$48)</f>
+        <v/>
+      </c>
+      <c r="J13" s="17">
+        <f>'Reward Triggers'!J6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!J$44:J$48)</f>
+        <v/>
+      </c>
+      <c r="K13" s="17">
+        <f>'Reward Triggers'!K6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!K$44:K$48)</f>
+        <v/>
+      </c>
+      <c r="L13" s="17">
+        <f>'Reward Triggers'!L6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!L$44:L$48)</f>
+        <v/>
+      </c>
+      <c r="M13" s="17">
+        <f>'Reward Triggers'!M6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!M$44:M$48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Gift Card Cost (Missions)</t>
         </is>
       </c>
-      <c r="B13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="C13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="D13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="E13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="F13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="G13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="H13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="I13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="J13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="K13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="L13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="M13" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Gift Card")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="18" t="inlineStr">
+      <c r="B14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M14" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Total Gift Card Cost</t>
         </is>
       </c>
-      <c r="B14" s="19">
-        <f>B12+B13</f>
-        <v/>
-      </c>
-      <c r="C14" s="19">
-        <f>C12+C13</f>
-        <v/>
-      </c>
-      <c r="D14" s="19">
-        <f>D12+D13</f>
-        <v/>
-      </c>
-      <c r="E14" s="19">
-        <f>E12+E13</f>
-        <v/>
-      </c>
-      <c r="F14" s="19">
-        <f>F12+F13</f>
-        <v/>
-      </c>
-      <c r="G14" s="19">
-        <f>G12+G13</f>
-        <v/>
-      </c>
-      <c r="H14" s="19">
-        <f>H12+H13</f>
-        <v/>
-      </c>
-      <c r="I14" s="19">
-        <f>I12+I13</f>
-        <v/>
-      </c>
-      <c r="J14" s="19">
-        <f>J12+J13</f>
-        <v/>
-      </c>
-      <c r="K14" s="19">
-        <f>K12+K13</f>
-        <v/>
-      </c>
-      <c r="L14" s="19">
-        <f>L12+L13</f>
-        <v/>
-      </c>
-      <c r="M14" s="19">
-        <f>M12+M13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
+      <c r="B15" s="17">
+        <f>B13+B14</f>
+        <v/>
+      </c>
+      <c r="C15" s="17">
+        <f>C13+C14</f>
+        <v/>
+      </c>
+      <c r="D15" s="17">
+        <f>D13+D14</f>
+        <v/>
+      </c>
+      <c r="E15" s="17">
+        <f>E13+E14</f>
+        <v/>
+      </c>
+      <c r="F15" s="17">
+        <f>F13+F14</f>
+        <v/>
+      </c>
+      <c r="G15" s="17">
+        <f>G13+G14</f>
+        <v/>
+      </c>
+      <c r="H15" s="17">
+        <f>H13+H14</f>
+        <v/>
+      </c>
+      <c r="I15" s="17">
+        <f>I13+I14</f>
+        <v/>
+      </c>
+      <c r="J15" s="17">
+        <f>J13+J14</f>
+        <v/>
+      </c>
+      <c r="K15" s="17">
+        <f>K13+K14</f>
+        <v/>
+      </c>
+      <c r="L15" s="17">
+        <f>L13+L14</f>
+        <v/>
+      </c>
+      <c r="M15" s="17">
+        <f>M13+M14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>Total Loyalty Program Costs</t>
         </is>
       </c>
-      <c r="B15" s="20">
-        <f>B14</f>
-        <v/>
-      </c>
-      <c r="C15" s="20">
-        <f>C14</f>
-        <v/>
-      </c>
-      <c r="D15" s="20">
-        <f>D14</f>
-        <v/>
-      </c>
-      <c r="E15" s="20">
-        <f>E14</f>
-        <v/>
-      </c>
-      <c r="F15" s="20">
-        <f>F14</f>
-        <v/>
-      </c>
-      <c r="G15" s="20">
-        <f>G14</f>
-        <v/>
-      </c>
-      <c r="H15" s="20">
-        <f>H14</f>
-        <v/>
-      </c>
-      <c r="I15" s="20">
-        <f>I14</f>
-        <v/>
-      </c>
-      <c r="J15" s="20">
-        <f>J14</f>
-        <v/>
-      </c>
-      <c r="K15" s="20">
-        <f>K14</f>
-        <v/>
-      </c>
-      <c r="L15" s="20">
-        <f>L14</f>
-        <v/>
-      </c>
-      <c r="M15" s="20">
-        <f>M14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="29">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="B16" s="18">
+        <f>B15</f>
+        <v/>
+      </c>
+      <c r="C16" s="18">
+        <f>C15</f>
+        <v/>
+      </c>
+      <c r="D16" s="18">
+        <f>D15</f>
+        <v/>
+      </c>
+      <c r="E16" s="18">
+        <f>E15</f>
+        <v/>
+      </c>
+      <c r="F16" s="18">
+        <f>F15</f>
+        <v/>
+      </c>
+      <c r="G16" s="18">
+        <f>G15</f>
+        <v/>
+      </c>
+      <c r="H16" s="18">
+        <f>H15</f>
+        <v/>
+      </c>
+      <c r="I16" s="18">
+        <f>I15</f>
+        <v/>
+      </c>
+      <c r="J16" s="18">
+        <f>J15</f>
+        <v/>
+      </c>
+      <c r="K16" s="18">
+        <f>K15</f>
+        <v/>
+      </c>
+      <c r="L16" s="18">
+        <f>L15</f>
+        <v/>
+      </c>
+      <c r="M16" s="18">
+        <f>M15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="30">
+      <c r="A17" s="16" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="30">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>--- MARKETING OPEX ---</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>Spark Ads Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B18" s="19">
-        <f>'Reward Triggers'!B8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="C18" s="19">
-        <f>'Reward Triggers'!C8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="D18" s="19">
-        <f>'Reward Triggers'!D8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="E18" s="19">
-        <f>'Reward Triggers'!E8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="F18" s="19">
-        <f>'Reward Triggers'!F8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="G18" s="19">
-        <f>'Reward Triggers'!G8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="H18" s="19">
-        <f>'Reward Triggers'!H8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="I18" s="19">
-        <f>'Reward Triggers'!I8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="J18" s="19">
-        <f>'Reward Triggers'!J8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="K18" s="19">
-        <f>'Reward Triggers'!K8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="L18" s="19">
-        <f>'Reward Triggers'!L8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-      <c r="M18" s="19">
-        <f>'Reward Triggers'!M8*'VIP Levels'!$B$24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="inlineStr">
+      <c r="B19" s="17">
+        <f>'Reward Triggers'!B8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!B$44:B$48)</f>
+        <v/>
+      </c>
+      <c r="C19" s="17">
+        <f>'Reward Triggers'!C8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!C$44:C$48)</f>
+        <v/>
+      </c>
+      <c r="D19" s="17">
+        <f>'Reward Triggers'!D8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!D$44:D$48)</f>
+        <v/>
+      </c>
+      <c r="E19" s="17">
+        <f>'Reward Triggers'!E8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!E$44:E$48)</f>
+        <v/>
+      </c>
+      <c r="F19" s="17">
+        <f>'Reward Triggers'!F8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!F$44:F$48)</f>
+        <v/>
+      </c>
+      <c r="G19" s="17">
+        <f>'Reward Triggers'!G8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!G$44:G$48)</f>
+        <v/>
+      </c>
+      <c r="H19" s="17">
+        <f>'Reward Triggers'!H8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!H$44:H$48)</f>
+        <v/>
+      </c>
+      <c r="I19" s="17">
+        <f>'Reward Triggers'!I8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!I$44:I$48)</f>
+        <v/>
+      </c>
+      <c r="J19" s="17">
+        <f>'Reward Triggers'!J8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!J$44:J$48)</f>
+        <v/>
+      </c>
+      <c r="K19" s="17">
+        <f>'Reward Triggers'!K8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!K$44:K$48)</f>
+        <v/>
+      </c>
+      <c r="L19" s="17">
+        <f>'Reward Triggers'!L8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!L$44:L$48)</f>
+        <v/>
+      </c>
+      <c r="M19" s="17">
+        <f>'Reward Triggers'!M8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!M$44:M$48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Spark Ads Cost (Missions)</t>
         </is>
       </c>
-      <c r="B19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!B12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!B13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!B14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!B15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!B16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="C19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!C12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!C13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!C14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!C15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!C16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="D19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!D12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!D13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!D14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!D15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!D16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="E19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!E12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!E13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!E14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!E15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!E16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="F19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!F12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!F13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!F14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!F15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!F16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="G19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!G12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!G13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!G14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!G15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!G16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="H19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!H12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!H13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!H14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!H15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!H16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="I19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!I12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!I13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!I14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!I15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!I16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="J19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!J12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!J13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!J14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!J15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!J16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="K19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!K12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!K13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!K14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!K15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!K16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="L19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!L12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!L13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!L14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!L15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!L16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-      <c r="M19" s="19">
-        <f>SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Bronze")*'Affiliate Projection'!M12*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Silver")*'Affiliate Projection'!M13*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Gold")*'Affiliate Projection'!M14*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Platinum")*'Affiliate Projection'!M15*Missions!$E$5:$E$24*Missions!$J$5:$J$24)+SUMPRODUCT((Missions!$F$5:$F$24="Spark Ads")*(Missions!$A$5:$A$24="Diamond")*'Affiliate Projection'!M16*Missions!$E$5:$E$24*Missions!$J$5:$J$24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="18" t="inlineStr">
+      <c r="B20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M20" s="17">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Physical Gift Cost</t>
         </is>
       </c>
-      <c r="B20" s="19">
-        <f>'Reward Triggers'!B9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="C20" s="19">
-        <f>'Reward Triggers'!C9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="D20" s="19">
-        <f>'Reward Triggers'!D9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="E20" s="19">
-        <f>'Reward Triggers'!E9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="F20" s="19">
-        <f>'Reward Triggers'!F9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="G20" s="19">
-        <f>'Reward Triggers'!G9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="H20" s="19">
-        <f>'Reward Triggers'!H9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="I20" s="19">
-        <f>'Reward Triggers'!I9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="J20" s="19">
-        <f>'Reward Triggers'!J9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="K20" s="19">
-        <f>'Reward Triggers'!K9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="L20" s="19">
-        <f>'Reward Triggers'!L9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-      <c r="M20" s="19">
-        <f>'Reward Triggers'!M9*'VIP Levels'!$B$25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="inlineStr">
+      <c r="B21" s="17">
+        <f>'Reward Triggers'!B9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!B$44:B$48)</f>
+        <v/>
+      </c>
+      <c r="C21" s="17">
+        <f>'Reward Triggers'!C9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!C$44:C$48)</f>
+        <v/>
+      </c>
+      <c r="D21" s="17">
+        <f>'Reward Triggers'!D9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!D$44:D$48)</f>
+        <v/>
+      </c>
+      <c r="E21" s="17">
+        <f>'Reward Triggers'!E9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!E$44:E$48)</f>
+        <v/>
+      </c>
+      <c r="F21" s="17">
+        <f>'Reward Triggers'!F9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!F$44:F$48)</f>
+        <v/>
+      </c>
+      <c r="G21" s="17">
+        <f>'Reward Triggers'!G9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!G$44:G$48)</f>
+        <v/>
+      </c>
+      <c r="H21" s="17">
+        <f>'Reward Triggers'!H9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!H$44:H$48)</f>
+        <v/>
+      </c>
+      <c r="I21" s="17">
+        <f>'Reward Triggers'!I9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!I$44:I$48)</f>
+        <v/>
+      </c>
+      <c r="J21" s="17">
+        <f>'Reward Triggers'!J9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!J$44:J$48)</f>
+        <v/>
+      </c>
+      <c r="K21" s="17">
+        <f>'Reward Triggers'!K9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!K$44:K$48)</f>
+        <v/>
+      </c>
+      <c r="L21" s="17">
+        <f>'Reward Triggers'!L9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!L$44:L$48)</f>
+        <v/>
+      </c>
+      <c r="M21" s="17">
+        <f>'Reward Triggers'!M9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!M$44:M$48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>Experience Cost</t>
         </is>
       </c>
-      <c r="B21" s="19">
-        <f>'Reward Triggers'!B10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="C21" s="19">
-        <f>'Reward Triggers'!C10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="D21" s="19">
-        <f>'Reward Triggers'!D10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="E21" s="19">
-        <f>'Reward Triggers'!E10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="F21" s="19">
-        <f>'Reward Triggers'!F10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="G21" s="19">
-        <f>'Reward Triggers'!G10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="H21" s="19">
-        <f>'Reward Triggers'!H10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="I21" s="19">
-        <f>'Reward Triggers'!I10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="J21" s="19">
-        <f>'Reward Triggers'!J10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="K21" s="19">
-        <f>'Reward Triggers'!K10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="L21" s="19">
-        <f>'Reward Triggers'!L10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-      <c r="M21" s="19">
-        <f>'Reward Triggers'!M10*'VIP Levels'!$B$26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="inlineStr">
+      <c r="B22" s="17">
+        <f>'Reward Triggers'!B10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!B$44:B$48)</f>
+        <v/>
+      </c>
+      <c r="C22" s="17">
+        <f>'Reward Triggers'!C10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!C$44:C$48)</f>
+        <v/>
+      </c>
+      <c r="D22" s="17">
+        <f>'Reward Triggers'!D10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!D$44:D$48)</f>
+        <v/>
+      </c>
+      <c r="E22" s="17">
+        <f>'Reward Triggers'!E10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!E$44:E$48)</f>
+        <v/>
+      </c>
+      <c r="F22" s="17">
+        <f>'Reward Triggers'!F10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!F$44:F$48)</f>
+        <v/>
+      </c>
+      <c r="G22" s="17">
+        <f>'Reward Triggers'!G10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!G$44:G$48)</f>
+        <v/>
+      </c>
+      <c r="H22" s="17">
+        <f>'Reward Triggers'!H10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!H$44:H$48)</f>
+        <v/>
+      </c>
+      <c r="I22" s="17">
+        <f>'Reward Triggers'!I10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!I$44:I$48)</f>
+        <v/>
+      </c>
+      <c r="J22" s="17">
+        <f>'Reward Triggers'!J10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!J$44:J$48)</f>
+        <v/>
+      </c>
+      <c r="K22" s="17">
+        <f>'Reward Triggers'!K10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!K$44:K$48)</f>
+        <v/>
+      </c>
+      <c r="L22" s="17">
+        <f>'Reward Triggers'!L10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!L$44:L$48)</f>
+        <v/>
+      </c>
+      <c r="M22" s="17">
+        <f>'Reward Triggers'!M10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!M$44:M$48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>Sample Cost</t>
         </is>
       </c>
-      <c r="B22" s="19">
+      <c r="B23" s="17">
         <f>'Affiliate Projection'!B4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="C22" s="19">
+      <c r="C23" s="17">
         <f>'Affiliate Projection'!C4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="17">
         <f>'Affiliate Projection'!D4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="17">
         <f>'Affiliate Projection'!E4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="17">
         <f>'Affiliate Projection'!F4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="G22" s="19">
+      <c r="G23" s="17">
         <f>'Affiliate Projection'!G4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="17">
         <f>'Affiliate Projection'!H4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="17">
         <f>'Affiliate Projection'!I4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="17">
         <f>'Affiliate Projection'!J4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="K22" s="19">
+      <c r="K23" s="17">
         <f>'Affiliate Projection'!K4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="L22" s="19">
+      <c r="L23" s="17">
         <f>'Affiliate Projection'!L4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="M22" s="19">
+      <c r="M23" s="17">
         <f>'Affiliate Projection'!M4*Inputs!$B$28</f>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>Total Marketing OpEx</t>
         </is>
       </c>
-      <c r="B23" s="20">
-        <f>SUM(B18:B22)</f>
-        <v/>
-      </c>
-      <c r="C23" s="20">
-        <f>SUM(C18:C22)</f>
-        <v/>
-      </c>
-      <c r="D23" s="20">
-        <f>SUM(D18:D22)</f>
-        <v/>
-      </c>
-      <c r="E23" s="20">
-        <f>SUM(E18:E22)</f>
-        <v/>
-      </c>
-      <c r="F23" s="20">
-        <f>SUM(F18:F22)</f>
-        <v/>
-      </c>
-      <c r="G23" s="20">
-        <f>SUM(G18:G22)</f>
-        <v/>
-      </c>
-      <c r="H23" s="20">
-        <f>SUM(H18:H22)</f>
-        <v/>
-      </c>
-      <c r="I23" s="20">
-        <f>SUM(I18:I22)</f>
-        <v/>
-      </c>
-      <c r="J23" s="20">
-        <f>SUM(J18:J22)</f>
-        <v/>
-      </c>
-      <c r="K23" s="20">
-        <f>SUM(K18:K22)</f>
-        <v/>
-      </c>
-      <c r="L23" s="20">
-        <f>SUM(L18:L22)</f>
-        <v/>
-      </c>
-      <c r="M23" s="20">
-        <f>SUM(M18:M22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="18" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1" s="29">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="B24" s="18">
+        <f>SUM(B19:B23)</f>
+        <v/>
+      </c>
+      <c r="C24" s="18">
+        <f>SUM(C19:C23)</f>
+        <v/>
+      </c>
+      <c r="D24" s="18">
+        <f>SUM(D19:D23)</f>
+        <v/>
+      </c>
+      <c r="E24" s="18">
+        <f>SUM(E19:E23)</f>
+        <v/>
+      </c>
+      <c r="F24" s="18">
+        <f>SUM(F19:F23)</f>
+        <v/>
+      </c>
+      <c r="G24" s="18">
+        <f>SUM(G19:G23)</f>
+        <v/>
+      </c>
+      <c r="H24" s="18">
+        <f>SUM(H19:H23)</f>
+        <v/>
+      </c>
+      <c r="I24" s="18">
+        <f>SUM(I19:I23)</f>
+        <v/>
+      </c>
+      <c r="J24" s="18">
+        <f>SUM(J19:J23)</f>
+        <v/>
+      </c>
+      <c r="K24" s="18">
+        <f>SUM(K19:K23)</f>
+        <v/>
+      </c>
+      <c r="L24" s="18">
+        <f>SUM(L19:L23)</f>
+        <v/>
+      </c>
+      <c r="M24" s="18">
+        <f>SUM(M19:M23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" s="30">
+      <c r="A25" s="16" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" s="30">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>--- TOTALS ---</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="16" t="inlineStr">
         <is>
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B26" s="20">
-        <f>B9+B15+B23</f>
-        <v/>
-      </c>
-      <c r="C26" s="20">
-        <f>C9+C15+C23</f>
-        <v/>
-      </c>
-      <c r="D26" s="20">
-        <f>D9+D15+D23</f>
-        <v/>
-      </c>
-      <c r="E26" s="20">
-        <f>E9+E15+E23</f>
-        <v/>
-      </c>
-      <c r="F26" s="20">
-        <f>F9+F15+F23</f>
-        <v/>
-      </c>
-      <c r="G26" s="20">
-        <f>G9+G15+G23</f>
-        <v/>
-      </c>
-      <c r="H26" s="20">
-        <f>H9+H15+H23</f>
-        <v/>
-      </c>
-      <c r="I26" s="20">
-        <f>I9+I15+I23</f>
-        <v/>
-      </c>
-      <c r="J26" s="20">
-        <f>J9+J15+J23</f>
-        <v/>
-      </c>
-      <c r="K26" s="20">
-        <f>K9+K15+K23</f>
-        <v/>
-      </c>
-      <c r="L26" s="20">
-        <f>L9+L15+L23</f>
-        <v/>
-      </c>
-      <c r="M26" s="20">
-        <f>M9+M15+M23</f>
+      <c r="B27" s="18">
+        <f>B10+B16+B24</f>
+        <v/>
+      </c>
+      <c r="C27" s="18">
+        <f>C10+C16+C24</f>
+        <v/>
+      </c>
+      <c r="D27" s="18">
+        <f>D10+D16+D24</f>
+        <v/>
+      </c>
+      <c r="E27" s="18">
+        <f>E10+E16+E24</f>
+        <v/>
+      </c>
+      <c r="F27" s="18">
+        <f>F10+F16+F24</f>
+        <v/>
+      </c>
+      <c r="G27" s="18">
+        <f>G10+G16+G24</f>
+        <v/>
+      </c>
+      <c r="H27" s="18">
+        <f>H10+H16+H24</f>
+        <v/>
+      </c>
+      <c r="I27" s="18">
+        <f>I10+I16+I24</f>
+        <v/>
+      </c>
+      <c r="J27" s="18">
+        <f>J10+J16+J24</f>
+        <v/>
+      </c>
+      <c r="K27" s="18">
+        <f>K10+K16+K24</f>
+        <v/>
+      </c>
+      <c r="L27" s="18">
+        <f>L10+L16+L24</f>
+        <v/>
+      </c>
+      <c r="M27" s="18">
+        <f>M10+M16+M24</f>
         <v/>
       </c>
     </row>
@@ -6130,26 +6592,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" style="29" min="1" max="1"/>
-    <col width="15" customWidth="1" style="29" min="2" max="2"/>
-    <col width="10" customWidth="1" style="29" min="3" max="14"/>
+    <col width="32" customWidth="1" style="30" min="1" max="1"/>
+    <col width="15" customWidth="1" style="30" min="2" max="2"/>
+    <col width="10" customWidth="1" style="30" min="3" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="29">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="30">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>SUMMARY DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="29">
+    <row r="3" ht="18.75" customHeight="1" s="30">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>12-MONTH TOTALS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="29">
+    <row r="4" ht="15.75" customHeight="1" s="30">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6214,7 +6676,7 @@
           <t>Gross Revenue</t>
         </is>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <f>SUM(Revenue!B6:M6)</f>
         <v/>
       </c>
@@ -6225,7 +6687,7 @@
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <f>SUM(Revenue!B11:M11)</f>
         <v/>
       </c>
@@ -6239,7 +6701,7 @@
           <t>Total CM1 Costs</t>
         </is>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f>SUM(Costs!B9:M9)</f>
         <v/>
       </c>
@@ -6250,7 +6712,7 @@
           <t>Total Loyalty Program Costs</t>
         </is>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <f>SUM(Costs!B15:M15)</f>
         <v/>
       </c>
@@ -6261,7 +6723,7 @@
           <t>Total Marketing OpEx</t>
         </is>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <f>SUM(Costs!B23:M23)</f>
         <v/>
       </c>
@@ -6272,19 +6734,19 @@
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <f>SUM(Costs!B26:M26)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="29">
+    <row r="19" ht="18.75" customHeight="1" s="30">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>KEY RATIOS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="29">
+    <row r="20" ht="15.75" customHeight="1" s="30">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6358,18 +6820,18 @@
         </is>
       </c>
       <c r="B26" s="13">
-        <f>SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$B$34:$B$38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" s="29">
+        <f>SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$M$44:$M$48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="30">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MONTHLY TREND</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="29">
+    <row r="30" ht="15.75" customHeight="1" s="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6565,55 +7027,55 @@
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <f>Revenue!B11</f>
         <v/>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <f>Revenue!C11</f>
         <v/>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <f>Revenue!D11</f>
         <v/>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <f>Revenue!E11</f>
         <v/>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <f>Revenue!F11</f>
         <v/>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <f>Revenue!G11</f>
         <v/>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <f>Revenue!H11</f>
         <v/>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="17">
         <f>Revenue!I11</f>
         <v/>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="17">
         <f>Revenue!J11</f>
         <v/>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="17">
         <f>Revenue!K11</f>
         <v/>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="17">
         <f>Revenue!L11</f>
         <v/>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="17">
         <f>Revenue!M11</f>
         <v/>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="17">
         <f>SUM(B33:M33)</f>
         <v/>
       </c>
@@ -6624,55 +7086,55 @@
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <f>Costs!B26</f>
         <v/>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <f>Costs!C26</f>
         <v/>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <f>Costs!D26</f>
         <v/>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f>Costs!E26</f>
         <v/>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <f>Costs!F26</f>
         <v/>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>Costs!G26</f>
         <v/>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <f>Costs!H26</f>
         <v/>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>Costs!I26</f>
         <v/>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <f>Costs!J26</f>
         <v/>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>Costs!K26</f>
         <v/>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="17">
         <f>Costs!L26</f>
         <v/>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>Costs!M26</f>
         <v/>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="17">
         <f>SUM(B34:M34)</f>
         <v/>
       </c>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -286,6 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
@@ -1119,638 +1120,513 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>(DEPRECATED) LEVEL DISTRIBUTION ASSUMPTIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" s="30">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>(Use Monthly Distribution below instead)</t>
-        </is>
-      </c>
-    </row>
+    <row r="31" ht="18.75" customHeight="1" s="30"/>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="31" t="inlineStr">
+        <is>
+          <t>MONTHLY LEVEL DISTRIBUTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="31.5" customHeight="1" s="30">
+      <c r="A33" s="32" t="inlineStr">
+        <is>
+          <t>(% of affiliates at each level per month)</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="33" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>% of Affiliates</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D32" s="23" t="n"/>
-    </row>
-    <row r="33" ht="31.5" customHeight="1" s="30">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="B34" s="33" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C34" s="33" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D34" s="33" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E34" s="33" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F34" s="33" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="G34" s="33" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="I34" s="33" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="J34" s="33" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="L34" s="33" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="M34" s="33" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="34" t="inlineStr">
         <is>
           <t>Bronze</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Affiliates below Silver threshold</t>
-        </is>
-      </c>
-      <c r="G33" s="20" t="inlineStr">
-        <is>
-          <t>This is static through time? We assume each month we will have this breakdown?</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="B35" s="35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C35" s="35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F35" s="35" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G35" s="35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="35" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I35" s="35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J35" s="35" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K35" s="35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L35" s="35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M35" s="35" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="34" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B36" s="35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D36" s="35" t="n">
         <v>0.2</v>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Affiliates at Silver, below Gold</t>
-        </is>
-      </c>
-      <c r="G34" s="20" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="E36" s="35" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F36" s="35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G36" s="35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H36" s="35" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I36" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M36" s="35" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="34" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="35" t="n">
         <v>0.1</v>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>Affiliates at Gold, below Platinum</t>
-        </is>
-      </c>
-      <c r="G35" s="20" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="F37" s="35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G37" s="35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H37" s="35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J37" s="35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K37" s="35" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L37" s="35" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M37" s="35" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="34" t="inlineStr">
         <is>
           <t>Platinum</t>
         </is>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>Affiliates at Platinum, below Diamond</t>
-        </is>
-      </c>
-      <c r="G36" s="20" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="F38" s="35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G38" s="35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H38" s="35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I38" s="35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K38" s="35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L38" s="35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M38" s="35" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="inlineStr">
         <is>
           <t>Diamond</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B39" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Top performers at Diamond</t>
-        </is>
-      </c>
-      <c r="G37" s="20" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="C39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="36" t="inlineStr">
         <is>
           <t>Total (must = 100%)</t>
         </is>
       </c>
-      <c r="B38" s="9">
-        <f>SUM(B34:B38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="31" t="inlineStr">
-        <is>
-          <t>MONTHLY LEVEL DISTRIBUTION</t>
-        </is>
+      <c r="B40" s="37">
+        <f>SUM(B35:B39)</f>
+        <v/>
+      </c>
+      <c r="C40" s="37">
+        <f>SUM(C35:C39)</f>
+        <v/>
+      </c>
+      <c r="D40" s="37">
+        <f>SUM(D35:D39)</f>
+        <v/>
+      </c>
+      <c r="E40" s="37">
+        <f>SUM(E35:E39)</f>
+        <v/>
+      </c>
+      <c r="F40" s="37">
+        <f>SUM(F35:F39)</f>
+        <v/>
+      </c>
+      <c r="G40" s="37">
+        <f>SUM(G35:G39)</f>
+        <v/>
+      </c>
+      <c r="H40" s="37">
+        <f>SUM(H35:H39)</f>
+        <v/>
+      </c>
+      <c r="I40" s="37">
+        <f>SUM(I35:I39)</f>
+        <v/>
+      </c>
+      <c r="J40" s="37">
+        <f>SUM(J35:J39)</f>
+        <v/>
+      </c>
+      <c r="K40" s="37">
+        <f>SUM(K35:K39)</f>
+        <v/>
+      </c>
+      <c r="L40" s="37">
+        <f>SUM(L35:L39)</f>
+        <v/>
+      </c>
+      <c r="M40" s="37">
+        <f>SUM(M35:M39)</f>
+        <v/>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" s="30">
-      <c r="A42" s="32" t="inlineStr">
-        <is>
-          <t>(% of affiliates at each level per month)</t>
-        </is>
-      </c>
-      <c r="B42" s="10" t="n"/>
+      <c r="A42" s="31" t="inlineStr">
+        <is>
+          <t>MONTHLY FLYWHEEL AFFILIATES</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="33" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="B43" s="33" t="inlineStr">
+      <c r="A43" s="32" t="inlineStr">
+        <is>
+          <t>(Organic inbound affiliates per month)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="33" t="inlineStr">
+        <is>
+          <t>Flywheel</t>
+        </is>
+      </c>
+      <c r="B44" s="33" t="inlineStr">
         <is>
           <t>Month 1</t>
         </is>
       </c>
-      <c r="C43" s="33" t="inlineStr">
+      <c r="C44" s="33" t="inlineStr">
         <is>
           <t>Month 2</t>
         </is>
       </c>
-      <c r="D43" s="33" t="inlineStr">
+      <c r="D44" s="33" t="inlineStr">
         <is>
           <t>Month 3</t>
         </is>
       </c>
-      <c r="E43" s="33" t="inlineStr">
+      <c r="E44" s="33" t="inlineStr">
         <is>
           <t>Month 4</t>
         </is>
       </c>
-      <c r="F43" s="33" t="inlineStr">
+      <c r="F44" s="33" t="inlineStr">
         <is>
           <t>Month 5</t>
         </is>
       </c>
-      <c r="G43" s="33" t="inlineStr">
+      <c r="G44" s="33" t="inlineStr">
         <is>
           <t>Month 6</t>
         </is>
       </c>
-      <c r="H43" s="33" t="inlineStr">
+      <c r="H44" s="33" t="inlineStr">
         <is>
           <t>Month 7</t>
         </is>
       </c>
-      <c r="I43" s="33" t="inlineStr">
+      <c r="I44" s="33" t="inlineStr">
         <is>
           <t>Month 8</t>
         </is>
       </c>
-      <c r="J43" s="33" t="inlineStr">
+      <c r="J44" s="33" t="inlineStr">
         <is>
           <t>Month 9</t>
         </is>
       </c>
-      <c r="K43" s="33" t="inlineStr">
+      <c r="K44" s="33" t="inlineStr">
         <is>
           <t>Month 10</t>
         </is>
       </c>
-      <c r="L43" s="33" t="inlineStr">
+      <c r="L44" s="33" t="inlineStr">
         <is>
           <t>Month 11</t>
         </is>
       </c>
-      <c r="M43" s="33" t="inlineStr">
+      <c r="M44" s="33" t="inlineStr">
         <is>
           <t>Month 12</t>
         </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="34" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="B44" s="35" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C44" s="35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D44" s="35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E44" s="35" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F44" s="35" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G44" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="35" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="I44" s="35" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J44" s="35" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K44" s="35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="35" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M44" s="35" t="n">
-        <v>0.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="34" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="B45" s="35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="35" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D45" s="35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="35" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F45" s="35" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H45" s="35" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I45" s="35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J45" s="35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K45" s="35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L45" s="35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M45" s="35" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="34" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="B46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="35" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D46" s="35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E46" s="35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F46" s="35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G46" s="35" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H46" s="35" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I46" s="35" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J46" s="35" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K46" s="35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L46" s="35" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M46" s="35" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="34" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="B47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E47" s="35" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F47" s="35" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G47" s="35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H47" s="35" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I47" s="35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J47" s="35" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K47" s="35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L47" s="35" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M47" s="35" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="34" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="B48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="36" t="inlineStr">
-        <is>
-          <t>Total (must = 100%)</t>
-        </is>
-      </c>
-      <c r="B49" s="37">
-        <f>SUM(B44:B48)</f>
-        <v/>
-      </c>
-      <c r="C49" s="37">
-        <f>SUM(C44:C48)</f>
-        <v/>
-      </c>
-      <c r="D49" s="37">
-        <f>SUM(D44:D48)</f>
-        <v/>
-      </c>
-      <c r="E49" s="37">
-        <f>SUM(E44:E48)</f>
-        <v/>
-      </c>
-      <c r="F49" s="37">
-        <f>SUM(F44:F48)</f>
-        <v/>
-      </c>
-      <c r="G49" s="37">
-        <f>SUM(G44:G48)</f>
-        <v/>
-      </c>
-      <c r="H49" s="37">
-        <f>SUM(H44:H48)</f>
-        <v/>
-      </c>
-      <c r="I49" s="37">
-        <f>SUM(I44:I48)</f>
-        <v/>
-      </c>
-      <c r="J49" s="37">
-        <f>SUM(J44:J48)</f>
-        <v/>
-      </c>
-      <c r="K49" s="37">
-        <f>SUM(K44:K48)</f>
-        <v/>
-      </c>
-      <c r="L49" s="37">
-        <f>SUM(L44:L48)</f>
-        <v/>
-      </c>
-      <c r="M49" s="37">
-        <f>SUM(M44:M48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="31" t="inlineStr">
-        <is>
-          <t>MONTHLY FLYWHEEL AFFILIATES</t>
-        </is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="B45" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F45" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="H45" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I45" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="K45" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="L45" s="38" t="n">
+        <v>30</v>
+      </c>
+      <c r="M45" s="38" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="32" t="inlineStr">
-        <is>
-          <t>(Organic inbound affiliates per month)</t>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>LEGEND</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="33" t="inlineStr">
-        <is>
-          <t>Flywheel</t>
-        </is>
-      </c>
-      <c r="B53" s="33" t="inlineStr">
-        <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="C53" s="33" t="inlineStr">
-        <is>
-          <t>Month 2</t>
-        </is>
-      </c>
-      <c r="D53" s="33" t="inlineStr">
-        <is>
-          <t>Month 3</t>
-        </is>
-      </c>
-      <c r="E53" s="33" t="inlineStr">
-        <is>
-          <t>Month 4</t>
-        </is>
-      </c>
-      <c r="F53" s="33" t="inlineStr">
-        <is>
-          <t>Month 5</t>
-        </is>
-      </c>
-      <c r="G53" s="33" t="inlineStr">
-        <is>
-          <t>Month 6</t>
-        </is>
-      </c>
-      <c r="H53" s="33" t="inlineStr">
-        <is>
-          <t>Month 7</t>
-        </is>
-      </c>
-      <c r="I53" s="33" t="inlineStr">
-        <is>
-          <t>Month 8</t>
-        </is>
-      </c>
-      <c r="J53" s="33" t="inlineStr">
-        <is>
-          <t>Month 9</t>
-        </is>
-      </c>
-      <c r="K53" s="33" t="inlineStr">
-        <is>
-          <t>Month 10</t>
-        </is>
-      </c>
-      <c r="L53" s="33" t="inlineStr">
-        <is>
-          <t>Month 11</t>
-        </is>
-      </c>
-      <c r="M53" s="33" t="inlineStr">
-        <is>
-          <t>Month 12</t>
-        </is>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Yellow cells</t>
+        </is>
+      </c>
+      <c r="B53" s="10">
+        <f>Editable inputs</f>
+        <v/>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="34" t="inlineStr">
-        <is>
-          <t>Affiliates</t>
-        </is>
-      </c>
-      <c r="B54" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="D54" s="38" t="n">
-        <v>10</v>
-      </c>
-      <c r="E54" s="38" t="n">
-        <v>12</v>
-      </c>
-      <c r="F54" s="38" t="n">
-        <v>15</v>
-      </c>
-      <c r="G54" s="38" t="n">
-        <v>18</v>
-      </c>
-      <c r="H54" s="38" t="n">
-        <v>20</v>
-      </c>
-      <c r="I54" s="38" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" s="38" t="n">
-        <v>25</v>
-      </c>
-      <c r="K54" s="38" t="n">
-        <v>28</v>
-      </c>
-      <c r="L54" s="38" t="n">
-        <v>30</v>
-      </c>
-      <c r="M54" s="38" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>LEGEND</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="18.75" customHeight="1" s="30">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Yellow cells</t>
-        </is>
-      </c>
-      <c r="B62" s="10">
-        <f>Editable inputs</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Green cells</t>
         </is>
       </c>
-      <c r="B63" s="11">
+      <c r="B54" s="11">
         <f>Calculated values</f>
         <v/>
       </c>
     </row>
+    <row r="62" ht="18.75" customHeight="1" s="30"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2356,7 +2232,7 @@
         </is>
       </c>
       <c r="J5" s="14">
-        <f>IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D5="Weekly",(Inputs!$B$15/30)*4,IF(D5="Monthly",Inputs!$B$15/30,1))*IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2399,7 +2275,7 @@
         </is>
       </c>
       <c r="J6" s="14">
-        <f>IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D6="Weekly",(Inputs!$B$15/30)*4,IF(D6="Monthly",Inputs!$B$15/30,1))*IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2442,7 +2318,7 @@
         </is>
       </c>
       <c r="J7" s="14">
-        <f>IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D7="Weekly",(Inputs!$B$15/30)*4,IF(D7="Monthly",Inputs!$B$15/30,1))*IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2485,7 +2361,7 @@
         </is>
       </c>
       <c r="J8" s="14">
-        <f>IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D8="Weekly",(Inputs!$B$15/30)*4,IF(D8="Monthly",Inputs!$B$15/30,1))*IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2528,7 +2404,7 @@
         </is>
       </c>
       <c r="J9" s="14">
-        <f>IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D9="Weekly",(Inputs!$B$15/30)*4,IF(D9="Monthly",Inputs!$B$15/30,1))*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2571,7 +2447,7 @@
         </is>
       </c>
       <c r="J10" s="14">
-        <f>IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D10="Weekly",(Inputs!$B$15/30)*4,IF(D10="Monthly",Inputs!$B$15/30,1))*IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2614,7 +2490,7 @@
         </is>
       </c>
       <c r="J11" s="14">
-        <f>IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D11="Weekly",(Inputs!$B$15/30)*4,IF(D11="Monthly",Inputs!$B$15/30,1))*IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2657,7 +2533,7 @@
         </is>
       </c>
       <c r="J12" s="14">
-        <f>IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D12="Weekly",(Inputs!$B$15/30)*4,IF(D12="Monthly",Inputs!$B$15/30,1))*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2700,7 +2576,7 @@
         </is>
       </c>
       <c r="J13" s="14">
-        <f>IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D13="Weekly",(Inputs!$B$15/30)*4,IF(D13="Monthly",Inputs!$B$15/30,1))*IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2743,7 +2619,7 @@
         </is>
       </c>
       <c r="J14" s="14">
-        <f>IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D14="Weekly",(Inputs!$B$15/30)*4,IF(D14="Monthly",Inputs!$B$15/30,1))*IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2786,7 +2662,7 @@
         </is>
       </c>
       <c r="J15" s="14">
-        <f>IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D15="Weekly",(Inputs!$B$15/30)*4,IF(D15="Monthly",Inputs!$B$15/30,1))*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2829,7 +2705,7 @@
         </is>
       </c>
       <c r="J16" s="14">
-        <f>IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(D16="Weekly",(Inputs!$B$15/30)*4,IF(D16="Monthly",Inputs!$B$15/30,1))*IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
     </row>
@@ -2983,6 +2859,8 @@
         <v/>
       </c>
     </row>
+    <row r="27"/>
+    <row r="28"/>
     <row r="29" ht="18.75" customHeight="1" s="30">
       <c r="A29" s="1" t="inlineStr">
         <is>
@@ -3143,7 +3021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -3346,51 +3224,51 @@
         </is>
       </c>
       <c r="B6" s="15">
-        <f>Inputs!B$54</f>
+        <f>Inputs!B$45</f>
         <v/>
       </c>
       <c r="C6" s="15">
-        <f>Inputs!C$54</f>
+        <f>Inputs!C$45</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>Inputs!D$54</f>
+        <f>Inputs!D$45</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>Inputs!E$54</f>
+        <f>Inputs!E$45</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>Inputs!F$54</f>
+        <f>Inputs!F$45</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>Inputs!G$54</f>
+        <f>Inputs!G$45</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>Inputs!H$54</f>
+        <f>Inputs!H$45</f>
         <v/>
       </c>
       <c r="I6" s="15">
-        <f>Inputs!I$54</f>
+        <f>Inputs!I$45</f>
         <v/>
       </c>
       <c r="J6" s="15">
-        <f>Inputs!J$54</f>
+        <f>Inputs!J$45</f>
         <v/>
       </c>
       <c r="K6" s="15">
-        <f>Inputs!K$54</f>
+        <f>Inputs!K$45</f>
         <v/>
       </c>
       <c r="L6" s="15">
-        <f>Inputs!L$54</f>
+        <f>Inputs!L$45</f>
         <v/>
       </c>
       <c r="M6" s="15">
-        <f>Inputs!M$54</f>
+        <f>Inputs!M$45</f>
         <v/>
       </c>
     </row>
@@ -3632,51 +3510,51 @@
         </is>
       </c>
       <c r="B12" s="15">
-        <f>ROUND(B9*Inputs!B$44,0)</f>
+        <f>ROUND(B9*Inputs!B$35,0)</f>
         <v/>
       </c>
       <c r="C12" s="15">
-        <f>ROUND(C9*Inputs!C$44,0)</f>
+        <f>ROUND(C9*Inputs!C$35,0)</f>
         <v/>
       </c>
       <c r="D12" s="15">
-        <f>ROUND(D9*Inputs!D$44,0)</f>
+        <f>ROUND(D9*Inputs!D$35,0)</f>
         <v/>
       </c>
       <c r="E12" s="15">
-        <f>ROUND(E9*Inputs!E$44,0)</f>
+        <f>ROUND(E9*Inputs!E$35,0)</f>
         <v/>
       </c>
       <c r="F12" s="15">
-        <f>ROUND(F9*Inputs!F$44,0)</f>
+        <f>ROUND(F9*Inputs!F$35,0)</f>
         <v/>
       </c>
       <c r="G12" s="15">
-        <f>ROUND(G9*Inputs!G$44,0)</f>
+        <f>ROUND(G9*Inputs!G$35,0)</f>
         <v/>
       </c>
       <c r="H12" s="15">
-        <f>ROUND(H9*Inputs!H$44,0)</f>
+        <f>ROUND(H9*Inputs!H$35,0)</f>
         <v/>
       </c>
       <c r="I12" s="15">
-        <f>ROUND(I9*Inputs!I$44,0)</f>
+        <f>ROUND(I9*Inputs!I$35,0)</f>
         <v/>
       </c>
       <c r="J12" s="15">
-        <f>ROUND(J9*Inputs!J$44,0)</f>
+        <f>ROUND(J9*Inputs!J$35,0)</f>
         <v/>
       </c>
       <c r="K12" s="15">
-        <f>ROUND(K9*Inputs!K$44,0)</f>
+        <f>ROUND(K9*Inputs!K$35,0)</f>
         <v/>
       </c>
       <c r="L12" s="15">
-        <f>ROUND(L9*Inputs!L$44,0)</f>
+        <f>ROUND(L9*Inputs!L$35,0)</f>
         <v/>
       </c>
       <c r="M12" s="15">
-        <f>ROUND(M9*Inputs!M$44,0)</f>
+        <f>ROUND(M9*Inputs!M$35,0)</f>
         <v/>
       </c>
     </row>
@@ -3687,51 +3565,51 @@
         </is>
       </c>
       <c r="B13" s="15">
-        <f>ROUND(B9*Inputs!B$45,0)</f>
+        <f>ROUND(B9*Inputs!B$36,0)</f>
         <v/>
       </c>
       <c r="C13" s="15">
-        <f>ROUND(C9*Inputs!C$45,0)</f>
+        <f>ROUND(C9*Inputs!C$36,0)</f>
         <v/>
       </c>
       <c r="D13" s="15">
-        <f>ROUND(D9*Inputs!D$45,0)</f>
+        <f>ROUND(D9*Inputs!D$36,0)</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>ROUND(E9*Inputs!E$45,0)</f>
+        <f>ROUND(E9*Inputs!E$36,0)</f>
         <v/>
       </c>
       <c r="F13" s="15">
-        <f>ROUND(F9*Inputs!F$45,0)</f>
+        <f>ROUND(F9*Inputs!F$36,0)</f>
         <v/>
       </c>
       <c r="G13" s="15">
-        <f>ROUND(G9*Inputs!G$45,0)</f>
+        <f>ROUND(G9*Inputs!G$36,0)</f>
         <v/>
       </c>
       <c r="H13" s="15">
-        <f>ROUND(H9*Inputs!H$45,0)</f>
+        <f>ROUND(H9*Inputs!H$36,0)</f>
         <v/>
       </c>
       <c r="I13" s="15">
-        <f>ROUND(I9*Inputs!I$45,0)</f>
+        <f>ROUND(I9*Inputs!I$36,0)</f>
         <v/>
       </c>
       <c r="J13" s="15">
-        <f>ROUND(J9*Inputs!J$45,0)</f>
+        <f>ROUND(J9*Inputs!J$36,0)</f>
         <v/>
       </c>
       <c r="K13" s="15">
-        <f>ROUND(K9*Inputs!K$45,0)</f>
+        <f>ROUND(K9*Inputs!K$36,0)</f>
         <v/>
       </c>
       <c r="L13" s="15">
-        <f>ROUND(L9*Inputs!L$45,0)</f>
+        <f>ROUND(L9*Inputs!L$36,0)</f>
         <v/>
       </c>
       <c r="M13" s="15">
-        <f>ROUND(M9*Inputs!M$45,0)</f>
+        <f>ROUND(M9*Inputs!M$36,0)</f>
         <v/>
       </c>
     </row>
@@ -3742,51 +3620,51 @@
         </is>
       </c>
       <c r="B14" s="15">
-        <f>ROUND(B9*Inputs!B$46,0)</f>
+        <f>ROUND(B9*Inputs!B$37,0)</f>
         <v/>
       </c>
       <c r="C14" s="15">
-        <f>ROUND(C9*Inputs!C$46,0)</f>
+        <f>ROUND(C9*Inputs!C$37,0)</f>
         <v/>
       </c>
       <c r="D14" s="15">
-        <f>ROUND(D9*Inputs!D$46,0)</f>
+        <f>ROUND(D9*Inputs!D$37,0)</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>ROUND(E9*Inputs!E$46,0)</f>
+        <f>ROUND(E9*Inputs!E$37,0)</f>
         <v/>
       </c>
       <c r="F14" s="15">
-        <f>ROUND(F9*Inputs!F$46,0)</f>
+        <f>ROUND(F9*Inputs!F$37,0)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>ROUND(G9*Inputs!G$46,0)</f>
+        <f>ROUND(G9*Inputs!G$37,0)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>ROUND(H9*Inputs!H$46,0)</f>
+        <f>ROUND(H9*Inputs!H$37,0)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>ROUND(I9*Inputs!I$46,0)</f>
+        <f>ROUND(I9*Inputs!I$37,0)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>ROUND(J9*Inputs!J$46,0)</f>
+        <f>ROUND(J9*Inputs!J$37,0)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>ROUND(K9*Inputs!K$46,0)</f>
+        <f>ROUND(K9*Inputs!K$37,0)</f>
         <v/>
       </c>
       <c r="L14" s="15">
-        <f>ROUND(L9*Inputs!L$46,0)</f>
+        <f>ROUND(L9*Inputs!L$37,0)</f>
         <v/>
       </c>
       <c r="M14" s="15">
-        <f>ROUND(M9*Inputs!M$46,0)</f>
+        <f>ROUND(M9*Inputs!M$37,0)</f>
         <v/>
       </c>
     </row>
@@ -3797,51 +3675,51 @@
         </is>
       </c>
       <c r="B15" s="15">
-        <f>ROUND(B9*Inputs!B$47,0)</f>
+        <f>ROUND(B9*Inputs!B$38,0)</f>
         <v/>
       </c>
       <c r="C15" s="15">
-        <f>ROUND(C9*Inputs!C$47,0)</f>
+        <f>ROUND(C9*Inputs!C$38,0)</f>
         <v/>
       </c>
       <c r="D15" s="15">
-        <f>ROUND(D9*Inputs!D$47,0)</f>
+        <f>ROUND(D9*Inputs!D$38,0)</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>ROUND(E9*Inputs!E$47,0)</f>
+        <f>ROUND(E9*Inputs!E$38,0)</f>
         <v/>
       </c>
       <c r="F15" s="15">
-        <f>ROUND(F9*Inputs!F$47,0)</f>
+        <f>ROUND(F9*Inputs!F$38,0)</f>
         <v/>
       </c>
       <c r="G15" s="15">
-        <f>ROUND(G9*Inputs!G$47,0)</f>
+        <f>ROUND(G9*Inputs!G$38,0)</f>
         <v/>
       </c>
       <c r="H15" s="15">
-        <f>ROUND(H9*Inputs!H$47,0)</f>
+        <f>ROUND(H9*Inputs!H$38,0)</f>
         <v/>
       </c>
       <c r="I15" s="15">
-        <f>ROUND(I9*Inputs!I$47,0)</f>
+        <f>ROUND(I9*Inputs!I$38,0)</f>
         <v/>
       </c>
       <c r="J15" s="15">
-        <f>ROUND(J9*Inputs!J$47,0)</f>
+        <f>ROUND(J9*Inputs!J$38,0)</f>
         <v/>
       </c>
       <c r="K15" s="15">
-        <f>ROUND(K9*Inputs!K$47,0)</f>
+        <f>ROUND(K9*Inputs!K$38,0)</f>
         <v/>
       </c>
       <c r="L15" s="15">
-        <f>ROUND(L9*Inputs!L$47,0)</f>
+        <f>ROUND(L9*Inputs!L$38,0)</f>
         <v/>
       </c>
       <c r="M15" s="15">
-        <f>ROUND(M9*Inputs!M$47,0)</f>
+        <f>ROUND(M9*Inputs!M$38,0)</f>
         <v/>
       </c>
     </row>
@@ -3852,51 +3730,51 @@
         </is>
       </c>
       <c r="B16" s="15">
-        <f>ROUND(B9*Inputs!B$48,0)</f>
+        <f>ROUND(B9*Inputs!B$39,0)</f>
         <v/>
       </c>
       <c r="C16" s="15">
-        <f>ROUND(C9*Inputs!C$48,0)</f>
+        <f>ROUND(C9*Inputs!C$39,0)</f>
         <v/>
       </c>
       <c r="D16" s="15">
-        <f>ROUND(D9*Inputs!D$48,0)</f>
+        <f>ROUND(D9*Inputs!D$39,0)</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>ROUND(E9*Inputs!E$48,0)</f>
+        <f>ROUND(E9*Inputs!E$39,0)</f>
         <v/>
       </c>
       <c r="F16" s="15">
-        <f>ROUND(F9*Inputs!F$48,0)</f>
+        <f>ROUND(F9*Inputs!F$39,0)</f>
         <v/>
       </c>
       <c r="G16" s="15">
-        <f>ROUND(G9*Inputs!G$48,0)</f>
+        <f>ROUND(G9*Inputs!G$39,0)</f>
         <v/>
       </c>
       <c r="H16" s="15">
-        <f>ROUND(H9*Inputs!H$48,0)</f>
+        <f>ROUND(H9*Inputs!H$39,0)</f>
         <v/>
       </c>
       <c r="I16" s="15">
-        <f>ROUND(I9*Inputs!I$48,0)</f>
+        <f>ROUND(I9*Inputs!I$39,0)</f>
         <v/>
       </c>
       <c r="J16" s="15">
-        <f>ROUND(J9*Inputs!J$48,0)</f>
+        <f>ROUND(J9*Inputs!J$39,0)</f>
         <v/>
       </c>
       <c r="K16" s="15">
-        <f>ROUND(K9*Inputs!K$48,0)</f>
+        <f>ROUND(K9*Inputs!K$39,0)</f>
         <v/>
       </c>
       <c r="L16" s="15">
-        <f>ROUND(L9*Inputs!L$48,0)</f>
+        <f>ROUND(L9*Inputs!L$39,0)</f>
         <v/>
       </c>
       <c r="M16" s="15">
-        <f>ROUND(M9*Inputs!M$48,0)</f>
+        <f>ROUND(M9*Inputs!M$39,0)</f>
         <v/>
       </c>
     </row>
@@ -4122,6 +4000,288 @@
       </c>
       <c r="M21" s="15">
         <f>MAX(0,(L13+L14+L15+L16)-(M13+M14+M15+M16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="39" t="inlineStr">
+        <is>
+          <t>--- New Tier Arrivals (for One-time Missions) ---</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="25" t="inlineStr">
+        <is>
+          <t>New Arrivals at Bronze</t>
+        </is>
+      </c>
+      <c r="B23" s="15">
+        <f>B12</f>
+        <v/>
+      </c>
+      <c r="C23" s="15">
+        <f>MAX(0,C12-B12)</f>
+        <v/>
+      </c>
+      <c r="D23" s="15">
+        <f>MAX(0,D12-C12)</f>
+        <v/>
+      </c>
+      <c r="E23" s="15">
+        <f>MAX(0,E12-D12)</f>
+        <v/>
+      </c>
+      <c r="F23" s="15">
+        <f>MAX(0,F12-E12)</f>
+        <v/>
+      </c>
+      <c r="G23" s="15">
+        <f>MAX(0,G12-F12)</f>
+        <v/>
+      </c>
+      <c r="H23" s="15">
+        <f>MAX(0,H12-G12)</f>
+        <v/>
+      </c>
+      <c r="I23" s="15">
+        <f>MAX(0,I12-H12)</f>
+        <v/>
+      </c>
+      <c r="J23" s="15">
+        <f>MAX(0,J12-I12)</f>
+        <v/>
+      </c>
+      <c r="K23" s="15">
+        <f>MAX(0,K12-J12)</f>
+        <v/>
+      </c>
+      <c r="L23" s="15">
+        <f>MAX(0,L12-K12)</f>
+        <v/>
+      </c>
+      <c r="M23" s="15">
+        <f>MAX(0,M12-L12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="25" t="inlineStr">
+        <is>
+          <t>New Arrivals at Silver</t>
+        </is>
+      </c>
+      <c r="B24" s="15">
+        <f>B13</f>
+        <v/>
+      </c>
+      <c r="C24" s="15">
+        <f>MAX(0,C13-B13)</f>
+        <v/>
+      </c>
+      <c r="D24" s="15">
+        <f>MAX(0,D13-C13)</f>
+        <v/>
+      </c>
+      <c r="E24" s="15">
+        <f>MAX(0,E13-D13)</f>
+        <v/>
+      </c>
+      <c r="F24" s="15">
+        <f>MAX(0,F13-E13)</f>
+        <v/>
+      </c>
+      <c r="G24" s="15">
+        <f>MAX(0,G13-F13)</f>
+        <v/>
+      </c>
+      <c r="H24" s="15">
+        <f>MAX(0,H13-G13)</f>
+        <v/>
+      </c>
+      <c r="I24" s="15">
+        <f>MAX(0,I13-H13)</f>
+        <v/>
+      </c>
+      <c r="J24" s="15">
+        <f>MAX(0,J13-I13)</f>
+        <v/>
+      </c>
+      <c r="K24" s="15">
+        <f>MAX(0,K13-J13)</f>
+        <v/>
+      </c>
+      <c r="L24" s="15">
+        <f>MAX(0,L13-K13)</f>
+        <v/>
+      </c>
+      <c r="M24" s="15">
+        <f>MAX(0,M13-L13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="25" t="inlineStr">
+        <is>
+          <t>New Arrivals at Gold</t>
+        </is>
+      </c>
+      <c r="B25" s="15">
+        <f>B14</f>
+        <v/>
+      </c>
+      <c r="C25" s="15">
+        <f>MAX(0,C14-B14)</f>
+        <v/>
+      </c>
+      <c r="D25" s="15">
+        <f>MAX(0,D14-C14)</f>
+        <v/>
+      </c>
+      <c r="E25" s="15">
+        <f>MAX(0,E14-D14)</f>
+        <v/>
+      </c>
+      <c r="F25" s="15">
+        <f>MAX(0,F14-E14)</f>
+        <v/>
+      </c>
+      <c r="G25" s="15">
+        <f>MAX(0,G14-F14)</f>
+        <v/>
+      </c>
+      <c r="H25" s="15">
+        <f>MAX(0,H14-G14)</f>
+        <v/>
+      </c>
+      <c r="I25" s="15">
+        <f>MAX(0,I14-H14)</f>
+        <v/>
+      </c>
+      <c r="J25" s="15">
+        <f>MAX(0,J14-I14)</f>
+        <v/>
+      </c>
+      <c r="K25" s="15">
+        <f>MAX(0,K14-J14)</f>
+        <v/>
+      </c>
+      <c r="L25" s="15">
+        <f>MAX(0,L14-K14)</f>
+        <v/>
+      </c>
+      <c r="M25" s="15">
+        <f>MAX(0,M14-L14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="25" t="inlineStr">
+        <is>
+          <t>New Arrivals at Platinum</t>
+        </is>
+      </c>
+      <c r="B26" s="15">
+        <f>B15</f>
+        <v/>
+      </c>
+      <c r="C26" s="15">
+        <f>MAX(0,C15-B15)</f>
+        <v/>
+      </c>
+      <c r="D26" s="15">
+        <f>MAX(0,D15-C15)</f>
+        <v/>
+      </c>
+      <c r="E26" s="15">
+        <f>MAX(0,E15-D15)</f>
+        <v/>
+      </c>
+      <c r="F26" s="15">
+        <f>MAX(0,F15-E15)</f>
+        <v/>
+      </c>
+      <c r="G26" s="15">
+        <f>MAX(0,G15-F15)</f>
+        <v/>
+      </c>
+      <c r="H26" s="15">
+        <f>MAX(0,H15-G15)</f>
+        <v/>
+      </c>
+      <c r="I26" s="15">
+        <f>MAX(0,I15-H15)</f>
+        <v/>
+      </c>
+      <c r="J26" s="15">
+        <f>MAX(0,J15-I15)</f>
+        <v/>
+      </c>
+      <c r="K26" s="15">
+        <f>MAX(0,K15-J15)</f>
+        <v/>
+      </c>
+      <c r="L26" s="15">
+        <f>MAX(0,L15-K15)</f>
+        <v/>
+      </c>
+      <c r="M26" s="15">
+        <f>MAX(0,M15-L15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="25" t="inlineStr">
+        <is>
+          <t>New Arrivals at Diamond</t>
+        </is>
+      </c>
+      <c r="B27" s="15">
+        <f>B16</f>
+        <v/>
+      </c>
+      <c r="C27" s="15">
+        <f>MAX(0,C16-B16)</f>
+        <v/>
+      </c>
+      <c r="D27" s="15">
+        <f>MAX(0,D16-C16)</f>
+        <v/>
+      </c>
+      <c r="E27" s="15">
+        <f>MAX(0,E16-D16)</f>
+        <v/>
+      </c>
+      <c r="F27" s="15">
+        <f>MAX(0,F16-E16)</f>
+        <v/>
+      </c>
+      <c r="G27" s="15">
+        <f>MAX(0,G16-F16)</f>
+        <v/>
+      </c>
+      <c r="H27" s="15">
+        <f>MAX(0,H16-G16)</f>
+        <v/>
+      </c>
+      <c r="I27" s="15">
+        <f>MAX(0,I16-H16)</f>
+        <v/>
+      </c>
+      <c r="J27" s="15">
+        <f>MAX(0,J16-I16)</f>
+        <v/>
+      </c>
+      <c r="K27" s="15">
+        <f>MAX(0,K16-J16)</f>
+        <v/>
+      </c>
+      <c r="L27" s="15">
+        <f>MAX(0,L16-K16)</f>
+        <v/>
+      </c>
+      <c r="M27" s="15">
+        <f>MAX(0,M16-L16)</f>
         <v/>
       </c>
     </row>
@@ -4240,51 +4400,51 @@
         </is>
       </c>
       <c r="B5" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$B$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$B$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C5" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$B$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$B$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D5" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$B$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$B$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E5" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$B$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$B$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F5" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$B$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$B$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G5" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$B$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$B$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H5" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$B$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$B$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I5" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$B$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$B$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J5" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$B$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$B$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K5" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$B$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$B$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L5" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$B$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$B$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M5" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$B$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$B$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -4295,51 +4455,51 @@
         </is>
       </c>
       <c r="B6" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$E$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$E$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C6" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$E$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$E$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$E$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$E$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$E$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$E$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$E$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$E$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$E$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$E$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$E$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$E$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I6" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$E$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$E$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J6" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$E$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$E$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K6" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$E$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$E$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L6" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$E$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$E$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M6" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$E$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$E$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -4350,51 +4510,51 @@
         </is>
       </c>
       <c r="B7" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$G$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$G$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C7" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$G$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$G$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D7" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$G$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$G$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E7" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$G$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$G$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F7" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$G$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$G$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G7" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$G$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$G$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H7" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$G$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$G$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I7" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$G$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$G$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J7" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$G$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$G$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K7" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$G$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$G$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L7" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$G$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$G$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M7" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$G$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$G$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -4405,51 +4565,51 @@
         </is>
       </c>
       <c r="B8" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$I$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$I$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C8" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$I$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$I$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D8" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$I$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$I$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E8" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$I$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$I$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F8" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$I$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$I$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G8" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$I$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$I$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$I$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$I$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I8" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$I$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$I$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J8" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$I$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$I$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K8" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$I$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$I$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L8" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$I$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$I$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M8" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$I$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$I$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -4460,51 +4620,51 @@
         </is>
       </c>
       <c r="B9" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$K$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$K$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C9" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$K$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$K$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D9" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$K$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$K$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E9" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$K$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$K$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F9" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$K$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$K$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G9" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$K$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$K$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H9" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$K$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$K$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I9" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$K$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$K$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J9" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$K$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$K$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K9" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$K$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$K$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L9" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$K$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$K$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M9" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$K$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$K$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -4515,51 +4675,51 @@
         </is>
       </c>
       <c r="B10" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$M$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!B$45:B$48)/SUM(Inputs!B$45:B$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$M$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
         <v/>
       </c>
       <c r="C10" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$M$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!C$45:C$48)/SUM(Inputs!C$45:C$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$M$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
         <v/>
       </c>
       <c r="D10" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$M$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!D$45:D$48)/SUM(Inputs!D$45:D$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$M$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
         <v/>
       </c>
       <c r="E10" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$M$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!E$45:E$48)/SUM(Inputs!E$45:E$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$M$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
         <v/>
       </c>
       <c r="F10" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$M$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!F$45:F$48)/SUM(Inputs!F$45:F$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$M$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
         <v/>
       </c>
       <c r="G10" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$M$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!G$45:G$48)/SUM(Inputs!G$45:G$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$M$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
         <v/>
       </c>
       <c r="H10" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$M$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!H$45:H$48)/SUM(Inputs!H$45:H$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$M$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
         <v/>
       </c>
       <c r="I10" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$M$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!I$45:I$48)/SUM(Inputs!I$45:I$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$M$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
         <v/>
       </c>
       <c r="J10" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$M$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!J$45:J$48)/SUM(Inputs!J$45:J$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$M$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
         <v/>
       </c>
       <c r="K10" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$M$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!K$45:K$48)/SUM(Inputs!K$45:K$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$M$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
         <v/>
       </c>
       <c r="L10" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$M$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!L$45:L$48)/SUM(Inputs!L$45:L$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$M$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
         <v/>
       </c>
       <c r="M10" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$M$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!M$45:M$48)/SUM(Inputs!M$45:M$48),0),0)</f>
+        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$M$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
         <v/>
       </c>
     </row>
@@ -5175,51 +5335,51 @@
         </is>
       </c>
       <c r="B7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$44:B$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$44:C$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$44:D$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$44:E$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$44:F$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$44:G$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$44:H$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$44:I$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$44:J$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$44:K$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$44:L$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M7" s="9">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$44:M$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -5612,51 +5772,51 @@
         </is>
       </c>
       <c r="B5" s="17">
-        <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$44:B$48)</f>
+        <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C5" s="17">
-        <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$44:C$48)</f>
+        <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D5" s="17">
-        <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$44:D$48)</f>
+        <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E5" s="17">
-        <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$44:E$48)</f>
+        <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F5" s="17">
-        <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$44:F$48)</f>
+        <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G5" s="17">
-        <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$44:G$48)</f>
+        <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H5" s="17">
-        <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$44:H$48)</f>
+        <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I5" s="17">
-        <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$44:I$48)</f>
+        <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J5" s="17">
-        <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$44:J$48)</f>
+        <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K5" s="17">
-        <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$44:K$48)</f>
+        <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L5" s="17">
-        <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$44:L$48)</f>
+        <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M5" s="17">
-        <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$44:M$48)</f>
+        <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -5667,51 +5827,51 @@
         </is>
       </c>
       <c r="B6" s="17">
-        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!B$44:B$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!B$44:B$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!B$44:B$48)*Revenue!B10</f>
+        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!B$35:B$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!B$35:B$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!B$35:B$39)*Revenue!B10</f>
         <v/>
       </c>
       <c r="C6" s="17">
-        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!C$44:C$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!C$44:C$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!C$44:C$48)*Revenue!C10</f>
+        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!C$35:C$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!C$35:C$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!C$35:C$39)*Revenue!C10</f>
         <v/>
       </c>
       <c r="D6" s="17">
-        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!D$44:D$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!D$44:D$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!D$44:D$48)*Revenue!D10</f>
+        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!D$35:D$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!D$35:D$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!D$35:D$39)*Revenue!D10</f>
         <v/>
       </c>
       <c r="E6" s="17">
-        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!E$44:E$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!E$44:E$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!E$44:E$48)*Revenue!E10</f>
+        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!E$35:E$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!E$35:E$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!E$35:E$39)*Revenue!E10</f>
         <v/>
       </c>
       <c r="F6" s="17">
-        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!F$44:F$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!F$44:F$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!F$44:F$48)*Revenue!F10</f>
+        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!F$35:F$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!F$35:F$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!F$35:F$39)*Revenue!F10</f>
         <v/>
       </c>
       <c r="G6" s="17">
-        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!G$44:G$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!G$44:G$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!G$44:G$48)*Revenue!G10</f>
+        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!G$35:G$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!G$35:G$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!G$35:G$39)*Revenue!G10</f>
         <v/>
       </c>
       <c r="H6" s="17">
-        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!H$44:H$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!H$44:H$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!H$44:H$48)*Revenue!H10</f>
+        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!H$35:H$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!H$35:H$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!H$35:H$39)*Revenue!H10</f>
         <v/>
       </c>
       <c r="I6" s="17">
-        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!I$44:I$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!I$44:I$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!I$44:I$48)*Revenue!I10</f>
+        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!I$35:I$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!I$35:I$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!I$35:I$39)*Revenue!I10</f>
         <v/>
       </c>
       <c r="J6" s="17">
-        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!J$44:J$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!J$44:J$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!J$44:J$48)*Revenue!J10</f>
+        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!J$35:J$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!J$35:J$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!J$35:J$39)*Revenue!J10</f>
         <v/>
       </c>
       <c r="K6" s="17">
-        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!K$44:K$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!K$44:K$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!K$44:K$48)*Revenue!K10</f>
+        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!K$35:K$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!K$35:K$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!K$35:K$39)*Revenue!K10</f>
         <v/>
       </c>
       <c r="L6" s="17">
-        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!L$44:L$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!L$44:L$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!L$44:L$48)*Revenue!L10</f>
+        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!L$35:L$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!L$35:L$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!L$35:L$39)*Revenue!L10</f>
         <v/>
       </c>
       <c r="M6" s="17">
-        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!M$44:M$48)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!M$44:M$48)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!M$44:M$48)*Revenue!M10</f>
+        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!M$35:M$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!M$35:M$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!M$35:M$39)*Revenue!M10</f>
         <v/>
       </c>
     </row>
@@ -5722,51 +5882,51 @@
         </is>
       </c>
       <c r="B7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -5832,51 +5992,51 @@
         </is>
       </c>
       <c r="B9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -5952,51 +6112,51 @@
         </is>
       </c>
       <c r="B13" s="17">
-        <f>'Reward Triggers'!B6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!B$44:B$48)</f>
+        <f>'Reward Triggers'!B6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C13" s="17">
-        <f>'Reward Triggers'!C6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!C$44:C$48)</f>
+        <f>'Reward Triggers'!C6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D13" s="17">
-        <f>'Reward Triggers'!D6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!D$44:D$48)</f>
+        <f>'Reward Triggers'!D6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E13" s="17">
-        <f>'Reward Triggers'!E6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!E$44:E$48)</f>
+        <f>'Reward Triggers'!E6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F13" s="17">
-        <f>'Reward Triggers'!F6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!F$44:F$48)</f>
+        <f>'Reward Triggers'!F6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G13" s="17">
-        <f>'Reward Triggers'!G6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!G$44:G$48)</f>
+        <f>'Reward Triggers'!G6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H13" s="17">
-        <f>'Reward Triggers'!H6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!H$44:H$48)</f>
+        <f>'Reward Triggers'!H6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I13" s="17">
-        <f>'Reward Triggers'!I6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!I$44:I$48)</f>
+        <f>'Reward Triggers'!I6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J13" s="17">
-        <f>'Reward Triggers'!J6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!J$44:J$48)</f>
+        <f>'Reward Triggers'!J6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K13" s="17">
-        <f>'Reward Triggers'!K6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!K$44:K$48)</f>
+        <f>'Reward Triggers'!K6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L13" s="17">
-        <f>'Reward Triggers'!L6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!L$44:L$48)</f>
+        <f>'Reward Triggers'!L6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M13" s="17">
-        <f>'Reward Triggers'!M6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!M$44:M$48)</f>
+        <f>'Reward Triggers'!M6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -6007,51 +6167,51 @@
         </is>
       </c>
       <c r="B14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -6182,51 +6342,51 @@
         </is>
       </c>
       <c r="B19" s="17">
-        <f>'Reward Triggers'!B8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!B$44:B$48)</f>
+        <f>'Reward Triggers'!B8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C19" s="17">
-        <f>'Reward Triggers'!C8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!C$44:C$48)</f>
+        <f>'Reward Triggers'!C8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D19" s="17">
-        <f>'Reward Triggers'!D8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!D$44:D$48)</f>
+        <f>'Reward Triggers'!D8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E19" s="17">
-        <f>'Reward Triggers'!E8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!E$44:E$48)</f>
+        <f>'Reward Triggers'!E8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F19" s="17">
-        <f>'Reward Triggers'!F8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!F$44:F$48)</f>
+        <f>'Reward Triggers'!F8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G19" s="17">
-        <f>'Reward Triggers'!G8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!G$44:G$48)</f>
+        <f>'Reward Triggers'!G8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H19" s="17">
-        <f>'Reward Triggers'!H8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!H$44:H$48)</f>
+        <f>'Reward Triggers'!H8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I19" s="17">
-        <f>'Reward Triggers'!I8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!I$44:I$48)</f>
+        <f>'Reward Triggers'!I8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J19" s="17">
-        <f>'Reward Triggers'!J8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!J$44:J$48)</f>
+        <f>'Reward Triggers'!J8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K19" s="17">
-        <f>'Reward Triggers'!K8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!K$44:K$48)</f>
+        <f>'Reward Triggers'!K8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L19" s="17">
-        <f>'Reward Triggers'!L8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!L$44:L$48)</f>
+        <f>'Reward Triggers'!L8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M19" s="17">
-        <f>'Reward Triggers'!M8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!M$44:M$48)</f>
+        <f>'Reward Triggers'!M8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -6237,51 +6397,51 @@
         </is>
       </c>
       <c r="B20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -6292,51 +6452,51 @@
         </is>
       </c>
       <c r="B21" s="17">
-        <f>'Reward Triggers'!B9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!B$44:B$48)</f>
+        <f>'Reward Triggers'!B9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C21" s="17">
-        <f>'Reward Triggers'!C9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!C$44:C$48)</f>
+        <f>'Reward Triggers'!C9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D21" s="17">
-        <f>'Reward Triggers'!D9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!D$44:D$48)</f>
+        <f>'Reward Triggers'!D9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E21" s="17">
-        <f>'Reward Triggers'!E9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!E$44:E$48)</f>
+        <f>'Reward Triggers'!E9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F21" s="17">
-        <f>'Reward Triggers'!F9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!F$44:F$48)</f>
+        <f>'Reward Triggers'!F9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G21" s="17">
-        <f>'Reward Triggers'!G9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!G$44:G$48)</f>
+        <f>'Reward Triggers'!G9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H21" s="17">
-        <f>'Reward Triggers'!H9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!H$44:H$48)</f>
+        <f>'Reward Triggers'!H9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I21" s="17">
-        <f>'Reward Triggers'!I9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!I$44:I$48)</f>
+        <f>'Reward Triggers'!I9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J21" s="17">
-        <f>'Reward Triggers'!J9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!J$44:J$48)</f>
+        <f>'Reward Triggers'!J9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K21" s="17">
-        <f>'Reward Triggers'!K9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!K$44:K$48)</f>
+        <f>'Reward Triggers'!K9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L21" s="17">
-        <f>'Reward Triggers'!L9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!L$44:L$48)</f>
+        <f>'Reward Triggers'!L9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M21" s="17">
-        <f>'Reward Triggers'!M9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!M$44:M$48)</f>
+        <f>'Reward Triggers'!M9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -6347,51 +6507,51 @@
         </is>
       </c>
       <c r="B22" s="17">
-        <f>'Reward Triggers'!B10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!B$44:B$48)</f>
+        <f>'Reward Triggers'!B10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
       <c r="C22" s="17">
-        <f>'Reward Triggers'!C10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!C$44:C$48)</f>
+        <f>'Reward Triggers'!C10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
       <c r="D22" s="17">
-        <f>'Reward Triggers'!D10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!D$44:D$48)</f>
+        <f>'Reward Triggers'!D10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
       <c r="E22" s="17">
-        <f>'Reward Triggers'!E10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!E$44:E$48)</f>
+        <f>'Reward Triggers'!E10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
       <c r="F22" s="17">
-        <f>'Reward Triggers'!F10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!F$44:F$48)</f>
+        <f>'Reward Triggers'!F10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
       <c r="G22" s="17">
-        <f>'Reward Triggers'!G10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!G$44:G$48)</f>
+        <f>'Reward Triggers'!G10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
       <c r="H22" s="17">
-        <f>'Reward Triggers'!H10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!H$44:H$48)</f>
+        <f>'Reward Triggers'!H10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
       <c r="I22" s="17">
-        <f>'Reward Triggers'!I10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!I$44:I$48)</f>
+        <f>'Reward Triggers'!I10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
       <c r="J22" s="17">
-        <f>'Reward Triggers'!J10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!J$44:J$48)</f>
+        <f>'Reward Triggers'!J10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
       <c r="K22" s="17">
-        <f>'Reward Triggers'!K10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!K$44:K$48)</f>
+        <f>'Reward Triggers'!K10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
       <c r="L22" s="17">
-        <f>'Reward Triggers'!L10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!L$44:L$48)</f>
+        <f>'Reward Triggers'!L10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
       <c r="M22" s="17">
-        <f>'Reward Triggers'!M10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!M$44:M$48)</f>
+        <f>'Reward Triggers'!M10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
@@ -6820,7 +6980,7 @@
         </is>
       </c>
       <c r="B26" s="13">
-        <f>SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$M$44:$M$48)</f>
+        <f>SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$M$35:$M$39)</f>
         <v/>
       </c>
     </row>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,12 +58,6 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -101,22 +95,24 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="FF666666"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
     </font>
     <font>
-      <i val="1"/>
-      <color rgb="00666666"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="10">
@@ -158,20 +154,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6DCE5"/>
-        <bgColor rgb="00D6DCE5"/>
+        <fgColor rgb="FFD6DCE5"/>
+        <bgColor rgb="FFD6DCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC000"/>
-        <bgColor rgb="00FFC000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,16 +195,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -224,8 +229,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -243,50 +246,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,34 +654,34 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" style="30" min="1" max="1"/>
-    <col width="18" customWidth="1" style="30" min="2" max="2"/>
-    <col width="12" customWidth="1" style="30" min="3" max="4"/>
-    <col width="45" customWidth="1" style="30" min="5" max="5"/>
-    <col width="32.7109375" customWidth="1" style="30" min="7" max="7"/>
+    <col width="40" customWidth="1" style="32" min="1" max="1"/>
+    <col width="18" customWidth="1" style="32" min="2" max="2"/>
+    <col width="12" customWidth="1" style="32" min="3" max="4"/>
+    <col width="45" customWidth="1" style="32" min="5" max="5"/>
+    <col width="32.7109375" customWidth="1" style="32" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="30">
+    <row r="3" ht="18.75" customHeight="1" s="32">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ACQUISITION INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="30">
+    <row r="4" ht="15.75" customHeight="1" s="32">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -697,7 +697,7 @@
           <t>Unit</t>
         </is>
       </c>
-      <c r="D4" s="24" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -707,7 +707,7 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="G4" s="19" t="inlineStr">
+      <c r="G4" s="17" t="inlineStr">
         <is>
           <t>Used by</t>
         </is>
@@ -815,7 +815,7 @@
           <t>Lag between conversion and first sale</t>
         </is>
       </c>
-      <c r="G8" s="21" t="inlineStr">
+      <c r="G8" s="18" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
@@ -851,14 +851,14 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="18.75" customHeight="1" s="32">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>PERFORMANCE INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="30">
+    <row r="12" ht="18.75" customHeight="1" s="32">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -881,7 +881,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="30">
+    <row r="13" ht="15.75" customHeight="1" s="32">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
@@ -899,14 +899,14 @@
           <t>Monthly sales velocity per active affiliate</t>
         </is>
       </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="G13" s="19" t="inlineStr">
         <is>
           <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
 Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" s="30">
+    <row r="14" ht="75" customHeight="1" s="32">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Gross AOV</t>
@@ -952,20 +952,20 @@
           <t>Time period for VIP level qualification</t>
         </is>
       </c>
-      <c r="G15" s="21" t="inlineStr">
+      <c r="G15" s="18" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="18.75" customHeight="1" s="32">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>REDEMPTION &amp; BEHAVIOR INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="30">
+    <row r="19" ht="18.75" customHeight="1" s="32">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -988,7 +988,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="30">
+    <row r="20" ht="15.75" customHeight="1" s="32">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Discount Redemption Rate</t>
@@ -1034,7 +1034,7 @@
           <t>Default completion rate for missions</t>
         </is>
       </c>
-      <c r="G21" s="21" t="inlineStr">
+      <c r="G21" s="18" t="inlineStr">
         <is>
           <t>Overriden by mission sheet… delete?</t>
         </is>
@@ -1064,14 +1064,14 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="18.75" customHeight="1" s="32">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>COST INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="30">
+    <row r="26" ht="18.75" customHeight="1" s="32">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="30">
+    <row r="27" ht="15.75" customHeight="1" s="32">
       <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Cost per Sample</t>
@@ -1120,484 +1120,484 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="30"/>
-    <row r="32">
-      <c r="A32" s="31" t="inlineStr">
+    <row r="31" ht="18.75" customHeight="1" s="32"/>
+    <row r="32" ht="15.75" customHeight="1" s="32">
+      <c r="A32" s="23" t="inlineStr">
         <is>
           <t>MONTHLY LEVEL DISTRIBUTION</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="31.5" customHeight="1" s="30">
-      <c r="A33" s="32" t="inlineStr">
+    <row r="33" ht="31.5" customHeight="1" s="32">
+      <c r="A33" s="24" t="inlineStr">
         <is>
           <t>(% of affiliates at each level per month)</t>
         </is>
       </c>
-      <c r="B33" s="10" t="n"/>
+      <c r="B33" s="8" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="33" t="inlineStr">
+      <c r="A34" s="25" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="B34" s="33" t="inlineStr">
+      <c r="B34" s="25" t="inlineStr">
         <is>
           <t>Month 1</t>
         </is>
       </c>
-      <c r="C34" s="33" t="inlineStr">
+      <c r="C34" s="25" t="inlineStr">
         <is>
           <t>Month 2</t>
         </is>
       </c>
-      <c r="D34" s="33" t="inlineStr">
+      <c r="D34" s="25" t="inlineStr">
         <is>
           <t>Month 3</t>
         </is>
       </c>
-      <c r="E34" s="33" t="inlineStr">
+      <c r="E34" s="25" t="inlineStr">
         <is>
           <t>Month 4</t>
         </is>
       </c>
-      <c r="F34" s="33" t="inlineStr">
+      <c r="F34" s="25" t="inlineStr">
         <is>
           <t>Month 5</t>
         </is>
       </c>
-      <c r="G34" s="33" t="inlineStr">
+      <c r="G34" s="25" t="inlineStr">
         <is>
           <t>Month 6</t>
         </is>
       </c>
-      <c r="H34" s="33" t="inlineStr">
+      <c r="H34" s="25" t="inlineStr">
         <is>
           <t>Month 7</t>
         </is>
       </c>
-      <c r="I34" s="33" t="inlineStr">
+      <c r="I34" s="25" t="inlineStr">
         <is>
           <t>Month 8</t>
         </is>
       </c>
-      <c r="J34" s="33" t="inlineStr">
+      <c r="J34" s="25" t="inlineStr">
         <is>
           <t>Month 9</t>
         </is>
       </c>
-      <c r="K34" s="33" t="inlineStr">
+      <c r="K34" s="25" t="inlineStr">
         <is>
           <t>Month 10</t>
         </is>
       </c>
-      <c r="L34" s="33" t="inlineStr">
+      <c r="L34" s="25" t="inlineStr">
         <is>
           <t>Month 11</t>
         </is>
       </c>
-      <c r="M34" s="33" t="inlineStr">
+      <c r="M34" s="25" t="inlineStr">
         <is>
           <t>Month 12</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="34" t="inlineStr">
+      <c r="A35" s="26" t="inlineStr">
         <is>
           <t>Bronze</t>
         </is>
       </c>
-      <c r="B35" s="35" t="n">
+      <c r="B35" s="27" t="n">
         <v>0.9</v>
       </c>
-      <c r="C35" s="35" t="n">
+      <c r="C35" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="D35" s="35" t="n">
+      <c r="D35" s="27" t="n">
         <v>0.7</v>
       </c>
-      <c r="E35" s="35" t="n">
+      <c r="E35" s="27" t="n">
         <v>0.62</v>
       </c>
-      <c r="F35" s="35" t="n">
+      <c r="F35" s="27" t="n">
         <v>0.55</v>
       </c>
-      <c r="G35" s="35" t="n">
+      <c r="G35" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="H35" s="35" t="n">
+      <c r="H35" s="27" t="n">
         <v>0.47</v>
       </c>
-      <c r="I35" s="35" t="n">
+      <c r="I35" s="27" t="n">
         <v>0.44</v>
       </c>
-      <c r="J35" s="35" t="n">
+      <c r="J35" s="27" t="n">
         <v>0.42</v>
       </c>
-      <c r="K35" s="35" t="n">
+      <c r="K35" s="27" t="n">
         <v>0.4</v>
       </c>
-      <c r="L35" s="35" t="n">
+      <c r="L35" s="27" t="n">
         <v>0.38</v>
       </c>
-      <c r="M35" s="35" t="n">
+      <c r="M35" s="27" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="34" t="inlineStr">
+      <c r="A36" s="26" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
       </c>
-      <c r="B36" s="35" t="n">
+      <c r="B36" s="27" t="n">
         <v>0.1</v>
       </c>
-      <c r="C36" s="35" t="n">
+      <c r="C36" s="27" t="n">
         <v>0.15</v>
       </c>
-      <c r="D36" s="35" t="n">
+      <c r="D36" s="27" t="n">
         <v>0.2</v>
       </c>
-      <c r="E36" s="35" t="n">
+      <c r="E36" s="27" t="n">
         <v>0.23</v>
       </c>
-      <c r="F36" s="35" t="n">
+      <c r="F36" s="27" t="n">
         <v>0.26</v>
       </c>
-      <c r="G36" s="35" t="n">
+      <c r="G36" s="27" t="n">
         <v>0.28</v>
       </c>
-      <c r="H36" s="35" t="n">
+      <c r="H36" s="27" t="n">
         <v>0.29</v>
       </c>
-      <c r="I36" s="35" t="n">
+      <c r="I36" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="J36" s="35" t="n">
+      <c r="J36" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="K36" s="35" t="n">
+      <c r="K36" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="L36" s="35" t="n">
+      <c r="L36" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="M36" s="35" t="n">
+      <c r="M36" s="27" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="34" t="inlineStr">
+      <c r="A37" s="26" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
       </c>
-      <c r="B37" s="35" t="n">
+      <c r="B37" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="35" t="n">
+      <c r="C37" s="27" t="n">
         <v>0.05</v>
       </c>
-      <c r="D37" s="35" t="n">
+      <c r="D37" s="27" t="n">
         <v>0.08</v>
       </c>
-      <c r="E37" s="35" t="n">
+      <c r="E37" s="27" t="n">
         <v>0.1</v>
       </c>
-      <c r="F37" s="35" t="n">
+      <c r="F37" s="27" t="n">
         <v>0.12</v>
       </c>
-      <c r="G37" s="35" t="n">
+      <c r="G37" s="27" t="n">
         <v>0.14</v>
       </c>
-      <c r="H37" s="35" t="n">
+      <c r="H37" s="27" t="n">
         <v>0.15</v>
       </c>
-      <c r="I37" s="35" t="n">
+      <c r="I37" s="27" t="n">
         <v>0.16</v>
       </c>
-      <c r="J37" s="35" t="n">
+      <c r="J37" s="27" t="n">
         <v>0.17</v>
       </c>
-      <c r="K37" s="35" t="n">
+      <c r="K37" s="27" t="n">
         <v>0.18</v>
       </c>
-      <c r="L37" s="35" t="n">
+      <c r="L37" s="27" t="n">
         <v>0.19</v>
       </c>
-      <c r="M37" s="35" t="n">
+      <c r="M37" s="27" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="34" t="inlineStr">
+      <c r="A38" s="26" t="inlineStr">
         <is>
           <t>Platinum</t>
         </is>
       </c>
-      <c r="B38" s="35" t="n">
+      <c r="B38" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="35" t="n">
+      <c r="C38" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="35" t="n">
+      <c r="D38" s="27" t="n">
         <v>0.02</v>
       </c>
-      <c r="E38" s="35" t="n">
+      <c r="E38" s="27" t="n">
         <v>0.05</v>
       </c>
-      <c r="F38" s="35" t="n">
+      <c r="F38" s="27" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G38" s="35" t="n">
+      <c r="G38" s="27" t="n">
         <v>0.08</v>
       </c>
-      <c r="H38" s="35" t="n">
+      <c r="H38" s="27" t="n">
         <v>0.09</v>
       </c>
-      <c r="I38" s="35" t="n">
+      <c r="I38" s="27" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="35" t="n">
+      <c r="J38" s="27" t="n">
         <v>0.11</v>
       </c>
-      <c r="K38" s="35" t="n">
+      <c r="K38" s="27" t="n">
         <v>0.12</v>
       </c>
-      <c r="L38" s="35" t="n">
+      <c r="L38" s="27" t="n">
         <v>0.13</v>
       </c>
-      <c r="M38" s="35" t="n">
+      <c r="M38" s="27" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="34" t="inlineStr">
+      <c r="A39" s="26" t="inlineStr">
         <is>
           <t>Diamond</t>
         </is>
       </c>
-      <c r="B39" s="35" t="n">
+      <c r="B39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="C39" s="35" t="n">
+      <c r="C39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="35" t="n">
+      <c r="D39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="35" t="n">
+      <c r="E39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="35" t="n">
+      <c r="F39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="35" t="n">
+      <c r="G39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="35" t="n">
+      <c r="H39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="35" t="n">
+      <c r="I39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="35" t="n">
+      <c r="J39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="35" t="n">
+      <c r="K39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="L39" s="35" t="n">
+      <c r="L39" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="M39" s="35" t="n">
+      <c r="M39" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="36" t="inlineStr">
+      <c r="A40" s="28" t="inlineStr">
         <is>
           <t>Total (must = 100%)</t>
         </is>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="29">
         <f>SUM(B35:B39)</f>
         <v/>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="29">
         <f>SUM(C35:C39)</f>
         <v/>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="29">
         <f>SUM(D35:D39)</f>
         <v/>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="29">
         <f>SUM(E35:E39)</f>
         <v/>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="29">
         <f>SUM(F35:F39)</f>
         <v/>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="29">
         <f>SUM(G35:G39)</f>
         <v/>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="29">
         <f>SUM(H35:H39)</f>
         <v/>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="29">
         <f>SUM(I35:I39)</f>
         <v/>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="29">
         <f>SUM(J35:J39)</f>
         <v/>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="29">
         <f>SUM(K35:K39)</f>
         <v/>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="29">
         <f>SUM(L35:L39)</f>
         <v/>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="29">
         <f>SUM(M35:M39)</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" s="30">
-      <c r="A42" s="31" t="inlineStr">
+    <row r="42" ht="18.75" customHeight="1" s="32">
+      <c r="A42" s="23" t="inlineStr">
         <is>
           <t>MONTHLY FLYWHEEL AFFILIATES</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="inlineStr">
+      <c r="A43" s="24" t="inlineStr">
         <is>
           <t>(Organic inbound affiliates per month)</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="33" t="inlineStr">
+      <c r="A44" s="25" t="inlineStr">
         <is>
           <t>Flywheel</t>
         </is>
       </c>
-      <c r="B44" s="33" t="inlineStr">
+      <c r="B44" s="25" t="inlineStr">
         <is>
           <t>Month 1</t>
         </is>
       </c>
-      <c r="C44" s="33" t="inlineStr">
+      <c r="C44" s="25" t="inlineStr">
         <is>
           <t>Month 2</t>
         </is>
       </c>
-      <c r="D44" s="33" t="inlineStr">
+      <c r="D44" s="25" t="inlineStr">
         <is>
           <t>Month 3</t>
         </is>
       </c>
-      <c r="E44" s="33" t="inlineStr">
+      <c r="E44" s="25" t="inlineStr">
         <is>
           <t>Month 4</t>
         </is>
       </c>
-      <c r="F44" s="33" t="inlineStr">
+      <c r="F44" s="25" t="inlineStr">
         <is>
           <t>Month 5</t>
         </is>
       </c>
-      <c r="G44" s="33" t="inlineStr">
+      <c r="G44" s="25" t="inlineStr">
         <is>
           <t>Month 6</t>
         </is>
       </c>
-      <c r="H44" s="33" t="inlineStr">
+      <c r="H44" s="25" t="inlineStr">
         <is>
           <t>Month 7</t>
         </is>
       </c>
-      <c r="I44" s="33" t="inlineStr">
+      <c r="I44" s="25" t="inlineStr">
         <is>
           <t>Month 8</t>
         </is>
       </c>
-      <c r="J44" s="33" t="inlineStr">
+      <c r="J44" s="25" t="inlineStr">
         <is>
           <t>Month 9</t>
         </is>
       </c>
-      <c r="K44" s="33" t="inlineStr">
+      <c r="K44" s="25" t="inlineStr">
         <is>
           <t>Month 10</t>
         </is>
       </c>
-      <c r="L44" s="33" t="inlineStr">
+      <c r="L44" s="25" t="inlineStr">
         <is>
           <t>Month 11</t>
         </is>
       </c>
-      <c r="M44" s="33" t="inlineStr">
+      <c r="M44" s="25" t="inlineStr">
         <is>
           <t>Month 12</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="34" t="inlineStr">
+      <c r="A45" s="26" t="inlineStr">
         <is>
           <t>Affiliates</t>
         </is>
       </c>
-      <c r="B45" s="38" t="n">
+      <c r="B45" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D45" s="38" t="n">
+      <c r="D45" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="E45" s="38" t="n">
+      <c r="E45" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="38" t="n">
+      <c r="F45" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="G45" s="38" t="n">
+      <c r="G45" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="H45" s="38" t="n">
+      <c r="H45" s="30" t="n">
         <v>20</v>
       </c>
-      <c r="I45" s="38" t="n">
+      <c r="I45" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="J45" s="38" t="n">
+      <c r="J45" s="30" t="n">
         <v>25</v>
       </c>
-      <c r="K45" s="38" t="n">
+      <c r="K45" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="L45" s="38" t="n">
+      <c r="L45" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="M45" s="38" t="n">
+      <c r="M45" s="30" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="18.75" customHeight="1" s="32">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>LEGEND</t>
@@ -1610,7 +1610,7 @@
           <t>Yellow cells</t>
         </is>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="8">
         <f>Editable inputs</f>
         <v/>
       </c>
@@ -1621,12 +1621,12 @@
           <t>Green cells</t>
         </is>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <f>Calculated values</f>
         <v/>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1" s="30"/>
+    <row r="62" ht="18.75" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1644,32 +1644,32 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" style="30" min="1" max="1"/>
-    <col width="13" customWidth="1" style="30" min="2" max="4"/>
-    <col width="17.28515625" customWidth="1" style="30" min="5" max="5"/>
-    <col width="13" customWidth="1" style="30" min="6" max="14"/>
+    <col width="45" customWidth="1" style="32" min="1" max="1"/>
+    <col width="13" customWidth="1" style="32" min="2" max="4"/>
+    <col width="17.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="13" customWidth="1" style="32" min="6" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>VIP LEVEL CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="30">
+    <row r="3" ht="18.75" customHeight="1" s="32">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>LEVEL THRESHOLDS &amp; COMMISSION</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" s="30">
+    <row r="4" ht="47.25" customHeight="1" s="32">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Level #</t>
@@ -1709,9 +1709,9 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E7" s="26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E8" s="26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="22" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1787,18 +1787,18 @@
       <c r="D9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="30">
+    <row r="12" ht="18.75" customHeight="1" s="32">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>WELCOME REWARDS (Per Level)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="31.5" customHeight="1" s="30">
+    <row r="13" ht="31.5" customHeight="1" s="32">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -1839,32 +1839,37 @@
           <t>Discount %</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Discount Days</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Spark Ads Qty</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>Spark Ads $</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Phys Gift Qty</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>Phys Gift $</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>Experience Qty</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>Experience $</t>
         </is>
@@ -1888,7 +1893,7 @@
       <c r="E14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
@@ -1897,22 +1902,25 @@
       <c r="H14" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="K14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="M14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="O14" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,7 +1942,7 @@
       <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="10" t="n">
         <v>50</v>
       </c>
       <c r="G15" s="4" t="n">
@@ -1943,22 +1951,25 @@
       <c r="H15" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="K15" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="L15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="M15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="N15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="O15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +1991,7 @@
       <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="10" t="n">
         <v>100</v>
       </c>
       <c r="G16" s="4" t="n">
@@ -1989,22 +2000,25 @@
       <c r="H16" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="K16" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="L16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="M16" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="N16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="O16" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,7 +2040,7 @@
       <c r="E17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="10" t="n">
         <v>150</v>
       </c>
       <c r="G17" s="4" t="n">
@@ -2035,22 +2049,25 @@
       <c r="H17" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" t="n">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="K17" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="L17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="M17" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="N17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N17" s="12" t="n">
+      <c r="O17" s="10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2072,7 +2089,7 @@
       <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
@@ -2081,26 +2098,29 @@
       <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="12" t="n">
+      <c r="K18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="M18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="N18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="12" t="n">
+      <c r="O18" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" s="30"/>
+    <row r="21" ht="18.75" customHeight="1" s="32"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
@@ -2124,24 +2144,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="30" min="1" max="10"/>
+    <col width="18" customWidth="1" style="32" min="1" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>MISSION CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="30">
+    <row r="3" ht="18.75" customHeight="1" s="32">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MISSIONS BY VIP LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1" s="30">
+    <row r="4" ht="31.5" customHeight="1" s="32">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>VIP Level</t>
@@ -2220,7 +2240,7 @@
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="10" t="n">
         <v>25</v>
       </c>
       <c r="H5" s="4" t="n">
@@ -2231,7 +2251,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f>IF(D5="Weekly",(Inputs!$B$15/30)*4,IF(D5="Monthly",Inputs!$B$15/30,1))*IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2263,7 +2283,7 @@
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="10" t="n">
         <v>25</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -2274,7 +2294,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f>IF(D6="Weekly",(Inputs!$B$15/30)*4,IF(D6="Monthly",Inputs!$B$15/30,1))*IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2317,7 +2337,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f>IF(D7="Weekly",(Inputs!$B$15/30)*4,IF(D7="Monthly",Inputs!$B$15/30,1))*IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2349,7 +2369,7 @@
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="10" t="n">
         <v>50</v>
       </c>
       <c r="H8" s="4" t="n">
@@ -2360,7 +2380,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f>IF(D8="Weekly",(Inputs!$B$15/30)*4,IF(D8="Monthly",Inputs!$B$15/30,1))*IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2403,7 +2423,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <f>IF(D9="Weekly",(Inputs!$B$15/30)*4,IF(D9="Monthly",Inputs!$B$15/30,1))*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2446,7 +2466,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f>IF(D10="Weekly",(Inputs!$B$15/30)*4,IF(D10="Monthly",Inputs!$B$15/30,1))*IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2478,7 +2498,7 @@
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="10" t="n">
         <v>150</v>
       </c>
       <c r="H11" s="4" t="n">
@@ -2489,7 +2509,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f>IF(D11="Weekly",(Inputs!$B$15/30)*4,IF(D11="Monthly",Inputs!$B$15/30,1))*IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2532,7 +2552,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f>IF(D12="Weekly",(Inputs!$B$15/30)*4,IF(D12="Monthly",Inputs!$B$15/30,1))*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2575,7 +2595,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f>IF(D13="Weekly",(Inputs!$B$15/30)*4,IF(D13="Monthly",Inputs!$B$15/30,1))*IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2607,7 +2627,7 @@
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="10" t="n">
         <v>400</v>
       </c>
       <c r="H14" s="4" t="n">
@@ -2618,7 +2638,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f>IF(D14="Weekly",(Inputs!$B$15/30)*4,IF(D14="Monthly",Inputs!$B$15/30,1))*IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2661,7 +2681,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <f>IF(D15="Weekly",(Inputs!$B$15/30)*4,IF(D15="Monthly",Inputs!$B$15/30,1))*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2704,7 +2724,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f>IF(D16="Weekly",(Inputs!$B$15/30)*4,IF(D16="Monthly",Inputs!$B$15/30,1))*IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$14*Inputs!$B$20,0))))</f>
         <v/>
       </c>
@@ -2719,7 +2739,7 @@
       <c r="G17" s="4" t="n"/>
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Revenue!$B$10,IF(F17="Discount",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2734,7 +2754,7 @@
       <c r="G18" s="4" t="n"/>
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Revenue!$B$10,IF(F18="Discount",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2749,7 +2769,7 @@
       <c r="G19" s="4" t="n"/>
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Revenue!$B$10,IF(F19="Discount",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2764,7 +2784,7 @@
       <c r="G20" s="4" t="n"/>
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Revenue!$B$10,IF(F20="Discount",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2779,7 +2799,7 @@
       <c r="G21" s="4" t="n"/>
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Revenue!$B$10,IF(F21="Discount",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2794,7 +2814,7 @@
       <c r="G22" s="4" t="n"/>
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Revenue!$B$10,IF(F22="Discount",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2809,7 +2829,7 @@
       <c r="G23" s="4" t="n"/>
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
-      <c r="J23" s="15">
+      <c r="J23" s="13">
         <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Revenue!$B$10,IF(F23="Discount",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2824,7 +2844,7 @@
       <c r="G24" s="4" t="n"/>
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
-      <c r="J24" s="15">
+      <c r="J24" s="13">
         <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Revenue!$B$10,IF(F24="Discount",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Inputs!$B$15*Inputs!$B$21,0))))</f>
         <v/>
       </c>
@@ -2839,7 +2859,7 @@
       <c r="G25" s="4" t="n"/>
       <c r="H25" s="4" t="n"/>
       <c r="I25" s="4" t="n"/>
-      <c r="J25" s="15">
+      <c r="J25" s="13">
         <f>IF(F25="Gift Card",G25,IF(F25="Spark Ads",G25,IF(F25="Commission Boost",G25*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A25,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
@@ -2854,21 +2874,19 @@
       <c r="G26" s="4" t="n"/>
       <c r="H26" s="4" t="n"/>
       <c r="I26" s="4" t="n"/>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <f>IF(F26="Gift Card",G26,IF(F26="Spark Ads",G26,IF(F26="Commission Boost",G26*INDEX('VIP Levels'!$E$5:$E$9,MATCH(A26,'VIP Levels'!$B$5:$B$9,0))*Revenue!$B$10,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29" ht="18.75" customHeight="1" s="30">
+    <row r="29" ht="18.75" customHeight="1" s="32">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MISSION SUMMARY BY LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="31.5" customHeight="1" s="30">
+    <row r="30" ht="31.5" customHeight="1" s="32">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -2896,15 +2914,15 @@
           <t>Bronze</t>
         </is>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <f>COUNTIFS(A$6:A$26,A31,I$6:I$26,"Yes")</f>
         <v/>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A31,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A31,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
@@ -2915,15 +2933,15 @@
           <t>Silver</t>
         </is>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <f>COUNTIFS(A$6:A$26,A32,I$6:I$26,"Yes")</f>
         <v/>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A32,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A32,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
@@ -2934,15 +2952,15 @@
           <t>Gold</t>
         </is>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="13">
         <f>COUNTIFS(A$6:A$26,A33,I$6:I$26,"Yes")</f>
         <v/>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A33,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A33,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
@@ -2953,15 +2971,15 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <f>COUNTIFS(A$6:A$26,A34,I$6:I$26,"Yes")</f>
         <v/>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A34,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A34,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
@@ -2972,15 +2990,15 @@
           <t>Diamond</t>
         </is>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <f>COUNTIFS(A$6:A$26,A35,I$6:I$26,"Yes")</f>
         <v/>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <f>IFERROR(AVERAGEIFS(E$6:E$26,A$6:A$26,A35,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <f>IFERROR(AVERAGEIFS(J$6:J$26,A$6:A$26,A35,I$6:I$26,"Yes"),0)</f>
         <v/>
       </c>
@@ -3021,26 +3039,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="30" min="1" max="1"/>
-    <col width="12" customWidth="1" style="30" min="2" max="13"/>
+    <col width="35" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12" customWidth="1" style="32" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>AFFILIATE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="30">
+    <row r="3" ht="15.75" customHeight="1" s="32">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -3108,221 +3126,221 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Samples Sent</t>
         </is>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <f>Inputs!$B$5</f>
         <v/>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <f>Inputs!$B$6</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>New Affiliates (from Samples)</t>
         </is>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <f t="array" ref="B5">ROUND(B4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f>ROUND(C4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f>ROUND(D4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f>ROUND(E4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>ROUND(F4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>ROUND(G4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f>ROUND(H4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f>ROUND(I4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f>ROUND(J4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f>ROUND(K4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f>ROUND(L4*SampleAffConv,0)</f>
         <v/>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>ROUND(M4*SampleAffConv,0)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Flywheel Affiliates</t>
         </is>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <f>Inputs!B$45</f>
         <v/>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f>Inputs!C$45</f>
         <v/>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <f>Inputs!D$45</f>
         <v/>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <f>Inputs!E$45</f>
         <v/>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>Inputs!F$45</f>
         <v/>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f>Inputs!G$45</f>
         <v/>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f>Inputs!H$45</f>
         <v/>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f>Inputs!I$45</f>
         <v/>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f>Inputs!J$45</f>
         <v/>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f>Inputs!K$45</f>
         <v/>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f>Inputs!L$45</f>
         <v/>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <f>Inputs!M$45</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>Total New Affiliates</t>
         </is>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <f>B5+B6</f>
         <v/>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <f>C5+C6</f>
         <v/>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <f>D5+D6</f>
         <v/>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f>E5+E6</f>
         <v/>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f>F5+F6</f>
         <v/>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f>G5+G6</f>
         <v/>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <f>H5+H6</f>
         <v/>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <f>I5+I6</f>
         <v/>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f>J5+J6</f>
         <v/>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f>K5+K6</f>
         <v/>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f>L5+L6</f>
         <v/>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <f>M5+M6</f>
         <v/>
       </c>
@@ -3333,170 +3351,170 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Churned Affiliates</t>
         </is>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>ROUND(B9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f>ROUND(C9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f>ROUND(D9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f>ROUND(E9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <f>ROUND(F9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <f>ROUND(G9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <f>ROUND(H9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f>ROUND(I9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f>ROUND(J9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f>ROUND(K9*AffAttrition,0)</f>
         <v/>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <f>ROUND(L9*AffAttrition,0)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Active Affiliates (End of Month)</t>
         </is>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <f>B7-B8</f>
         <v/>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <f>B9+C7-C8</f>
         <v/>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <f>C9+D7-D8</f>
         <v/>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f>D9+E7-E8</f>
         <v/>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>E9+F7-F8</f>
         <v/>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>F9+G7-G8</f>
         <v/>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <f>G9+H7-H8</f>
         <v/>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <f>H9+I7-I8</f>
         <v/>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f>I9+J7-J8</f>
         <v/>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f>J9+K7-K8</f>
         <v/>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>K9+L7-L8</f>
         <v/>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
         <f>L9+M7-M8</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Total Sales</t>
         </is>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <f>ROUND(B12*'VIP Levels'!$E$5+B13*'VIP Levels'!$E$6+B14*'VIP Levels'!$E$7+B15*'VIP Levels'!$E$8+B16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <f>ROUND(C12*'VIP Levels'!$E$5+C13*'VIP Levels'!$E$6+C14*'VIP Levels'!$E$7+C15*'VIP Levels'!$E$8+C16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <f>ROUND(D12*'VIP Levels'!$E$5+D13*'VIP Levels'!$E$6+D14*'VIP Levels'!$E$7+D15*'VIP Levels'!$E$8+D16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f>ROUND(E12*'VIP Levels'!$E$5+E13*'VIP Levels'!$E$6+E14*'VIP Levels'!$E$7+E15*'VIP Levels'!$E$8+E16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f>ROUND(F12*'VIP Levels'!$E$5+F13*'VIP Levels'!$E$6+F14*'VIP Levels'!$E$7+F15*'VIP Levels'!$E$8+F16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f>ROUND(G12*'VIP Levels'!$E$5+G13*'VIP Levels'!$E$6+G14*'VIP Levels'!$E$7+G15*'VIP Levels'!$E$8+G16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <f>ROUND(H12*'VIP Levels'!$E$5+H13*'VIP Levels'!$E$6+H14*'VIP Levels'!$E$7+H15*'VIP Levels'!$E$8+H16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <f>ROUND(I12*'VIP Levels'!$E$5+I13*'VIP Levels'!$E$6+I14*'VIP Levels'!$E$7+I15*'VIP Levels'!$E$8+I16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <f>ROUND(J12*'VIP Levels'!$E$5+J13*'VIP Levels'!$E$6+J14*'VIP Levels'!$E$7+J15*'VIP Levels'!$E$8+J16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f>ROUND(K12*'VIP Levels'!$E$5+K13*'VIP Levels'!$E$6+K14*'VIP Levels'!$E$7+K15*'VIP Levels'!$E$8+K16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f>ROUND(L12*'VIP Levels'!$E$5+L13*'VIP Levels'!$E$6+L14*'VIP Levels'!$E$7+L15*'VIP Levels'!$E$8+L16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
         <f>ROUND(M12*'VIP Levels'!$E$5+M13*'VIP Levels'!$E$6+M14*'VIP Levels'!$E$7+M15*'VIP Levels'!$E$8+M16*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="30">
+    <row r="11" ht="18.75" customHeight="1" s="32">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>--- Level Distribution ---</t>
@@ -3504,281 +3522,281 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Affiliates at Bronze</t>
         </is>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <f>ROUND(B9*Inputs!B$35,0)</f>
         <v/>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <f>ROUND(C9*Inputs!C$35,0)</f>
         <v/>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f>ROUND(D9*Inputs!D$35,0)</f>
         <v/>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <f>ROUND(E9*Inputs!E$35,0)</f>
         <v/>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f>ROUND(F9*Inputs!F$35,0)</f>
         <v/>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f>ROUND(G9*Inputs!G$35,0)</f>
         <v/>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f>ROUND(H9*Inputs!H$35,0)</f>
         <v/>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f>ROUND(I9*Inputs!I$35,0)</f>
         <v/>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <f>ROUND(J9*Inputs!J$35,0)</f>
         <v/>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f>ROUND(K9*Inputs!K$35,0)</f>
         <v/>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>ROUND(L9*Inputs!L$35,0)</f>
         <v/>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f>ROUND(M9*Inputs!M$35,0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Affiliates at Silver</t>
         </is>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <f>ROUND(B9*Inputs!B$36,0)</f>
         <v/>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <f>ROUND(C9*Inputs!C$36,0)</f>
         <v/>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <f>ROUND(D9*Inputs!D$36,0)</f>
         <v/>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f>ROUND(E9*Inputs!E$36,0)</f>
         <v/>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f>ROUND(F9*Inputs!F$36,0)</f>
         <v/>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f>ROUND(G9*Inputs!G$36,0)</f>
         <v/>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <f>ROUND(H9*Inputs!H$36,0)</f>
         <v/>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f>ROUND(I9*Inputs!I$36,0)</f>
         <v/>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <f>ROUND(J9*Inputs!J$36,0)</f>
         <v/>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <f>ROUND(K9*Inputs!K$36,0)</f>
         <v/>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f>ROUND(L9*Inputs!L$36,0)</f>
         <v/>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f>ROUND(M9*Inputs!M$36,0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Affiliates at Gold</t>
         </is>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <f>ROUND(B9*Inputs!B$37,0)</f>
         <v/>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <f>ROUND(C9*Inputs!C$37,0)</f>
         <v/>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <f>ROUND(D9*Inputs!D$37,0)</f>
         <v/>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <f>ROUND(E9*Inputs!E$37,0)</f>
         <v/>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <f>ROUND(F9*Inputs!F$37,0)</f>
         <v/>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <f>ROUND(G9*Inputs!G$37,0)</f>
         <v/>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <f>ROUND(H9*Inputs!H$37,0)</f>
         <v/>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <f>ROUND(I9*Inputs!I$37,0)</f>
         <v/>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <f>ROUND(J9*Inputs!J$37,0)</f>
         <v/>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <f>ROUND(K9*Inputs!K$37,0)</f>
         <v/>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f>ROUND(L9*Inputs!L$37,0)</f>
         <v/>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="13">
         <f>ROUND(M9*Inputs!M$37,0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Affiliates at Platinum</t>
         </is>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <f>ROUND(B9*Inputs!B$38,0)</f>
         <v/>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <f>ROUND(C9*Inputs!C$38,0)</f>
         <v/>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <f>ROUND(D9*Inputs!D$38,0)</f>
         <v/>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f>ROUND(E9*Inputs!E$38,0)</f>
         <v/>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f>ROUND(F9*Inputs!F$38,0)</f>
         <v/>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <f>ROUND(G9*Inputs!G$38,0)</f>
         <v/>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f>ROUND(H9*Inputs!H$38,0)</f>
         <v/>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f>ROUND(I9*Inputs!I$38,0)</f>
         <v/>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <f>ROUND(J9*Inputs!J$38,0)</f>
         <v/>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f>ROUND(K9*Inputs!K$38,0)</f>
         <v/>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <f>ROUND(L9*Inputs!L$38,0)</f>
         <v/>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <f>ROUND(M9*Inputs!M$38,0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>Affiliates at Diamond</t>
         </is>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <f>ROUND(B9*Inputs!B$39,0)</f>
         <v/>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <f>ROUND(C9*Inputs!C$39,0)</f>
         <v/>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <f>ROUND(D9*Inputs!D$39,0)</f>
         <v/>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <f>ROUND(E9*Inputs!E$39,0)</f>
         <v/>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f>ROUND(F9*Inputs!F$39,0)</f>
         <v/>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <f>ROUND(G9*Inputs!G$39,0)</f>
         <v/>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <f>ROUND(H9*Inputs!H$39,0)</f>
         <v/>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f>ROUND(I9*Inputs!I$39,0)</f>
         <v/>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f>ROUND(J9*Inputs!J$39,0)</f>
         <v/>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f>ROUND(K9*Inputs!K$39,0)</f>
         <v/>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <f>ROUND(L9*Inputs!L$39,0)</f>
         <v/>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <f>ROUND(M9*Inputs!M$39,0)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="30">
+    <row r="17" ht="18.75" customHeight="1" s="32">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>--- Level Events ---</t>
@@ -3786,501 +3804,392 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
         <is>
           <t>New Affiliate Level-Ups (to Bronze)</t>
         </is>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B7</f>
         <v/>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f>C7</f>
         <v/>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f>D7</f>
         <v/>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f>E7</f>
         <v/>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f>F7</f>
         <v/>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <f>G7</f>
         <v/>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <f>H7</f>
         <v/>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <f>I7</f>
         <v/>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f>J7</f>
         <v/>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f>K7</f>
         <v/>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <f>L7</f>
         <v/>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <f>M7</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="14" t="inlineStr">
         <is>
           <t>Promotion Events (Bronze to higher)</t>
         </is>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <f>MAX(0,(C13+C14+C15+C16)-(B13+B14+B15+B16))</f>
         <v/>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <f>MAX(0,(D13+D14+D15+D16)-(C13+C14+C15+C16))</f>
         <v/>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <f>MAX(0,(E13+E14+E15+E16)-(D13+D14+D15+D16))</f>
         <v/>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <f>MAX(0,(F13+F14+F15+F16)-(E13+E14+E15+E16))</f>
         <v/>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <f>MAX(0,(G13+G14+G15+G16)-(F13+F14+F15+F16))</f>
         <v/>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <f>MAX(0,(H13+H14+H15+H16)-(G13+G14+G15+G16))</f>
         <v/>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="13">
         <f>MAX(0,(I13+I14+I15+I16)-(H13+H14+H15+H16))</f>
         <v/>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <f>MAX(0,(J13+J14+J15+J16)-(I13+I14+I15+I16))</f>
         <v/>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <f>MAX(0,(K13+K14+K15+K16)-(J13+J14+J15+J16))</f>
         <v/>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <f>MAX(0,(L13+L14+L15+L16)-(K13+K14+K15+K16))</f>
         <v/>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
         <f>MAX(0,(M13+M14+M15+M16)-(L13+L14+L15+L16))</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="16" t="inlineStr">
-        <is>
-          <t>Total Level-Up Events</t>
-        </is>
-      </c>
-      <c r="B20" s="15">
-        <f>B18+B19</f>
-        <v/>
-      </c>
-      <c r="C20" s="15">
-        <f>C18+C19</f>
-        <v/>
-      </c>
-      <c r="D20" s="15">
-        <f>D18+D19</f>
-        <v/>
-      </c>
-      <c r="E20" s="15">
-        <f>E18+E19</f>
-        <v/>
-      </c>
-      <c r="F20" s="15">
-        <f>F18+F19</f>
-        <v/>
-      </c>
-      <c r="G20" s="15">
-        <f>G18+G19</f>
-        <v/>
-      </c>
-      <c r="H20" s="15">
-        <f>H18+H19</f>
-        <v/>
-      </c>
-      <c r="I20" s="15">
-        <f>I18+I19</f>
-        <v/>
-      </c>
-      <c r="J20" s="15">
-        <f>J18+J19</f>
-        <v/>
-      </c>
-      <c r="K20" s="15">
-        <f>K18+K19</f>
-        <v/>
-      </c>
-      <c r="L20" s="15">
-        <f>L18+L19</f>
-        <v/>
-      </c>
-      <c r="M20" s="15">
-        <f>M18+M19</f>
-        <v/>
+    <row r="20" ht="18.75" customHeight="1" s="32">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>--- New Tier Arrivals (for One-time Missions) ---</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>Demotion Events</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <f>MAX(0,(B13+B14+B15+B16)-(C13+C14+C15+C16))</f>
-        <v/>
-      </c>
-      <c r="D21" s="15">
-        <f>MAX(0,(C13+C14+C15+C16)-(D13+D14+D15+D16))</f>
-        <v/>
-      </c>
-      <c r="E21" s="15">
-        <f>MAX(0,(D13+D14+D15+D16)-(E13+E14+E15+E16))</f>
-        <v/>
-      </c>
-      <c r="F21" s="15">
-        <f>MAX(0,(E13+E14+E15+E16)-(F13+F14+F15+F16))</f>
-        <v/>
-      </c>
-      <c r="G21" s="15">
-        <f>MAX(0,(F13+F14+F15+F16)-(G13+G14+G15+G16))</f>
-        <v/>
-      </c>
-      <c r="H21" s="15">
-        <f>MAX(0,(G13+G14+G15+G16)-(H13+H14+H15+H16))</f>
-        <v/>
-      </c>
-      <c r="I21" s="15">
-        <f>MAX(0,(H13+H14+H15+H16)-(I13+I14+I15+I16))</f>
-        <v/>
-      </c>
-      <c r="J21" s="15">
-        <f>MAX(0,(I13+I14+I15+I16)-(J13+J14+J15+J16))</f>
-        <v/>
-      </c>
-      <c r="K21" s="15">
-        <f>MAX(0,(J13+J14+J15+J16)-(K13+K14+K15+K16))</f>
-        <v/>
-      </c>
-      <c r="L21" s="15">
-        <f>MAX(0,(K13+K14+K15+K16)-(L13+L14+L15+L16))</f>
-        <v/>
-      </c>
-      <c r="M21" s="15">
-        <f>MAX(0,(L13+L14+L15+L16)-(M13+M14+M15+M16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="39" t="inlineStr">
-        <is>
-          <t>--- New Tier Arrivals (for One-time Missions) ---</t>
-        </is>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>New Arrivals at Bronze</t>
+        </is>
+      </c>
+      <c r="B21" s="13">
+        <f>B7</f>
+        <v/>
+      </c>
+      <c r="C21" s="13">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D21" s="13">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E21" s="13">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F21" s="13">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G21" s="13">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H21" s="13">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I21" s="13">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J21" s="13">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K21" s="13">
+        <f>K7</f>
+        <v/>
+      </c>
+      <c r="L21" s="13">
+        <f>L7</f>
+        <v/>
+      </c>
+      <c r="M21" s="13">
+        <f>M7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" s="32">
+      <c r="A22" s="21" t="inlineStr">
+        <is>
+          <t>New Arrivals at Silver</t>
+        </is>
+      </c>
+      <c r="B22" s="13">
+        <f>B13</f>
+        <v/>
+      </c>
+      <c r="C22" s="13">
+        <f>MAX(0,C13-B13)</f>
+        <v/>
+      </c>
+      <c r="D22" s="13">
+        <f>MAX(0,D13-C13)</f>
+        <v/>
+      </c>
+      <c r="E22" s="13">
+        <f>MAX(0,E13-D13)</f>
+        <v/>
+      </c>
+      <c r="F22" s="13">
+        <f>MAX(0,F13-E13)</f>
+        <v/>
+      </c>
+      <c r="G22" s="13">
+        <f>MAX(0,G13-F13)</f>
+        <v/>
+      </c>
+      <c r="H22" s="13">
+        <f>MAX(0,H13-G13)</f>
+        <v/>
+      </c>
+      <c r="I22" s="13">
+        <f>MAX(0,I13-H13)</f>
+        <v/>
+      </c>
+      <c r="J22" s="13">
+        <f>MAX(0,J13-I13)</f>
+        <v/>
+      </c>
+      <c r="K22" s="13">
+        <f>MAX(0,K13-J13)</f>
+        <v/>
+      </c>
+      <c r="L22" s="13">
+        <f>MAX(0,L13-K13)</f>
+        <v/>
+      </c>
+      <c r="M22" s="13">
+        <f>MAX(0,M13-L13)</f>
+        <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="inlineStr">
-        <is>
-          <t>New Arrivals at Bronze</t>
-        </is>
-      </c>
-      <c r="B23" s="15">
-        <f>B12</f>
-        <v/>
-      </c>
-      <c r="C23" s="15">
-        <f>MAX(0,C12-B12)</f>
-        <v/>
-      </c>
-      <c r="D23" s="15">
-        <f>MAX(0,D12-C12)</f>
-        <v/>
-      </c>
-      <c r="E23" s="15">
-        <f>MAX(0,E12-D12)</f>
-        <v/>
-      </c>
-      <c r="F23" s="15">
-        <f>MAX(0,F12-E12)</f>
-        <v/>
-      </c>
-      <c r="G23" s="15">
-        <f>MAX(0,G12-F12)</f>
-        <v/>
-      </c>
-      <c r="H23" s="15">
-        <f>MAX(0,H12-G12)</f>
-        <v/>
-      </c>
-      <c r="I23" s="15">
-        <f>MAX(0,I12-H12)</f>
-        <v/>
-      </c>
-      <c r="J23" s="15">
-        <f>MAX(0,J12-I12)</f>
-        <v/>
-      </c>
-      <c r="K23" s="15">
-        <f>MAX(0,K12-J12)</f>
-        <v/>
-      </c>
-      <c r="L23" s="15">
-        <f>MAX(0,L12-K12)</f>
-        <v/>
-      </c>
-      <c r="M23" s="15">
-        <f>MAX(0,M12-L12)</f>
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>New Arrivals at Gold</t>
+        </is>
+      </c>
+      <c r="B23" s="13">
+        <f>B14</f>
+        <v/>
+      </c>
+      <c r="C23" s="13">
+        <f>MAX(0,C14-B14)</f>
+        <v/>
+      </c>
+      <c r="D23" s="13">
+        <f>MAX(0,D14-C14)</f>
+        <v/>
+      </c>
+      <c r="E23" s="13">
+        <f>MAX(0,E14-D14)</f>
+        <v/>
+      </c>
+      <c r="F23" s="13">
+        <f>MAX(0,F14-E14)</f>
+        <v/>
+      </c>
+      <c r="G23" s="13">
+        <f>MAX(0,G14-F14)</f>
+        <v/>
+      </c>
+      <c r="H23" s="13">
+        <f>MAX(0,H14-G14)</f>
+        <v/>
+      </c>
+      <c r="I23" s="13">
+        <f>MAX(0,I14-H14)</f>
+        <v/>
+      </c>
+      <c r="J23" s="13">
+        <f>MAX(0,J14-I14)</f>
+        <v/>
+      </c>
+      <c r="K23" s="13">
+        <f>MAX(0,K14-J14)</f>
+        <v/>
+      </c>
+      <c r="L23" s="13">
+        <f>MAX(0,L14-K14)</f>
+        <v/>
+      </c>
+      <c r="M23" s="13">
+        <f>MAX(0,M14-L14)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="inlineStr">
-        <is>
-          <t>New Arrivals at Silver</t>
-        </is>
-      </c>
-      <c r="B24" s="15">
-        <f>B13</f>
-        <v/>
-      </c>
-      <c r="C24" s="15">
-        <f>MAX(0,C13-B13)</f>
-        <v/>
-      </c>
-      <c r="D24" s="15">
-        <f>MAX(0,D13-C13)</f>
-        <v/>
-      </c>
-      <c r="E24" s="15">
-        <f>MAX(0,E13-D13)</f>
-        <v/>
-      </c>
-      <c r="F24" s="15">
-        <f>MAX(0,F13-E13)</f>
-        <v/>
-      </c>
-      <c r="G24" s="15">
-        <f>MAX(0,G13-F13)</f>
-        <v/>
-      </c>
-      <c r="H24" s="15">
-        <f>MAX(0,H13-G13)</f>
-        <v/>
-      </c>
-      <c r="I24" s="15">
-        <f>MAX(0,I13-H13)</f>
-        <v/>
-      </c>
-      <c r="J24" s="15">
-        <f>MAX(0,J13-I13)</f>
-        <v/>
-      </c>
-      <c r="K24" s="15">
-        <f>MAX(0,K13-J13)</f>
-        <v/>
-      </c>
-      <c r="L24" s="15">
-        <f>MAX(0,L13-K13)</f>
-        <v/>
-      </c>
-      <c r="M24" s="15">
-        <f>MAX(0,M13-L13)</f>
+      <c r="A24" s="21" t="inlineStr">
+        <is>
+          <t>New Arrivals at Platinum</t>
+        </is>
+      </c>
+      <c r="B24" s="13">
+        <f>B15</f>
+        <v/>
+      </c>
+      <c r="C24" s="13">
+        <f>MAX(0,C15-B15)</f>
+        <v/>
+      </c>
+      <c r="D24" s="13">
+        <f>MAX(0,D15-C15)</f>
+        <v/>
+      </c>
+      <c r="E24" s="13">
+        <f>MAX(0,E15-D15)</f>
+        <v/>
+      </c>
+      <c r="F24" s="13">
+        <f>MAX(0,F15-E15)</f>
+        <v/>
+      </c>
+      <c r="G24" s="13">
+        <f>MAX(0,G15-F15)</f>
+        <v/>
+      </c>
+      <c r="H24" s="13">
+        <f>MAX(0,H15-G15)</f>
+        <v/>
+      </c>
+      <c r="I24" s="13">
+        <f>MAX(0,I15-H15)</f>
+        <v/>
+      </c>
+      <c r="J24" s="13">
+        <f>MAX(0,J15-I15)</f>
+        <v/>
+      </c>
+      <c r="K24" s="13">
+        <f>MAX(0,K15-J15)</f>
+        <v/>
+      </c>
+      <c r="L24" s="13">
+        <f>MAX(0,L15-K15)</f>
+        <v/>
+      </c>
+      <c r="M24" s="13">
+        <f>MAX(0,M15-L15)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="inlineStr">
-        <is>
-          <t>New Arrivals at Gold</t>
-        </is>
-      </c>
-      <c r="B25" s="15">
-        <f>B14</f>
-        <v/>
-      </c>
-      <c r="C25" s="15">
-        <f>MAX(0,C14-B14)</f>
-        <v/>
-      </c>
-      <c r="D25" s="15">
-        <f>MAX(0,D14-C14)</f>
-        <v/>
-      </c>
-      <c r="E25" s="15">
-        <f>MAX(0,E14-D14)</f>
-        <v/>
-      </c>
-      <c r="F25" s="15">
-        <f>MAX(0,F14-E14)</f>
-        <v/>
-      </c>
-      <c r="G25" s="15">
-        <f>MAX(0,G14-F14)</f>
-        <v/>
-      </c>
-      <c r="H25" s="15">
-        <f>MAX(0,H14-G14)</f>
-        <v/>
-      </c>
-      <c r="I25" s="15">
-        <f>MAX(0,I14-H14)</f>
-        <v/>
-      </c>
-      <c r="J25" s="15">
-        <f>MAX(0,J14-I14)</f>
-        <v/>
-      </c>
-      <c r="K25" s="15">
-        <f>MAX(0,K14-J14)</f>
-        <v/>
-      </c>
-      <c r="L25" s="15">
-        <f>MAX(0,L14-K14)</f>
-        <v/>
-      </c>
-      <c r="M25" s="15">
-        <f>MAX(0,M14-L14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="25" t="inlineStr">
-        <is>
-          <t>New Arrivals at Platinum</t>
-        </is>
-      </c>
-      <c r="B26" s="15">
-        <f>B15</f>
-        <v/>
-      </c>
-      <c r="C26" s="15">
-        <f>MAX(0,C15-B15)</f>
-        <v/>
-      </c>
-      <c r="D26" s="15">
-        <f>MAX(0,D15-C15)</f>
-        <v/>
-      </c>
-      <c r="E26" s="15">
-        <f>MAX(0,E15-D15)</f>
-        <v/>
-      </c>
-      <c r="F26" s="15">
-        <f>MAX(0,F15-E15)</f>
-        <v/>
-      </c>
-      <c r="G26" s="15">
-        <f>MAX(0,G15-F15)</f>
-        <v/>
-      </c>
-      <c r="H26" s="15">
-        <f>MAX(0,H15-G15)</f>
-        <v/>
-      </c>
-      <c r="I26" s="15">
-        <f>MAX(0,I15-H15)</f>
-        <v/>
-      </c>
-      <c r="J26" s="15">
-        <f>MAX(0,J15-I15)</f>
-        <v/>
-      </c>
-      <c r="K26" s="15">
-        <f>MAX(0,K15-J15)</f>
-        <v/>
-      </c>
-      <c r="L26" s="15">
-        <f>MAX(0,L15-K15)</f>
-        <v/>
-      </c>
-      <c r="M26" s="15">
-        <f>MAX(0,M15-L15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="25" t="inlineStr">
+      <c r="A25" s="21" t="inlineStr">
         <is>
           <t>New Arrivals at Diamond</t>
         </is>
       </c>
-      <c r="B27" s="15">
+      <c r="B25" s="13">
         <f>B16</f>
         <v/>
       </c>
-      <c r="C27" s="15">
+      <c r="C25" s="13">
         <f>MAX(0,C16-B16)</f>
         <v/>
       </c>
-      <c r="D27" s="15">
+      <c r="D25" s="13">
         <f>MAX(0,D16-C16)</f>
         <v/>
       </c>
-      <c r="E27" s="15">
+      <c r="E25" s="13">
         <f>MAX(0,E16-D16)</f>
         <v/>
       </c>
-      <c r="F27" s="15">
+      <c r="F25" s="13">
         <f>MAX(0,F16-E16)</f>
         <v/>
       </c>
-      <c r="G27" s="15">
+      <c r="G25" s="13">
         <f>MAX(0,G16-F16)</f>
         <v/>
       </c>
-      <c r="H27" s="15">
+      <c r="H25" s="13">
         <f>MAX(0,H16-G16)</f>
         <v/>
       </c>
-      <c r="I27" s="15">
+      <c r="I25" s="13">
         <f>MAX(0,I16-H16)</f>
         <v/>
       </c>
-      <c r="J27" s="15">
+      <c r="J25" s="13">
         <f>MAX(0,J16-I16)</f>
         <v/>
       </c>
-      <c r="K27" s="15">
+      <c r="K25" s="13">
         <f>MAX(0,K16-J16)</f>
         <v/>
       </c>
-      <c r="L27" s="15">
+      <c r="L25" s="13">
         <f>MAX(0,L16-K16)</f>
         <v/>
       </c>
-      <c r="M27" s="15">
+      <c r="M25" s="13">
         <f>MAX(0,M16-L16)</f>
         <v/>
       </c>
@@ -4302,24 +4211,24 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" style="30" min="1" max="1"/>
-    <col width="12" customWidth="1" style="30" min="2" max="13"/>
+    <col width="38" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12" customWidth="1" style="32" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>REWARD TRIGGERS (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="30">
+    <row r="3" ht="15.75" customHeight="1" s="32">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -4386,7 +4295,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="30">
+    <row r="4" ht="18.75" customHeight="1" s="32">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- WELCOME REWARDS (per level-up) ---</t>
@@ -4394,339 +4303,339 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>Commission Boosts Triggered</t>
         </is>
       </c>
-      <c r="B5" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$B$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C5" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$B$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D5" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$B$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E5" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$B$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F5" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$B$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G5" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$B$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H5" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$B$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I5" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$B$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J5" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$B$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K5" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$B$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L5" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$B$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M5" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$B$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$B$15:$B$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B5" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$B$14+'Affiliate Projection'!B22*'VIP Levels'!$B$15+'Affiliate Projection'!B23*'VIP Levels'!$B$16+'Affiliate Projection'!B24*'VIP Levels'!$B$17+'Affiliate Projection'!B25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="C5" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$B$14+'Affiliate Projection'!C22*'VIP Levels'!$B$15+'Affiliate Projection'!C23*'VIP Levels'!$B$16+'Affiliate Projection'!C24*'VIP Levels'!$B$17+'Affiliate Projection'!C25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="D5" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$B$14+'Affiliate Projection'!D22*'VIP Levels'!$B$15+'Affiliate Projection'!D23*'VIP Levels'!$B$16+'Affiliate Projection'!D24*'VIP Levels'!$B$17+'Affiliate Projection'!D25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="E5" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$B$14+'Affiliate Projection'!E22*'VIP Levels'!$B$15+'Affiliate Projection'!E23*'VIP Levels'!$B$16+'Affiliate Projection'!E24*'VIP Levels'!$B$17+'Affiliate Projection'!E25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="F5" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$B$14+'Affiliate Projection'!F22*'VIP Levels'!$B$15+'Affiliate Projection'!F23*'VIP Levels'!$B$16+'Affiliate Projection'!F24*'VIP Levels'!$B$17+'Affiliate Projection'!F25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="G5" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$B$14+'Affiliate Projection'!G22*'VIP Levels'!$B$15+'Affiliate Projection'!G23*'VIP Levels'!$B$16+'Affiliate Projection'!G24*'VIP Levels'!$B$17+'Affiliate Projection'!G25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="H5" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$B$14+'Affiliate Projection'!H22*'VIP Levels'!$B$15+'Affiliate Projection'!H23*'VIP Levels'!$B$16+'Affiliate Projection'!H24*'VIP Levels'!$B$17+'Affiliate Projection'!H25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="I5" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$B$14+'Affiliate Projection'!I22*'VIP Levels'!$B$15+'Affiliate Projection'!I23*'VIP Levels'!$B$16+'Affiliate Projection'!I24*'VIP Levels'!$B$17+'Affiliate Projection'!I25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="J5" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$B$14+'Affiliate Projection'!J22*'VIP Levels'!$B$15+'Affiliate Projection'!J23*'VIP Levels'!$B$16+'Affiliate Projection'!J24*'VIP Levels'!$B$17+'Affiliate Projection'!J25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="K5" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$B$14+'Affiliate Projection'!K22*'VIP Levels'!$B$15+'Affiliate Projection'!K23*'VIP Levels'!$B$16+'Affiliate Projection'!K24*'VIP Levels'!$B$17+'Affiliate Projection'!K25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="L5" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$B$14+'Affiliate Projection'!L22*'VIP Levels'!$B$15+'Affiliate Projection'!L23*'VIP Levels'!$B$16+'Affiliate Projection'!L24*'VIP Levels'!$B$17+'Affiliate Projection'!L25*'VIP Levels'!$B$18,0)</f>
+        <v/>
+      </c>
+      <c r="M5" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$B$14+'Affiliate Projection'!M22*'VIP Levels'!$B$15+'Affiliate Projection'!M23*'VIP Levels'!$B$16+'Affiliate Projection'!M24*'VIP Levels'!$B$17+'Affiliate Projection'!M25*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Gift Cards Triggered</t>
         </is>
       </c>
-      <c r="B6" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$E$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C6" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$E$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D6" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$E$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E6" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$E$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F6" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$E$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G6" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$E$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H6" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$E$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I6" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$E$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J6" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$E$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K6" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$E$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L6" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$E$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M6" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$E$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$E$15:$E$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B6" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$E$14+'Affiliate Projection'!B22*'VIP Levels'!$E$15+'Affiliate Projection'!B23*'VIP Levels'!$E$16+'Affiliate Projection'!B24*'VIP Levels'!$E$17+'Affiliate Projection'!B25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="C6" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$E$14+'Affiliate Projection'!C22*'VIP Levels'!$E$15+'Affiliate Projection'!C23*'VIP Levels'!$E$16+'Affiliate Projection'!C24*'VIP Levels'!$E$17+'Affiliate Projection'!C25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="D6" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$E$14+'Affiliate Projection'!D22*'VIP Levels'!$E$15+'Affiliate Projection'!D23*'VIP Levels'!$E$16+'Affiliate Projection'!D24*'VIP Levels'!$E$17+'Affiliate Projection'!D25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="E6" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$E$14+'Affiliate Projection'!E22*'VIP Levels'!$E$15+'Affiliate Projection'!E23*'VIP Levels'!$E$16+'Affiliate Projection'!E24*'VIP Levels'!$E$17+'Affiliate Projection'!E25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="F6" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$E$14+'Affiliate Projection'!F22*'VIP Levels'!$E$15+'Affiliate Projection'!F23*'VIP Levels'!$E$16+'Affiliate Projection'!F24*'VIP Levels'!$E$17+'Affiliate Projection'!F25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="G6" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$E$14+'Affiliate Projection'!G22*'VIP Levels'!$E$15+'Affiliate Projection'!G23*'VIP Levels'!$E$16+'Affiliate Projection'!G24*'VIP Levels'!$E$17+'Affiliate Projection'!G25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="H6" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$E$14+'Affiliate Projection'!H22*'VIP Levels'!$E$15+'Affiliate Projection'!H23*'VIP Levels'!$E$16+'Affiliate Projection'!H24*'VIP Levels'!$E$17+'Affiliate Projection'!H25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="I6" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$E$14+'Affiliate Projection'!I22*'VIP Levels'!$E$15+'Affiliate Projection'!I23*'VIP Levels'!$E$16+'Affiliate Projection'!I24*'VIP Levels'!$E$17+'Affiliate Projection'!I25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="J6" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$E$14+'Affiliate Projection'!J22*'VIP Levels'!$E$15+'Affiliate Projection'!J23*'VIP Levels'!$E$16+'Affiliate Projection'!J24*'VIP Levels'!$E$17+'Affiliate Projection'!J25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="K6" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$E$14+'Affiliate Projection'!K22*'VIP Levels'!$E$15+'Affiliate Projection'!K23*'VIP Levels'!$E$16+'Affiliate Projection'!K24*'VIP Levels'!$E$17+'Affiliate Projection'!K25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="L6" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$E$14+'Affiliate Projection'!L22*'VIP Levels'!$E$15+'Affiliate Projection'!L23*'VIP Levels'!$E$16+'Affiliate Projection'!L24*'VIP Levels'!$E$17+'Affiliate Projection'!L25*'VIP Levels'!$E$18,0)</f>
+        <v/>
+      </c>
+      <c r="M6" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$E$14+'Affiliate Projection'!M22*'VIP Levels'!$E$15+'Affiliate Projection'!M23*'VIP Levels'!$E$16+'Affiliate Projection'!M24*'VIP Levels'!$E$17+'Affiliate Projection'!M25*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>Discount Coupons Triggered</t>
         </is>
       </c>
-      <c r="B7" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$G$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C7" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$G$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D7" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$G$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E7" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$G$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F7" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$G$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G7" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$G$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H7" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$G$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I7" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$G$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J7" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$G$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K7" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$G$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L7" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$G$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M7" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$G$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$G$15:$G$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B7" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$G$14+'Affiliate Projection'!B22*'VIP Levels'!$G$15+'Affiliate Projection'!B23*'VIP Levels'!$G$16+'Affiliate Projection'!B24*'VIP Levels'!$G$17+'Affiliate Projection'!B25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="C7" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$G$14+'Affiliate Projection'!C22*'VIP Levels'!$G$15+'Affiliate Projection'!C23*'VIP Levels'!$G$16+'Affiliate Projection'!C24*'VIP Levels'!$G$17+'Affiliate Projection'!C25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="D7" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$G$14+'Affiliate Projection'!D22*'VIP Levels'!$G$15+'Affiliate Projection'!D23*'VIP Levels'!$G$16+'Affiliate Projection'!D24*'VIP Levels'!$G$17+'Affiliate Projection'!D25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="E7" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$G$14+'Affiliate Projection'!E22*'VIP Levels'!$G$15+'Affiliate Projection'!E23*'VIP Levels'!$G$16+'Affiliate Projection'!E24*'VIP Levels'!$G$17+'Affiliate Projection'!E25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="F7" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$G$14+'Affiliate Projection'!F22*'VIP Levels'!$G$15+'Affiliate Projection'!F23*'VIP Levels'!$G$16+'Affiliate Projection'!F24*'VIP Levels'!$G$17+'Affiliate Projection'!F25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="G7" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$G$14+'Affiliate Projection'!G22*'VIP Levels'!$G$15+'Affiliate Projection'!G23*'VIP Levels'!$G$16+'Affiliate Projection'!G24*'VIP Levels'!$G$17+'Affiliate Projection'!G25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="H7" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$G$14+'Affiliate Projection'!H22*'VIP Levels'!$G$15+'Affiliate Projection'!H23*'VIP Levels'!$G$16+'Affiliate Projection'!H24*'VIP Levels'!$G$17+'Affiliate Projection'!H25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="I7" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$G$14+'Affiliate Projection'!I22*'VIP Levels'!$G$15+'Affiliate Projection'!I23*'VIP Levels'!$G$16+'Affiliate Projection'!I24*'VIP Levels'!$G$17+'Affiliate Projection'!I25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="J7" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$G$14+'Affiliate Projection'!J22*'VIP Levels'!$G$15+'Affiliate Projection'!J23*'VIP Levels'!$G$16+'Affiliate Projection'!J24*'VIP Levels'!$G$17+'Affiliate Projection'!J25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="K7" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$G$14+'Affiliate Projection'!K22*'VIP Levels'!$G$15+'Affiliate Projection'!K23*'VIP Levels'!$G$16+'Affiliate Projection'!K24*'VIP Levels'!$G$17+'Affiliate Projection'!K25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="L7" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$G$14+'Affiliate Projection'!L22*'VIP Levels'!$G$15+'Affiliate Projection'!L23*'VIP Levels'!$G$16+'Affiliate Projection'!L24*'VIP Levels'!$G$17+'Affiliate Projection'!L25*'VIP Levels'!$G$18,0)</f>
+        <v/>
+      </c>
+      <c r="M7" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$G$14+'Affiliate Projection'!M22*'VIP Levels'!$G$15+'Affiliate Projection'!M23*'VIP Levels'!$G$16+'Affiliate Projection'!M24*'VIP Levels'!$G$17+'Affiliate Projection'!M25*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Spark Ads Triggered</t>
         </is>
       </c>
-      <c r="B8" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$I$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C8" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$I$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D8" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$I$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E8" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$I$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F8" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$I$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G8" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$I$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H8" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$I$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I8" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$I$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J8" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$I$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K8" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$I$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L8" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$I$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M8" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$I$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$I$15:$I$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B8" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$J$14+'Affiliate Projection'!B22*'VIP Levels'!$J$15+'Affiliate Projection'!B23*'VIP Levels'!$J$16+'Affiliate Projection'!B24*'VIP Levels'!$J$17+'Affiliate Projection'!B25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="C8" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$J$14+'Affiliate Projection'!C22*'VIP Levels'!$J$15+'Affiliate Projection'!C23*'VIP Levels'!$J$16+'Affiliate Projection'!C24*'VIP Levels'!$J$17+'Affiliate Projection'!C25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="D8" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$J$14+'Affiliate Projection'!D22*'VIP Levels'!$J$15+'Affiliate Projection'!D23*'VIP Levels'!$J$16+'Affiliate Projection'!D24*'VIP Levels'!$J$17+'Affiliate Projection'!D25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="E8" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$J$14+'Affiliate Projection'!E22*'VIP Levels'!$J$15+'Affiliate Projection'!E23*'VIP Levels'!$J$16+'Affiliate Projection'!E24*'VIP Levels'!$J$17+'Affiliate Projection'!E25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="F8" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$J$14+'Affiliate Projection'!F22*'VIP Levels'!$J$15+'Affiliate Projection'!F23*'VIP Levels'!$J$16+'Affiliate Projection'!F24*'VIP Levels'!$J$17+'Affiliate Projection'!F25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="G8" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$J$14+'Affiliate Projection'!G22*'VIP Levels'!$J$15+'Affiliate Projection'!G23*'VIP Levels'!$J$16+'Affiliate Projection'!G24*'VIP Levels'!$J$17+'Affiliate Projection'!G25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="H8" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$J$14+'Affiliate Projection'!H22*'VIP Levels'!$J$15+'Affiliate Projection'!H23*'VIP Levels'!$J$16+'Affiliate Projection'!H24*'VIP Levels'!$J$17+'Affiliate Projection'!H25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="I8" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$J$14+'Affiliate Projection'!I22*'VIP Levels'!$J$15+'Affiliate Projection'!I23*'VIP Levels'!$J$16+'Affiliate Projection'!I24*'VIP Levels'!$J$17+'Affiliate Projection'!I25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="J8" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$J$14+'Affiliate Projection'!J22*'VIP Levels'!$J$15+'Affiliate Projection'!J23*'VIP Levels'!$J$16+'Affiliate Projection'!J24*'VIP Levels'!$J$17+'Affiliate Projection'!J25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="K8" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$J$14+'Affiliate Projection'!K22*'VIP Levels'!$J$15+'Affiliate Projection'!K23*'VIP Levels'!$J$16+'Affiliate Projection'!K24*'VIP Levels'!$J$17+'Affiliate Projection'!K25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="L8" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$J$14+'Affiliate Projection'!L22*'VIP Levels'!$J$15+'Affiliate Projection'!L23*'VIP Levels'!$J$16+'Affiliate Projection'!L24*'VIP Levels'!$J$17+'Affiliate Projection'!L25*'VIP Levels'!$J$18,0)</f>
+        <v/>
+      </c>
+      <c r="M8" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$J$14+'Affiliate Projection'!M22*'VIP Levels'!$J$15+'Affiliate Projection'!M23*'VIP Levels'!$J$16+'Affiliate Projection'!M24*'VIP Levels'!$J$17+'Affiliate Projection'!M25*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Physical Gifts Triggered</t>
         </is>
       </c>
-      <c r="B9" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$K$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C9" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$K$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D9" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$K$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E9" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$K$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F9" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$K$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G9" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$K$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H9" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$K$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I9" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$K$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J9" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$K$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K9" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$K$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L9" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$K$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M9" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$K$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$K$15:$K$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B9" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$L$14+'Affiliate Projection'!B22*'VIP Levels'!$L$15+'Affiliate Projection'!B23*'VIP Levels'!$L$16+'Affiliate Projection'!B24*'VIP Levels'!$L$17+'Affiliate Projection'!B25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="C9" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$L$14+'Affiliate Projection'!C22*'VIP Levels'!$L$15+'Affiliate Projection'!C23*'VIP Levels'!$L$16+'Affiliate Projection'!C24*'VIP Levels'!$L$17+'Affiliate Projection'!C25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="D9" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$L$14+'Affiliate Projection'!D22*'VIP Levels'!$L$15+'Affiliate Projection'!D23*'VIP Levels'!$L$16+'Affiliate Projection'!D24*'VIP Levels'!$L$17+'Affiliate Projection'!D25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$L$14+'Affiliate Projection'!E22*'VIP Levels'!$L$15+'Affiliate Projection'!E23*'VIP Levels'!$L$16+'Affiliate Projection'!E24*'VIP Levels'!$L$17+'Affiliate Projection'!E25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="F9" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$L$14+'Affiliate Projection'!F22*'VIP Levels'!$L$15+'Affiliate Projection'!F23*'VIP Levels'!$L$16+'Affiliate Projection'!F24*'VIP Levels'!$L$17+'Affiliate Projection'!F25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="G9" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$L$14+'Affiliate Projection'!G22*'VIP Levels'!$L$15+'Affiliate Projection'!G23*'VIP Levels'!$L$16+'Affiliate Projection'!G24*'VIP Levels'!$L$17+'Affiliate Projection'!G25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="H9" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$L$14+'Affiliate Projection'!H22*'VIP Levels'!$L$15+'Affiliate Projection'!H23*'VIP Levels'!$L$16+'Affiliate Projection'!H24*'VIP Levels'!$L$17+'Affiliate Projection'!H25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="I9" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$L$14+'Affiliate Projection'!I22*'VIP Levels'!$L$15+'Affiliate Projection'!I23*'VIP Levels'!$L$16+'Affiliate Projection'!I24*'VIP Levels'!$L$17+'Affiliate Projection'!I25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="J9" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$L$14+'Affiliate Projection'!J22*'VIP Levels'!$L$15+'Affiliate Projection'!J23*'VIP Levels'!$L$16+'Affiliate Projection'!J24*'VIP Levels'!$L$17+'Affiliate Projection'!J25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="K9" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$L$14+'Affiliate Projection'!K22*'VIP Levels'!$L$15+'Affiliate Projection'!K23*'VIP Levels'!$L$16+'Affiliate Projection'!K24*'VIP Levels'!$L$17+'Affiliate Projection'!K25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="L9" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$L$14+'Affiliate Projection'!L22*'VIP Levels'!$L$15+'Affiliate Projection'!L23*'VIP Levels'!$L$16+'Affiliate Projection'!L24*'VIP Levels'!$L$17+'Affiliate Projection'!L25*'VIP Levels'!$L$18,0)</f>
+        <v/>
+      </c>
+      <c r="M9" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$L$14+'Affiliate Projection'!M22*'VIP Levels'!$L$15+'Affiliate Projection'!M23*'VIP Levels'!$L$16+'Affiliate Projection'!M24*'VIP Levels'!$L$17+'Affiliate Projection'!M25*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Experiences Triggered</t>
         </is>
       </c>
-      <c r="B10" s="15">
-        <f>ROUND('Affiliate Projection'!B18*'VIP Levels'!$M$14+'Affiliate Projection'!B19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!B$36:B$39)/SUM(Inputs!B$36:B$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="C10" s="15">
-        <f>ROUND('Affiliate Projection'!C18*'VIP Levels'!$M$14+'Affiliate Projection'!C19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!C$36:C$39)/SUM(Inputs!C$36:C$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="D10" s="15">
-        <f>ROUND('Affiliate Projection'!D18*'VIP Levels'!$M$14+'Affiliate Projection'!D19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!D$36:D$39)/SUM(Inputs!D$36:D$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="E10" s="15">
-        <f>ROUND('Affiliate Projection'!E18*'VIP Levels'!$M$14+'Affiliate Projection'!E19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!E$36:E$39)/SUM(Inputs!E$36:E$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="F10" s="15">
-        <f>ROUND('Affiliate Projection'!F18*'VIP Levels'!$M$14+'Affiliate Projection'!F19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!F$36:F$39)/SUM(Inputs!F$36:F$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="G10" s="15">
-        <f>ROUND('Affiliate Projection'!G18*'VIP Levels'!$M$14+'Affiliate Projection'!G19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!G$36:G$39)/SUM(Inputs!G$36:G$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="H10" s="15">
-        <f>ROUND('Affiliate Projection'!H18*'VIP Levels'!$M$14+'Affiliate Projection'!H19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!H$36:H$39)/SUM(Inputs!H$36:H$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="I10" s="15">
-        <f>ROUND('Affiliate Projection'!I18*'VIP Levels'!$M$14+'Affiliate Projection'!I19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!I$36:I$39)/SUM(Inputs!I$36:I$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="J10" s="15">
-        <f>ROUND('Affiliate Projection'!J18*'VIP Levels'!$M$14+'Affiliate Projection'!J19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!J$36:J$39)/SUM(Inputs!J$36:J$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="K10" s="15">
-        <f>ROUND('Affiliate Projection'!K18*'VIP Levels'!$M$14+'Affiliate Projection'!K19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!K$36:K$39)/SUM(Inputs!K$36:K$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="L10" s="15">
-        <f>ROUND('Affiliate Projection'!L18*'VIP Levels'!$M$14+'Affiliate Projection'!L19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!L$36:L$39)/SUM(Inputs!L$36:L$39),0),0)</f>
-        <v/>
-      </c>
-      <c r="M10" s="15">
-        <f>ROUND('Affiliate Projection'!M18*'VIP Levels'!$M$14+'Affiliate Projection'!M19*IFERROR(SUMPRODUCT('VIP Levels'!$M$15:$M$18,Inputs!M$36:M$39)/SUM(Inputs!M$36:M$39),0),0)</f>
+      <c r="B10" s="13">
+        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$N$14+'Affiliate Projection'!B22*'VIP Levels'!$N$15+'Affiliate Projection'!B23*'VIP Levels'!$N$16+'Affiliate Projection'!B24*'VIP Levels'!$N$17+'Affiliate Projection'!B25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="C10" s="13">
+        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$N$14+'Affiliate Projection'!C22*'VIP Levels'!$N$15+'Affiliate Projection'!C23*'VIP Levels'!$N$16+'Affiliate Projection'!C24*'VIP Levels'!$N$17+'Affiliate Projection'!C25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="D10" s="13">
+        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$N$14+'Affiliate Projection'!D22*'VIP Levels'!$N$15+'Affiliate Projection'!D23*'VIP Levels'!$N$16+'Affiliate Projection'!D24*'VIP Levels'!$N$17+'Affiliate Projection'!D25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="13">
+        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$N$14+'Affiliate Projection'!E22*'VIP Levels'!$N$15+'Affiliate Projection'!E23*'VIP Levels'!$N$16+'Affiliate Projection'!E24*'VIP Levels'!$N$17+'Affiliate Projection'!E25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="F10" s="13">
+        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$N$14+'Affiliate Projection'!F22*'VIP Levels'!$N$15+'Affiliate Projection'!F23*'VIP Levels'!$N$16+'Affiliate Projection'!F24*'VIP Levels'!$N$17+'Affiliate Projection'!F25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="G10" s="13">
+        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$N$14+'Affiliate Projection'!G22*'VIP Levels'!$N$15+'Affiliate Projection'!G23*'VIP Levels'!$N$16+'Affiliate Projection'!G24*'VIP Levels'!$N$17+'Affiliate Projection'!G25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="H10" s="13">
+        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$N$14+'Affiliate Projection'!H22*'VIP Levels'!$N$15+'Affiliate Projection'!H23*'VIP Levels'!$N$16+'Affiliate Projection'!H24*'VIP Levels'!$N$17+'Affiliate Projection'!H25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="I10" s="13">
+        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$N$14+'Affiliate Projection'!I22*'VIP Levels'!$N$15+'Affiliate Projection'!I23*'VIP Levels'!$N$16+'Affiliate Projection'!I24*'VIP Levels'!$N$17+'Affiliate Projection'!I25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="J10" s="13">
+        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$N$14+'Affiliate Projection'!J22*'VIP Levels'!$N$15+'Affiliate Projection'!J23*'VIP Levels'!$N$16+'Affiliate Projection'!J24*'VIP Levels'!$N$17+'Affiliate Projection'!J25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="K10" s="13">
+        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$N$14+'Affiliate Projection'!K22*'VIP Levels'!$N$15+'Affiliate Projection'!K23*'VIP Levels'!$N$16+'Affiliate Projection'!K24*'VIP Levels'!$N$17+'Affiliate Projection'!K25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="L10" s="13">
+        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$N$14+'Affiliate Projection'!L22*'VIP Levels'!$N$15+'Affiliate Projection'!L23*'VIP Levels'!$N$16+'Affiliate Projection'!L24*'VIP Levels'!$N$17+'Affiliate Projection'!L25*'VIP Levels'!$N$18,0)</f>
+        <v/>
+      </c>
+      <c r="M10" s="13">
+        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$N$14+'Affiliate Projection'!M22*'VIP Levels'!$N$15+'Affiliate Projection'!M23*'VIP Levels'!$N$16+'Affiliate Projection'!M24*'VIP Levels'!$N$17+'Affiliate Projection'!M25*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="30">
+      <c r="A11" s="14" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="32">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- MISSION COMPLETIONS ---</t>
@@ -4734,331 +4643,331 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Mission Completions (Bronze)</t>
         </is>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <f>ROUND('Affiliate Projection'!B12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <f>ROUND('Affiliate Projection'!C12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <f>ROUND('Affiliate Projection'!D12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f>ROUND('Affiliate Projection'!E12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f>ROUND('Affiliate Projection'!F12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f>ROUND('Affiliate Projection'!G12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <f>ROUND('Affiliate Projection'!H12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f>ROUND('Affiliate Projection'!I12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <f>ROUND('Affiliate Projection'!J12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <f>ROUND('Affiliate Projection'!K12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f>ROUND('Affiliate Projection'!L12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f>ROUND('Affiliate Projection'!M12*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Mission Completions (Silver)</t>
         </is>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <f>ROUND('Affiliate Projection'!B13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <f>ROUND('Affiliate Projection'!C13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <f>ROUND('Affiliate Projection'!D13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <f>ROUND('Affiliate Projection'!E13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <f>ROUND('Affiliate Projection'!F13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <f>ROUND('Affiliate Projection'!G13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <f>ROUND('Affiliate Projection'!H13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <f>ROUND('Affiliate Projection'!I13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <f>ROUND('Affiliate Projection'!J13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <f>ROUND('Affiliate Projection'!K13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f>ROUND('Affiliate Projection'!L13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="13">
         <f>ROUND('Affiliate Projection'!M13*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Mission Completions (Gold)</t>
         </is>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <f>ROUND('Affiliate Projection'!B14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <f>ROUND('Affiliate Projection'!C14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <f>ROUND('Affiliate Projection'!D14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f>ROUND('Affiliate Projection'!E14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f>ROUND('Affiliate Projection'!F14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <f>ROUND('Affiliate Projection'!G14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f>ROUND('Affiliate Projection'!H14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f>ROUND('Affiliate Projection'!I14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <f>ROUND('Affiliate Projection'!J14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f>ROUND('Affiliate Projection'!K14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <f>ROUND('Affiliate Projection'!L14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <f>ROUND('Affiliate Projection'!M14*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>Mission Completions (Platinum)</t>
         </is>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <f>ROUND('Affiliate Projection'!B15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <f>ROUND('Affiliate Projection'!C15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <f>ROUND('Affiliate Projection'!D15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <f>ROUND('Affiliate Projection'!E15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f>ROUND('Affiliate Projection'!F15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <f>ROUND('Affiliate Projection'!G15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <f>ROUND('Affiliate Projection'!H15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f>ROUND('Affiliate Projection'!I15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f>ROUND('Affiliate Projection'!J15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f>ROUND('Affiliate Projection'!K15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <f>ROUND('Affiliate Projection'!L15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <f>ROUND('Affiliate Projection'!M15*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Mission Completions (Diamond)</t>
         </is>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <f>ROUND('Affiliate Projection'!B16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <f>ROUND('Affiliate Projection'!C16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f>ROUND('Affiliate Projection'!D16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f>ROUND('Affiliate Projection'!E16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f>ROUND('Affiliate Projection'!F16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f>ROUND('Affiliate Projection'!G16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f>ROUND('Affiliate Projection'!H16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f>ROUND('Affiliate Projection'!I16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f>ROUND('Affiliate Projection'!J16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f>ROUND('Affiliate Projection'!K16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>ROUND('Affiliate Projection'!L16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>ROUND('Affiliate Projection'!M16*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
         <is>
           <t>Total Mission Completions</t>
         </is>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>SUM(B13:B17)</f>
         <v/>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f>SUM(C13:C17)</f>
         <v/>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f>SUM(D13:D17)</f>
         <v/>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f>SUM(E13:E17)</f>
         <v/>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f>SUM(F13:F17)</f>
         <v/>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <f>SUM(G13:G17)</f>
         <v/>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <f>SUM(H13:H17)</f>
         <v/>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <f>SUM(I13:I17)</f>
         <v/>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f>SUM(J13:J17)</f>
         <v/>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f>SUM(K13:K17)</f>
         <v/>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <f>SUM(L13:L17)</f>
         <v/>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <f>SUM(M13:M17)</f>
         <v/>
       </c>
@@ -5085,18 +4994,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="30" min="1" max="1"/>
-    <col width="12" customWidth="1" style="30" min="2" max="13"/>
+    <col width="35" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12" customWidth="1" style="32" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>REVENUE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="30">
+    <row r="3" ht="15.75" customHeight="1" s="32">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5164,496 +5073,496 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Total Sales Volume</t>
         </is>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <f>'Affiliate Projection'!B10</f>
         <v/>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f>'Affiliate Projection'!C10</f>
         <v/>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f>'Affiliate Projection'!D10</f>
         <v/>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f>'Affiliate Projection'!E10</f>
         <v/>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>'Affiliate Projection'!F10</f>
         <v/>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f>'Affiliate Projection'!G10</f>
         <v/>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <f>'Affiliate Projection'!H10</f>
         <v/>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f>'Affiliate Projection'!I10</f>
         <v/>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f>'Affiliate Projection'!J10</f>
         <v/>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f>'Affiliate Projection'!K10</f>
         <v/>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f>'Affiliate Projection'!L10</f>
         <v/>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <f>'Affiliate Projection'!M10</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Gross AOV</t>
         </is>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <f>Inputs!$B$15</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Gross Revenue</t>
         </is>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <f>B4*B5</f>
         <v/>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <f>C4*C5</f>
         <v/>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <f>D4*D5</f>
         <v/>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>E4*E5</f>
         <v/>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <f>F4*F5</f>
         <v/>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <f>G4*G5</f>
         <v/>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f>H4*H5</f>
         <v/>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <f>I4*I5</f>
         <v/>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f>J4*J5</f>
         <v/>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f>K4*K5</f>
         <v/>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <f>L4*L5</f>
         <v/>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <f>M4*M5</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>Avg Discount % (when redeemed)</t>
         </is>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$35:B$39)</f>
         <v/>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$35:C$39)</f>
         <v/>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$35:D$39)</f>
         <v/>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$35:E$39)</f>
         <v/>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$35:F$39)</f>
         <v/>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$35:G$39)</f>
         <v/>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$35:H$39)</f>
         <v/>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$35:I$39)</f>
         <v/>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$35:J$39)</f>
         <v/>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$35:K$39)</f>
         <v/>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$35:L$39)</f>
         <v/>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Discount Redemption Rate</t>
         </is>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f>Inputs!$B$21</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Discounted Sales Count</t>
         </is>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <f>ROUND(B4*B8,0)</f>
         <v/>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <f>ROUND(C4*C8,0)</f>
         <v/>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <f>ROUND(D4*D8,0)</f>
         <v/>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f>ROUND(E4*E8,0)</f>
         <v/>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>ROUND(F4*F8,0)</f>
         <v/>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>ROUND(G4*G8,0)</f>
         <v/>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <f>ROUND(H4*H8,0)</f>
         <v/>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <f>ROUND(I4*I8,0)</f>
         <v/>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f>ROUND(J4*J8,0)</f>
         <v/>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f>ROUND(K4*K8,0)</f>
         <v/>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>ROUND(L4*L8,0)</f>
         <v/>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
         <f>ROUND(M4*M8,0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Net AOV (weighted avg)</t>
         </is>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f>B5*(1-B7*B8)</f>
         <v/>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>C5*(1-C7*C8)</f>
         <v/>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f>D5*(1-D7*D8)</f>
         <v/>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f>E5*(1-E7*E8)</f>
         <v/>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f>F5*(1-F7*F8)</f>
         <v/>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f>G5*(1-G7*G8)</f>
         <v/>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f>H5*(1-H7*H8)</f>
         <v/>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f>I5*(1-I7*I8)</f>
         <v/>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f>J5*(1-J7*J8)</f>
         <v/>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="12">
         <f>K5*(1-K7*K8)</f>
         <v/>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <f>L5*(1-L7*L8)</f>
         <v/>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <f>M5*(1-M7*M8)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <f>B4*B10</f>
         <v/>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <f>C4*C10</f>
         <v/>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f>D4*D10</f>
         <v/>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f>E4*E10</f>
         <v/>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <f>F4*F10</f>
         <v/>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <f>G4*G10</f>
         <v/>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <f>H4*H10</f>
         <v/>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f>I4*I10</f>
         <v/>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <f>J4*J10</f>
         <v/>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f>K4*K10</f>
         <v/>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <f>L4*L10</f>
         <v/>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <f>M4*M10</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Discount Margin Erosion</t>
         </is>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <f>B6-B11</f>
         <v/>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f>C6-C11</f>
         <v/>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>D6-D11</f>
         <v/>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>E6-E11</f>
         <v/>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f>F6-F11</f>
         <v/>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <f>G6-G11</f>
         <v/>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f>H6-H11</f>
         <v/>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f>I6-I11</f>
         <v/>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <f>J6-J11</f>
         <v/>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <f>K6-K11</f>
         <v/>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f>L6-L11</f>
         <v/>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <f>M6-M11</f>
         <v/>
       </c>
@@ -5672,26 +5581,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="30" min="1" max="1"/>
-    <col width="12" customWidth="1" style="30" min="2" max="13"/>
+    <col width="35" customWidth="1" style="32" min="1" max="1"/>
+    <col width="12" customWidth="1" style="32" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>COST PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="30">
+    <row r="2"/>
+    <row r="3" ht="15.75" customHeight="1" s="32">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5758,7 +5668,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="30">
+    <row r="4" ht="18.75" customHeight="1" s="32">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- CM1 COSTS (Per Sale) ---</t>
@@ -5766,339 +5676,339 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Base Commission Cost</t>
         </is>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$35:B$39)</f>
         <v/>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$35:C$39)</f>
         <v/>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$35:D$39)</f>
         <v/>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$35:E$39)</f>
         <v/>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$35:F$39)</f>
         <v/>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$35:G$39)</f>
         <v/>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$35:H$39)</f>
         <v/>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$35:I$39)</f>
         <v/>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$35:J$39)</f>
         <v/>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$35:K$39)</f>
         <v/>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$35:L$39)</f>
         <v/>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$35:M$39)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Commission Boost Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B6" s="17">
-        <f>'Reward Triggers'!B5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!B$35:B$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!B$35:B$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!B$35:B$39)*Revenue!B10</f>
-        <v/>
-      </c>
-      <c r="C6" s="17">
-        <f>'Reward Triggers'!C5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!C$35:C$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!C$35:C$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!C$35:C$39)*Revenue!C10</f>
-        <v/>
-      </c>
-      <c r="D6" s="17">
-        <f>'Reward Triggers'!D5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!D$35:D$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!D$35:D$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!D$35:D$39)*Revenue!D10</f>
-        <v/>
-      </c>
-      <c r="E6" s="17">
-        <f>'Reward Triggers'!E5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!E$35:E$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!E$35:E$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!E$35:E$39)*Revenue!E10</f>
-        <v/>
-      </c>
-      <c r="F6" s="17">
-        <f>'Reward Triggers'!F5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!F$35:F$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!F$35:F$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!F$35:F$39)*Revenue!F10</f>
-        <v/>
-      </c>
-      <c r="G6" s="17">
-        <f>'Reward Triggers'!G5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!G$35:G$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!G$35:G$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!G$35:G$39)*Revenue!G10</f>
-        <v/>
-      </c>
-      <c r="H6" s="17">
-        <f>'Reward Triggers'!H5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!H$35:H$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!H$35:H$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!H$35:H$39)*Revenue!H10</f>
-        <v/>
-      </c>
-      <c r="I6" s="17">
-        <f>'Reward Triggers'!I5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!I$35:I$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!I$35:I$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!I$35:I$39)*Revenue!I10</f>
-        <v/>
-      </c>
-      <c r="J6" s="17">
-        <f>'Reward Triggers'!J5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!J$35:J$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!J$35:J$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!J$35:J$39)*Revenue!J10</f>
-        <v/>
-      </c>
-      <c r="K6" s="17">
-        <f>'Reward Triggers'!K5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!K$35:K$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!K$35:K$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!K$35:K$39)*Revenue!K10</f>
-        <v/>
-      </c>
-      <c r="L6" s="17">
-        <f>'Reward Triggers'!L5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!L$35:L$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!L$35:L$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!L$35:L$39)*Revenue!L10</f>
-        <v/>
-      </c>
-      <c r="M6" s="17">
-        <f>'Reward Triggers'!M5*SUMPRODUCT('VIP Levels'!$E$5:$E$9,Inputs!M$35:M$39)*(SUMPRODUCT('VIP Levels'!$D$14:$D$18,Inputs!M$35:M$39)/30)*SUMPRODUCT('VIP Levels'!$C$14:$C$18,Inputs!M$35:M$39)*Revenue!M10</f>
+      <c r="B6" s="15">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!B10+'Affiliate Projection'!B22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!B10+'Affiliate Projection'!B23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B10+'Affiliate Projection'!B24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B10+'Affiliate Projection'!B25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B10</f>
+        <v/>
+      </c>
+      <c r="C6" s="15">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!C10+'Affiliate Projection'!C22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!C10+'Affiliate Projection'!C23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C10+'Affiliate Projection'!C24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C10+'Affiliate Projection'!C25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C10</f>
+        <v/>
+      </c>
+      <c r="D6" s="15">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!D10+'Affiliate Projection'!D22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!D10+'Affiliate Projection'!D23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D10+'Affiliate Projection'!D24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D10+'Affiliate Projection'!D25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D10</f>
+        <v/>
+      </c>
+      <c r="E6" s="15">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!E10+'Affiliate Projection'!E22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!E10+'Affiliate Projection'!E23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E10+'Affiliate Projection'!E24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E10+'Affiliate Projection'!E25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E10</f>
+        <v/>
+      </c>
+      <c r="F6" s="15">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!F10+'Affiliate Projection'!F22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!F10+'Affiliate Projection'!F23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F10+'Affiliate Projection'!F24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F10+'Affiliate Projection'!F25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F10</f>
+        <v/>
+      </c>
+      <c r="G6" s="15">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!G10+'Affiliate Projection'!G22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!G10+'Affiliate Projection'!G23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G10+'Affiliate Projection'!G24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G10+'Affiliate Projection'!G25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G10</f>
+        <v/>
+      </c>
+      <c r="H6" s="15">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!H10+'Affiliate Projection'!H22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!H10+'Affiliate Projection'!H23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H10+'Affiliate Projection'!H24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H10+'Affiliate Projection'!H25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H10</f>
+        <v/>
+      </c>
+      <c r="I6" s="15">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!I10+'Affiliate Projection'!I22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!I10+'Affiliate Projection'!I23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I10+'Affiliate Projection'!I24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I10+'Affiliate Projection'!I25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I10</f>
+        <v/>
+      </c>
+      <c r="J6" s="15">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!J10+'Affiliate Projection'!J22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!J10+'Affiliate Projection'!J23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J10+'Affiliate Projection'!J24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J10+'Affiliate Projection'!J25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J10</f>
+        <v/>
+      </c>
+      <c r="K6" s="15">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!K10+'Affiliate Projection'!K22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!K10+'Affiliate Projection'!K23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K10+'Affiliate Projection'!K24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K10+'Affiliate Projection'!K25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K10</f>
+        <v/>
+      </c>
+      <c r="L6" s="15">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!L10+'Affiliate Projection'!L22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!L10+'Affiliate Projection'!L23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L10+'Affiliate Projection'!L24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L10+'Affiliate Projection'!L25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L10</f>
+        <v/>
+      </c>
+      <c r="M6" s="15">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!M10+'Affiliate Projection'!M22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!M10+'Affiliate Projection'!M23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M10+'Affiliate Projection'!M24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M10+'Affiliate Projection'!M25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M10</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>Commission Boost Cost (Missions)</t>
         </is>
       </c>
-      <c r="B7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="C7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="D7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="E7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="F7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="G7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="H7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="I7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="J7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="K7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="L7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="M7" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+      <c r="B7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M7" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t>Discount Cost (Margin Erosion)</t>
-        </is>
-      </c>
-      <c r="B8" s="17">
-        <f>Revenue!B12</f>
-        <v/>
-      </c>
-      <c r="C8" s="17">
-        <f>Revenue!C12</f>
-        <v/>
-      </c>
-      <c r="D8" s="17">
-        <f>Revenue!D12</f>
-        <v/>
-      </c>
-      <c r="E8" s="17">
-        <f>Revenue!E12</f>
-        <v/>
-      </c>
-      <c r="F8" s="17">
-        <f>Revenue!F12</f>
-        <v/>
-      </c>
-      <c r="G8" s="17">
-        <f>Revenue!G12</f>
-        <v/>
-      </c>
-      <c r="H8" s="17">
-        <f>Revenue!H12</f>
-        <v/>
-      </c>
-      <c r="I8" s="17">
-        <f>Revenue!I12</f>
-        <v/>
-      </c>
-      <c r="J8" s="17">
-        <f>Revenue!J12</f>
-        <v/>
-      </c>
-      <c r="K8" s="17">
-        <f>Revenue!K12</f>
-        <v/>
-      </c>
-      <c r="L8" s="17">
-        <f>Revenue!L12</f>
-        <v/>
-      </c>
-      <c r="M8" s="17">
-        <f>Revenue!M12</f>
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>Discount Cost (Welcome)</t>
+        </is>
+      </c>
+      <c r="B8" s="34">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="C8" s="34">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="D8" s="34">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="E8" s="34">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="F8" s="34">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="G8" s="34">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="H8" s="34">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="I8" s="34">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="J8" s="34">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="K8" s="34">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="L8" s="34">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+        <v/>
+      </c>
+      <c r="M8" s="34">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Discount Cost (Missions)</t>
         </is>
       </c>
-      <c r="B9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="C9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="D9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="E9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="F9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="G9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="H9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="I9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="J9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="K9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="L9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="M9" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+      <c r="B9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M9" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Total CM1 Costs</t>
         </is>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <f>SUM(B5:B9)</f>
         <v/>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <f>SUM(C5:C9)</f>
         <v/>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <f>SUM(D5:D9)</f>
         <v/>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <f>SUM(E5:E9)</f>
         <v/>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f>SUM(F5:F9)</f>
         <v/>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <f>SUM(G5:G9)</f>
         <v/>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <f>SUM(H5:H9)</f>
         <v/>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <f>SUM(I5:I9)</f>
         <v/>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <f>SUM(J5:J9)</f>
         <v/>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="16">
         <f>SUM(K5:K9)</f>
         <v/>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="16">
         <f>SUM(L5:L9)</f>
         <v/>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="16">
         <f>SUM(M5:M9)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="30">
-      <c r="A11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="30">
+    <row r="11" ht="18.75" customHeight="1" s="32">
+      <c r="A11" s="14" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="32">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- LOYALTY PROGRAM COSTS ---</t>
@@ -6106,229 +6016,229 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Gift Card Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B13" s="17">
-        <f>'Reward Triggers'!B6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!B$35:B$39)</f>
-        <v/>
-      </c>
-      <c r="C13" s="17">
-        <f>'Reward Triggers'!C6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!C$35:C$39)</f>
-        <v/>
-      </c>
-      <c r="D13" s="17">
-        <f>'Reward Triggers'!D6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!D$35:D$39)</f>
-        <v/>
-      </c>
-      <c r="E13" s="17">
-        <f>'Reward Triggers'!E6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!E$35:E$39)</f>
-        <v/>
-      </c>
-      <c r="F13" s="17">
-        <f>'Reward Triggers'!F6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!F$35:F$39)</f>
-        <v/>
-      </c>
-      <c r="G13" s="17">
-        <f>'Reward Triggers'!G6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!G$35:G$39)</f>
-        <v/>
-      </c>
-      <c r="H13" s="17">
-        <f>'Reward Triggers'!H6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!H$35:H$39)</f>
-        <v/>
-      </c>
-      <c r="I13" s="17">
-        <f>'Reward Triggers'!I6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!I$35:I$39)</f>
-        <v/>
-      </c>
-      <c r="J13" s="17">
-        <f>'Reward Triggers'!J6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!J$35:J$39)</f>
-        <v/>
-      </c>
-      <c r="K13" s="17">
-        <f>'Reward Triggers'!K6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!K$35:K$39)</f>
-        <v/>
-      </c>
-      <c r="L13" s="17">
-        <f>'Reward Triggers'!L6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!L$35:L$39)</f>
-        <v/>
-      </c>
-      <c r="M13" s="17">
-        <f>'Reward Triggers'!M6*SUMPRODUCT('VIP Levels'!$E$14:$E$18*'VIP Levels'!$F$14:$F$18,Inputs!M$35:M$39)</f>
+      <c r="B13" s="15">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!B22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!B23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!B24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!B25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="C13" s="15">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!C22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!C23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!C24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!C25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="D13" s="15">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!D22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!D23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!D24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!D25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="E13" s="15">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!E22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!E23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!E24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!E25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="F13" s="15">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!F22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!F23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!F24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!F25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="G13" s="15">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!G22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!G23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!G24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!G25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="H13" s="15">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!H22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!H23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!H24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!H25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="I13" s="15">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!I22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!I23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!I24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!I25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="J13" s="15">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!J22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!J23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!J24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!J25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="K13" s="15">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!K22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!K23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!K24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!K25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="L13" s="15">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!L22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!L23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!L24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!L25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <v/>
+      </c>
+      <c r="M13" s="15">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!M22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!M23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!M24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!M25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Gift Card Cost (Missions)</t>
         </is>
       </c>
-      <c r="B14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="C14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="D14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="E14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="F14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="G14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="H14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="I14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="J14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="K14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="L14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="M14" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+      <c r="B14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M14" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Total Gift Card Cost</t>
         </is>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <f>B13+B14</f>
         <v/>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <f>C13+C14</f>
         <v/>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <f>D13+D14</f>
         <v/>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f>E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <f>F13+F14</f>
         <v/>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <f>G13+G14</f>
         <v/>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <f>H13+H14</f>
         <v/>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <f>I13+I14</f>
         <v/>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <f>J13+J14</f>
         <v/>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f>K13+K14</f>
         <v/>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <f>L13+L14</f>
         <v/>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <f>M13+M14</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>Total Loyalty Program Costs</t>
         </is>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <f>B15</f>
         <v/>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <f>C15</f>
         <v/>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <f>D15</f>
         <v/>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <f>E15</f>
         <v/>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f>F15</f>
         <v/>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <f>G15</f>
         <v/>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <f>H15</f>
         <v/>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <f>I15</f>
         <v/>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <f>J15</f>
         <v/>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="16">
         <f>K15</f>
         <v/>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="16">
         <f>L15</f>
         <v/>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="16">
         <f>M15</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="30">
-      <c r="A17" s="16" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" s="30">
+    <row r="17" ht="18.75" customHeight="1" s="32">
+      <c r="A17" s="14" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="32">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>--- MARKETING OPEX ---</t>
@@ -6336,339 +6246,339 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="14" t="inlineStr">
         <is>
           <t>Spark Ads Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B19" s="17">
-        <f>'Reward Triggers'!B8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!B$35:B$39)</f>
-        <v/>
-      </c>
-      <c r="C19" s="17">
-        <f>'Reward Triggers'!C8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!C$35:C$39)</f>
-        <v/>
-      </c>
-      <c r="D19" s="17">
-        <f>'Reward Triggers'!D8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!D$35:D$39)</f>
-        <v/>
-      </c>
-      <c r="E19" s="17">
-        <f>'Reward Triggers'!E8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!E$35:E$39)</f>
-        <v/>
-      </c>
-      <c r="F19" s="17">
-        <f>'Reward Triggers'!F8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!F$35:F$39)</f>
-        <v/>
-      </c>
-      <c r="G19" s="17">
-        <f>'Reward Triggers'!G8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!G$35:G$39)</f>
-        <v/>
-      </c>
-      <c r="H19" s="17">
-        <f>'Reward Triggers'!H8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!H$35:H$39)</f>
-        <v/>
-      </c>
-      <c r="I19" s="17">
-        <f>'Reward Triggers'!I8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!I$35:I$39)</f>
-        <v/>
-      </c>
-      <c r="J19" s="17">
-        <f>'Reward Triggers'!J8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!J$35:J$39)</f>
-        <v/>
-      </c>
-      <c r="K19" s="17">
-        <f>'Reward Triggers'!K8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!K$35:K$39)</f>
-        <v/>
-      </c>
-      <c r="L19" s="17">
-        <f>'Reward Triggers'!L8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!L$35:L$39)</f>
-        <v/>
-      </c>
-      <c r="M19" s="17">
-        <f>'Reward Triggers'!M8*SUMPRODUCT('VIP Levels'!$I$14:$I$18*'VIP Levels'!$J$14:$J$18,Inputs!M$35:M$39)</f>
+      <c r="B19" s="15">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!B22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!B23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!B24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!B25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="C19" s="15">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!C22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!C23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!C24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!C25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="D19" s="15">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!D22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!D23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!D24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!D25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="E19" s="15">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!E22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!E23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!E24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!E25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="F19" s="15">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!F22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!F23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!F24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!F25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="G19" s="15">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!G22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!G23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!G24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!G25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="H19" s="15">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!H22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!H23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!H24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!H25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="I19" s="15">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!I22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!I23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!I24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!I25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="J19" s="15">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!J22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!J23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!J24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!J25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="K19" s="15">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!K22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!K23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!K24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!K25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="L19" s="15">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!L22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!L23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!L24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!L25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <v/>
+      </c>
+      <c r="M19" s="15">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!M22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!M23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!M24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!M25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="14" t="inlineStr">
         <is>
           <t>Spark Ads Cost (Missions)</t>
         </is>
       </c>
-      <c r="B20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="C20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="D20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="E20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="F20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="G20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="H20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="I20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="J20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="K20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="L20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
-        <v/>
-      </c>
-      <c r="M20" s="17">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M26*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M27*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+      <c r="B20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="C20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="D20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="E20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="F20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="G20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="H20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="I20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="J20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="K20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="L20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <v/>
+      </c>
+      <c r="M20" s="15">
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="14" t="inlineStr">
         <is>
           <t>Physical Gift Cost</t>
         </is>
       </c>
-      <c r="B21" s="17">
-        <f>'Reward Triggers'!B9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!B$35:B$39)</f>
-        <v/>
-      </c>
-      <c r="C21" s="17">
-        <f>'Reward Triggers'!C9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!C$35:C$39)</f>
-        <v/>
-      </c>
-      <c r="D21" s="17">
-        <f>'Reward Triggers'!D9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!D$35:D$39)</f>
-        <v/>
-      </c>
-      <c r="E21" s="17">
-        <f>'Reward Triggers'!E9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!E$35:E$39)</f>
-        <v/>
-      </c>
-      <c r="F21" s="17">
-        <f>'Reward Triggers'!F9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!F$35:F$39)</f>
-        <v/>
-      </c>
-      <c r="G21" s="17">
-        <f>'Reward Triggers'!G9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!G$35:G$39)</f>
-        <v/>
-      </c>
-      <c r="H21" s="17">
-        <f>'Reward Triggers'!H9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!H$35:H$39)</f>
-        <v/>
-      </c>
-      <c r="I21" s="17">
-        <f>'Reward Triggers'!I9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!I$35:I$39)</f>
-        <v/>
-      </c>
-      <c r="J21" s="17">
-        <f>'Reward Triggers'!J9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!J$35:J$39)</f>
-        <v/>
-      </c>
-      <c r="K21" s="17">
-        <f>'Reward Triggers'!K9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!K$35:K$39)</f>
-        <v/>
-      </c>
-      <c r="L21" s="17">
-        <f>'Reward Triggers'!L9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!L$35:L$39)</f>
-        <v/>
-      </c>
-      <c r="M21" s="17">
-        <f>'Reward Triggers'!M9*SUMPRODUCT('VIP Levels'!$K$14:$K$18*'VIP Levels'!$L$14:$L$18,Inputs!M$35:M$39)</f>
+      <c r="B21" s="15">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!B22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!B23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!B24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!B25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="C21" s="15">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!C22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!C23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!C24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!C25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="D21" s="15">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!D22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!D23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!D24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!D25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="E21" s="15">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!E22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!E23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!E24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!E25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="F21" s="15">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!F22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!F23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!F24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!F25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="G21" s="15">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!G22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!G23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!G24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!G25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="H21" s="15">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!H22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!H23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!H24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!H25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="I21" s="15">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!I22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!I23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!I24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!I25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="J21" s="15">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!J22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!J23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!J24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!J25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="K21" s="15">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!K22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!K23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!K24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!K25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="L21" s="15">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!L22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!L23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!L24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!L25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <v/>
+      </c>
+      <c r="M21" s="15">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!M22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!M23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!M24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!M25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="14" t="inlineStr">
         <is>
           <t>Experience Cost</t>
         </is>
       </c>
-      <c r="B22" s="17">
-        <f>'Reward Triggers'!B10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!B$35:B$39)</f>
-        <v/>
-      </c>
-      <c r="C22" s="17">
-        <f>'Reward Triggers'!C10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!C$35:C$39)</f>
-        <v/>
-      </c>
-      <c r="D22" s="17">
-        <f>'Reward Triggers'!D10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!D$35:D$39)</f>
-        <v/>
-      </c>
-      <c r="E22" s="17">
-        <f>'Reward Triggers'!E10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!E$35:E$39)</f>
-        <v/>
-      </c>
-      <c r="F22" s="17">
-        <f>'Reward Triggers'!F10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!F$35:F$39)</f>
-        <v/>
-      </c>
-      <c r="G22" s="17">
-        <f>'Reward Triggers'!G10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!G$35:G$39)</f>
-        <v/>
-      </c>
-      <c r="H22" s="17">
-        <f>'Reward Triggers'!H10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!H$35:H$39)</f>
-        <v/>
-      </c>
-      <c r="I22" s="17">
-        <f>'Reward Triggers'!I10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!I$35:I$39)</f>
-        <v/>
-      </c>
-      <c r="J22" s="17">
-        <f>'Reward Triggers'!J10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!J$35:J$39)</f>
-        <v/>
-      </c>
-      <c r="K22" s="17">
-        <f>'Reward Triggers'!K10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!K$35:K$39)</f>
-        <v/>
-      </c>
-      <c r="L22" s="17">
-        <f>'Reward Triggers'!L10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!L$35:L$39)</f>
-        <v/>
-      </c>
-      <c r="M22" s="17">
-        <f>'Reward Triggers'!M10*SUMPRODUCT('VIP Levels'!$M$14:$M$18*'VIP Levels'!$N$14:$N$18,Inputs!M$35:M$39)</f>
+      <c r="B22" s="15">
+        <f>'Affiliate Projection'!B21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!B22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!B23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!B24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!B25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="C22" s="15">
+        <f>'Affiliate Projection'!C21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!C22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!C23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!C24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!C25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="D22" s="15">
+        <f>'Affiliate Projection'!D21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!D22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!D23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!D24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!D25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="E22" s="15">
+        <f>'Affiliate Projection'!E21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!E22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!E23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!E24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!E25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="F22" s="15">
+        <f>'Affiliate Projection'!F21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!F22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!F23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!F24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!F25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="G22" s="15">
+        <f>'Affiliate Projection'!G21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!G22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!G23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!G24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!G25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="H22" s="15">
+        <f>'Affiliate Projection'!H21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!H22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!H23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!H24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!H25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="I22" s="15">
+        <f>'Affiliate Projection'!I21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!I22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!I23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!I24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!I25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="J22" s="15">
+        <f>'Affiliate Projection'!J21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!J22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!J23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!J24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!J25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="K22" s="15">
+        <f>'Affiliate Projection'!K21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!K22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!K23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!K24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!K25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="L22" s="15">
+        <f>'Affiliate Projection'!L21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!L22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!L23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!L24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!L25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <v/>
+      </c>
+      <c r="M22" s="15">
+        <f>'Affiliate Projection'!M21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!M22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!M23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!M24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!M25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="A23" s="14" t="inlineStr">
         <is>
           <t>Sample Cost</t>
         </is>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <f>'Affiliate Projection'!B4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <f>'Affiliate Projection'!C4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <f>'Affiliate Projection'!D4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <f>'Affiliate Projection'!E4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <f>'Affiliate Projection'!F4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <f>'Affiliate Projection'!G4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <f>'Affiliate Projection'!H4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <f>'Affiliate Projection'!I4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <f>'Affiliate Projection'!J4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f>'Affiliate Projection'!K4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <f>'Affiliate Projection'!L4*Inputs!$B$28</f>
         <v/>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="15">
         <f>'Affiliate Projection'!M4*Inputs!$B$28</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="inlineStr">
+      <c r="A24" s="14" t="inlineStr">
         <is>
           <t>Total Marketing OpEx</t>
         </is>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="16">
         <f>SUM(B19:B23)</f>
         <v/>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <f>SUM(C19:C23)</f>
         <v/>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <f>SUM(D19:D23)</f>
         <v/>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>SUM(E19:E23)</f>
         <v/>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f>SUM(F19:F23)</f>
         <v/>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <f>SUM(G19:G23)</f>
         <v/>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <f>SUM(H19:H23)</f>
         <v/>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <f>SUM(I19:I23)</f>
         <v/>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="16">
         <f>SUM(J19:J23)</f>
         <v/>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="16">
         <f>SUM(K19:K23)</f>
         <v/>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="16">
         <f>SUM(L19:L23)</f>
         <v/>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="16">
         <f>SUM(M19:M23)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="30">
-      <c r="A25" s="16" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" s="30">
+    <row r="25" ht="18.75" customHeight="1" s="32">
+      <c r="A25" s="14" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" s="32">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>--- TOTALS ---</t>
@@ -6676,60 +6586,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="inlineStr">
+      <c r="A27" s="14" t="inlineStr">
         <is>
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <f>B10+B16+B24</f>
         <v/>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <f>C10+C16+C24</f>
         <v/>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <f>D10+D16+D24</f>
         <v/>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <f>E10+E16+E24</f>
         <v/>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f>F10+F16+F24</f>
         <v/>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <f>G10+G16+G24</f>
         <v/>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <f>H10+H16+H24</f>
         <v/>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <f>I10+I16+I24</f>
         <v/>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <f>J10+J16+J24</f>
         <v/>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="16">
         <f>K10+K16+K24</f>
         <v/>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="16">
         <f>L10+L16+L24</f>
         <v/>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="16">
         <f>M10+M16+M24</f>
         <v/>
       </c>
     </row>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
@@ -6752,26 +6664,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" style="30" min="1" max="1"/>
-    <col width="15" customWidth="1" style="30" min="2" max="2"/>
-    <col width="10" customWidth="1" style="30" min="3" max="14"/>
+    <col width="32" customWidth="1" style="32" min="1" max="1"/>
+    <col width="15" customWidth="1" style="32" min="2" max="2"/>
+    <col width="10" customWidth="1" style="32" min="3" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="30">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="32">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>SUMMARY DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="30">
+    <row r="3" ht="18.75" customHeight="1" s="32">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>12-MONTH TOTALS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="30">
+    <row r="4" ht="15.75" customHeight="1" s="32">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6789,7 +6701,7 @@
           <t>Total Samples Sent</t>
         </is>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <f>SUM('Affiliate Projection'!B4:M4)</f>
         <v/>
       </c>
@@ -6800,7 +6712,7 @@
           <t>Total New Affiliates</t>
         </is>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <f>SUM('Affiliate Projection'!B7:M7)</f>
         <v/>
       </c>
@@ -6811,7 +6723,7 @@
           <t>Active Affiliates (Month 12)</t>
         </is>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <f>'Affiliate Projection'!M9</f>
         <v/>
       </c>
@@ -6822,7 +6734,7 @@
           <t>Total Sales</t>
         </is>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>SUM('Affiliate Projection'!B10:M10)</f>
         <v/>
       </c>
@@ -6836,7 +6748,7 @@
           <t>Gross Revenue</t>
         </is>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <f>SUM(Revenue!B6:M6)</f>
         <v/>
       </c>
@@ -6847,7 +6759,7 @@
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <f>SUM(Revenue!B11:M11)</f>
         <v/>
       </c>
@@ -6861,7 +6773,7 @@
           <t>Total CM1 Costs</t>
         </is>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <f>SUM(Costs!B9:M9)</f>
         <v/>
       </c>
@@ -6872,7 +6784,7 @@
           <t>Total Loyalty Program Costs</t>
         </is>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <f>SUM(Costs!B15:M15)</f>
         <v/>
       </c>
@@ -6883,7 +6795,7 @@
           <t>Total Marketing OpEx</t>
         </is>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <f>SUM(Costs!B23:M23)</f>
         <v/>
       </c>
@@ -6894,19 +6806,19 @@
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <f>SUM(Costs!B26:M26)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="30">
+    <row r="19" ht="18.75" customHeight="1" s="32">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>KEY RATIOS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="30">
+    <row r="20" ht="15.75" customHeight="1" s="32">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6924,7 +6836,7 @@
           <t>CM1 as % of Net Revenue</t>
         </is>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <f>IF(B11&gt;0,B13/B11,0)</f>
         <v/>
       </c>
@@ -6935,7 +6847,7 @@
           <t>Total Cost as % of Net Revenue</t>
         </is>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <f>IF(B11&gt;0,B16/B11,0)</f>
         <v/>
       </c>
@@ -6946,7 +6858,7 @@
           <t>Cost per Affiliate (12-mo avg)</t>
         </is>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <f>IF(B6&gt;0,B16/B6,0)</f>
         <v/>
       </c>
@@ -6957,7 +6869,7 @@
           <t>Revenue per Affiliate (12-mo avg)</t>
         </is>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <f>IF(B6&gt;0,B11/B6,0)</f>
         <v/>
       </c>
@@ -6968,7 +6880,7 @@
           <t>Sample-to-Affiliate Conversion</t>
         </is>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <f>IF(B5&gt;0,B6/B5,0)</f>
         <v/>
       </c>
@@ -6979,19 +6891,19 @@
           <t>Weighted Avg Commission Rate</t>
         </is>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <f>SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!$M$35:$M$39)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="30">
+    <row r="29" ht="18.75" customHeight="1" s="32">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MONTHLY TREND</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="30">
+    <row r="30" ht="15.75" customHeight="1" s="32">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -7069,55 +6981,55 @@
           <t>Active Affiliates</t>
         </is>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <f>'Affiliate Projection'!B9</f>
         <v/>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <f>'Affiliate Projection'!C9</f>
         <v/>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <f>'Affiliate Projection'!D9</f>
         <v/>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <f>'Affiliate Projection'!E9</f>
         <v/>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <f>'Affiliate Projection'!F9</f>
         <v/>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <f>'Affiliate Projection'!G9</f>
         <v/>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="13">
         <f>'Affiliate Projection'!H9</f>
         <v/>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="13">
         <f>'Affiliate Projection'!I9</f>
         <v/>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <f>'Affiliate Projection'!J9</f>
         <v/>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <f>'Affiliate Projection'!K9</f>
         <v/>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="13">
         <f>'Affiliate Projection'!L9</f>
         <v/>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
         <f>'Affiliate Projection'!M9</f>
         <v/>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="13">
         <f>M31</f>
         <v/>
       </c>
@@ -7128,55 +7040,55 @@
           <t>Total Sales</t>
         </is>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <f>'Affiliate Projection'!B10</f>
         <v/>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <f>'Affiliate Projection'!C10</f>
         <v/>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <f>'Affiliate Projection'!D10</f>
         <v/>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="13">
         <f>'Affiliate Projection'!E10</f>
         <v/>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <f>'Affiliate Projection'!F10</f>
         <v/>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <f>'Affiliate Projection'!G10</f>
         <v/>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="13">
         <f>'Affiliate Projection'!H10</f>
         <v/>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="13">
         <f>'Affiliate Projection'!I10</f>
         <v/>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <f>'Affiliate Projection'!J10</f>
         <v/>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <f>'Affiliate Projection'!K10</f>
         <v/>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="13">
         <f>'Affiliate Projection'!L10</f>
         <v/>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="13">
         <f>'Affiliate Projection'!M10</f>
         <v/>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="13">
         <f>SUM(B32:M32)</f>
         <v/>
       </c>
@@ -7187,55 +7099,55 @@
           <t>Net Revenue</t>
         </is>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <f>Revenue!B11</f>
         <v/>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="15">
         <f>Revenue!C11</f>
         <v/>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <f>Revenue!D11</f>
         <v/>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <f>Revenue!E11</f>
         <v/>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <f>Revenue!F11</f>
         <v/>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <f>Revenue!G11</f>
         <v/>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <f>Revenue!H11</f>
         <v/>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="15">
         <f>Revenue!I11</f>
         <v/>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <f>Revenue!J11</f>
         <v/>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="15">
         <f>Revenue!K11</f>
         <v/>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="15">
         <f>Revenue!L11</f>
         <v/>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="15">
         <f>Revenue!M11</f>
         <v/>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="15">
         <f>SUM(B33:M33)</f>
         <v/>
       </c>
@@ -7246,55 +7158,55 @@
           <t>Total Program Cost</t>
         </is>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <f>Costs!B26</f>
         <v/>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="15">
         <f>Costs!C26</f>
         <v/>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <f>Costs!D26</f>
         <v/>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <f>Costs!E26</f>
         <v/>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="15">
         <f>Costs!F26</f>
         <v/>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <f>Costs!G26</f>
         <v/>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="15">
         <f>Costs!H26</f>
         <v/>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <f>Costs!I26</f>
         <v/>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <f>Costs!J26</f>
         <v/>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <f>Costs!K26</f>
         <v/>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="15">
         <f>Costs!L26</f>
         <v/>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="15">
         <f>Costs!M26</f>
         <v/>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="15">
         <f>SUM(B34:M34)</f>
         <v/>
       </c>
@@ -7305,55 +7217,55 @@
           <t>Cost as % of Revenue</t>
         </is>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <f>IF(B33&gt;0,B34/B33,0)</f>
         <v/>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <f>IF(C33&gt;0,C34/C33,0)</f>
         <v/>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <f>IF(D33&gt;0,D34/D33,0)</f>
         <v/>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <f>IF(E33&gt;0,E34/E33,0)</f>
         <v/>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <f>IF(F33&gt;0,F34/F33,0)</f>
         <v/>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <f>IF(G33&gt;0,G34/G33,0)</f>
         <v/>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f>IF(H33&gt;0,H34/H33,0)</f>
         <v/>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <f>IF(I33&gt;0,I34/I33,0)</f>
         <v/>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <f>IF(J33&gt;0,J34/J33,0)</f>
         <v/>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <f>IF(K33&gt;0,K34/K33,0)</f>
         <v/>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="11">
         <f>IF(L33&gt;0,L34/L33,0)</f>
         <v/>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <f>IF(M33&gt;0,M34/M33,0)</f>
         <v/>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <f>IF(N33&gt;0,N34/N33,0)</f>
         <v/>
       </c>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
@@ -281,12 +281,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,36 +652,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" style="32" min="1" max="1"/>
-    <col width="18" customWidth="1" style="32" min="2" max="2"/>
-    <col width="12" customWidth="1" style="32" min="3" max="4"/>
-    <col width="45" customWidth="1" style="32" min="5" max="5"/>
-    <col width="32.7109375" customWidth="1" style="32" min="7" max="7"/>
+    <col width="40" customWidth="1" style="34" min="1" max="1"/>
+    <col width="18" customWidth="1" style="34" min="2" max="2"/>
+    <col width="12" customWidth="1" style="34" min="3" max="4"/>
+    <col width="45" customWidth="1" style="34" min="5" max="5"/>
+    <col width="32.7109375" customWidth="1" style="34" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="32">
+    <row r="3" ht="18.75" customHeight="1" s="34">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ACQUISITION INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="32">
+    <row r="4" ht="15.75" customHeight="1" s="34">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
@@ -795,838 +795,784 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Time to First Sale</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PERFORMANCE INPUTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="34">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Monthly sales velocity per active affiliate</t>
+        </is>
+      </c>
+      <c r="G11" s="19" t="inlineStr">
+        <is>
+          <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
+Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="34">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Gross AOV</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Average order value before discounts</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Revenue | Row 5 &amp; Missions | Col J</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="34">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Rolling Window Duration</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>days</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Lag between conversion and first sale</t>
-        </is>
-      </c>
-      <c r="G8" s="18" t="inlineStr">
-        <is>
-          <t>Placeholder..</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Affiliate Attrition Rate</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>AffAttrition</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Monthly churn rate of affiliates</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Affiliate Projection | Row 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="32">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>PERFORMANCE INPUTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="32">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="32">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>(DEPRECATED) Average Sales per Affiliate per Month</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>sales</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Monthly sales velocity per active affiliate</t>
-        </is>
-      </c>
-      <c r="G13" s="19" t="inlineStr">
-        <is>
-          <t>How can we make this… dynamic? Some affiliates may sell 2, 5, 10 … by %
-Perhaps: 30% sell 0 (or attrition) | 40% sell 5 | 20% sell 8 | 10% sell 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="75" customHeight="1" s="32">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Gross AOV</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>Average order value before discounts</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Revenue | Row 5 &amp; Missions | Col J</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Rolling Window Duration</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
           <t>Time period for VIP level qualification</t>
         </is>
       </c>
-      <c r="G15" s="18" t="inlineStr">
+      <c r="G13" s="18" t="inlineStr">
         <is>
           <t>Placeholder..</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="32">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="14" ht="75" customHeight="1" s="34"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>REDEMPTION &amp; BEHAVIOR INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="32">
-      <c r="A19" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="32">
+    <row r="18" ht="18.75" customHeight="1" s="34">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Discount Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Percentage of discount coupons redeemed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Revenue | Row 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="34">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Default Mission Completion Rate</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Default completion rate for missions</t>
+        </is>
+      </c>
+      <c r="G19" s="18" t="inlineStr">
+        <is>
+          <t>Overriden by mission sheet… delete?</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="34">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Discount Redemption Rate</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0.3</v>
-      </c>
+          <t>(DEPRECATED) Avg Sales During Commission Boost</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sales</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Percentage of discount coupons redeemed</t>
+          <t>Expected sales an affiliate makes during boost period</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Revenue | Row 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Default Mission Completion Rate</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>Default completion rate for missions</t>
-        </is>
-      </c>
-      <c r="G21" s="18" t="inlineStr">
-        <is>
-          <t>Overriden by mission sheet… delete?</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>(DEPRECATED) Avg Sales During Commission Boost</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Expected sales an affiliate makes during boost period</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>Costs | Rows 6-7 &amp; Misions | Col J</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="32">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>COST INPUTS</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="32">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="32">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="25" ht="18.75" customHeight="1" s="34">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Cost per Sample</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B25" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Cost of each sample sent (product + shipping)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Costs row 22</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="32"/>
-    <row r="32" ht="15.75" customHeight="1" s="32">
-      <c r="A32" s="23" t="inlineStr">
+    <row r="26" ht="18.75" customHeight="1" s="34"/>
+    <row r="27" ht="15.75" customHeight="1" s="34"/>
+    <row r="30">
+      <c r="A30" s="23" t="inlineStr">
         <is>
           <t>MONTHLY LEVEL DISTRIBUTION</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="31.5" customHeight="1" s="32">
-      <c r="A33" s="24" t="inlineStr">
+    <row r="31" ht="18.75" customHeight="1" s="34">
+      <c r="A31" s="24" t="inlineStr">
         <is>
           <t>(% of affiliates at each level per month)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="n"/>
+      <c r="B31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" s="34">
+      <c r="A32" s="25" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B32" s="25" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C32" s="25" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D32" s="25" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E32" s="25" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F32" s="25" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="G32" s="25" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="H32" s="25" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="I32" s="25" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="J32" s="25" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="K32" s="25" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="L32" s="25" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="M32" s="25" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="31.5" customHeight="1" s="34">
+      <c r="A33" s="26" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="B33" s="27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C33" s="27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="27" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F33" s="27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G33" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="27" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I33" s="27" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J33" s="27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K33" s="27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M33" s="27" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="B34" s="25" t="inlineStr">
-        <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="C34" s="25" t="inlineStr">
-        <is>
-          <t>Month 2</t>
-        </is>
-      </c>
-      <c r="D34" s="25" t="inlineStr">
-        <is>
-          <t>Month 3</t>
-        </is>
-      </c>
-      <c r="E34" s="25" t="inlineStr">
-        <is>
-          <t>Month 4</t>
-        </is>
-      </c>
-      <c r="F34" s="25" t="inlineStr">
-        <is>
-          <t>Month 5</t>
-        </is>
-      </c>
-      <c r="G34" s="25" t="inlineStr">
-        <is>
-          <t>Month 6</t>
-        </is>
-      </c>
-      <c r="H34" s="25" t="inlineStr">
-        <is>
-          <t>Month 7</t>
-        </is>
-      </c>
-      <c r="I34" s="25" t="inlineStr">
-        <is>
-          <t>Month 8</t>
-        </is>
-      </c>
-      <c r="J34" s="25" t="inlineStr">
-        <is>
-          <t>Month 9</t>
-        </is>
-      </c>
-      <c r="K34" s="25" t="inlineStr">
-        <is>
-          <t>Month 10</t>
-        </is>
-      </c>
-      <c r="L34" s="25" t="inlineStr">
-        <is>
-          <t>Month 11</t>
-        </is>
-      </c>
-      <c r="M34" s="25" t="inlineStr">
-        <is>
-          <t>Month 12</t>
-        </is>
+      <c r="A34" s="26" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="B34" s="27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D34" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F34" s="27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G34" s="27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H34" s="27" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I34" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K34" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L34" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M34" s="27" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="inlineStr">
         <is>
-          <t>Bronze</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B35" s="27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="D35" s="27" t="n">
-        <v>0.7</v>
+        <v>0.08</v>
       </c>
       <c r="E35" s="27" t="n">
-        <v>0.62</v>
+        <v>0.1</v>
       </c>
       <c r="F35" s="27" t="n">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="G35" s="27" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="H35" s="27" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="I35" s="27" t="n">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="K35" s="27" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="L35" s="27" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="M35" s="27" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="B36" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E36" s="27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G36" s="27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H36" s="27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I36" s="27" t="n">
         <v>0.1</v>
       </c>
-      <c r="C36" s="27" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D36" s="27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="27" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F36" s="27" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G36" s="27" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H36" s="27" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I36" s="27" t="n">
-        <v>0.3</v>
-      </c>
       <c r="J36" s="27" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="K36" s="27" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="L36" s="27" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="M36" s="27" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Diamond</t>
         </is>
       </c>
       <c r="B37" s="27" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D37" s="27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E37" s="27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="27" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G37" s="27" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H37" s="27" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I37" s="27" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K37" s="27" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L37" s="27" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M37" s="27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E38" s="27" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="27" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G38" s="27" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H38" s="27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I38" s="27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J38" s="27" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K38" s="27" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L38" s="27" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M38" s="27" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="26" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="27" t="n">
-        <v>0</v>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>Total (must = 100%)</t>
+        </is>
+      </c>
+      <c r="B38" s="29">
+        <f>SUM(B33:B37)</f>
+        <v/>
+      </c>
+      <c r="C38" s="29">
+        <f>SUM(C33:C37)</f>
+        <v/>
+      </c>
+      <c r="D38" s="29">
+        <f>SUM(D33:D37)</f>
+        <v/>
+      </c>
+      <c r="E38" s="29">
+        <f>SUM(E33:E37)</f>
+        <v/>
+      </c>
+      <c r="F38" s="29">
+        <f>SUM(F33:F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="29">
+        <f>SUM(G33:G37)</f>
+        <v/>
+      </c>
+      <c r="H38" s="29">
+        <f>SUM(H33:H37)</f>
+        <v/>
+      </c>
+      <c r="I38" s="29">
+        <f>SUM(I33:I37)</f>
+        <v/>
+      </c>
+      <c r="J38" s="29">
+        <f>SUM(J33:J37)</f>
+        <v/>
+      </c>
+      <c r="K38" s="29">
+        <f>SUM(K33:K37)</f>
+        <v/>
+      </c>
+      <c r="L38" s="29">
+        <f>SUM(L33:L37)</f>
+        <v/>
+      </c>
+      <c r="M38" s="29">
+        <f>SUM(M33:M37)</f>
+        <v/>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>Total (must = 100%)</t>
-        </is>
-      </c>
-      <c r="B40" s="29">
-        <f>SUM(B35:B39)</f>
-        <v/>
-      </c>
-      <c r="C40" s="29">
-        <f>SUM(C35:C39)</f>
-        <v/>
-      </c>
-      <c r="D40" s="29">
-        <f>SUM(D35:D39)</f>
-        <v/>
-      </c>
-      <c r="E40" s="29">
-        <f>SUM(E35:E39)</f>
-        <v/>
-      </c>
-      <c r="F40" s="29">
-        <f>SUM(F35:F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="29">
-        <f>SUM(G35:G39)</f>
-        <v/>
-      </c>
-      <c r="H40" s="29">
-        <f>SUM(H35:H39)</f>
-        <v/>
-      </c>
-      <c r="I40" s="29">
-        <f>SUM(I35:I39)</f>
-        <v/>
-      </c>
-      <c r="J40" s="29">
-        <f>SUM(J35:J39)</f>
-        <v/>
-      </c>
-      <c r="K40" s="29">
-        <f>SUM(K35:K39)</f>
-        <v/>
-      </c>
-      <c r="L40" s="29">
-        <f>SUM(L35:L39)</f>
-        <v/>
-      </c>
-      <c r="M40" s="29">
-        <f>SUM(M35:M39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" s="32">
-      <c r="A42" s="23" t="inlineStr">
+      <c r="A40" s="23" t="inlineStr">
         <is>
           <t>MONTHLY FLYWHEEL AFFILIATES</t>
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="24" t="inlineStr">
+        <is>
+          <t>(Organic inbound affiliates per month)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="34">
+      <c r="A42" s="25" t="inlineStr">
+        <is>
+          <t>Flywheel</t>
+        </is>
+      </c>
+      <c r="B42" s="25" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C42" s="25" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D42" s="25" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E42" s="25" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F42" s="25" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="G42" s="25" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="H42" s="25" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="I42" s="25" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="J42" s="25" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="K42" s="25" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="M42" s="25" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+    </row>
     <row r="43">
-      <c r="A43" s="24" t="inlineStr">
-        <is>
-          <t>(Organic inbound affiliates per month)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="25" t="inlineStr">
-        <is>
-          <t>Flywheel</t>
-        </is>
-      </c>
-      <c r="B44" s="25" t="inlineStr">
-        <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="C44" s="25" t="inlineStr">
-        <is>
-          <t>Month 2</t>
-        </is>
-      </c>
-      <c r="D44" s="25" t="inlineStr">
-        <is>
-          <t>Month 3</t>
-        </is>
-      </c>
-      <c r="E44" s="25" t="inlineStr">
-        <is>
-          <t>Month 4</t>
-        </is>
-      </c>
-      <c r="F44" s="25" t="inlineStr">
-        <is>
-          <t>Month 5</t>
-        </is>
-      </c>
-      <c r="G44" s="25" t="inlineStr">
-        <is>
-          <t>Month 6</t>
-        </is>
-      </c>
-      <c r="H44" s="25" t="inlineStr">
-        <is>
-          <t>Month 7</t>
-        </is>
-      </c>
-      <c r="I44" s="25" t="inlineStr">
-        <is>
-          <t>Month 8</t>
-        </is>
-      </c>
-      <c r="J44" s="25" t="inlineStr">
-        <is>
-          <t>Month 9</t>
-        </is>
-      </c>
-      <c r="K44" s="25" t="inlineStr">
-        <is>
-          <t>Month 10</t>
-        </is>
-      </c>
-      <c r="L44" s="25" t="inlineStr">
-        <is>
-          <t>Month 11</t>
-        </is>
-      </c>
-      <c r="M44" s="25" t="inlineStr">
-        <is>
-          <t>Month 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="26" t="inlineStr">
+      <c r="A43" s="26" t="inlineStr">
         <is>
           <t>Affiliates</t>
         </is>
       </c>
-      <c r="B45" s="30" t="n">
+      <c r="B43" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="C45" s="30" t="n">
+      <c r="C43" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D45" s="30" t="n">
+      <c r="D43" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="E45" s="30" t="n">
+      <c r="E43" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="30" t="n">
+      <c r="F43" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="G45" s="30" t="n">
+      <c r="G43" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="H45" s="30" t="n">
+      <c r="H43" s="30" t="n">
         <v>20</v>
       </c>
-      <c r="I45" s="30" t="n">
+      <c r="I43" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="J45" s="30" t="n">
+      <c r="J43" s="30" t="n">
         <v>25</v>
       </c>
-      <c r="K45" s="30" t="n">
+      <c r="K43" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="L45" s="30" t="n">
+      <c r="L43" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="M45" s="30" t="n">
+      <c r="M43" s="30" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1" s="32">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>LEGEND</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Yellow cells</t>
         </is>
       </c>
-      <c r="B53" s="8">
+      <c r="B51" s="8">
         <f>Editable inputs</f>
         <v/>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="52" ht="18.75" customHeight="1" s="34">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Green cells</t>
         </is>
       </c>
-      <c r="B54" s="9">
+      <c r="B52" s="9">
         <f>Calculated values</f>
         <v/>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1" s="32"/>
+    <row r="62" ht="18.75" customHeight="1" s="34"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1644,32 +1590,32 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" style="32" min="1" max="1"/>
-    <col width="13" customWidth="1" style="32" min="2" max="4"/>
-    <col width="17.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="13" customWidth="1" style="32" min="6" max="14"/>
+    <col width="45" customWidth="1" style="34" min="1" max="1"/>
+    <col width="13" customWidth="1" style="34" min="2" max="4"/>
+    <col width="17.28515625" customWidth="1" style="34" min="5" max="5"/>
+    <col width="13" customWidth="1" style="34" min="6" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>VIP LEVEL CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="32">
+    <row r="3" ht="18.75" customHeight="1" s="34">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>LEVEL THRESHOLDS &amp; COMMISSION</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" s="32">
+    <row r="4" ht="47.25" customHeight="1" s="34">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Level #</t>
@@ -1791,14 +1737,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="32">
+    <row r="12" ht="18.75" customHeight="1" s="34">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>WELCOME REWARDS (Per Level)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="31.5" customHeight="1" s="32">
+    <row r="13" ht="31.5" customHeight="1" s="34">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -1839,7 +1785,7 @@
           <t>Discount %</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>Discount Days</t>
         </is>
@@ -1897,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="I14" t="n">
-        <v>30</v>
+      <c r="I14" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>0</v>
@@ -1946,19 +1892,19 @@
         <v>50</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="I15" t="n">
-        <v>30</v>
+      <c r="I15" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -1995,25 +1941,25 @@
         <v>100</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="I16" t="n">
-        <v>30</v>
+      <c r="I16" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>0</v>
@@ -2044,31 +1990,31 @@
         <v>150</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45</v>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="10" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2098,8 +2044,8 @@
       <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>60</v>
+      <c r="I18" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>0</v>
@@ -2120,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" s="32"/>
+    <row r="21" ht="18.75" customHeight="1" s="34"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
@@ -2144,24 +2090,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="32" min="1" max="10"/>
+    <col width="18" customWidth="1" style="34" min="1" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>MISSION CONFIGURATION</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="32">
+    <row r="3" ht="18.75" customHeight="1" s="34">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MISSIONS BY VIP LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1" s="32">
+    <row r="4" ht="31.5" customHeight="1" s="34">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>VIP Level</t>
@@ -2252,7 +2198,7 @@
         </is>
       </c>
       <c r="J5" s="12">
-        <f>IF(D5="Weekly",(Inputs!$B$15/30)*4,IF(D5="Monthly",Inputs!$B$15/30,1))*IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D5="Weekly",(Inputs!$B$13/30)*4,IF(D5="Monthly",Inputs!$B$13/30,1))*IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Revenue!$B$10,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))/30*H5)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2241,7 @@
         </is>
       </c>
       <c r="J6" s="12">
-        <f>IF(D6="Weekly",(Inputs!$B$15/30)*4,IF(D6="Monthly",Inputs!$B$15/30,1))*IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D6="Weekly",(Inputs!$B$13/30)*4,IF(D6="Monthly",Inputs!$B$13/30,1))*IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Revenue!$B$10,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))/30*H6)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2338,7 +2284,7 @@
         </is>
       </c>
       <c r="J7" s="12">
-        <f>IF(D7="Weekly",(Inputs!$B$15/30)*4,IF(D7="Monthly",Inputs!$B$15/30,1))*IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D7="Weekly",(Inputs!$B$13/30)*4,IF(D7="Monthly",Inputs!$B$13/30,1))*IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Revenue!$B$10,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))/30*H7)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2381,7 +2327,7 @@
         </is>
       </c>
       <c r="J8" s="12">
-        <f>IF(D8="Weekly",(Inputs!$B$15/30)*4,IF(D8="Monthly",Inputs!$B$15/30,1))*IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D8="Weekly",(Inputs!$B$13/30)*4,IF(D8="Monthly",Inputs!$B$13/30,1))*IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Revenue!$B$10,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))/30*H8)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2424,7 +2370,7 @@
         </is>
       </c>
       <c r="J9" s="12">
-        <f>IF(D9="Weekly",(Inputs!$B$15/30)*4,IF(D9="Monthly",Inputs!$B$15/30,1))*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D9="Weekly",(Inputs!$B$13/30)*4,IF(D9="Monthly",Inputs!$B$13/30,1))*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Revenue!$B$10,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))/30*H9)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2467,7 +2413,7 @@
         </is>
       </c>
       <c r="J10" s="12">
-        <f>IF(D10="Weekly",(Inputs!$B$15/30)*4,IF(D10="Monthly",Inputs!$B$15/30,1))*IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D10="Weekly",(Inputs!$B$13/30)*4,IF(D10="Monthly",Inputs!$B$13/30,1))*IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Revenue!$B$10,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))/30*H10)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2510,7 +2456,7 @@
         </is>
       </c>
       <c r="J11" s="12">
-        <f>IF(D11="Weekly",(Inputs!$B$15/30)*4,IF(D11="Monthly",Inputs!$B$15/30,1))*IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D11="Weekly",(Inputs!$B$13/30)*4,IF(D11="Monthly",Inputs!$B$13/30,1))*IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Revenue!$B$10,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))/30*H11)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2553,7 +2499,7 @@
         </is>
       </c>
       <c r="J12" s="12">
-        <f>IF(D12="Weekly",(Inputs!$B$15/30)*4,IF(D12="Monthly",Inputs!$B$15/30,1))*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D12="Weekly",(Inputs!$B$13/30)*4,IF(D12="Monthly",Inputs!$B$13/30,1))*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Revenue!$B$10,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))/30*H12)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2596,7 +2542,7 @@
         </is>
       </c>
       <c r="J13" s="12">
-        <f>IF(D13="Weekly",(Inputs!$B$15/30)*4,IF(D13="Monthly",Inputs!$B$15/30,1))*IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D13="Weekly",(Inputs!$B$13/30)*4,IF(D13="Monthly",Inputs!$B$13/30,1))*IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Revenue!$B$10,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))/30*H13)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2639,7 +2585,7 @@
         </is>
       </c>
       <c r="J14" s="12">
-        <f>IF(D14="Weekly",(Inputs!$B$15/30)*4,IF(D14="Monthly",Inputs!$B$15/30,1))*IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D14="Weekly",(Inputs!$B$13/30)*4,IF(D14="Monthly",Inputs!$B$13/30,1))*IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Revenue!$B$10,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))/30*H14)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2682,7 +2628,7 @@
         </is>
       </c>
       <c r="J15" s="12">
-        <f>IF(D15="Weekly",(Inputs!$B$15/30)*4,IF(D15="Monthly",Inputs!$B$15/30,1))*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D15="Weekly",(Inputs!$B$13/30)*4,IF(D15="Monthly",Inputs!$B$13/30,1))*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Revenue!$B$10,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))/30*H15)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2725,7 +2671,7 @@
         </is>
       </c>
       <c r="J16" s="12">
-        <f>IF(D16="Weekly",(Inputs!$B$15/30)*4,IF(D16="Monthly",Inputs!$B$15/30,1))*IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$14*Inputs!$B$20,0))))</f>
+        <f>IF(D16="Weekly",(Inputs!$B$13/30)*4,IF(D16="Monthly",Inputs!$B$13/30,1))*IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Revenue!$B$10,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))/30*H16)*Inputs!$B$12*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2740,7 +2686,7 @@
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="13">
-        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Revenue!$B$10,IF(F17="Discount",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F17="Gift Card",G17,IF(F17="Spark Ads",G17,IF(F17="Commission Boost",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Revenue!$B$10,IF(F17="Discount",G17*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A17,'VIP Levels'!$B$5:$B$9,0))/30*H17)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2755,7 +2701,7 @@
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="13">
-        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Revenue!$B$10,IF(F18="Discount",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F18="Gift Card",G18,IF(F18="Spark Ads",G18,IF(F18="Commission Boost",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Revenue!$B$10,IF(F18="Discount",G18*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A18,'VIP Levels'!$B$5:$B$9,0))/30*H18)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2770,7 +2716,7 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="13">
-        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Revenue!$B$10,IF(F19="Discount",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F19="Gift Card",G19,IF(F19="Spark Ads",G19,IF(F19="Commission Boost",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Revenue!$B$10,IF(F19="Discount",G19*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A19,'VIP Levels'!$B$5:$B$9,0))/30*H19)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2785,7 +2731,7 @@
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="13">
-        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Revenue!$B$10,IF(F20="Discount",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F20="Gift Card",G20,IF(F20="Spark Ads",G20,IF(F20="Commission Boost",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Revenue!$B$10,IF(F20="Discount",G20*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A20,'VIP Levels'!$B$5:$B$9,0))/30*H20)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2800,7 +2746,7 @@
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="13">
-        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Revenue!$B$10,IF(F21="Discount",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F21="Gift Card",G21,IF(F21="Spark Ads",G21,IF(F21="Commission Boost",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Revenue!$B$10,IF(F21="Discount",G21*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A21,'VIP Levels'!$B$5:$B$9,0))/30*H21)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2815,7 +2761,7 @@
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="13">
-        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Revenue!$B$10,IF(F22="Discount",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F22="Gift Card",G22,IF(F22="Spark Ads",G22,IF(F22="Commission Boost",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Revenue!$B$10,IF(F22="Discount",G22*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A22,'VIP Levels'!$B$5:$B$9,0))/30*H22)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2830,7 +2776,7 @@
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="13">
-        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Revenue!$B$10,IF(F23="Discount",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F23="Gift Card",G23,IF(F23="Spark Ads",G23,IF(F23="Commission Boost",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Revenue!$B$10,IF(F23="Discount",G23*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A23,'VIP Levels'!$B$5:$B$9,0))/30*H23)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2845,7 +2791,7 @@
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="13">
-        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Revenue!$B$10,IF(F24="Discount",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Inputs!$B$15*Inputs!$B$21,0))))</f>
+        <f>IF(F24="Gift Card",G24,IF(F24="Spark Ads",G24,IF(F24="Commission Boost",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Revenue!$B$10,IF(F24="Discount",G24*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A24,'VIP Levels'!$B$5:$B$9,0))/30*H24)*Inputs!$B$13*Inputs!$B$18,0))))</f>
         <v/>
       </c>
     </row>
@@ -2879,14 +2825,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="32">
+    <row r="29" ht="18.75" customHeight="1" s="34">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MISSION SUMMARY BY LEVEL</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="31.5" customHeight="1" s="32">
+    <row r="30" ht="31.5" customHeight="1" s="34">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Level</t>
@@ -3039,7 +2985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -3047,18 +2993,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="32" min="1" max="1"/>
-    <col width="12" customWidth="1" style="32" min="2" max="13"/>
+    <col width="35" customWidth="1" style="34" min="1" max="1"/>
+    <col width="12" customWidth="1" style="34" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>AFFILIATE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="32">
+    <row r="3" ht="15.75" customHeight="1" s="34">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -3242,51 +3188,51 @@
         </is>
       </c>
       <c r="B6" s="13">
-        <f>Inputs!B$45</f>
+        <f>Inputs!B$43</f>
         <v/>
       </c>
       <c r="C6" s="13">
-        <f>Inputs!C$45</f>
+        <f>Inputs!C$43</f>
         <v/>
       </c>
       <c r="D6" s="13">
-        <f>Inputs!D$45</f>
+        <f>Inputs!D$43</f>
         <v/>
       </c>
       <c r="E6" s="13">
-        <f>Inputs!E$45</f>
+        <f>Inputs!E$43</f>
         <v/>
       </c>
       <c r="F6" s="13">
-        <f>Inputs!F$45</f>
+        <f>Inputs!F$43</f>
         <v/>
       </c>
       <c r="G6" s="13">
-        <f>Inputs!G$45</f>
+        <f>Inputs!G$43</f>
         <v/>
       </c>
       <c r="H6" s="13">
-        <f>Inputs!H$45</f>
+        <f>Inputs!H$43</f>
         <v/>
       </c>
       <c r="I6" s="13">
-        <f>Inputs!I$45</f>
+        <f>Inputs!I$43</f>
         <v/>
       </c>
       <c r="J6" s="13">
-        <f>Inputs!J$45</f>
+        <f>Inputs!J$43</f>
         <v/>
       </c>
       <c r="K6" s="13">
-        <f>Inputs!K$45</f>
+        <f>Inputs!K$43</f>
         <v/>
       </c>
       <c r="L6" s="13">
-        <f>Inputs!L$45</f>
+        <f>Inputs!L$43</f>
         <v/>
       </c>
       <c r="M6" s="13">
-        <f>Inputs!M$45</f>
+        <f>Inputs!M$43</f>
         <v/>
       </c>
     </row>
@@ -3353,631 +3299,632 @@
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>Churned Affiliates</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>0</v>
+          <t>Active Affiliates (End of Month)</t>
+        </is>
+      </c>
+      <c r="B8" s="13">
+        <f>B7</f>
+        <v/>
       </c>
       <c r="C8" s="13">
-        <f>ROUND(B9*AffAttrition,0)</f>
+        <f>B8+C7</f>
         <v/>
       </c>
       <c r="D8" s="13">
-        <f>ROUND(C9*AffAttrition,0)</f>
+        <f>C8+D7</f>
         <v/>
       </c>
       <c r="E8" s="13">
-        <f>ROUND(D9*AffAttrition,0)</f>
+        <f>D8+E7</f>
         <v/>
       </c>
       <c r="F8" s="13">
-        <f>ROUND(E9*AffAttrition,0)</f>
+        <f>E8+F7</f>
         <v/>
       </c>
       <c r="G8" s="13">
-        <f>ROUND(F9*AffAttrition,0)</f>
+        <f>F8+G7</f>
         <v/>
       </c>
       <c r="H8" s="13">
-        <f>ROUND(G9*AffAttrition,0)</f>
+        <f>G8+H7</f>
         <v/>
       </c>
       <c r="I8" s="13">
-        <f>ROUND(H9*AffAttrition,0)</f>
+        <f>H8+I7</f>
         <v/>
       </c>
       <c r="J8" s="13">
-        <f>ROUND(I9*AffAttrition,0)</f>
+        <f>I8+J7</f>
         <v/>
       </c>
       <c r="K8" s="13">
-        <f>ROUND(J9*AffAttrition,0)</f>
+        <f>J8+K7</f>
         <v/>
       </c>
       <c r="L8" s="13">
-        <f>ROUND(K9*AffAttrition,0)</f>
+        <f>K8+L7</f>
         <v/>
       </c>
       <c r="M8" s="13">
-        <f>ROUND(L9*AffAttrition,0)</f>
+        <f>L8+M7</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="inlineStr">
         <is>
-          <t>Active Affiliates (End of Month)</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B9" s="13">
-        <f>B7-B8</f>
+        <f>ROUND(B11*'VIP Levels'!$E$5+B12*'VIP Levels'!$E$6+B13*'VIP Levels'!$E$7+B14*'VIP Levels'!$E$8+B15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="C9" s="13">
-        <f>B9+C7-C8</f>
+        <f>ROUND(C11*'VIP Levels'!$E$5+C12*'VIP Levels'!$E$6+C13*'VIP Levels'!$E$7+C14*'VIP Levels'!$E$8+C15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="D9" s="13">
-        <f>C9+D7-D8</f>
+        <f>ROUND(D11*'VIP Levels'!$E$5+D12*'VIP Levels'!$E$6+D13*'VIP Levels'!$E$7+D14*'VIP Levels'!$E$8+D15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="E9" s="13">
-        <f>D9+E7-E8</f>
+        <f>ROUND(E11*'VIP Levels'!$E$5+E12*'VIP Levels'!$E$6+E13*'VIP Levels'!$E$7+E14*'VIP Levels'!$E$8+E15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="F9" s="13">
-        <f>E9+F7-F8</f>
+        <f>ROUND(F11*'VIP Levels'!$E$5+F12*'VIP Levels'!$E$6+F13*'VIP Levels'!$E$7+F14*'VIP Levels'!$E$8+F15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="G9" s="13">
-        <f>F9+G7-G8</f>
+        <f>ROUND(G11*'VIP Levels'!$E$5+G12*'VIP Levels'!$E$6+G13*'VIP Levels'!$E$7+G14*'VIP Levels'!$E$8+G15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="H9" s="13">
-        <f>G9+H7-H8</f>
+        <f>ROUND(H11*'VIP Levels'!$E$5+H12*'VIP Levels'!$E$6+H13*'VIP Levels'!$E$7+H14*'VIP Levels'!$E$8+H15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="I9" s="13">
-        <f>H9+I7-I8</f>
+        <f>ROUND(I11*'VIP Levels'!$E$5+I12*'VIP Levels'!$E$6+I13*'VIP Levels'!$E$7+I14*'VIP Levels'!$E$8+I15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="J9" s="13">
-        <f>I9+J7-J8</f>
+        <f>ROUND(J11*'VIP Levels'!$E$5+J12*'VIP Levels'!$E$6+J13*'VIP Levels'!$E$7+J14*'VIP Levels'!$E$8+J15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="K9" s="13">
-        <f>J9+K7-K8</f>
+        <f>ROUND(K11*'VIP Levels'!$E$5+K12*'VIP Levels'!$E$6+K13*'VIP Levels'!$E$7+K14*'VIP Levels'!$E$8+K15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="L9" s="13">
-        <f>K9+L7-L8</f>
+        <f>ROUND(L11*'VIP Levels'!$E$5+L12*'VIP Levels'!$E$6+L13*'VIP Levels'!$E$7+L14*'VIP Levels'!$E$8+L15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>L9+M7-M8</f>
+        <f>ROUND(M11*'VIP Levels'!$E$5+M12*'VIP Levels'!$E$6+M13*'VIP Levels'!$E$7+M14*'VIP Levels'!$E$8+M15*'VIP Levels'!$E$9,0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Total Sales</t>
-        </is>
-      </c>
-      <c r="B10" s="13">
-        <f>ROUND(B12*'VIP Levels'!$E$5+B13*'VIP Levels'!$E$6+B14*'VIP Levels'!$E$7+B15*'VIP Levels'!$E$8+B16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="C10" s="13">
-        <f>ROUND(C12*'VIP Levels'!$E$5+C13*'VIP Levels'!$E$6+C14*'VIP Levels'!$E$7+C15*'VIP Levels'!$E$8+C16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="D10" s="13">
-        <f>ROUND(D12*'VIP Levels'!$E$5+D13*'VIP Levels'!$E$6+D14*'VIP Levels'!$E$7+D15*'VIP Levels'!$E$8+D16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="E10" s="13">
-        <f>ROUND(E12*'VIP Levels'!$E$5+E13*'VIP Levels'!$E$6+E14*'VIP Levels'!$E$7+E15*'VIP Levels'!$E$8+E16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="F10" s="13">
-        <f>ROUND(F12*'VIP Levels'!$E$5+F13*'VIP Levels'!$E$6+F14*'VIP Levels'!$E$7+F15*'VIP Levels'!$E$8+F16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="G10" s="13">
-        <f>ROUND(G12*'VIP Levels'!$E$5+G13*'VIP Levels'!$E$6+G14*'VIP Levels'!$E$7+G15*'VIP Levels'!$E$8+G16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="H10" s="13">
-        <f>ROUND(H12*'VIP Levels'!$E$5+H13*'VIP Levels'!$E$6+H14*'VIP Levels'!$E$7+H15*'VIP Levels'!$E$8+H16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="I10" s="13">
-        <f>ROUND(I12*'VIP Levels'!$E$5+I13*'VIP Levels'!$E$6+I14*'VIP Levels'!$E$7+I15*'VIP Levels'!$E$8+I16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="J10" s="13">
-        <f>ROUND(J12*'VIP Levels'!$E$5+J13*'VIP Levels'!$E$6+J14*'VIP Levels'!$E$7+J15*'VIP Levels'!$E$8+J16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="K10" s="13">
-        <f>ROUND(K12*'VIP Levels'!$E$5+K13*'VIP Levels'!$E$6+K14*'VIP Levels'!$E$7+K15*'VIP Levels'!$E$8+K16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="L10" s="13">
-        <f>ROUND(L12*'VIP Levels'!$E$5+L13*'VIP Levels'!$E$6+L14*'VIP Levels'!$E$7+L15*'VIP Levels'!$E$8+L16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-      <c r="M10" s="13">
-        <f>ROUND(M12*'VIP Levels'!$E$5+M13*'VIP Levels'!$E$6+M14*'VIP Levels'!$E$7+M15*'VIP Levels'!$E$8+M16*'VIP Levels'!$E$9,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="32">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>--- Level Distribution ---</t>
         </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="34">
+      <c r="A11" s="14" t="inlineStr">
+        <is>
+          <t>Affiliates at Bronze</t>
+        </is>
+      </c>
+      <c r="B11" s="13">
+        <f>ROUND(B8*Inputs!B$33,0)</f>
+        <v/>
+      </c>
+      <c r="C11" s="13">
+        <f>ROUND(C8*Inputs!C$33,0)</f>
+        <v/>
+      </c>
+      <c r="D11" s="13">
+        <f>ROUND(D8*Inputs!D$33,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="13">
+        <f>ROUND(E8*Inputs!E$33,0)</f>
+        <v/>
+      </c>
+      <c r="F11" s="13">
+        <f>ROUND(F8*Inputs!F$33,0)</f>
+        <v/>
+      </c>
+      <c r="G11" s="13">
+        <f>ROUND(G8*Inputs!G$33,0)</f>
+        <v/>
+      </c>
+      <c r="H11" s="13">
+        <f>ROUND(H8*Inputs!H$33,0)</f>
+        <v/>
+      </c>
+      <c r="I11" s="13">
+        <f>ROUND(I8*Inputs!I$33,0)</f>
+        <v/>
+      </c>
+      <c r="J11" s="13">
+        <f>ROUND(J8*Inputs!J$33,0)</f>
+        <v/>
+      </c>
+      <c r="K11" s="13">
+        <f>ROUND(K8*Inputs!K$33,0)</f>
+        <v/>
+      </c>
+      <c r="L11" s="13">
+        <f>ROUND(L8*Inputs!L$33,0)</f>
+        <v/>
+      </c>
+      <c r="M11" s="13">
+        <f>ROUND(M8*Inputs!M$33,0)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t>Affiliates at Bronze</t>
+          <t>Affiliates at Silver</t>
         </is>
       </c>
       <c r="B12" s="13">
-        <f>ROUND(B9*Inputs!B$35,0)</f>
+        <f>ROUND(B8*Inputs!B$34,0)</f>
         <v/>
       </c>
       <c r="C12" s="13">
-        <f>ROUND(C9*Inputs!C$35,0)</f>
+        <f>ROUND(C8*Inputs!C$34,0)</f>
         <v/>
       </c>
       <c r="D12" s="13">
-        <f>ROUND(D9*Inputs!D$35,0)</f>
+        <f>ROUND(D8*Inputs!D$34,0)</f>
         <v/>
       </c>
       <c r="E12" s="13">
-        <f>ROUND(E9*Inputs!E$35,0)</f>
+        <f>ROUND(E8*Inputs!E$34,0)</f>
         <v/>
       </c>
       <c r="F12" s="13">
-        <f>ROUND(F9*Inputs!F$35,0)</f>
+        <f>ROUND(F8*Inputs!F$34,0)</f>
         <v/>
       </c>
       <c r="G12" s="13">
-        <f>ROUND(G9*Inputs!G$35,0)</f>
+        <f>ROUND(G8*Inputs!G$34,0)</f>
         <v/>
       </c>
       <c r="H12" s="13">
-        <f>ROUND(H9*Inputs!H$35,0)</f>
+        <f>ROUND(H8*Inputs!H$34,0)</f>
         <v/>
       </c>
       <c r="I12" s="13">
-        <f>ROUND(I9*Inputs!I$35,0)</f>
+        <f>ROUND(I8*Inputs!I$34,0)</f>
         <v/>
       </c>
       <c r="J12" s="13">
-        <f>ROUND(J9*Inputs!J$35,0)</f>
+        <f>ROUND(J8*Inputs!J$34,0)</f>
         <v/>
       </c>
       <c r="K12" s="13">
-        <f>ROUND(K9*Inputs!K$35,0)</f>
+        <f>ROUND(K8*Inputs!K$34,0)</f>
         <v/>
       </c>
       <c r="L12" s="13">
-        <f>ROUND(L9*Inputs!L$35,0)</f>
+        <f>ROUND(L8*Inputs!L$34,0)</f>
         <v/>
       </c>
       <c r="M12" s="13">
-        <f>ROUND(M9*Inputs!M$35,0)</f>
+        <f>ROUND(M8*Inputs!M$34,0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
         <is>
-          <t>Affiliates at Silver</t>
+          <t>Affiliates at Gold</t>
         </is>
       </c>
       <c r="B13" s="13">
-        <f>ROUND(B9*Inputs!B$36,0)</f>
+        <f>ROUND(B8*Inputs!B$35,0)</f>
         <v/>
       </c>
       <c r="C13" s="13">
-        <f>ROUND(C9*Inputs!C$36,0)</f>
+        <f>ROUND(C8*Inputs!C$35,0)</f>
         <v/>
       </c>
       <c r="D13" s="13">
-        <f>ROUND(D9*Inputs!D$36,0)</f>
+        <f>ROUND(D8*Inputs!D$35,0)</f>
         <v/>
       </c>
       <c r="E13" s="13">
-        <f>ROUND(E9*Inputs!E$36,0)</f>
+        <f>ROUND(E8*Inputs!E$35,0)</f>
         <v/>
       </c>
       <c r="F13" s="13">
-        <f>ROUND(F9*Inputs!F$36,0)</f>
+        <f>ROUND(F8*Inputs!F$35,0)</f>
         <v/>
       </c>
       <c r="G13" s="13">
-        <f>ROUND(G9*Inputs!G$36,0)</f>
+        <f>ROUND(G8*Inputs!G$35,0)</f>
         <v/>
       </c>
       <c r="H13" s="13">
-        <f>ROUND(H9*Inputs!H$36,0)</f>
+        <f>ROUND(H8*Inputs!H$35,0)</f>
         <v/>
       </c>
       <c r="I13" s="13">
-        <f>ROUND(I9*Inputs!I$36,0)</f>
+        <f>ROUND(I8*Inputs!I$35,0)</f>
         <v/>
       </c>
       <c r="J13" s="13">
-        <f>ROUND(J9*Inputs!J$36,0)</f>
+        <f>ROUND(J8*Inputs!J$35,0)</f>
         <v/>
       </c>
       <c r="K13" s="13">
-        <f>ROUND(K9*Inputs!K$36,0)</f>
+        <f>ROUND(K8*Inputs!K$35,0)</f>
         <v/>
       </c>
       <c r="L13" s="13">
-        <f>ROUND(L9*Inputs!L$36,0)</f>
+        <f>ROUND(L8*Inputs!L$35,0)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>ROUND(M9*Inputs!M$36,0)</f>
+        <f>ROUND(M8*Inputs!M$35,0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="inlineStr">
         <is>
-          <t>Affiliates at Gold</t>
+          <t>Affiliates at Platinum</t>
         </is>
       </c>
       <c r="B14" s="13">
-        <f>ROUND(B9*Inputs!B$37,0)</f>
+        <f>ROUND(B8*Inputs!B$36,0)</f>
         <v/>
       </c>
       <c r="C14" s="13">
-        <f>ROUND(C9*Inputs!C$37,0)</f>
+        <f>ROUND(C8*Inputs!C$36,0)</f>
         <v/>
       </c>
       <c r="D14" s="13">
-        <f>ROUND(D9*Inputs!D$37,0)</f>
+        <f>ROUND(D8*Inputs!D$36,0)</f>
         <v/>
       </c>
       <c r="E14" s="13">
-        <f>ROUND(E9*Inputs!E$37,0)</f>
+        <f>ROUND(E8*Inputs!E$36,0)</f>
         <v/>
       </c>
       <c r="F14" s="13">
-        <f>ROUND(F9*Inputs!F$37,0)</f>
+        <f>ROUND(F8*Inputs!F$36,0)</f>
         <v/>
       </c>
       <c r="G14" s="13">
-        <f>ROUND(G9*Inputs!G$37,0)</f>
+        <f>ROUND(G8*Inputs!G$36,0)</f>
         <v/>
       </c>
       <c r="H14" s="13">
-        <f>ROUND(H9*Inputs!H$37,0)</f>
+        <f>ROUND(H8*Inputs!H$36,0)</f>
         <v/>
       </c>
       <c r="I14" s="13">
-        <f>ROUND(I9*Inputs!I$37,0)</f>
+        <f>ROUND(I8*Inputs!I$36,0)</f>
         <v/>
       </c>
       <c r="J14" s="13">
-        <f>ROUND(J9*Inputs!J$37,0)</f>
+        <f>ROUND(J8*Inputs!J$36,0)</f>
         <v/>
       </c>
       <c r="K14" s="13">
-        <f>ROUND(K9*Inputs!K$37,0)</f>
+        <f>ROUND(K8*Inputs!K$36,0)</f>
         <v/>
       </c>
       <c r="L14" s="13">
-        <f>ROUND(L9*Inputs!L$37,0)</f>
+        <f>ROUND(L8*Inputs!L$36,0)</f>
         <v/>
       </c>
       <c r="M14" s="13">
-        <f>ROUND(M9*Inputs!M$37,0)</f>
+        <f>ROUND(M8*Inputs!M$36,0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="inlineStr">
         <is>
-          <t>Affiliates at Platinum</t>
+          <t>Affiliates at Diamond</t>
         </is>
       </c>
       <c r="B15" s="13">
-        <f>ROUND(B9*Inputs!B$38,0)</f>
+        <f>ROUND(B8*Inputs!B$37,0)</f>
         <v/>
       </c>
       <c r="C15" s="13">
-        <f>ROUND(C9*Inputs!C$38,0)</f>
+        <f>ROUND(C8*Inputs!C$37,0)</f>
         <v/>
       </c>
       <c r="D15" s="13">
-        <f>ROUND(D9*Inputs!D$38,0)</f>
+        <f>ROUND(D8*Inputs!D$37,0)</f>
         <v/>
       </c>
       <c r="E15" s="13">
-        <f>ROUND(E9*Inputs!E$38,0)</f>
+        <f>ROUND(E8*Inputs!E$37,0)</f>
         <v/>
       </c>
       <c r="F15" s="13">
-        <f>ROUND(F9*Inputs!F$38,0)</f>
+        <f>ROUND(F8*Inputs!F$37,0)</f>
         <v/>
       </c>
       <c r="G15" s="13">
-        <f>ROUND(G9*Inputs!G$38,0)</f>
+        <f>ROUND(G8*Inputs!G$37,0)</f>
         <v/>
       </c>
       <c r="H15" s="13">
-        <f>ROUND(H9*Inputs!H$38,0)</f>
+        <f>ROUND(H8*Inputs!H$37,0)</f>
         <v/>
       </c>
       <c r="I15" s="13">
-        <f>ROUND(I9*Inputs!I$38,0)</f>
+        <f>ROUND(I8*Inputs!I$37,0)</f>
         <v/>
       </c>
       <c r="J15" s="13">
-        <f>ROUND(J9*Inputs!J$38,0)</f>
+        <f>ROUND(J8*Inputs!J$37,0)</f>
         <v/>
       </c>
       <c r="K15" s="13">
-        <f>ROUND(K9*Inputs!K$38,0)</f>
+        <f>ROUND(K8*Inputs!K$37,0)</f>
         <v/>
       </c>
       <c r="L15" s="13">
-        <f>ROUND(L9*Inputs!L$38,0)</f>
+        <f>ROUND(L8*Inputs!L$37,0)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>ROUND(M9*Inputs!M$38,0)</f>
+        <f>ROUND(M8*Inputs!M$37,0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>Affiliates at Diamond</t>
-        </is>
-      </c>
-      <c r="B16" s="13">
-        <f>ROUND(B9*Inputs!B$39,0)</f>
-        <v/>
-      </c>
-      <c r="C16" s="13">
-        <f>ROUND(C9*Inputs!C$39,0)</f>
-        <v/>
-      </c>
-      <c r="D16" s="13">
-        <f>ROUND(D9*Inputs!D$39,0)</f>
-        <v/>
-      </c>
-      <c r="E16" s="13">
-        <f>ROUND(E9*Inputs!E$39,0)</f>
-        <v/>
-      </c>
-      <c r="F16" s="13">
-        <f>ROUND(F9*Inputs!F$39,0)</f>
-        <v/>
-      </c>
-      <c r="G16" s="13">
-        <f>ROUND(G9*Inputs!G$39,0)</f>
-        <v/>
-      </c>
-      <c r="H16" s="13">
-        <f>ROUND(H9*Inputs!H$39,0)</f>
-        <v/>
-      </c>
-      <c r="I16" s="13">
-        <f>ROUND(I9*Inputs!I$39,0)</f>
-        <v/>
-      </c>
-      <c r="J16" s="13">
-        <f>ROUND(J9*Inputs!J$39,0)</f>
-        <v/>
-      </c>
-      <c r="K16" s="13">
-        <f>ROUND(K9*Inputs!K$39,0)</f>
-        <v/>
-      </c>
-      <c r="L16" s="13">
-        <f>ROUND(L9*Inputs!L$39,0)</f>
-        <v/>
-      </c>
-      <c r="M16" s="13">
-        <f>ROUND(M9*Inputs!M$39,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="32">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>--- Level Events ---</t>
         </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="34">
+      <c r="A17" s="14" t="inlineStr">
+        <is>
+          <t>New Affiliate Level-Ups (to Bronze)</t>
+        </is>
+      </c>
+      <c r="B17" s="13">
+        <f>B7</f>
+        <v/>
+      </c>
+      <c r="C17" s="13">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D17" s="13">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E17" s="13">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F17" s="13">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G17" s="13">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H17" s="13">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I17" s="13">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J17" s="13">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K17" s="13">
+        <f>K7</f>
+        <v/>
+      </c>
+      <c r="L17" s="13">
+        <f>L7</f>
+        <v/>
+      </c>
+      <c r="M17" s="13">
+        <f>M7</f>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="inlineStr">
         <is>
-          <t>New Affiliate Level-Ups (to Bronze)</t>
-        </is>
-      </c>
-      <c r="B18" s="13">
+          <t>Promotion Events (Bronze to higher)</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <f>MAX(0,(C12+C13+C14+C15)-(B12+B13+B14+B15))</f>
+        <v/>
+      </c>
+      <c r="D18" s="13">
+        <f>MAX(0,(D12+D13+D14+D15)-(C12+C13+C14+C15))</f>
+        <v/>
+      </c>
+      <c r="E18" s="13">
+        <f>MAX(0,(E12+E13+E14+E15)-(D12+D13+D14+D15))</f>
+        <v/>
+      </c>
+      <c r="F18" s="13">
+        <f>MAX(0,(F12+F13+F14+F15)-(E12+E13+E14+E15))</f>
+        <v/>
+      </c>
+      <c r="G18" s="13">
+        <f>MAX(0,(G12+G13+G14+G15)-(F12+F13+F14+F15))</f>
+        <v/>
+      </c>
+      <c r="H18" s="13">
+        <f>MAX(0,(H12+H13+H14+H15)-(G12+G13+G14+G15))</f>
+        <v/>
+      </c>
+      <c r="I18" s="13">
+        <f>MAX(0,(I12+I13+I14+I15)-(H12+H13+H14+H15))</f>
+        <v/>
+      </c>
+      <c r="J18" s="13">
+        <f>MAX(0,(J12+J13+J14+J15)-(I12+I13+I14+I15))</f>
+        <v/>
+      </c>
+      <c r="K18" s="13">
+        <f>MAX(0,(K12+K13+K14+K15)-(J12+J13+J14+J15))</f>
+        <v/>
+      </c>
+      <c r="L18" s="13">
+        <f>MAX(0,(L12+L13+L14+L15)-(K12+K13+K14+K15))</f>
+        <v/>
+      </c>
+      <c r="M18" s="13">
+        <f>MAX(0,(M12+M13+M14+M15)-(L12+L13+L14+L15))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>--- New Tier Arrivals (for One-time Missions) ---</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="34">
+      <c r="A20" s="21" t="inlineStr">
+        <is>
+          <t>New Arrivals at Bronze</t>
+        </is>
+      </c>
+      <c r="B20" s="13">
         <f>B7</f>
         <v/>
       </c>
-      <c r="C18" s="13">
+      <c r="C20" s="13">
         <f>C7</f>
         <v/>
       </c>
-      <c r="D18" s="13">
+      <c r="D20" s="13">
         <f>D7</f>
         <v/>
       </c>
-      <c r="E18" s="13">
+      <c r="E20" s="13">
         <f>E7</f>
         <v/>
       </c>
-      <c r="F18" s="13">
+      <c r="F20" s="13">
         <f>F7</f>
         <v/>
       </c>
-      <c r="G18" s="13">
+      <c r="G20" s="13">
         <f>G7</f>
         <v/>
       </c>
-      <c r="H18" s="13">
+      <c r="H20" s="13">
         <f>H7</f>
         <v/>
       </c>
-      <c r="I18" s="13">
+      <c r="I20" s="13">
         <f>I7</f>
         <v/>
       </c>
-      <c r="J18" s="13">
+      <c r="J20" s="13">
         <f>J7</f>
         <v/>
       </c>
-      <c r="K18" s="13">
+      <c r="K20" s="13">
         <f>K7</f>
         <v/>
       </c>
-      <c r="L18" s="13">
+      <c r="L20" s="13">
         <f>L7</f>
         <v/>
       </c>
-      <c r="M18" s="13">
+      <c r="M20" s="13">
         <f>M7</f>
         <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="inlineStr">
-        <is>
-          <t>Promotion Events (Bronze to higher)</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
-        <f>MAX(0,(C13+C14+C15+C16)-(B13+B14+B15+B16))</f>
-        <v/>
-      </c>
-      <c r="D19" s="13">
-        <f>MAX(0,(D13+D14+D15+D16)-(C13+C14+C15+C16))</f>
-        <v/>
-      </c>
-      <c r="E19" s="13">
-        <f>MAX(0,(E13+E14+E15+E16)-(D13+D14+D15+D16))</f>
-        <v/>
-      </c>
-      <c r="F19" s="13">
-        <f>MAX(0,(F13+F14+F15+F16)-(E13+E14+E15+E16))</f>
-        <v/>
-      </c>
-      <c r="G19" s="13">
-        <f>MAX(0,(G13+G14+G15+G16)-(F13+F14+F15+F16))</f>
-        <v/>
-      </c>
-      <c r="H19" s="13">
-        <f>MAX(0,(H13+H14+H15+H16)-(G13+G14+G15+G16))</f>
-        <v/>
-      </c>
-      <c r="I19" s="13">
-        <f>MAX(0,(I13+I14+I15+I16)-(H13+H14+H15+H16))</f>
-        <v/>
-      </c>
-      <c r="J19" s="13">
-        <f>MAX(0,(J13+J14+J15+J16)-(I13+I14+I15+I16))</f>
-        <v/>
-      </c>
-      <c r="K19" s="13">
-        <f>MAX(0,(K13+K14+K15+K16)-(J13+J14+J15+J16))</f>
-        <v/>
-      </c>
-      <c r="L19" s="13">
-        <f>MAX(0,(L13+L14+L15+L16)-(K13+K14+K15+K16))</f>
-        <v/>
-      </c>
-      <c r="M19" s="13">
-        <f>MAX(0,(M13+M14+M15+M16)-(L13+L14+L15+L16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" s="32">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>--- New Tier Arrivals (for One-time Missions) ---</t>
-        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>New Arrivals at Bronze</t>
+          <t>New Arrivals at Silver</t>
         </is>
       </c>
       <c r="B21" s="13">
-        <f>B7</f>
+        <f>B12</f>
         <v/>
       </c>
       <c r="C21" s="13">
-        <f>C7</f>
+        <f>MAX(0,C12-B12)</f>
         <v/>
       </c>
       <c r="D21" s="13">
-        <f>D7</f>
+        <f>MAX(0,D12-C12)</f>
         <v/>
       </c>
       <c r="E21" s="13">
-        <f>E7</f>
+        <f>MAX(0,E12-D12)</f>
         <v/>
       </c>
       <c r="F21" s="13">
-        <f>F7</f>
+        <f>MAX(0,F12-E12)</f>
         <v/>
       </c>
       <c r="G21" s="13">
-        <f>G7</f>
+        <f>MAX(0,G12-F12)</f>
         <v/>
       </c>
       <c r="H21" s="13">
-        <f>H7</f>
+        <f>MAX(0,H12-G12)</f>
         <v/>
       </c>
       <c r="I21" s="13">
-        <f>I7</f>
+        <f>MAX(0,I12-H12)</f>
         <v/>
       </c>
       <c r="J21" s="13">
-        <f>J7</f>
+        <f>MAX(0,J12-I12)</f>
         <v/>
       </c>
       <c r="K21" s="13">
-        <f>K7</f>
+        <f>MAX(0,K12-J12)</f>
         <v/>
       </c>
       <c r="L21" s="13">
-        <f>L7</f>
+        <f>MAX(0,L12-K12)</f>
         <v/>
       </c>
       <c r="M21" s="13">
-        <f>M7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" s="32">
+        <f>MAX(0,M12-L12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" s="34">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>New Arrivals at Silver</t>
+          <t>New Arrivals at Gold</t>
         </is>
       </c>
       <c r="B22" s="13">
@@ -4032,7 +3979,7 @@
     <row r="23">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>New Arrivals at Gold</t>
+          <t>New Arrivals at Platinum</t>
         </is>
       </c>
       <c r="B23" s="13">
@@ -4087,7 +4034,7 @@
     <row r="24">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>New Arrivals at Platinum</t>
+          <t>New Arrivals at Diamond</t>
         </is>
       </c>
       <c r="B24" s="13">
@@ -4136,61 +4083,6 @@
       </c>
       <c r="M24" s="13">
         <f>MAX(0,M15-L15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="21" t="inlineStr">
-        <is>
-          <t>New Arrivals at Diamond</t>
-        </is>
-      </c>
-      <c r="B25" s="13">
-        <f>B16</f>
-        <v/>
-      </c>
-      <c r="C25" s="13">
-        <f>MAX(0,C16-B16)</f>
-        <v/>
-      </c>
-      <c r="D25" s="13">
-        <f>MAX(0,D16-C16)</f>
-        <v/>
-      </c>
-      <c r="E25" s="13">
-        <f>MAX(0,E16-D16)</f>
-        <v/>
-      </c>
-      <c r="F25" s="13">
-        <f>MAX(0,F16-E16)</f>
-        <v/>
-      </c>
-      <c r="G25" s="13">
-        <f>MAX(0,G16-F16)</f>
-        <v/>
-      </c>
-      <c r="H25" s="13">
-        <f>MAX(0,H16-G16)</f>
-        <v/>
-      </c>
-      <c r="I25" s="13">
-        <f>MAX(0,I16-H16)</f>
-        <v/>
-      </c>
-      <c r="J25" s="13">
-        <f>MAX(0,J16-I16)</f>
-        <v/>
-      </c>
-      <c r="K25" s="13">
-        <f>MAX(0,K16-J16)</f>
-        <v/>
-      </c>
-      <c r="L25" s="13">
-        <f>MAX(0,L16-K16)</f>
-        <v/>
-      </c>
-      <c r="M25" s="13">
-        <f>MAX(0,M16-L16)</f>
         <v/>
       </c>
     </row>
@@ -4211,24 +4103,24 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" style="32" min="1" max="1"/>
-    <col width="12" customWidth="1" style="32" min="2" max="13"/>
+    <col width="38" customWidth="1" style="34" min="1" max="1"/>
+    <col width="12" customWidth="1" style="34" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>REWARD TRIGGERS (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="32">
+    <row r="3" ht="15.75" customHeight="1" s="34">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -4295,7 +4187,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="32">
+    <row r="4" ht="18.75" customHeight="1" s="34">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- WELCOME REWARDS (per level-up) ---</t>
@@ -4309,51 +4201,51 @@
         </is>
       </c>
       <c r="B5" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$B$14+'Affiliate Projection'!B22*'VIP Levels'!$B$15+'Affiliate Projection'!B23*'VIP Levels'!$B$16+'Affiliate Projection'!B24*'VIP Levels'!$B$17+'Affiliate Projection'!B25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$B$14+'Affiliate Projection'!B21*'VIP Levels'!$B$15+'Affiliate Projection'!B22*'VIP Levels'!$B$16+'Affiliate Projection'!B23*'VIP Levels'!$B$17+'Affiliate Projection'!B24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="C5" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$B$14+'Affiliate Projection'!C22*'VIP Levels'!$B$15+'Affiliate Projection'!C23*'VIP Levels'!$B$16+'Affiliate Projection'!C24*'VIP Levels'!$B$17+'Affiliate Projection'!C25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$B$14+'Affiliate Projection'!C21*'VIP Levels'!$B$15+'Affiliate Projection'!C22*'VIP Levels'!$B$16+'Affiliate Projection'!C23*'VIP Levels'!$B$17+'Affiliate Projection'!C24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="D5" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$B$14+'Affiliate Projection'!D22*'VIP Levels'!$B$15+'Affiliate Projection'!D23*'VIP Levels'!$B$16+'Affiliate Projection'!D24*'VIP Levels'!$B$17+'Affiliate Projection'!D25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$B$14+'Affiliate Projection'!D21*'VIP Levels'!$B$15+'Affiliate Projection'!D22*'VIP Levels'!$B$16+'Affiliate Projection'!D23*'VIP Levels'!$B$17+'Affiliate Projection'!D24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="E5" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$B$14+'Affiliate Projection'!E22*'VIP Levels'!$B$15+'Affiliate Projection'!E23*'VIP Levels'!$B$16+'Affiliate Projection'!E24*'VIP Levels'!$B$17+'Affiliate Projection'!E25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$B$14+'Affiliate Projection'!E21*'VIP Levels'!$B$15+'Affiliate Projection'!E22*'VIP Levels'!$B$16+'Affiliate Projection'!E23*'VIP Levels'!$B$17+'Affiliate Projection'!E24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="F5" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$B$14+'Affiliate Projection'!F22*'VIP Levels'!$B$15+'Affiliate Projection'!F23*'VIP Levels'!$B$16+'Affiliate Projection'!F24*'VIP Levels'!$B$17+'Affiliate Projection'!F25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$B$14+'Affiliate Projection'!F21*'VIP Levels'!$B$15+'Affiliate Projection'!F22*'VIP Levels'!$B$16+'Affiliate Projection'!F23*'VIP Levels'!$B$17+'Affiliate Projection'!F24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="G5" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$B$14+'Affiliate Projection'!G22*'VIP Levels'!$B$15+'Affiliate Projection'!G23*'VIP Levels'!$B$16+'Affiliate Projection'!G24*'VIP Levels'!$B$17+'Affiliate Projection'!G25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$B$14+'Affiliate Projection'!G21*'VIP Levels'!$B$15+'Affiliate Projection'!G22*'VIP Levels'!$B$16+'Affiliate Projection'!G23*'VIP Levels'!$B$17+'Affiliate Projection'!G24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="H5" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$B$14+'Affiliate Projection'!H22*'VIP Levels'!$B$15+'Affiliate Projection'!H23*'VIP Levels'!$B$16+'Affiliate Projection'!H24*'VIP Levels'!$B$17+'Affiliate Projection'!H25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$B$14+'Affiliate Projection'!H21*'VIP Levels'!$B$15+'Affiliate Projection'!H22*'VIP Levels'!$B$16+'Affiliate Projection'!H23*'VIP Levels'!$B$17+'Affiliate Projection'!H24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="I5" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$B$14+'Affiliate Projection'!I22*'VIP Levels'!$B$15+'Affiliate Projection'!I23*'VIP Levels'!$B$16+'Affiliate Projection'!I24*'VIP Levels'!$B$17+'Affiliate Projection'!I25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$B$14+'Affiliate Projection'!I21*'VIP Levels'!$B$15+'Affiliate Projection'!I22*'VIP Levels'!$B$16+'Affiliate Projection'!I23*'VIP Levels'!$B$17+'Affiliate Projection'!I24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="J5" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$B$14+'Affiliate Projection'!J22*'VIP Levels'!$B$15+'Affiliate Projection'!J23*'VIP Levels'!$B$16+'Affiliate Projection'!J24*'VIP Levels'!$B$17+'Affiliate Projection'!J25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$B$14+'Affiliate Projection'!J21*'VIP Levels'!$B$15+'Affiliate Projection'!J22*'VIP Levels'!$B$16+'Affiliate Projection'!J23*'VIP Levels'!$B$17+'Affiliate Projection'!J24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="K5" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$B$14+'Affiliate Projection'!K22*'VIP Levels'!$B$15+'Affiliate Projection'!K23*'VIP Levels'!$B$16+'Affiliate Projection'!K24*'VIP Levels'!$B$17+'Affiliate Projection'!K25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$B$14+'Affiliate Projection'!K21*'VIP Levels'!$B$15+'Affiliate Projection'!K22*'VIP Levels'!$B$16+'Affiliate Projection'!K23*'VIP Levels'!$B$17+'Affiliate Projection'!K24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="L5" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$B$14+'Affiliate Projection'!L22*'VIP Levels'!$B$15+'Affiliate Projection'!L23*'VIP Levels'!$B$16+'Affiliate Projection'!L24*'VIP Levels'!$B$17+'Affiliate Projection'!L25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$B$14+'Affiliate Projection'!L21*'VIP Levels'!$B$15+'Affiliate Projection'!L22*'VIP Levels'!$B$16+'Affiliate Projection'!L23*'VIP Levels'!$B$17+'Affiliate Projection'!L24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
       <c r="M5" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$B$14+'Affiliate Projection'!M22*'VIP Levels'!$B$15+'Affiliate Projection'!M23*'VIP Levels'!$B$16+'Affiliate Projection'!M24*'VIP Levels'!$B$17+'Affiliate Projection'!M25*'VIP Levels'!$B$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$B$14+'Affiliate Projection'!M21*'VIP Levels'!$B$15+'Affiliate Projection'!M22*'VIP Levels'!$B$16+'Affiliate Projection'!M23*'VIP Levels'!$B$17+'Affiliate Projection'!M24*'VIP Levels'!$B$18,0)</f>
         <v/>
       </c>
     </row>
@@ -4364,51 +4256,51 @@
         </is>
       </c>
       <c r="B6" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$E$14+'Affiliate Projection'!B22*'VIP Levels'!$E$15+'Affiliate Projection'!B23*'VIP Levels'!$E$16+'Affiliate Projection'!B24*'VIP Levels'!$E$17+'Affiliate Projection'!B25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$E$14+'Affiliate Projection'!B21*'VIP Levels'!$E$15+'Affiliate Projection'!B22*'VIP Levels'!$E$16+'Affiliate Projection'!B23*'VIP Levels'!$E$17+'Affiliate Projection'!B24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="C6" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$E$14+'Affiliate Projection'!C22*'VIP Levels'!$E$15+'Affiliate Projection'!C23*'VIP Levels'!$E$16+'Affiliate Projection'!C24*'VIP Levels'!$E$17+'Affiliate Projection'!C25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$E$14+'Affiliate Projection'!C21*'VIP Levels'!$E$15+'Affiliate Projection'!C22*'VIP Levels'!$E$16+'Affiliate Projection'!C23*'VIP Levels'!$E$17+'Affiliate Projection'!C24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="D6" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$E$14+'Affiliate Projection'!D22*'VIP Levels'!$E$15+'Affiliate Projection'!D23*'VIP Levels'!$E$16+'Affiliate Projection'!D24*'VIP Levels'!$E$17+'Affiliate Projection'!D25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$E$14+'Affiliate Projection'!D21*'VIP Levels'!$E$15+'Affiliate Projection'!D22*'VIP Levels'!$E$16+'Affiliate Projection'!D23*'VIP Levels'!$E$17+'Affiliate Projection'!D24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="E6" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$E$14+'Affiliate Projection'!E22*'VIP Levels'!$E$15+'Affiliate Projection'!E23*'VIP Levels'!$E$16+'Affiliate Projection'!E24*'VIP Levels'!$E$17+'Affiliate Projection'!E25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$E$14+'Affiliate Projection'!E21*'VIP Levels'!$E$15+'Affiliate Projection'!E22*'VIP Levels'!$E$16+'Affiliate Projection'!E23*'VIP Levels'!$E$17+'Affiliate Projection'!E24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="F6" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$E$14+'Affiliate Projection'!F22*'VIP Levels'!$E$15+'Affiliate Projection'!F23*'VIP Levels'!$E$16+'Affiliate Projection'!F24*'VIP Levels'!$E$17+'Affiliate Projection'!F25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$E$14+'Affiliate Projection'!F21*'VIP Levels'!$E$15+'Affiliate Projection'!F22*'VIP Levels'!$E$16+'Affiliate Projection'!F23*'VIP Levels'!$E$17+'Affiliate Projection'!F24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="G6" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$E$14+'Affiliate Projection'!G22*'VIP Levels'!$E$15+'Affiliate Projection'!G23*'VIP Levels'!$E$16+'Affiliate Projection'!G24*'VIP Levels'!$E$17+'Affiliate Projection'!G25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$E$14+'Affiliate Projection'!G21*'VIP Levels'!$E$15+'Affiliate Projection'!G22*'VIP Levels'!$E$16+'Affiliate Projection'!G23*'VIP Levels'!$E$17+'Affiliate Projection'!G24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="H6" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$E$14+'Affiliate Projection'!H22*'VIP Levels'!$E$15+'Affiliate Projection'!H23*'VIP Levels'!$E$16+'Affiliate Projection'!H24*'VIP Levels'!$E$17+'Affiliate Projection'!H25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$E$14+'Affiliate Projection'!H21*'VIP Levels'!$E$15+'Affiliate Projection'!H22*'VIP Levels'!$E$16+'Affiliate Projection'!H23*'VIP Levels'!$E$17+'Affiliate Projection'!H24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="I6" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$E$14+'Affiliate Projection'!I22*'VIP Levels'!$E$15+'Affiliate Projection'!I23*'VIP Levels'!$E$16+'Affiliate Projection'!I24*'VIP Levels'!$E$17+'Affiliate Projection'!I25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$E$14+'Affiliate Projection'!I21*'VIP Levels'!$E$15+'Affiliate Projection'!I22*'VIP Levels'!$E$16+'Affiliate Projection'!I23*'VIP Levels'!$E$17+'Affiliate Projection'!I24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="J6" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$E$14+'Affiliate Projection'!J22*'VIP Levels'!$E$15+'Affiliate Projection'!J23*'VIP Levels'!$E$16+'Affiliate Projection'!J24*'VIP Levels'!$E$17+'Affiliate Projection'!J25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$E$14+'Affiliate Projection'!J21*'VIP Levels'!$E$15+'Affiliate Projection'!J22*'VIP Levels'!$E$16+'Affiliate Projection'!J23*'VIP Levels'!$E$17+'Affiliate Projection'!J24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="K6" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$E$14+'Affiliate Projection'!K22*'VIP Levels'!$E$15+'Affiliate Projection'!K23*'VIP Levels'!$E$16+'Affiliate Projection'!K24*'VIP Levels'!$E$17+'Affiliate Projection'!K25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$E$14+'Affiliate Projection'!K21*'VIP Levels'!$E$15+'Affiliate Projection'!K22*'VIP Levels'!$E$16+'Affiliate Projection'!K23*'VIP Levels'!$E$17+'Affiliate Projection'!K24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="L6" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$E$14+'Affiliate Projection'!L22*'VIP Levels'!$E$15+'Affiliate Projection'!L23*'VIP Levels'!$E$16+'Affiliate Projection'!L24*'VIP Levels'!$E$17+'Affiliate Projection'!L25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$E$14+'Affiliate Projection'!L21*'VIP Levels'!$E$15+'Affiliate Projection'!L22*'VIP Levels'!$E$16+'Affiliate Projection'!L23*'VIP Levels'!$E$17+'Affiliate Projection'!L24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
       <c r="M6" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$E$14+'Affiliate Projection'!M22*'VIP Levels'!$E$15+'Affiliate Projection'!M23*'VIP Levels'!$E$16+'Affiliate Projection'!M24*'VIP Levels'!$E$17+'Affiliate Projection'!M25*'VIP Levels'!$E$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$E$14+'Affiliate Projection'!M21*'VIP Levels'!$E$15+'Affiliate Projection'!M22*'VIP Levels'!$E$16+'Affiliate Projection'!M23*'VIP Levels'!$E$17+'Affiliate Projection'!M24*'VIP Levels'!$E$18,0)</f>
         <v/>
       </c>
     </row>
@@ -4419,51 +4311,51 @@
         </is>
       </c>
       <c r="B7" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$G$14+'Affiliate Projection'!B22*'VIP Levels'!$G$15+'Affiliate Projection'!B23*'VIP Levels'!$G$16+'Affiliate Projection'!B24*'VIP Levels'!$G$17+'Affiliate Projection'!B25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$G$14+'Affiliate Projection'!B21*'VIP Levels'!$G$15+'Affiliate Projection'!B22*'VIP Levels'!$G$16+'Affiliate Projection'!B23*'VIP Levels'!$G$17+'Affiliate Projection'!B24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="C7" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$G$14+'Affiliate Projection'!C22*'VIP Levels'!$G$15+'Affiliate Projection'!C23*'VIP Levels'!$G$16+'Affiliate Projection'!C24*'VIP Levels'!$G$17+'Affiliate Projection'!C25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$G$14+'Affiliate Projection'!C21*'VIP Levels'!$G$15+'Affiliate Projection'!C22*'VIP Levels'!$G$16+'Affiliate Projection'!C23*'VIP Levels'!$G$17+'Affiliate Projection'!C24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="D7" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$G$14+'Affiliate Projection'!D22*'VIP Levels'!$G$15+'Affiliate Projection'!D23*'VIP Levels'!$G$16+'Affiliate Projection'!D24*'VIP Levels'!$G$17+'Affiliate Projection'!D25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$G$14+'Affiliate Projection'!D21*'VIP Levels'!$G$15+'Affiliate Projection'!D22*'VIP Levels'!$G$16+'Affiliate Projection'!D23*'VIP Levels'!$G$17+'Affiliate Projection'!D24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="E7" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$G$14+'Affiliate Projection'!E22*'VIP Levels'!$G$15+'Affiliate Projection'!E23*'VIP Levels'!$G$16+'Affiliate Projection'!E24*'VIP Levels'!$G$17+'Affiliate Projection'!E25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$G$14+'Affiliate Projection'!E21*'VIP Levels'!$G$15+'Affiliate Projection'!E22*'VIP Levels'!$G$16+'Affiliate Projection'!E23*'VIP Levels'!$G$17+'Affiliate Projection'!E24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="F7" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$G$14+'Affiliate Projection'!F22*'VIP Levels'!$G$15+'Affiliate Projection'!F23*'VIP Levels'!$G$16+'Affiliate Projection'!F24*'VIP Levels'!$G$17+'Affiliate Projection'!F25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$G$14+'Affiliate Projection'!F21*'VIP Levels'!$G$15+'Affiliate Projection'!F22*'VIP Levels'!$G$16+'Affiliate Projection'!F23*'VIP Levels'!$G$17+'Affiliate Projection'!F24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="G7" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$G$14+'Affiliate Projection'!G22*'VIP Levels'!$G$15+'Affiliate Projection'!G23*'VIP Levels'!$G$16+'Affiliate Projection'!G24*'VIP Levels'!$G$17+'Affiliate Projection'!G25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$G$14+'Affiliate Projection'!G21*'VIP Levels'!$G$15+'Affiliate Projection'!G22*'VIP Levels'!$G$16+'Affiliate Projection'!G23*'VIP Levels'!$G$17+'Affiliate Projection'!G24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="H7" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$G$14+'Affiliate Projection'!H22*'VIP Levels'!$G$15+'Affiliate Projection'!H23*'VIP Levels'!$G$16+'Affiliate Projection'!H24*'VIP Levels'!$G$17+'Affiliate Projection'!H25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$G$14+'Affiliate Projection'!H21*'VIP Levels'!$G$15+'Affiliate Projection'!H22*'VIP Levels'!$G$16+'Affiliate Projection'!H23*'VIP Levels'!$G$17+'Affiliate Projection'!H24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="I7" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$G$14+'Affiliate Projection'!I22*'VIP Levels'!$G$15+'Affiliate Projection'!I23*'VIP Levels'!$G$16+'Affiliate Projection'!I24*'VIP Levels'!$G$17+'Affiliate Projection'!I25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$G$14+'Affiliate Projection'!I21*'VIP Levels'!$G$15+'Affiliate Projection'!I22*'VIP Levels'!$G$16+'Affiliate Projection'!I23*'VIP Levels'!$G$17+'Affiliate Projection'!I24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="J7" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$G$14+'Affiliate Projection'!J22*'VIP Levels'!$G$15+'Affiliate Projection'!J23*'VIP Levels'!$G$16+'Affiliate Projection'!J24*'VIP Levels'!$G$17+'Affiliate Projection'!J25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$G$14+'Affiliate Projection'!J21*'VIP Levels'!$G$15+'Affiliate Projection'!J22*'VIP Levels'!$G$16+'Affiliate Projection'!J23*'VIP Levels'!$G$17+'Affiliate Projection'!J24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="K7" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$G$14+'Affiliate Projection'!K22*'VIP Levels'!$G$15+'Affiliate Projection'!K23*'VIP Levels'!$G$16+'Affiliate Projection'!K24*'VIP Levels'!$G$17+'Affiliate Projection'!K25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$G$14+'Affiliate Projection'!K21*'VIP Levels'!$G$15+'Affiliate Projection'!K22*'VIP Levels'!$G$16+'Affiliate Projection'!K23*'VIP Levels'!$G$17+'Affiliate Projection'!K24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="L7" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$G$14+'Affiliate Projection'!L22*'VIP Levels'!$G$15+'Affiliate Projection'!L23*'VIP Levels'!$G$16+'Affiliate Projection'!L24*'VIP Levels'!$G$17+'Affiliate Projection'!L25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$G$14+'Affiliate Projection'!L21*'VIP Levels'!$G$15+'Affiliate Projection'!L22*'VIP Levels'!$G$16+'Affiliate Projection'!L23*'VIP Levels'!$G$17+'Affiliate Projection'!L24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
       <c r="M7" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$G$14+'Affiliate Projection'!M22*'VIP Levels'!$G$15+'Affiliate Projection'!M23*'VIP Levels'!$G$16+'Affiliate Projection'!M24*'VIP Levels'!$G$17+'Affiliate Projection'!M25*'VIP Levels'!$G$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$G$14+'Affiliate Projection'!M21*'VIP Levels'!$G$15+'Affiliate Projection'!M22*'VIP Levels'!$G$16+'Affiliate Projection'!M23*'VIP Levels'!$G$17+'Affiliate Projection'!M24*'VIP Levels'!$G$18,0)</f>
         <v/>
       </c>
     </row>
@@ -4474,51 +4366,51 @@
         </is>
       </c>
       <c r="B8" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$J$14+'Affiliate Projection'!B22*'VIP Levels'!$J$15+'Affiliate Projection'!B23*'VIP Levels'!$J$16+'Affiliate Projection'!B24*'VIP Levels'!$J$17+'Affiliate Projection'!B25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$J$14+'Affiliate Projection'!B21*'VIP Levels'!$J$15+'Affiliate Projection'!B22*'VIP Levels'!$J$16+'Affiliate Projection'!B23*'VIP Levels'!$J$17+'Affiliate Projection'!B24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="C8" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$J$14+'Affiliate Projection'!C22*'VIP Levels'!$J$15+'Affiliate Projection'!C23*'VIP Levels'!$J$16+'Affiliate Projection'!C24*'VIP Levels'!$J$17+'Affiliate Projection'!C25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$J$14+'Affiliate Projection'!C21*'VIP Levels'!$J$15+'Affiliate Projection'!C22*'VIP Levels'!$J$16+'Affiliate Projection'!C23*'VIP Levels'!$J$17+'Affiliate Projection'!C24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="D8" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$J$14+'Affiliate Projection'!D22*'VIP Levels'!$J$15+'Affiliate Projection'!D23*'VIP Levels'!$J$16+'Affiliate Projection'!D24*'VIP Levels'!$J$17+'Affiliate Projection'!D25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$J$14+'Affiliate Projection'!D21*'VIP Levels'!$J$15+'Affiliate Projection'!D22*'VIP Levels'!$J$16+'Affiliate Projection'!D23*'VIP Levels'!$J$17+'Affiliate Projection'!D24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="E8" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$J$14+'Affiliate Projection'!E22*'VIP Levels'!$J$15+'Affiliate Projection'!E23*'VIP Levels'!$J$16+'Affiliate Projection'!E24*'VIP Levels'!$J$17+'Affiliate Projection'!E25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$J$14+'Affiliate Projection'!E21*'VIP Levels'!$J$15+'Affiliate Projection'!E22*'VIP Levels'!$J$16+'Affiliate Projection'!E23*'VIP Levels'!$J$17+'Affiliate Projection'!E24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="F8" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$J$14+'Affiliate Projection'!F22*'VIP Levels'!$J$15+'Affiliate Projection'!F23*'VIP Levels'!$J$16+'Affiliate Projection'!F24*'VIP Levels'!$J$17+'Affiliate Projection'!F25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$J$14+'Affiliate Projection'!F21*'VIP Levels'!$J$15+'Affiliate Projection'!F22*'VIP Levels'!$J$16+'Affiliate Projection'!F23*'VIP Levels'!$J$17+'Affiliate Projection'!F24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="G8" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$J$14+'Affiliate Projection'!G22*'VIP Levels'!$J$15+'Affiliate Projection'!G23*'VIP Levels'!$J$16+'Affiliate Projection'!G24*'VIP Levels'!$J$17+'Affiliate Projection'!G25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$J$14+'Affiliate Projection'!G21*'VIP Levels'!$J$15+'Affiliate Projection'!G22*'VIP Levels'!$J$16+'Affiliate Projection'!G23*'VIP Levels'!$J$17+'Affiliate Projection'!G24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="H8" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$J$14+'Affiliate Projection'!H22*'VIP Levels'!$J$15+'Affiliate Projection'!H23*'VIP Levels'!$J$16+'Affiliate Projection'!H24*'VIP Levels'!$J$17+'Affiliate Projection'!H25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$J$14+'Affiliate Projection'!H21*'VIP Levels'!$J$15+'Affiliate Projection'!H22*'VIP Levels'!$J$16+'Affiliate Projection'!H23*'VIP Levels'!$J$17+'Affiliate Projection'!H24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="I8" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$J$14+'Affiliate Projection'!I22*'VIP Levels'!$J$15+'Affiliate Projection'!I23*'VIP Levels'!$J$16+'Affiliate Projection'!I24*'VIP Levels'!$J$17+'Affiliate Projection'!I25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$J$14+'Affiliate Projection'!I21*'VIP Levels'!$J$15+'Affiliate Projection'!I22*'VIP Levels'!$J$16+'Affiliate Projection'!I23*'VIP Levels'!$J$17+'Affiliate Projection'!I24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="J8" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$J$14+'Affiliate Projection'!J22*'VIP Levels'!$J$15+'Affiliate Projection'!J23*'VIP Levels'!$J$16+'Affiliate Projection'!J24*'VIP Levels'!$J$17+'Affiliate Projection'!J25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$J$14+'Affiliate Projection'!J21*'VIP Levels'!$J$15+'Affiliate Projection'!J22*'VIP Levels'!$J$16+'Affiliate Projection'!J23*'VIP Levels'!$J$17+'Affiliate Projection'!J24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="K8" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$J$14+'Affiliate Projection'!K22*'VIP Levels'!$J$15+'Affiliate Projection'!K23*'VIP Levels'!$J$16+'Affiliate Projection'!K24*'VIP Levels'!$J$17+'Affiliate Projection'!K25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$J$14+'Affiliate Projection'!K21*'VIP Levels'!$J$15+'Affiliate Projection'!K22*'VIP Levels'!$J$16+'Affiliate Projection'!K23*'VIP Levels'!$J$17+'Affiliate Projection'!K24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="L8" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$J$14+'Affiliate Projection'!L22*'VIP Levels'!$J$15+'Affiliate Projection'!L23*'VIP Levels'!$J$16+'Affiliate Projection'!L24*'VIP Levels'!$J$17+'Affiliate Projection'!L25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$J$14+'Affiliate Projection'!L21*'VIP Levels'!$J$15+'Affiliate Projection'!L22*'VIP Levels'!$J$16+'Affiliate Projection'!L23*'VIP Levels'!$J$17+'Affiliate Projection'!L24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
       <c r="M8" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$J$14+'Affiliate Projection'!M22*'VIP Levels'!$J$15+'Affiliate Projection'!M23*'VIP Levels'!$J$16+'Affiliate Projection'!M24*'VIP Levels'!$J$17+'Affiliate Projection'!M25*'VIP Levels'!$J$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$J$14+'Affiliate Projection'!M21*'VIP Levels'!$J$15+'Affiliate Projection'!M22*'VIP Levels'!$J$16+'Affiliate Projection'!M23*'VIP Levels'!$J$17+'Affiliate Projection'!M24*'VIP Levels'!$J$18,0)</f>
         <v/>
       </c>
     </row>
@@ -4529,51 +4421,51 @@
         </is>
       </c>
       <c r="B9" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$L$14+'Affiliate Projection'!B22*'VIP Levels'!$L$15+'Affiliate Projection'!B23*'VIP Levels'!$L$16+'Affiliate Projection'!B24*'VIP Levels'!$L$17+'Affiliate Projection'!B25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$L$14+'Affiliate Projection'!B21*'VIP Levels'!$L$15+'Affiliate Projection'!B22*'VIP Levels'!$L$16+'Affiliate Projection'!B23*'VIP Levels'!$L$17+'Affiliate Projection'!B24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="C9" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$L$14+'Affiliate Projection'!C22*'VIP Levels'!$L$15+'Affiliate Projection'!C23*'VIP Levels'!$L$16+'Affiliate Projection'!C24*'VIP Levels'!$L$17+'Affiliate Projection'!C25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$L$14+'Affiliate Projection'!C21*'VIP Levels'!$L$15+'Affiliate Projection'!C22*'VIP Levels'!$L$16+'Affiliate Projection'!C23*'VIP Levels'!$L$17+'Affiliate Projection'!C24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="D9" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$L$14+'Affiliate Projection'!D22*'VIP Levels'!$L$15+'Affiliate Projection'!D23*'VIP Levels'!$L$16+'Affiliate Projection'!D24*'VIP Levels'!$L$17+'Affiliate Projection'!D25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$L$14+'Affiliate Projection'!D21*'VIP Levels'!$L$15+'Affiliate Projection'!D22*'VIP Levels'!$L$16+'Affiliate Projection'!D23*'VIP Levels'!$L$17+'Affiliate Projection'!D24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="E9" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$L$14+'Affiliate Projection'!E22*'VIP Levels'!$L$15+'Affiliate Projection'!E23*'VIP Levels'!$L$16+'Affiliate Projection'!E24*'VIP Levels'!$L$17+'Affiliate Projection'!E25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$L$14+'Affiliate Projection'!E21*'VIP Levels'!$L$15+'Affiliate Projection'!E22*'VIP Levels'!$L$16+'Affiliate Projection'!E23*'VIP Levels'!$L$17+'Affiliate Projection'!E24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="F9" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$L$14+'Affiliate Projection'!F22*'VIP Levels'!$L$15+'Affiliate Projection'!F23*'VIP Levels'!$L$16+'Affiliate Projection'!F24*'VIP Levels'!$L$17+'Affiliate Projection'!F25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$L$14+'Affiliate Projection'!F21*'VIP Levels'!$L$15+'Affiliate Projection'!F22*'VIP Levels'!$L$16+'Affiliate Projection'!F23*'VIP Levels'!$L$17+'Affiliate Projection'!F24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="G9" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$L$14+'Affiliate Projection'!G22*'VIP Levels'!$L$15+'Affiliate Projection'!G23*'VIP Levels'!$L$16+'Affiliate Projection'!G24*'VIP Levels'!$L$17+'Affiliate Projection'!G25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$L$14+'Affiliate Projection'!G21*'VIP Levels'!$L$15+'Affiliate Projection'!G22*'VIP Levels'!$L$16+'Affiliate Projection'!G23*'VIP Levels'!$L$17+'Affiliate Projection'!G24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="H9" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$L$14+'Affiliate Projection'!H22*'VIP Levels'!$L$15+'Affiliate Projection'!H23*'VIP Levels'!$L$16+'Affiliate Projection'!H24*'VIP Levels'!$L$17+'Affiliate Projection'!H25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$L$14+'Affiliate Projection'!H21*'VIP Levels'!$L$15+'Affiliate Projection'!H22*'VIP Levels'!$L$16+'Affiliate Projection'!H23*'VIP Levels'!$L$17+'Affiliate Projection'!H24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="I9" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$L$14+'Affiliate Projection'!I22*'VIP Levels'!$L$15+'Affiliate Projection'!I23*'VIP Levels'!$L$16+'Affiliate Projection'!I24*'VIP Levels'!$L$17+'Affiliate Projection'!I25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$L$14+'Affiliate Projection'!I21*'VIP Levels'!$L$15+'Affiliate Projection'!I22*'VIP Levels'!$L$16+'Affiliate Projection'!I23*'VIP Levels'!$L$17+'Affiliate Projection'!I24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="J9" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$L$14+'Affiliate Projection'!J22*'VIP Levels'!$L$15+'Affiliate Projection'!J23*'VIP Levels'!$L$16+'Affiliate Projection'!J24*'VIP Levels'!$L$17+'Affiliate Projection'!J25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$L$14+'Affiliate Projection'!J21*'VIP Levels'!$L$15+'Affiliate Projection'!J22*'VIP Levels'!$L$16+'Affiliate Projection'!J23*'VIP Levels'!$L$17+'Affiliate Projection'!J24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="K9" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$L$14+'Affiliate Projection'!K22*'VIP Levels'!$L$15+'Affiliate Projection'!K23*'VIP Levels'!$L$16+'Affiliate Projection'!K24*'VIP Levels'!$L$17+'Affiliate Projection'!K25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$L$14+'Affiliate Projection'!K21*'VIP Levels'!$L$15+'Affiliate Projection'!K22*'VIP Levels'!$L$16+'Affiliate Projection'!K23*'VIP Levels'!$L$17+'Affiliate Projection'!K24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="L9" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$L$14+'Affiliate Projection'!L22*'VIP Levels'!$L$15+'Affiliate Projection'!L23*'VIP Levels'!$L$16+'Affiliate Projection'!L24*'VIP Levels'!$L$17+'Affiliate Projection'!L25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$L$14+'Affiliate Projection'!L21*'VIP Levels'!$L$15+'Affiliate Projection'!L22*'VIP Levels'!$L$16+'Affiliate Projection'!L23*'VIP Levels'!$L$17+'Affiliate Projection'!L24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$L$14+'Affiliate Projection'!M22*'VIP Levels'!$L$15+'Affiliate Projection'!M23*'VIP Levels'!$L$16+'Affiliate Projection'!M24*'VIP Levels'!$L$17+'Affiliate Projection'!M25*'VIP Levels'!$L$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$L$14+'Affiliate Projection'!M21*'VIP Levels'!$L$15+'Affiliate Projection'!M22*'VIP Levels'!$L$16+'Affiliate Projection'!M23*'VIP Levels'!$L$17+'Affiliate Projection'!M24*'VIP Levels'!$L$18,0)</f>
         <v/>
       </c>
     </row>
@@ -4584,58 +4476,58 @@
         </is>
       </c>
       <c r="B10" s="13">
-        <f>ROUND('Affiliate Projection'!B21*'VIP Levels'!$N$14+'Affiliate Projection'!B22*'VIP Levels'!$N$15+'Affiliate Projection'!B23*'VIP Levels'!$N$16+'Affiliate Projection'!B24*'VIP Levels'!$N$17+'Affiliate Projection'!B25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!B20*'VIP Levels'!$N$14+'Affiliate Projection'!B21*'VIP Levels'!$N$15+'Affiliate Projection'!B22*'VIP Levels'!$N$16+'Affiliate Projection'!B23*'VIP Levels'!$N$17+'Affiliate Projection'!B24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="C10" s="13">
-        <f>ROUND('Affiliate Projection'!C21*'VIP Levels'!$N$14+'Affiliate Projection'!C22*'VIP Levels'!$N$15+'Affiliate Projection'!C23*'VIP Levels'!$N$16+'Affiliate Projection'!C24*'VIP Levels'!$N$17+'Affiliate Projection'!C25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!C20*'VIP Levels'!$N$14+'Affiliate Projection'!C21*'VIP Levels'!$N$15+'Affiliate Projection'!C22*'VIP Levels'!$N$16+'Affiliate Projection'!C23*'VIP Levels'!$N$17+'Affiliate Projection'!C24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="D10" s="13">
-        <f>ROUND('Affiliate Projection'!D21*'VIP Levels'!$N$14+'Affiliate Projection'!D22*'VIP Levels'!$N$15+'Affiliate Projection'!D23*'VIP Levels'!$N$16+'Affiliate Projection'!D24*'VIP Levels'!$N$17+'Affiliate Projection'!D25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!D20*'VIP Levels'!$N$14+'Affiliate Projection'!D21*'VIP Levels'!$N$15+'Affiliate Projection'!D22*'VIP Levels'!$N$16+'Affiliate Projection'!D23*'VIP Levels'!$N$17+'Affiliate Projection'!D24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="E10" s="13">
-        <f>ROUND('Affiliate Projection'!E21*'VIP Levels'!$N$14+'Affiliate Projection'!E22*'VIP Levels'!$N$15+'Affiliate Projection'!E23*'VIP Levels'!$N$16+'Affiliate Projection'!E24*'VIP Levels'!$N$17+'Affiliate Projection'!E25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!E20*'VIP Levels'!$N$14+'Affiliate Projection'!E21*'VIP Levels'!$N$15+'Affiliate Projection'!E22*'VIP Levels'!$N$16+'Affiliate Projection'!E23*'VIP Levels'!$N$17+'Affiliate Projection'!E24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="F10" s="13">
-        <f>ROUND('Affiliate Projection'!F21*'VIP Levels'!$N$14+'Affiliate Projection'!F22*'VIP Levels'!$N$15+'Affiliate Projection'!F23*'VIP Levels'!$N$16+'Affiliate Projection'!F24*'VIP Levels'!$N$17+'Affiliate Projection'!F25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!F20*'VIP Levels'!$N$14+'Affiliate Projection'!F21*'VIP Levels'!$N$15+'Affiliate Projection'!F22*'VIP Levels'!$N$16+'Affiliate Projection'!F23*'VIP Levels'!$N$17+'Affiliate Projection'!F24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="G10" s="13">
-        <f>ROUND('Affiliate Projection'!G21*'VIP Levels'!$N$14+'Affiliate Projection'!G22*'VIP Levels'!$N$15+'Affiliate Projection'!G23*'VIP Levels'!$N$16+'Affiliate Projection'!G24*'VIP Levels'!$N$17+'Affiliate Projection'!G25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!G20*'VIP Levels'!$N$14+'Affiliate Projection'!G21*'VIP Levels'!$N$15+'Affiliate Projection'!G22*'VIP Levels'!$N$16+'Affiliate Projection'!G23*'VIP Levels'!$N$17+'Affiliate Projection'!G24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="H10" s="13">
-        <f>ROUND('Affiliate Projection'!H21*'VIP Levels'!$N$14+'Affiliate Projection'!H22*'VIP Levels'!$N$15+'Affiliate Projection'!H23*'VIP Levels'!$N$16+'Affiliate Projection'!H24*'VIP Levels'!$N$17+'Affiliate Projection'!H25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!H20*'VIP Levels'!$N$14+'Affiliate Projection'!H21*'VIP Levels'!$N$15+'Affiliate Projection'!H22*'VIP Levels'!$N$16+'Affiliate Projection'!H23*'VIP Levels'!$N$17+'Affiliate Projection'!H24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="I10" s="13">
-        <f>ROUND('Affiliate Projection'!I21*'VIP Levels'!$N$14+'Affiliate Projection'!I22*'VIP Levels'!$N$15+'Affiliate Projection'!I23*'VIP Levels'!$N$16+'Affiliate Projection'!I24*'VIP Levels'!$N$17+'Affiliate Projection'!I25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!I20*'VIP Levels'!$N$14+'Affiliate Projection'!I21*'VIP Levels'!$N$15+'Affiliate Projection'!I22*'VIP Levels'!$N$16+'Affiliate Projection'!I23*'VIP Levels'!$N$17+'Affiliate Projection'!I24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="J10" s="13">
-        <f>ROUND('Affiliate Projection'!J21*'VIP Levels'!$N$14+'Affiliate Projection'!J22*'VIP Levels'!$N$15+'Affiliate Projection'!J23*'VIP Levels'!$N$16+'Affiliate Projection'!J24*'VIP Levels'!$N$17+'Affiliate Projection'!J25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!J20*'VIP Levels'!$N$14+'Affiliate Projection'!J21*'VIP Levels'!$N$15+'Affiliate Projection'!J22*'VIP Levels'!$N$16+'Affiliate Projection'!J23*'VIP Levels'!$N$17+'Affiliate Projection'!J24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="K10" s="13">
-        <f>ROUND('Affiliate Projection'!K21*'VIP Levels'!$N$14+'Affiliate Projection'!K22*'VIP Levels'!$N$15+'Affiliate Projection'!K23*'VIP Levels'!$N$16+'Affiliate Projection'!K24*'VIP Levels'!$N$17+'Affiliate Projection'!K25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!K20*'VIP Levels'!$N$14+'Affiliate Projection'!K21*'VIP Levels'!$N$15+'Affiliate Projection'!K22*'VIP Levels'!$N$16+'Affiliate Projection'!K23*'VIP Levels'!$N$17+'Affiliate Projection'!K24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="L10" s="13">
-        <f>ROUND('Affiliate Projection'!L21*'VIP Levels'!$N$14+'Affiliate Projection'!L22*'VIP Levels'!$N$15+'Affiliate Projection'!L23*'VIP Levels'!$N$16+'Affiliate Projection'!L24*'VIP Levels'!$N$17+'Affiliate Projection'!L25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!L20*'VIP Levels'!$N$14+'Affiliate Projection'!L21*'VIP Levels'!$N$15+'Affiliate Projection'!L22*'VIP Levels'!$N$16+'Affiliate Projection'!L23*'VIP Levels'!$N$17+'Affiliate Projection'!L24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
       <c r="M10" s="13">
-        <f>ROUND('Affiliate Projection'!M21*'VIP Levels'!$N$14+'Affiliate Projection'!M22*'VIP Levels'!$N$15+'Affiliate Projection'!M23*'VIP Levels'!$N$16+'Affiliate Projection'!M24*'VIP Levels'!$N$17+'Affiliate Projection'!M25*'VIP Levels'!$N$18,0)</f>
+        <f>ROUND('Affiliate Projection'!M20*'VIP Levels'!$N$14+'Affiliate Projection'!M21*'VIP Levels'!$N$15+'Affiliate Projection'!M22*'VIP Levels'!$N$16+'Affiliate Projection'!M23*'VIP Levels'!$N$17+'Affiliate Projection'!M24*'VIP Levels'!$N$18,0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="32">
+    <row r="12" ht="18.75" customHeight="1" s="34">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- MISSION COMPLETIONS ---</t>
@@ -4649,51 +4541,51 @@
         </is>
       </c>
       <c r="B13" s="13">
-        <f>ROUND('Affiliate Projection'!B12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!B11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="C13" s="13">
-        <f>ROUND('Affiliate Projection'!C12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!C11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="D13" s="13">
-        <f>ROUND('Affiliate Projection'!D12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!D11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="E13" s="13">
-        <f>ROUND('Affiliate Projection'!E12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!E11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="F13" s="13">
-        <f>ROUND('Affiliate Projection'!F12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!F11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="G13" s="13">
-        <f>ROUND('Affiliate Projection'!G12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!G11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="H13" s="13">
-        <f>ROUND('Affiliate Projection'!H12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!H11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="I13" s="13">
-        <f>ROUND('Affiliate Projection'!I12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!I11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="J13" s="13">
-        <f>ROUND('Affiliate Projection'!J12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!J11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="K13" s="13">
-        <f>ROUND('Affiliate Projection'!K12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!K11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="L13" s="13">
-        <f>ROUND('Affiliate Projection'!L12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!L11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>ROUND('Affiliate Projection'!M12*Missions!$B$31*Missions!$C$31,0)</f>
+        <f>ROUND('Affiliate Projection'!M11*Missions!$B$31*Missions!$C$31,0)</f>
         <v/>
       </c>
     </row>
@@ -4704,51 +4596,51 @@
         </is>
       </c>
       <c r="B14" s="13">
-        <f>ROUND('Affiliate Projection'!B13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!B12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="C14" s="13">
-        <f>ROUND('Affiliate Projection'!C13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!C12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="D14" s="13">
-        <f>ROUND('Affiliate Projection'!D13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!D12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="E14" s="13">
-        <f>ROUND('Affiliate Projection'!E13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!E12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="F14" s="13">
-        <f>ROUND('Affiliate Projection'!F13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!F12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="G14" s="13">
-        <f>ROUND('Affiliate Projection'!G13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!G12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="H14" s="13">
-        <f>ROUND('Affiliate Projection'!H13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!H12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="I14" s="13">
-        <f>ROUND('Affiliate Projection'!I13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!I12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="J14" s="13">
-        <f>ROUND('Affiliate Projection'!J13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!J12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="K14" s="13">
-        <f>ROUND('Affiliate Projection'!K13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!K12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="L14" s="13">
-        <f>ROUND('Affiliate Projection'!L13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!L12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
       <c r="M14" s="13">
-        <f>ROUND('Affiliate Projection'!M13*Missions!$B$32*Missions!$C$32,0)</f>
+        <f>ROUND('Affiliate Projection'!M12*Missions!$B$32*Missions!$C$32,0)</f>
         <v/>
       </c>
     </row>
@@ -4759,51 +4651,51 @@
         </is>
       </c>
       <c r="B15" s="13">
-        <f>ROUND('Affiliate Projection'!B14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!B13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="C15" s="13">
-        <f>ROUND('Affiliate Projection'!C14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!C13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="D15" s="13">
-        <f>ROUND('Affiliate Projection'!D14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!D13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="E15" s="13">
-        <f>ROUND('Affiliate Projection'!E14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!E13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="F15" s="13">
-        <f>ROUND('Affiliate Projection'!F14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!F13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="G15" s="13">
-        <f>ROUND('Affiliate Projection'!G14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!G13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="H15" s="13">
-        <f>ROUND('Affiliate Projection'!H14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!H13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="I15" s="13">
-        <f>ROUND('Affiliate Projection'!I14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!I13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="J15" s="13">
-        <f>ROUND('Affiliate Projection'!J14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!J13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="K15" s="13">
-        <f>ROUND('Affiliate Projection'!K14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!K13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="L15" s="13">
-        <f>ROUND('Affiliate Projection'!L14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!L13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>ROUND('Affiliate Projection'!M14*Missions!$B$33*Missions!$C$33,0)</f>
+        <f>ROUND('Affiliate Projection'!M13*Missions!$B$33*Missions!$C$33,0)</f>
         <v/>
       </c>
     </row>
@@ -4814,51 +4706,51 @@
         </is>
       </c>
       <c r="B16" s="13">
-        <f>ROUND('Affiliate Projection'!B15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!B14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="C16" s="13">
-        <f>ROUND('Affiliate Projection'!C15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!C14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="D16" s="13">
-        <f>ROUND('Affiliate Projection'!D15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!D14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="E16" s="13">
-        <f>ROUND('Affiliate Projection'!E15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!E14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="F16" s="13">
-        <f>ROUND('Affiliate Projection'!F15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!F14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="G16" s="13">
-        <f>ROUND('Affiliate Projection'!G15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!G14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="H16" s="13">
-        <f>ROUND('Affiliate Projection'!H15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!H14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="I16" s="13">
-        <f>ROUND('Affiliate Projection'!I15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!I14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="J16" s="13">
-        <f>ROUND('Affiliate Projection'!J15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!J14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="K16" s="13">
-        <f>ROUND('Affiliate Projection'!K15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!K14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="L16" s="13">
-        <f>ROUND('Affiliate Projection'!L15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!L14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>ROUND('Affiliate Projection'!M15*Missions!$B$34*Missions!$C$34,0)</f>
+        <f>ROUND('Affiliate Projection'!M14*Missions!$B$34*Missions!$C$34,0)</f>
         <v/>
       </c>
     </row>
@@ -4869,51 +4761,51 @@
         </is>
       </c>
       <c r="B17" s="13">
-        <f>ROUND('Affiliate Projection'!B16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!B15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="C17" s="13">
-        <f>ROUND('Affiliate Projection'!C16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!C15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="D17" s="13">
-        <f>ROUND('Affiliate Projection'!D16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!D15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="E17" s="13">
-        <f>ROUND('Affiliate Projection'!E16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!E15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="F17" s="13">
-        <f>ROUND('Affiliate Projection'!F16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!F15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="G17" s="13">
-        <f>ROUND('Affiliate Projection'!G16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!G15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="H17" s="13">
-        <f>ROUND('Affiliate Projection'!H16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!H15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="I17" s="13">
-        <f>ROUND('Affiliate Projection'!I16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!I15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="J17" s="13">
-        <f>ROUND('Affiliate Projection'!J16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!J15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="K17" s="13">
-        <f>ROUND('Affiliate Projection'!K16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!K15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="L17" s="13">
-        <f>ROUND('Affiliate Projection'!L16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!L15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
       <c r="M17" s="13">
-        <f>ROUND('Affiliate Projection'!M16*Missions!$B$35*Missions!$C$35,0)</f>
+        <f>ROUND('Affiliate Projection'!M15*Missions!$B$35*Missions!$C$35,0)</f>
         <v/>
       </c>
     </row>
@@ -4994,18 +4886,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="32" min="1" max="1"/>
-    <col width="12" customWidth="1" style="32" min="2" max="13"/>
+    <col width="35" customWidth="1" style="34" min="1" max="1"/>
+    <col width="12" customWidth="1" style="34" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>REVENUE PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="32">
+    <row r="3" ht="15.75" customHeight="1" s="34">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5079,51 +4971,51 @@
         </is>
       </c>
       <c r="B4" s="13">
-        <f>'Affiliate Projection'!B10</f>
+        <f>'Affiliate Projection'!B9</f>
         <v/>
       </c>
       <c r="C4" s="13">
-        <f>'Affiliate Projection'!C10</f>
+        <f>'Affiliate Projection'!C9</f>
         <v/>
       </c>
       <c r="D4" s="13">
-        <f>'Affiliate Projection'!D10</f>
+        <f>'Affiliate Projection'!D9</f>
         <v/>
       </c>
       <c r="E4" s="13">
-        <f>'Affiliate Projection'!E10</f>
+        <f>'Affiliate Projection'!E9</f>
         <v/>
       </c>
       <c r="F4" s="13">
-        <f>'Affiliate Projection'!F10</f>
+        <f>'Affiliate Projection'!F9</f>
         <v/>
       </c>
       <c r="G4" s="13">
-        <f>'Affiliate Projection'!G10</f>
+        <f>'Affiliate Projection'!G9</f>
         <v/>
       </c>
       <c r="H4" s="13">
-        <f>'Affiliate Projection'!H10</f>
+        <f>'Affiliate Projection'!H9</f>
         <v/>
       </c>
       <c r="I4" s="13">
-        <f>'Affiliate Projection'!I10</f>
+        <f>'Affiliate Projection'!I9</f>
         <v/>
       </c>
       <c r="J4" s="13">
-        <f>'Affiliate Projection'!J10</f>
+        <f>'Affiliate Projection'!J9</f>
         <v/>
       </c>
       <c r="K4" s="13">
-        <f>'Affiliate Projection'!K10</f>
+        <f>'Affiliate Projection'!K9</f>
         <v/>
       </c>
       <c r="L4" s="13">
-        <f>'Affiliate Projection'!L10</f>
+        <f>'Affiliate Projection'!L9</f>
         <v/>
       </c>
       <c r="M4" s="13">
-        <f>'Affiliate Projection'!M10</f>
+        <f>'Affiliate Projection'!M9</f>
         <v/>
       </c>
     </row>
@@ -5134,51 +5026,51 @@
         </is>
       </c>
       <c r="B5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="C5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="D5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="E5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="F5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="G5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="H5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="I5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="J5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="K5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="L5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
       <c r="M5" s="12">
-        <f>Inputs!$B$15</f>
+        <f>Inputs!$B$12</f>
         <v/>
       </c>
     </row>
@@ -5244,51 +5136,51 @@
         </is>
       </c>
       <c r="B7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$35:B$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!B$33:B$37)</f>
         <v/>
       </c>
       <c r="C7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$35:C$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!C$33:C$37)</f>
         <v/>
       </c>
       <c r="D7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$35:D$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!D$33:D$37)</f>
         <v/>
       </c>
       <c r="E7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$35:E$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!E$33:E$37)</f>
         <v/>
       </c>
       <c r="F7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$35:F$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!F$33:F$37)</f>
         <v/>
       </c>
       <c r="G7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$35:G$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!G$33:G$37)</f>
         <v/>
       </c>
       <c r="H7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$35:H$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!H$33:H$37)</f>
         <v/>
       </c>
       <c r="I7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$35:I$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!I$33:I$37)</f>
         <v/>
       </c>
       <c r="J7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$35:J$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!J$33:J$37)</f>
         <v/>
       </c>
       <c r="K7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$35:K$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!K$33:K$37)</f>
         <v/>
       </c>
       <c r="L7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$35:L$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!L$33:L$37)</f>
         <v/>
       </c>
       <c r="M7" s="7">
-        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$35:M$39)</f>
+        <f>SUMPRODUCT('VIP Levels'!$H$14:$H$18,Inputs!M$33:M$37)</f>
         <v/>
       </c>
     </row>
@@ -5299,51 +5191,51 @@
         </is>
       </c>
       <c r="B8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="C8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="D8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="E8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="F8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="G8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="H8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="I8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="J8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="K8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="L8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
       <c r="M8" s="7">
-        <f>Inputs!$B$21</f>
+        <f>Inputs!$B$18</f>
         <v/>
       </c>
     </row>
@@ -5581,7 +5473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -5589,19 +5481,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" style="32" min="1" max="1"/>
-    <col width="12" customWidth="1" style="32" min="2" max="13"/>
+    <col width="35" customWidth="1" style="34" min="1" max="1"/>
+    <col width="12" customWidth="1" style="34" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>COST PROJECTION (12 MONTHS)</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3" ht="15.75" customHeight="1" s="32">
+    <row r="3" ht="15.75" customHeight="1" s="34">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -5668,7 +5559,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="32">
+    <row r="4" ht="18.75" customHeight="1" s="34">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>--- CM1 COSTS (Per Sale) ---</t>
@@ -5682,51 +5573,51 @@
         </is>
       </c>
       <c r="B5" s="15">
-        <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$35:B$39)</f>
+        <f>Revenue!B11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$33:B$37)</f>
         <v/>
       </c>
       <c r="C5" s="15">
-        <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$35:C$39)</f>
+        <f>Revenue!C11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$33:C$37)</f>
         <v/>
       </c>
       <c r="D5" s="15">
-        <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$35:D$39)</f>
+        <f>Revenue!D11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$33:D$37)</f>
         <v/>
       </c>
       <c r="E5" s="15">
-        <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$35:E$39)</f>
+        <f>Revenue!E11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$33:E$37)</f>
         <v/>
       </c>
       <c r="F5" s="15">
-        <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$35:F$39)</f>
+        <f>Revenue!F11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$33:F$37)</f>
         <v/>
       </c>
       <c r="G5" s="15">
-        <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$35:G$39)</f>
+        <f>Revenue!G11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$33:G$37)</f>
         <v/>
       </c>
       <c r="H5" s="15">
-        <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$35:H$39)</f>
+        <f>Revenue!H11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$33:H$37)</f>
         <v/>
       </c>
       <c r="I5" s="15">
-        <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$35:I$39)</f>
+        <f>Revenue!I11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$33:I$37)</f>
         <v/>
       </c>
       <c r="J5" s="15">
-        <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$35:J$39)</f>
+        <f>Revenue!J11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$33:J$37)</f>
         <v/>
       </c>
       <c r="K5" s="15">
-        <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$35:K$39)</f>
+        <f>Revenue!K11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$33:K$37)</f>
         <v/>
       </c>
       <c r="L5" s="15">
-        <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$35:L$39)</f>
+        <f>Revenue!L11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$33:L$37)</f>
         <v/>
       </c>
       <c r="M5" s="15">
-        <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$35:M$39)</f>
+        <f>Revenue!M11*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$33:M$37)</f>
         <v/>
       </c>
     </row>
@@ -5737,51 +5628,51 @@
         </is>
       </c>
       <c r="B6" s="15">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!B10+'Affiliate Projection'!B22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!B10+'Affiliate Projection'!B23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B10+'Affiliate Projection'!B24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B10+'Affiliate Projection'!B25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B10</f>
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!B10+'Affiliate Projection'!B21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!B10+'Affiliate Projection'!B22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B10+'Affiliate Projection'!B23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B10+'Affiliate Projection'!B24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B10</f>
         <v/>
       </c>
       <c r="C6" s="15">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!C10+'Affiliate Projection'!C22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!C10+'Affiliate Projection'!C23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C10+'Affiliate Projection'!C24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C10+'Affiliate Projection'!C25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C10</f>
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!C10+'Affiliate Projection'!C21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!C10+'Affiliate Projection'!C22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C10+'Affiliate Projection'!C23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C10+'Affiliate Projection'!C24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C10</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!D10+'Affiliate Projection'!D22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!D10+'Affiliate Projection'!D23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D10+'Affiliate Projection'!D24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D10+'Affiliate Projection'!D25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D10</f>
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!D10+'Affiliate Projection'!D21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!D10+'Affiliate Projection'!D22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D10+'Affiliate Projection'!D23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D10+'Affiliate Projection'!D24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D10</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!E10+'Affiliate Projection'!E22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!E10+'Affiliate Projection'!E23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E10+'Affiliate Projection'!E24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E10+'Affiliate Projection'!E25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E10</f>
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!E10+'Affiliate Projection'!E21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!E10+'Affiliate Projection'!E22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E10+'Affiliate Projection'!E23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E10+'Affiliate Projection'!E24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E10</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!F10+'Affiliate Projection'!F22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!F10+'Affiliate Projection'!F23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F10+'Affiliate Projection'!F24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F10+'Affiliate Projection'!F25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F10</f>
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!F10+'Affiliate Projection'!F21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!F10+'Affiliate Projection'!F22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F10+'Affiliate Projection'!F23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F10+'Affiliate Projection'!F24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F10</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!G10+'Affiliate Projection'!G22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!G10+'Affiliate Projection'!G23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G10+'Affiliate Projection'!G24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G10+'Affiliate Projection'!G25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G10</f>
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!G10+'Affiliate Projection'!G21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!G10+'Affiliate Projection'!G22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G10+'Affiliate Projection'!G23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G10+'Affiliate Projection'!G24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G10</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!H10+'Affiliate Projection'!H22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!H10+'Affiliate Projection'!H23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H10+'Affiliate Projection'!H24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H10+'Affiliate Projection'!H25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H10</f>
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!H10+'Affiliate Projection'!H21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!H10+'Affiliate Projection'!H22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H10+'Affiliate Projection'!H23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H10+'Affiliate Projection'!H24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H10</f>
         <v/>
       </c>
       <c r="I6" s="15">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!I10+'Affiliate Projection'!I22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!I10+'Affiliate Projection'!I23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I10+'Affiliate Projection'!I24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I10+'Affiliate Projection'!I25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I10</f>
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!I10+'Affiliate Projection'!I21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!I10+'Affiliate Projection'!I22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I10+'Affiliate Projection'!I23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I10+'Affiliate Projection'!I24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I10</f>
         <v/>
       </c>
       <c r="J6" s="15">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!J10+'Affiliate Projection'!J22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!J10+'Affiliate Projection'!J23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J10+'Affiliate Projection'!J24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J10+'Affiliate Projection'!J25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J10</f>
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!J10+'Affiliate Projection'!J21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!J10+'Affiliate Projection'!J22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J10+'Affiliate Projection'!J23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J10+'Affiliate Projection'!J24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J10</f>
         <v/>
       </c>
       <c r="K6" s="15">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!K10+'Affiliate Projection'!K22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!K10+'Affiliate Projection'!K23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K10+'Affiliate Projection'!K24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K10+'Affiliate Projection'!K25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K10</f>
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!K10+'Affiliate Projection'!K21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!K10+'Affiliate Projection'!K22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K10+'Affiliate Projection'!K23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K10+'Affiliate Projection'!K24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K10</f>
         <v/>
       </c>
       <c r="L6" s="15">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!L10+'Affiliate Projection'!L22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!L10+'Affiliate Projection'!L23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L10+'Affiliate Projection'!L24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L10+'Affiliate Projection'!L25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L10</f>
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!L10+'Affiliate Projection'!L21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!L10+'Affiliate Projection'!L22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L10+'Affiliate Projection'!L23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L10+'Affiliate Projection'!L24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L10</f>
         <v/>
       </c>
       <c r="M6" s="15">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!M10+'Affiliate Projection'!M22*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!M10+'Affiliate Projection'!M23*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M10+'Affiliate Projection'!M24*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M10+'Affiliate Projection'!M25*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M10</f>
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$B$14*'VIP Levels'!$E$5*('VIP Levels'!$D$14/30)*'VIP Levels'!$C$14*Revenue!M10+'Affiliate Projection'!M21*'VIP Levels'!$B$15*'VIP Levels'!$E$6*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!M10+'Affiliate Projection'!M22*'VIP Levels'!$B$16*'VIP Levels'!$E$7*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M10+'Affiliate Projection'!M23*'VIP Levels'!$B$17*'VIP Levels'!$E$8*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M10+'Affiliate Projection'!M24*'VIP Levels'!$B$18*'VIP Levels'!$E$9*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M10</f>
         <v/>
       </c>
     </row>
@@ -5792,106 +5683,106 @@
         </is>
       </c>
       <c r="B7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M7" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Commission Boost")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="inlineStr">
+      <c r="A8" s="31" t="inlineStr">
         <is>
           <t>Discount Cost (Welcome)</t>
         </is>
       </c>
-      <c r="B8" s="34">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!B25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="C8" s="34">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!C25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="D8" s="34">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!D25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="E8" s="34">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!E25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="F8" s="34">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!F25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="G8" s="34">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!G25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="H8" s="34">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!H25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="I8" s="34">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!I25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="J8" s="34">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!J25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="K8" s="34">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!K25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="L8" s="34">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!L25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
-        <v/>
-      </c>
-      <c r="M8" s="34">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M22*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M23*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M24*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$14*Inputs!$B$20+'Affiliate Projection'!M25*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$14*Inputs!$B$20</f>
+      <c r="B8" s="32">
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!B21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!B22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!B23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!B24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="C8" s="32">
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!C21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!C22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!C23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!C24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="D8" s="32">
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!D21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!D22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!D23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!D24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="E8" s="32">
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!E21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!E22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!E23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!E24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="F8" s="32">
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!F21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!F22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!F23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!F24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="G8" s="32">
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!G21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!G22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!G23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!G24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="H8" s="32">
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!H21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!H22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!H23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!H24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="I8" s="32">
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!I21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!I22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!I23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!I24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="J8" s="32">
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!J21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!J22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!J23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!J24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="K8" s="32">
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!K21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!K22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!K23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!K24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="L8" s="32">
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!L21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!L22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!L23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!L24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="M8" s="32">
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$G$14*'VIP Levels'!$E$5*('VIP Levels'!$I$14/30)*'VIP Levels'!$H$14*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!M21*'VIP Levels'!$G$15*'VIP Levels'!$E$6*('VIP Levels'!$I$15/30)*'VIP Levels'!$H$15*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!M22*'VIP Levels'!$G$16*'VIP Levels'!$E$7*('VIP Levels'!$I$16/30)*'VIP Levels'!$H$16*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!M23*'VIP Levels'!$G$17*'VIP Levels'!$E$8*('VIP Levels'!$I$17/30)*'VIP Levels'!$H$17*Inputs!$B$12*Inputs!$B$18+'Affiliate Projection'!M24*'VIP Levels'!$G$18*'VIP Levels'!$E$9*('VIP Levels'!$I$18/30)*'VIP Levels'!$H$18*Inputs!$B$12*Inputs!$B$18</f>
         <v/>
       </c>
     </row>
@@ -5902,51 +5793,51 @@
         </is>
       </c>
       <c r="B9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M9" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Discount")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -6005,10 +5896,10 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="32">
+    <row r="11" ht="18.75" customHeight="1" s="34">
       <c r="A11" s="14" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="32">
+    <row r="12" ht="18.75" customHeight="1" s="34">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>--- LOYALTY PROGRAM COSTS ---</t>
@@ -6022,51 +5913,51 @@
         </is>
       </c>
       <c r="B13" s="15">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!B22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!B23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!B24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!B25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!B21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!B22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!B23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!B24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="C13" s="15">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!C22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!C23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!C24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!C25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!C21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!C22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!C23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!C24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="D13" s="15">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!D22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!D23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!D24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!D25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!D21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!D22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!D23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!D24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!E22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!E23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!E24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!E25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!E21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!E22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!E23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!E24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="F13" s="15">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!F22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!F23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!F24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!F25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!F21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!F22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!F23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!F24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="G13" s="15">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!G22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!G23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!G24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!G25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!G21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!G22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!G23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!G24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="H13" s="15">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!H22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!H23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!H24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!H25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!H21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!H22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!H23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!H24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="I13" s="15">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!I22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!I23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!I24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!I25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!I21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!I22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!I23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!I24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="J13" s="15">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!J22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!J23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!J24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!J25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!J21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!J22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!J23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!J24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="K13" s="15">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!K22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!K23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!K24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!K25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!K21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!K22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!K23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!K24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="L13" s="15">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!L22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!L23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!L24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!L25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!L21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!L22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!L23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!L24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
       <c r="M13" s="15">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!M22*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!M23*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!M24*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!M25*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$E$14*'VIP Levels'!$F$14+'Affiliate Projection'!M21*'VIP Levels'!$E$15*'VIP Levels'!$F$15+'Affiliate Projection'!M22*'VIP Levels'!$E$16*'VIP Levels'!$F$16+'Affiliate Projection'!M23*'VIP Levels'!$E$17*'VIP Levels'!$F$17+'Affiliate Projection'!M24*'VIP Levels'!$E$18*'VIP Levels'!$F$18</f>
         <v/>
       </c>
     </row>
@@ -6077,51 +5968,51 @@
         </is>
       </c>
       <c r="B14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M14" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Gift Card")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -6235,10 +6126,10 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="32">
+    <row r="17" ht="18.75" customHeight="1" s="34">
       <c r="A17" s="14" t="n"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="32">
+    <row r="18" ht="18.75" customHeight="1" s="34">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>--- MARKETING OPEX ---</t>
@@ -6252,51 +6143,51 @@
         </is>
       </c>
       <c r="B19" s="15">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!B22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!B23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!B24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!B25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!B21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!B22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!B23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!B24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="C19" s="15">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!C22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!C23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!C24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!C25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!C21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!C22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!C23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!C24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="D19" s="15">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!D22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!D23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!D24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!D25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!D21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!D22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!D23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!D24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="E19" s="15">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!E22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!E23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!E24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!E25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!E21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!E22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!E23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!E24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="F19" s="15">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!F22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!F23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!F24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!F25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!F21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!F22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!F23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!F24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="G19" s="15">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!G22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!G23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!G24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!G25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!G21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!G22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!G23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!G24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="H19" s="15">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!H22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!H23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!H24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!H25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!H21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!H22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!H23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!H24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="I19" s="15">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!I22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!I23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!I24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!I25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!I21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!I22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!I23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!I24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="J19" s="15">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!J22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!J23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!J24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!J25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!J21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!J22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!J23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!J24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="K19" s="15">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!K22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!K23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!K24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!K25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!K21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!K22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!K23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!K24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="L19" s="15">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!L22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!L23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!L24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!L25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!L21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!L22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!L23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!L24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
       <c r="M19" s="15">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!M22*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!M23*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!M24*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!M25*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$J$14*'VIP Levels'!$K$14+'Affiliate Projection'!M21*'VIP Levels'!$J$15*'VIP Levels'!$K$15+'Affiliate Projection'!M22*'VIP Levels'!$J$16*'VIP Levels'!$K$16+'Affiliate Projection'!M23*'VIP Levels'!$J$17*'VIP Levels'!$K$17+'Affiliate Projection'!M24*'VIP Levels'!$J$18*'VIP Levels'!$K$18</f>
         <v/>
       </c>
     </row>
@@ -6307,51 +6198,51 @@
         </is>
       </c>
       <c r="B20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!B24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="C20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!C24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="D20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!D24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="E20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!E24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="F20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!F24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="G20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!G24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="H20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!H24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="I20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!I24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="J20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!J24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="K20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!K24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="L20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!L24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
       <c r="M20" s="15">
-        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M25*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
+        <f>SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Bronze")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M11*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Silver")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M12*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Gold")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Platinum")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26="One-time")*'Affiliate Projection'!M24*Missions!$E$6:$E$26*Missions!$J$6:$J$26)+SUMPRODUCT((Missions!$F$6:$F$26="Spark Ads")*(Missions!$A$6:$A$26="Diamond")*(Missions!$D$6:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$6:$E$26*Missions!$J$6:$J$26)</f>
         <v/>
       </c>
     </row>
@@ -6362,51 +6253,51 @@
         </is>
       </c>
       <c r="B21" s="15">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!B22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!B23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!B24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!B25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!B21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!B22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!B23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!B24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="C21" s="15">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!C22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!C23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!C24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!C25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!C21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!C22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!C23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!C24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="D21" s="15">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!D22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!D23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!D24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!D25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!D21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!D22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!D23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!D24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="E21" s="15">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!E22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!E23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!E24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!E25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!E21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!E22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!E23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!E24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="F21" s="15">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!F22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!F23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!F24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!F25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!F21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!F22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!F23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!F24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="G21" s="15">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!G22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!G23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!G24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!G25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!G21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!G22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!G23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!G24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="H21" s="15">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!H22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!H23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!H24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!H25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!H21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!H22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!H23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!H24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="I21" s="15">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!I22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!I23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!I24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!I25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!I21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!I22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!I23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!I24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="J21" s="15">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!J22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!J23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!J24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!J25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!J21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!J22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!J23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!J24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="K21" s="15">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!K22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!K23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!K24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!K25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!K21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!K22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!K23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!K24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="L21" s="15">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!L22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!L23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!L24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!L25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!L21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!L22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!L23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!L24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
       <c r="M21" s="15">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!M22*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!M23*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!M24*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!M25*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$L$14*'VIP Levels'!$M$14+'Affiliate Projection'!M21*'VIP Levels'!$L$15*'VIP Levels'!$M$15+'Affiliate Projection'!M22*'VIP Levels'!$L$16*'VIP Levels'!$M$16+'Affiliate Projection'!M23*'VIP Levels'!$L$17*'VIP Levels'!$M$17+'Affiliate Projection'!M24*'VIP Levels'!$L$18*'VIP Levels'!$M$18</f>
         <v/>
       </c>
     </row>
@@ -6417,51 +6308,51 @@
         </is>
       </c>
       <c r="B22" s="15">
-        <f>'Affiliate Projection'!B21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!B22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!B23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!B24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!B25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!B20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!B21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!B22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!B23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!B24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="C22" s="15">
-        <f>'Affiliate Projection'!C21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!C22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!C23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!C24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!C25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!C20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!C21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!C22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!C23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!C24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="D22" s="15">
-        <f>'Affiliate Projection'!D21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!D22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!D23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!D24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!D25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!D20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!D21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!D22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!D23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!D24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="E22" s="15">
-        <f>'Affiliate Projection'!E21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!E22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!E23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!E24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!E25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!E20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!E21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!E22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!E23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!E24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="F22" s="15">
-        <f>'Affiliate Projection'!F21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!F22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!F23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!F24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!F25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!F20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!F21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!F22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!F23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!F24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="G22" s="15">
-        <f>'Affiliate Projection'!G21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!G22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!G23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!G24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!G25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!G20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!G21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!G22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!G23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!G24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="H22" s="15">
-        <f>'Affiliate Projection'!H21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!H22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!H23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!H24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!H25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!H20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!H21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!H22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!H23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!H24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="I22" s="15">
-        <f>'Affiliate Projection'!I21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!I22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!I23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!I24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!I25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!I20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!I21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!I22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!I23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!I24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="J22" s="15">
-        <f>'Affiliate Projection'!J21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!J22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!J23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!J24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!J25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!J20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!J21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!J22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!J23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!J24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="K22" s="15">
-        <f>'Affiliate Projection'!K21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!K22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!K23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!K24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!K25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!K20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!K21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!K22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!K23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!K24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="L22" s="15">
-        <f>'Affiliate Projection'!L21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!L22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!L23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!L24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!L25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!L20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!L21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!L22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!L23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!L24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
       <c r="M22" s="15">
-        <f>'Affiliate Projection'!M21*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!M22*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!M23*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!M24*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!M25*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
+        <f>'Affiliate Projection'!M20*'VIP Levels'!$N$14*'VIP Levels'!$O$14+'Affiliate Projection'!M21*'VIP Levels'!$N$15*'VIP Levels'!$O$15+'Affiliate Projection'!M22*'VIP Levels'!$N$16*'VIP Levels'!$O$16+'Affiliate Projection'!M23*'VIP Levels'!$N$17*'VIP Levels'!$O$17+'Affiliate Projection'!M24*'VIP Levels'!$N$18*'VIP Levels'!$O$18</f>
         <v/>
       </c>
     </row>
@@ -6472,51 +6363,51 @@
         </is>
       </c>
       <c r="B23" s="15">
-        <f>'Affiliate Projection'!B4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!B4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="C23" s="15">
-        <f>'Affiliate Projection'!C4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!C4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="D23" s="15">
-        <f>'Affiliate Projection'!D4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!D4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="E23" s="15">
-        <f>'Affiliate Projection'!E4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!E4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="F23" s="15">
-        <f>'Affiliate Projection'!F4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!F4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="G23" s="15">
-        <f>'Affiliate Projection'!G4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!G4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="H23" s="15">
-        <f>'Affiliate Projection'!H4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!H4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="I23" s="15">
-        <f>'Affiliate Projection'!I4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!I4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="J23" s="15">
-        <f>'Affiliate Projection'!J4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!J4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="K23" s="15">
-        <f>'Affiliate Projection'!K4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!K4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="L23" s="15">
-        <f>'Affiliate Projection'!L4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!L4*Inputs!$B$25</f>
         <v/>
       </c>
       <c r="M23" s="15">
-        <f>'Affiliate Projection'!M4*Inputs!$B$28</f>
+        <f>'Affiliate Projection'!M4*Inputs!$B$25</f>
         <v/>
       </c>
     </row>
@@ -6575,10 +6466,10 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="32">
+    <row r="25" ht="18.75" customHeight="1" s="34">
       <c r="A25" s="14" t="n"/>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="32">
+    <row r="26" ht="18.75" customHeight="1" s="34">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>--- TOTALS ---</t>
@@ -6640,8 +6531,6 @@
         <v/>
       </c>
     </row>
-    <row r="28"/>
-    <row r="29"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
@@ -6664,26 +6553,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" style="32" min="1" max="1"/>
-    <col width="15" customWidth="1" style="32" min="2" max="2"/>
-    <col width="10" customWidth="1" style="32" min="3" max="14"/>
+    <col width="32" customWidth="1" style="34" min="1" max="1"/>
+    <col width="15" customWidth="1" style="34" min="2" max="2"/>
+    <col width="10" customWidth="1" style="34" min="3" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="32">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="21" customHeight="1" s="34">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>SUMMARY DASHBOARD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="32">
+    <row r="3" ht="18.75" customHeight="1" s="34">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>12-MONTH TOTALS</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="32">
+    <row r="4" ht="15.75" customHeight="1" s="34">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6724,7 +6613,7 @@
         </is>
       </c>
       <c r="B7" s="13">
-        <f>'Affiliate Projection'!M9</f>
+        <f>'Affiliate Projection'!M8</f>
         <v/>
       </c>
     </row>
@@ -6735,7 +6624,7 @@
         </is>
       </c>
       <c r="B8" s="13">
-        <f>SUM('Affiliate Projection'!B10:M10)</f>
+        <f>SUM('Affiliate Projection'!B9:M10)</f>
         <v/>
       </c>
     </row>
@@ -6811,14 +6700,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="32">
+    <row r="19" ht="18.75" customHeight="1" s="34">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>KEY RATIOS</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="32">
+    <row r="20" ht="15.75" customHeight="1" s="34">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6896,14 +6785,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="32">
+    <row r="29" ht="18.75" customHeight="1" s="34">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MONTHLY TREND</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="32">
+    <row r="30" ht="15.75" customHeight="1" s="34">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Metric</t>
@@ -6982,51 +6871,51 @@
         </is>
       </c>
       <c r="B31" s="13">
-        <f>'Affiliate Projection'!B9</f>
+        <f>'Affiliate Projection'!B8</f>
         <v/>
       </c>
       <c r="C31" s="13">
-        <f>'Affiliate Projection'!C9</f>
+        <f>'Affiliate Projection'!C8</f>
         <v/>
       </c>
       <c r="D31" s="13">
-        <f>'Affiliate Projection'!D9</f>
+        <f>'Affiliate Projection'!D8</f>
         <v/>
       </c>
       <c r="E31" s="13">
-        <f>'Affiliate Projection'!E9</f>
+        <f>'Affiliate Projection'!E8</f>
         <v/>
       </c>
       <c r="F31" s="13">
-        <f>'Affiliate Projection'!F9</f>
+        <f>'Affiliate Projection'!F8</f>
         <v/>
       </c>
       <c r="G31" s="13">
-        <f>'Affiliate Projection'!G9</f>
+        <f>'Affiliate Projection'!G8</f>
         <v/>
       </c>
       <c r="H31" s="13">
-        <f>'Affiliate Projection'!H9</f>
+        <f>'Affiliate Projection'!H8</f>
         <v/>
       </c>
       <c r="I31" s="13">
-        <f>'Affiliate Projection'!I9</f>
+        <f>'Affiliate Projection'!I8</f>
         <v/>
       </c>
       <c r="J31" s="13">
-        <f>'Affiliate Projection'!J9</f>
+        <f>'Affiliate Projection'!J8</f>
         <v/>
       </c>
       <c r="K31" s="13">
-        <f>'Affiliate Projection'!K9</f>
+        <f>'Affiliate Projection'!K8</f>
         <v/>
       </c>
       <c r="L31" s="13">
-        <f>'Affiliate Projection'!L9</f>
+        <f>'Affiliate Projection'!L8</f>
         <v/>
       </c>
       <c r="M31" s="13">
-        <f>'Affiliate Projection'!M9</f>
+        <f>'Affiliate Projection'!M8</f>
         <v/>
       </c>
       <c r="N31" s="13">
@@ -7041,51 +6930,51 @@
         </is>
       </c>
       <c r="B32" s="13">
-        <f>'Affiliate Projection'!B10</f>
+        <f>'Affiliate Projection'!B9</f>
         <v/>
       </c>
       <c r="C32" s="13">
-        <f>'Affiliate Projection'!C10</f>
+        <f>'Affiliate Projection'!C9</f>
         <v/>
       </c>
       <c r="D32" s="13">
-        <f>'Affiliate Projection'!D10</f>
+        <f>'Affiliate Projection'!D9</f>
         <v/>
       </c>
       <c r="E32" s="13">
-        <f>'Affiliate Projection'!E10</f>
+        <f>'Affiliate Projection'!E9</f>
         <v/>
       </c>
       <c r="F32" s="13">
-        <f>'Affiliate Projection'!F10</f>
+        <f>'Affiliate Projection'!F9</f>
         <v/>
       </c>
       <c r="G32" s="13">
-        <f>'Affiliate Projection'!G10</f>
+        <f>'Affiliate Projection'!G9</f>
         <v/>
       </c>
       <c r="H32" s="13">
-        <f>'Affiliate Projection'!H10</f>
+        <f>'Affiliate Projection'!H9</f>
         <v/>
       </c>
       <c r="I32" s="13">
-        <f>'Affiliate Projection'!I10</f>
+        <f>'Affiliate Projection'!I9</f>
         <v/>
       </c>
       <c r="J32" s="13">
-        <f>'Affiliate Projection'!J10</f>
+        <f>'Affiliate Projection'!J9</f>
         <v/>
       </c>
       <c r="K32" s="13">
-        <f>'Affiliate Projection'!K10</f>
+        <f>'Affiliate Projection'!K9</f>
         <v/>
       </c>
       <c r="L32" s="13">
-        <f>'Affiliate Projection'!L10</f>
+        <f>'Affiliate Projection'!L9</f>
         <v/>
       </c>
       <c r="M32" s="13">
-        <f>'Affiliate Projection'!M10</f>
+        <f>'Affiliate Projection'!M9</f>
         <v/>
       </c>
       <c r="N32" s="13">

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42CA8E-9E3F-4CC4-9B7E-B2B7102A38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025BEDD-F99A-4BF2-9B75-21D7BC0EC349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7534,7 +7534,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025BEDD-F99A-4BF2-9B75-21D7BC0EC349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54F6C0-8E7B-4B92-9F3C-07836B224BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="199">
   <si>
     <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>6. DERIVED: MISSION COMPLETION RATES</t>
+  </si>
+  <si>
+    <t>12M Net Revenue</t>
   </si>
 </sst>
 </file>
@@ -5638,7 +5641,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,7 +6654,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7534,7 +7537,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8306,8 +8309,10 @@
       <c r="S22" s="84"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="100"/>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
@@ -8620,8 +8625,10 @@
       <c r="S30" s="84"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="100"/>
       <c r="C31" s="84"/>
       <c r="D31" s="84"/>
       <c r="E31" s="84"/>
@@ -8641,7 +8648,6 @@
       <c r="S31" s="84"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
       <c r="B32" s="84"/>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -8934,8 +8940,10 @@
       <c r="S38" s="84"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
+      <c r="A39" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="100"/>
       <c r="C39" s="84"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54F6C0-8E7B-4B92-9F3C-07836B224BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E010FC-93A4-4871-B2C7-6347FA9F9382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="207">
   <si>
     <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
   </si>
@@ -320,6 +320,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Videos</t>
+  </si>
+  <si>
     <t>Views</t>
   </si>
   <si>
@@ -329,9 +332,6 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>Videos</t>
-  </si>
-  <si>
     <t>Commission Boost</t>
   </si>
   <si>
@@ -422,6 +422,27 @@
     <t>Net Revenue</t>
   </si>
   <si>
+    <t>FLASH SALE SETTINGS</t>
+  </si>
+  <si>
+    <t>Duration (hours)</t>
+  </si>
+  <si>
+    <t>Discount %</t>
+  </si>
+  <si>
+    <t># per Month</t>
+  </si>
+  <si>
+    <t>Flash Time %</t>
+  </si>
+  <si>
+    <t>Effective Discount</t>
+  </si>
+  <si>
+    <t>Net AOV</t>
+  </si>
+  <si>
     <t>COST PROJECTION (12 MONTHS)</t>
   </si>
   <si>
@@ -578,6 +599,9 @@
     <t>Average</t>
   </si>
   <si>
+    <t>12M Net Revenue</t>
+  </si>
+  <si>
     <t>BASE - MONTHLY UNIT COST TRAJECTORY</t>
   </si>
   <si>
@@ -641,7 +665,7 @@
     <t>6. DERIVED: MISSION COMPLETION RATES</t>
   </si>
   <si>
-    <t>12M Net Revenue</t>
+    <t>CALCULATION:</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1206,12 +1230,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,6 +1596,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,7 +2065,7 @@
         <v>0.45909090909090911</v>
       </c>
       <c r="Q6" s="18">
-        <v>0.40454545454545454</v>
+        <v>0.40454545454545449</v>
       </c>
       <c r="R6" s="18">
         <v>0.35</v>
@@ -2043,31 +2094,31 @@
         <v>8.9090909090909096E-2</v>
       </c>
       <c r="I7" s="18">
-        <v>0.12818181818181817</v>
+        <v>0.1281818181818182</v>
       </c>
       <c r="J7" s="18">
         <v>0.1672727272727273</v>
       </c>
       <c r="K7" s="18">
-        <v>0.20636363636363636</v>
+        <v>0.20636363636363639</v>
       </c>
       <c r="L7" s="18">
-        <v>0.24545454545454543</v>
+        <v>0.2454545454545454</v>
       </c>
       <c r="M7" s="18">
-        <v>0.28454545454545455</v>
+        <v>0.28454545454545449</v>
       </c>
       <c r="N7" s="18">
         <v>0.32363636363636361</v>
       </c>
       <c r="O7" s="18">
-        <v>0.36272727272727273</v>
+        <v>0.36272727272727268</v>
       </c>
       <c r="P7" s="18">
         <v>0.4018181818181818</v>
       </c>
       <c r="Q7" s="18">
-        <v>0.44090909090909086</v>
+        <v>0.44090909090909092</v>
       </c>
       <c r="R7" s="18">
         <v>0.48</v>
@@ -2084,7 +2135,7 @@
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="I8" s="18">
-        <v>1.8181818181818184E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="J8" s="18">
         <v>2.7272727272727278E-2</v>
@@ -2093,7 +2144,7 @@
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="L8" s="18">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="M8" s="18">
         <v>5.4545454545454557E-2</v>
@@ -2128,19 +2179,19 @@
         <v>6.3636363636363638E-3</v>
       </c>
       <c r="I9" s="18">
-        <v>1.2727272727272728E-2</v>
+        <v>1.2727272727272729E-2</v>
       </c>
       <c r="J9" s="18">
-        <v>1.9090909090909092E-2</v>
+        <v>1.9090909090909089E-2</v>
       </c>
       <c r="K9" s="18">
-        <v>2.5454545454545455E-2</v>
+        <v>2.5454545454545459E-2</v>
       </c>
       <c r="L9" s="18">
         <v>3.1818181818181822E-2</v>
       </c>
       <c r="M9" s="18">
-        <v>3.8181818181818185E-2</v>
+        <v>3.8181818181818178E-2</v>
       </c>
       <c r="N9" s="18">
         <v>4.4545454545454548E-2</v>
@@ -2400,7 +2451,7 @@
       </c>
       <c r="Q16" s="61">
         <f>$Q$15*Q6</f>
-        <v>360.04545454545456</v>
+        <v>360.0454545454545</v>
       </c>
       <c r="R16" s="61">
         <f>$R$15*R6</f>
@@ -2421,7 +2472,7 @@
       </c>
       <c r="I17" s="61">
         <f>$I$15*I7</f>
-        <v>32.045454545454547</v>
+        <v>32.045454545454554</v>
       </c>
       <c r="J17" s="61">
         <f>$J$15*J7</f>
@@ -2429,15 +2480,15 @@
       </c>
       <c r="K17" s="61">
         <f>$K$15*K7</f>
-        <v>84.609090909090909</v>
+        <v>84.609090909090924</v>
       </c>
       <c r="L17" s="61">
         <f>$L$15*L7</f>
-        <v>120.27272727272725</v>
+        <v>120.27272727272724</v>
       </c>
       <c r="M17" s="61">
         <f>$M$15*M7</f>
-        <v>162.19090909090909</v>
+        <v>162.19090909090906</v>
       </c>
       <c r="N17" s="61">
         <f>$N$15*N7</f>
@@ -2445,7 +2496,7 @@
       </c>
       <c r="O17" s="61">
         <f>$O$15*O7</f>
-        <v>264.79090909090911</v>
+        <v>264.79090909090905</v>
       </c>
       <c r="P17" s="61">
         <f>$P$15*P7</f>
@@ -2453,7 +2504,7 @@
       </c>
       <c r="Q17" s="61">
         <f>$Q$15*Q7</f>
-        <v>392.40909090909088</v>
+        <v>392.40909090909093</v>
       </c>
       <c r="R17" s="61">
         <f>$R$15*R7</f>
@@ -2474,7 +2525,7 @@
       </c>
       <c r="I18" s="61">
         <f>$I$15*I8</f>
-        <v>4.5454545454545459</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="J18" s="61">
         <f>$J$15*J8</f>
@@ -2486,7 +2537,7 @@
       </c>
       <c r="L18" s="61">
         <f>$L$15*L8</f>
-        <v>22.272727272727273</v>
+        <v>22.272727272727277</v>
       </c>
       <c r="M18" s="61">
         <f>$M$15*M8</f>
@@ -2527,11 +2578,11 @@
       </c>
       <c r="I19" s="61">
         <f>$I$15*I9</f>
-        <v>3.1818181818181821</v>
+        <v>3.1818181818181825</v>
       </c>
       <c r="J19" s="61">
         <f>$J$15*J9</f>
-        <v>6.3000000000000007</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="K19" s="61">
         <f>$K$15*K9</f>
@@ -2543,7 +2594,7 @@
       </c>
       <c r="M19" s="61">
         <f>$M$15*M9</f>
-        <v>21.763636363636365</v>
+        <v>21.763636363636362</v>
       </c>
       <c r="N19" s="61">
         <f>$N$15*N9</f>
@@ -3049,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="37">
         <v>5</v>
@@ -3757,7 +3808,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="37">
         <v>1500</v>
@@ -3769,7 +3820,7 @@
         <v>0.9</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="38">
         <v>0.15</v>
@@ -3796,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="30">
         <v>0.15</v>
@@ -3823,13 +3874,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="29">
         <v>15</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="30">
         <v>0.6</v>
@@ -3848,7 +3899,7 @@
       </c>
       <c r="J9" s="44">
         <f>IF(D9="Weekly",4,1)*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Revenue!$B$7,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Inputs!$B$12,0))))</f>
-        <v>7.2800000000000011</v>
+        <v>6.6733333333333338</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3856,19 +3907,19 @@
         <v>30</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="29">
         <v>10000</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="30">
         <v>0.8</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="30">
         <v>0.15</v>
@@ -3895,7 +3946,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="41">
         <v>0.18</v>
@@ -3922,13 +3973,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="40">
         <v>20</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="41">
         <v>0.7</v>
@@ -3947,7 +3998,7 @@
       </c>
       <c r="J12" s="46">
         <f>IF(D12="Weekly",4,1)*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Revenue!$B$7,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Inputs!$B$12,0))))</f>
-        <v>21.840000000000003</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3955,7 +4006,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="40">
         <v>20000</v>
@@ -3967,7 +4018,7 @@
         <v>0.7</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="41">
         <v>0.1</v>
@@ -3994,7 +4045,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="27">
         <v>0.27</v>
@@ -4021,7 +4072,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="26">
         <v>5</v>
@@ -4046,7 +4097,7 @@
       </c>
       <c r="J15" s="45">
         <f>IF(D15="Weekly",4,1)*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Revenue!$B$7,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Inputs!$B$12,0))))</f>
-        <v>168.48000000000002</v>
+        <v>154.44000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4054,7 +4105,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="26">
         <v>20000</v>
@@ -4066,7 +4117,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="27">
         <v>0.15</v>
@@ -5292,10 +5343,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,52 +5578,52 @@
         <v>123</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:M7" si="1">B5</f>
-        <v>40</v>
+        <f t="shared" ref="B7:M7" si="1">$B$19</f>
+        <v>36.666666666666664</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5581,56 +5632,135 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" ref="B8:M8" si="2">B4*B7</f>
-        <v>10520</v>
+        <v>9643.3333333333321</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="2"/>
-        <v>22080</v>
+        <v>20240</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="2"/>
-        <v>37880</v>
+        <v>34723.333333333328</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="2"/>
-        <v>58240</v>
+        <v>53386.666666666664</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>83400</v>
+        <v>76450</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>114720</v>
+        <v>105160</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>147840</v>
+        <v>135520</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>185120</v>
+        <v>169693.33333333331</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>227400</v>
+        <v>208450</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="2"/>
-        <v>273080</v>
+        <v>250323.33333333331</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>326400</v>
+        <v>299200</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>380600</v>
+        <v>348883.33333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="92">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="147">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="105"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="148"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="146">
+        <f>B12*B14/720</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="146">
+        <f>B17*B13</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="147">
+        <f>Inputs!$B$12*(1-B18)</f>
+        <v>36.666666666666664</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:N11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5641,7 +5771,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5652,7 +5782,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="139" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
@@ -5711,171 +5841,171 @@
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B5" s="10">
         <f>Revenue!B8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$6:G$10)</f>
-        <v>2104</v>
+        <v>1928.6666666666665</v>
       </c>
       <c r="C5" s="10">
         <f>Revenue!C8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$6:H$10)</f>
-        <v>4416</v>
+        <v>4048</v>
       </c>
       <c r="D5" s="10">
         <f>Revenue!D8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$6:I$10)</f>
-        <v>7576</v>
+        <v>6944.6666666666661</v>
       </c>
       <c r="E5" s="10">
         <f>Revenue!E8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$6:J$10)</f>
-        <v>11648.000000000002</v>
+        <v>10677.333333333334</v>
       </c>
       <c r="F5" s="10">
         <f>Revenue!F8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$6:K$10)</f>
-        <v>16680</v>
+        <v>15290</v>
       </c>
       <c r="G5" s="10">
         <f>Revenue!G8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$6:L$10)</f>
-        <v>22944.000000000004</v>
+        <v>21032</v>
       </c>
       <c r="H5" s="10">
         <f>Revenue!H8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$6:M$10)</f>
-        <v>29568.000000000007</v>
+        <v>27104.000000000004</v>
       </c>
       <c r="I5" s="10">
         <f>Revenue!I8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!N$6:N$10)</f>
-        <v>37024</v>
+        <v>33938.666666666664</v>
       </c>
       <c r="J5" s="10">
         <f>Revenue!J8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!O$6:O$10)</f>
-        <v>45480.000000000007</v>
+        <v>41690</v>
       </c>
       <c r="K5" s="10">
         <f>Revenue!K8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!P$6:P$10)</f>
-        <v>54616</v>
+        <v>50064.666666666664</v>
       </c>
       <c r="L5" s="10">
         <f>Revenue!L8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!Q$6:Q$10)</f>
-        <v>65280</v>
+        <v>59840</v>
       </c>
       <c r="M5" s="10">
         <f>Revenue!M8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!R$6:R$10)</f>
-        <v>76120</v>
+        <v>69776.666666666672</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B6" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!B7+'Affiliate Projection'!B20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B7+'Affiliate Projection'!B21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B7+'Affiliate Projection'!B22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B7+'Affiliate Projection'!B23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!B7</f>
-        <v>31.200000000000003</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="C6" s="10">
         <f>'Affiliate Projection'!C19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!C7+'Affiliate Projection'!C20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C7+'Affiliate Projection'!C21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C7+'Affiliate Projection'!C22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C7+'Affiliate Projection'!C23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!C7</f>
-        <v>483.6</v>
+        <v>443.3</v>
       </c>
       <c r="D6" s="10">
         <f>'Affiliate Projection'!D19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!D7+'Affiliate Projection'!D20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D7+'Affiliate Projection'!D21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D7+'Affiliate Projection'!D22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D7+'Affiliate Projection'!D23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!D7</f>
-        <v>886.08</v>
+        <v>812.24</v>
       </c>
       <c r="E6" s="10">
         <f>'Affiliate Projection'!E19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!E7+'Affiliate Projection'!E20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E7+'Affiliate Projection'!E21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E7+'Affiliate Projection'!E22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E7+'Affiliate Projection'!E23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!E7</f>
-        <v>1301.04</v>
+        <v>1192.6199999999999</v>
       </c>
       <c r="F6" s="10">
         <f>'Affiliate Projection'!F19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!F7+'Affiliate Projection'!F20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F7+'Affiliate Projection'!F21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F7+'Affiliate Projection'!F22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F7+'Affiliate Projection'!F23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!F7</f>
-        <v>1759.68</v>
+        <v>1613.04</v>
       </c>
       <c r="G6" s="10">
         <f>'Affiliate Projection'!G19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!G7+'Affiliate Projection'!G20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G7+'Affiliate Projection'!G21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G7+'Affiliate Projection'!G22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G7+'Affiliate Projection'!G23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!G7</f>
-        <v>2489.7600000000002</v>
+        <v>2282.2799999999997</v>
       </c>
       <c r="H6" s="10">
         <f>'Affiliate Projection'!H19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!H7+'Affiliate Projection'!H20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H7+'Affiliate Projection'!H21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H7+'Affiliate Projection'!H22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H7+'Affiliate Projection'!H23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!H7</f>
-        <v>2620.8000000000002</v>
+        <v>2402.4</v>
       </c>
       <c r="I6" s="10">
         <f>'Affiliate Projection'!I19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!I7+'Affiliate Projection'!I20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I7+'Affiliate Projection'!I21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I7+'Affiliate Projection'!I22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I7+'Affiliate Projection'!I23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!I7</f>
-        <v>3029.5200000000004</v>
+        <v>2777.06</v>
       </c>
       <c r="J6" s="10">
         <f>'Affiliate Projection'!J19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!J7+'Affiliate Projection'!J20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J7+'Affiliate Projection'!J21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J7+'Affiliate Projection'!J22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J7+'Affiliate Projection'!J23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!J7</f>
-        <v>3488.1600000000003</v>
+        <v>3197.48</v>
       </c>
       <c r="K6" s="10">
         <f>'Affiliate Projection'!K19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!K7+'Affiliate Projection'!K20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K7+'Affiliate Projection'!K21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K7+'Affiliate Projection'!K22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K7+'Affiliate Projection'!K23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!K7</f>
-        <v>3890.6400000000003</v>
+        <v>3566.42</v>
       </c>
       <c r="L6" s="10">
         <f>'Affiliate Projection'!L19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!L7+'Affiliate Projection'!L20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L7+'Affiliate Projection'!L21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L7+'Affiliate Projection'!L22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L7+'Affiliate Projection'!L23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!L7</f>
-        <v>4676.88</v>
+        <v>4287.1399999999994</v>
       </c>
       <c r="M6" s="10">
         <f>'Affiliate Projection'!M19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!M7+'Affiliate Projection'!M20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M7+'Affiliate Projection'!M21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M7+'Affiliate Projection'!M22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M7+'Affiliate Projection'!M23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!M7</f>
-        <v>4764.2400000000007</v>
+        <v>4367.2199999999993</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B7" s="10">
         <f t="array" ref="B7">SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>21.840000000000003</v>
+        <v>20.020000000000003</v>
       </c>
       <c r="C7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>218.40000000000003</v>
+        <v>200.20000000000005</v>
       </c>
       <c r="D7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>570.024</v>
+        <v>522.52200000000005</v>
       </c>
       <c r="E7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1085.4480000000001</v>
+        <v>994.99400000000003</v>
       </c>
       <c r="F7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1779.9600000000003</v>
+        <v>1631.63</v>
       </c>
       <c r="G7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2747.4720000000002</v>
+        <v>2518.5160000000005</v>
       </c>
       <c r="H7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3776.1360000000004</v>
+        <v>3461.4580000000001</v>
       </c>
       <c r="I7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4964.232</v>
+        <v>4550.5460000000003</v>
       </c>
       <c r="J7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>6331.4160000000011</v>
+        <v>5803.7980000000007</v>
       </c>
       <c r="K7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>7853.6639999999998</v>
+        <v>7199.192</v>
       </c>
       <c r="L7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>9672.9360000000015</v>
+        <v>8866.8580000000002</v>
       </c>
       <c r="M7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>11538.072</v>
+        <v>10576.565999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B8" s="23">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$23*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$23/30)*'VIP Levels'!$C$23*Inputs!$B$12+'Affiliate Projection'!B20*'VIP Levels'!$B$24*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!B21*'VIP Levels'!$B$25*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!B22*'VIP Levels'!$B$26*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!B23*'VIP Levels'!$B$27*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12</f>
@@ -5928,7 +6058,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10">
         <f t="array" ref="B9">SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
@@ -5981,55 +6111,55 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:M10" si="0">SUM(B5:B9)</f>
-        <v>2950.3</v>
+        <v>2770.5466666666666</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>6071.6799999999994</v>
+        <v>5645.1799999999994</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>10454.356</v>
+        <v>9701.6806666666671</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>16038.256000000001</v>
+        <v>14868.715333333335</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>22922.6</v>
+        <v>21237.630000000005</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>31791.176000000007</v>
+        <v>29442.739999999998</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>40337.720000000008</v>
+        <v>37340.642000000007</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>50318.424000000014</v>
+        <v>46566.944666666663</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>61691.312000000013</v>
+        <v>57083.014000000003</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>73863.696000000011</v>
+        <v>68333.670666666658</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>88606.16</v>
+        <v>81970.34199999999</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>102600.79200000002</v>
+        <v>94898.932666666689</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6037,12 +6167,12 @@
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B13" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$G$15*'VIP Levels'!$H$15+'Affiliate Projection'!B20*'VIP Levels'!$G$16*'VIP Levels'!$H$16+'Affiliate Projection'!B21*'VIP Levels'!$G$17*'VIP Levels'!$H$17+'Affiliate Projection'!B22*'VIP Levels'!$G$18*'VIP Levels'!$H$18+'Affiliate Projection'!B23*'VIP Levels'!$G$19*'VIP Levels'!$H$19</f>
@@ -6095,7 +6225,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B14" s="10">
         <f t="array" ref="B14">SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
@@ -6148,7 +6278,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" ref="B15:M15" si="1">B13+B14</f>
@@ -6201,7 +6331,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" ref="B16:M16" si="2">B15</f>
@@ -6259,70 +6389,70 @@
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" ref="B21:M21" si="3">B10+B16</f>
-        <v>5427.8</v>
+        <v>5248.0466666666671</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>8724.43</v>
+        <v>8297.93</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>14042.106</v>
+        <v>13289.430666666667</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>20739.756000000001</v>
+        <v>19570.215333333334</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>28825.1</v>
+        <v>27140.130000000005</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>39098.176000000007</v>
+        <v>36749.74</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>48707.720000000008</v>
+        <v>45710.642000000007</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>59975.674000000014</v>
+        <v>56224.194666666663</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>72878.062000000005</v>
+        <v>68269.763999999996</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="3"/>
-        <v>86449.696000000011</v>
+        <v>80919.670666666658</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="3"/>
-        <v>103217.41</v>
+        <v>96581.59199999999</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="3"/>
-        <v>118582.29200000002</v>
+        <v>110880.43266666669</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B24" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$K$15*'VIP Levels'!$L$15+'Affiliate Projection'!B20*'VIP Levels'!$K$16*'VIP Levels'!$L$16+'Affiliate Projection'!B21*'VIP Levels'!$K$17*'VIP Levels'!$L$17+'Affiliate Projection'!B22*'VIP Levels'!$K$18*'VIP Levels'!$L$18+'Affiliate Projection'!B23*'VIP Levels'!$K$19*'VIP Levels'!$L$19</f>
@@ -6375,7 +6505,7 @@
     </row>
     <row r="25" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B25" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
@@ -6428,7 +6558,7 @@
     </row>
     <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B26" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$G$23*'VIP Levels'!$H$23+'Affiliate Projection'!B20*'VIP Levels'!$G$24*'VIP Levels'!$H$24+'Affiliate Projection'!B21*'VIP Levels'!$G$25*'VIP Levels'!$H$25+'Affiliate Projection'!B22*'VIP Levels'!$G$26*'VIP Levels'!$H$26+'Affiliate Projection'!B23*'VIP Levels'!$G$27*'VIP Levels'!$H$27</f>
@@ -6481,7 +6611,7 @@
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B27" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$31*'VIP Levels'!$C$31+'Affiliate Projection'!B20*'VIP Levels'!$B$32*'VIP Levels'!$C$32+'Affiliate Projection'!B21*'VIP Levels'!$B$33*'VIP Levels'!$C$33+'Affiliate Projection'!B22*'VIP Levels'!$B$34*'VIP Levels'!$C$34+'Affiliate Projection'!B23*'VIP Levels'!$B$35*'VIP Levels'!$C$35</f>
@@ -6534,7 +6664,7 @@
     </row>
     <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B28" s="10">
         <f>'Affiliate Projection'!B4*Inputs!$B$30</f>
@@ -6587,7 +6717,7 @@
     </row>
     <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B29" s="11">
         <f t="shared" ref="B29:M29" si="4">SUM(B24:B28)</f>
@@ -6654,7 +6784,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A15" sqref="A14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6666,7 +6796,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="141" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
@@ -6675,7 +6805,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,45 +6813,45 @@
         <v>98</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M3" s="65" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B4" s="66">
         <f>'Affiliate Projection'!B8</f>
@@ -6831,51 +6961,51 @@
       </c>
       <c r="B6" s="23">
         <f>Revenue!B8</f>
-        <v>10520</v>
+        <v>9643.3333333333321</v>
       </c>
       <c r="C6" s="23">
         <f>Revenue!C8</f>
-        <v>22080</v>
+        <v>20240</v>
       </c>
       <c r="D6" s="23">
         <f>Revenue!D8</f>
-        <v>37880</v>
+        <v>34723.333333333328</v>
       </c>
       <c r="E6" s="23">
         <f>Revenue!E8</f>
-        <v>58240</v>
+        <v>53386.666666666664</v>
       </c>
       <c r="F6" s="23">
         <f>Revenue!F8</f>
-        <v>83400</v>
+        <v>76450</v>
       </c>
       <c r="G6" s="23">
         <f>Revenue!G8</f>
-        <v>114720</v>
+        <v>105160</v>
       </c>
       <c r="H6" s="23">
         <f>Revenue!H8</f>
-        <v>147840</v>
+        <v>135520</v>
       </c>
       <c r="I6" s="23">
         <f>Revenue!I8</f>
-        <v>185120</v>
+        <v>169693.33333333331</v>
       </c>
       <c r="J6" s="23">
         <f>Revenue!J8</f>
-        <v>227400</v>
+        <v>208450</v>
       </c>
       <c r="K6" s="23">
         <f>Revenue!K8</f>
-        <v>273080</v>
+        <v>250323.33333333331</v>
       </c>
       <c r="L6" s="23">
         <f>Revenue!L8</f>
-        <v>326400</v>
+        <v>299200</v>
       </c>
       <c r="M6" s="23">
         <f>Revenue!M8</f>
-        <v>380600</v>
+        <v>348883.33333333331</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -6887,171 +7017,171 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B9" s="70">
         <f>Costs!B5</f>
-        <v>2104</v>
+        <v>1928.6666666666665</v>
       </c>
       <c r="C9" s="70">
         <f>Costs!C5</f>
-        <v>4416</v>
+        <v>4048</v>
       </c>
       <c r="D9" s="70">
         <f>Costs!D5</f>
-        <v>7576</v>
+        <v>6944.6666666666661</v>
       </c>
       <c r="E9" s="70">
         <f>Costs!E5</f>
-        <v>11648.000000000002</v>
+        <v>10677.333333333334</v>
       </c>
       <c r="F9" s="70">
         <f>Costs!F5</f>
-        <v>16680</v>
+        <v>15290</v>
       </c>
       <c r="G9" s="70">
         <f>Costs!G5</f>
-        <v>22944.000000000004</v>
+        <v>21032</v>
       </c>
       <c r="H9" s="70">
         <f>Costs!H5</f>
-        <v>29568.000000000007</v>
+        <v>27104.000000000004</v>
       </c>
       <c r="I9" s="70">
         <f>Costs!I5</f>
-        <v>37024</v>
+        <v>33938.666666666664</v>
       </c>
       <c r="J9" s="70">
         <f>Costs!J5</f>
-        <v>45480.000000000007</v>
+        <v>41690</v>
       </c>
       <c r="K9" s="70">
         <f>Costs!K5</f>
-        <v>54616</v>
+        <v>50064.666666666664</v>
       </c>
       <c r="L9" s="70">
         <f>Costs!L5</f>
-        <v>65280</v>
+        <v>59840</v>
       </c>
       <c r="M9" s="70">
         <f>Costs!M5</f>
-        <v>76120</v>
+        <v>69776.666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B10" s="70">
         <f>Costs!B6</f>
-        <v>31.200000000000003</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="C10" s="70">
         <f>Costs!C6</f>
-        <v>483.6</v>
+        <v>443.3</v>
       </c>
       <c r="D10" s="70">
         <f>Costs!D6</f>
-        <v>886.08</v>
+        <v>812.24</v>
       </c>
       <c r="E10" s="70">
         <f>Costs!E6</f>
-        <v>1301.04</v>
+        <v>1192.6199999999999</v>
       </c>
       <c r="F10" s="70">
         <f>Costs!F6</f>
-        <v>1759.68</v>
+        <v>1613.04</v>
       </c>
       <c r="G10" s="70">
         <f>Costs!G6</f>
-        <v>2489.7600000000002</v>
+        <v>2282.2799999999997</v>
       </c>
       <c r="H10" s="70">
         <f>Costs!H6</f>
-        <v>2620.8000000000002</v>
+        <v>2402.4</v>
       </c>
       <c r="I10" s="70">
         <f>Costs!I6</f>
-        <v>3029.5200000000004</v>
+        <v>2777.06</v>
       </c>
       <c r="J10" s="70">
         <f>Costs!J6</f>
-        <v>3488.1600000000003</v>
+        <v>3197.48</v>
       </c>
       <c r="K10" s="70">
         <f>Costs!K6</f>
-        <v>3890.6400000000003</v>
+        <v>3566.42</v>
       </c>
       <c r="L10" s="70">
         <f>Costs!L6</f>
-        <v>4676.88</v>
+        <v>4287.1399999999994</v>
       </c>
       <c r="M10" s="70">
         <f>Costs!M6</f>
-        <v>4764.2400000000007</v>
+        <v>4367.2199999999993</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B11" s="70">
         <f>Costs!B7</f>
-        <v>21.840000000000003</v>
+        <v>20.020000000000003</v>
       </c>
       <c r="C11" s="70">
         <f>Costs!C7</f>
-        <v>218.40000000000003</v>
+        <v>200.20000000000005</v>
       </c>
       <c r="D11" s="70">
         <f>Costs!D7</f>
-        <v>570.024</v>
+        <v>522.52200000000005</v>
       </c>
       <c r="E11" s="70">
         <f>Costs!E7</f>
-        <v>1085.4480000000001</v>
+        <v>994.99400000000003</v>
       </c>
       <c r="F11" s="70">
         <f>Costs!F7</f>
-        <v>1779.9600000000003</v>
+        <v>1631.63</v>
       </c>
       <c r="G11" s="70">
         <f>Costs!G7</f>
-        <v>2747.4720000000002</v>
+        <v>2518.5160000000005</v>
       </c>
       <c r="H11" s="70">
         <f>Costs!H7</f>
-        <v>3776.1360000000004</v>
+        <v>3461.4580000000001</v>
       </c>
       <c r="I11" s="70">
         <f>Costs!I7</f>
-        <v>4964.232</v>
+        <v>4550.5460000000003</v>
       </c>
       <c r="J11" s="70">
         <f>Costs!J7</f>
-        <v>6331.4160000000011</v>
+        <v>5803.7980000000007</v>
       </c>
       <c r="K11" s="70">
         <f>Costs!K7</f>
-        <v>7853.6639999999998</v>
+        <v>7199.192</v>
       </c>
       <c r="L11" s="70">
         <f>Costs!L7</f>
-        <v>9672.9360000000015</v>
+        <v>8866.8580000000002</v>
       </c>
       <c r="M11" s="70">
         <f>Costs!M7</f>
-        <v>11538.072</v>
+        <v>10576.565999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B12" s="70">
         <f>Costs!B13</f>
@@ -7104,7 +7234,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B13" s="70">
         <f>Costs!B14</f>
@@ -7157,108 +7287,108 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B14" s="73">
         <f t="shared" ref="B14:M14" si="0">IF(B5&gt;0,SUM(B9:B13)/B5,0)</f>
-        <v>17.621825095057034</v>
+        <v>16.938352344740178</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" si="0"/>
-        <v>14.077445652173912</v>
+        <v>13.304800724637682</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" si="0"/>
-        <v>13.326139387539598</v>
+        <v>12.531339669130588</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" si="0"/>
-        <v>12.868123626373627</v>
+        <v>12.064867673992676</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" si="0"/>
-        <v>12.528604316546762</v>
+        <v>11.720465227817746</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" si="0"/>
-        <v>12.373860529986054</v>
+        <v>11.555019525801953</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" si="0"/>
-        <v>11.995383116883119</v>
+        <v>11.184485389610392</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" si="0"/>
-        <v>11.813958945548835</v>
+        <v>11.003354076634976</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" si="0"/>
-        <v>11.695044151275289</v>
+        <v>10.884437642919966</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" si="0"/>
-        <v>11.563835359601583</v>
+        <v>10.753812606806308</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" si="0"/>
-        <v>11.549150245098041</v>
+        <v>10.735937254901961</v>
       </c>
       <c r="M14" s="73">
         <f t="shared" si="0"/>
-        <v>11.392938728323699</v>
+        <v>10.583494762655457</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B15" s="74">
         <f>B14/Inputs!$B$12</f>
-        <v>0.44054562737642583</v>
+        <v>0.42345880861850443</v>
       </c>
       <c r="C15" s="74">
         <f>C14/Inputs!$B$12</f>
-        <v>0.3519361413043478</v>
+        <v>0.33262001811594205</v>
       </c>
       <c r="D15" s="74">
         <f>D14/Inputs!$B$12</f>
-        <v>0.33315348468848993</v>
+        <v>0.3132834917282647</v>
       </c>
       <c r="E15" s="74">
         <f>E14/Inputs!$B$12</f>
-        <v>0.32170309065934066</v>
+        <v>0.30162169184981691</v>
       </c>
       <c r="F15" s="74">
         <f>F14/Inputs!$B$12</f>
-        <v>0.31321510791366902</v>
+        <v>0.29301163069544367</v>
       </c>
       <c r="G15" s="74">
         <f>G14/Inputs!$B$12</f>
-        <v>0.30934651324965134</v>
+        <v>0.28887548814504882</v>
       </c>
       <c r="H15" s="74">
         <f>H14/Inputs!$B$12</f>
-        <v>0.29988457792207796</v>
+        <v>0.27961213474025981</v>
       </c>
       <c r="I15" s="74">
         <f>I14/Inputs!$B$12</f>
-        <v>0.29534897363872087</v>
+        <v>0.27508385191587437</v>
       </c>
       <c r="J15" s="74">
         <f>J14/Inputs!$B$12</f>
-        <v>0.29237610378188222</v>
+        <v>0.27211094107299916</v>
       </c>
       <c r="K15" s="74">
         <f>K14/Inputs!$B$12</f>
-        <v>0.2890958839900396</v>
+        <v>0.26884531517015769</v>
       </c>
       <c r="L15" s="74">
         <f>L14/Inputs!$B$12</f>
-        <v>0.28872875612745103</v>
+        <v>0.26839843137254904</v>
       </c>
       <c r="M15" s="74">
         <f>M14/Inputs!$B$12</f>
-        <v>0.28482346820809246</v>
+        <v>0.26458736906638641</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -7302,12 +7432,12 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" s="70">
         <f>Costs!B8</f>
@@ -7360,7 +7490,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" s="70">
         <f>Costs!B9</f>
@@ -7413,7 +7543,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B20" s="73">
         <f t="shared" ref="B20:M20" si="1">IF(B5&gt;0,SUM(B18:B19)/B5,0)</f>
@@ -7466,7 +7596,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B21" s="74">
         <f>B20/Inputs!$B$12</f>
@@ -7537,7 +7667,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7552,7 +7682,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="142" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
@@ -7568,7 +7698,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -7594,40 +7724,40 @@
         <v>98</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J5" s="86" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K5" s="86" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M5" s="86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O5" s="84"/>
       <c r="P5" s="84"/>
@@ -7637,11 +7767,11 @@
     </row>
     <row r="6" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B6" s="99">
         <f t="shared" ref="B6:M6" si="0">AVERAGE(B19,B27,B35)</f>
-        <v>19.188023084539555</v>
+        <v>19.188023084539552</v>
       </c>
       <c r="C6" s="99">
         <f t="shared" si="0"/>
@@ -7649,7 +7779,7 @@
       </c>
       <c r="D6" s="99">
         <f t="shared" si="0"/>
-        <v>13.996546986116565</v>
+        <v>13.99654698611657</v>
       </c>
       <c r="E6" s="99">
         <f t="shared" si="0"/>
@@ -7661,23 +7791,23 @@
       </c>
       <c r="G6" s="99">
         <f t="shared" si="0"/>
-        <v>12.647815495762217</v>
+        <v>12.647815495762211</v>
       </c>
       <c r="H6" s="99">
         <f t="shared" si="0"/>
-        <v>12.200160335554736</v>
+        <v>12.200160335554742</v>
       </c>
       <c r="I6" s="99">
         <f t="shared" si="0"/>
-        <v>12.036460001629168</v>
+        <v>12.036460001629171</v>
       </c>
       <c r="J6" s="99">
         <f t="shared" si="0"/>
-        <v>11.932537594273597</v>
+        <v>11.932537594273599</v>
       </c>
       <c r="K6" s="99">
         <f t="shared" si="0"/>
-        <v>11.746409866496117</v>
+        <v>11.746409866496116</v>
       </c>
       <c r="L6" s="99">
         <f t="shared" si="0"/>
@@ -7696,11 +7826,11 @@
     </row>
     <row r="7" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B7" s="95">
         <f>B6/Inputs!$B$12</f>
-        <v>0.4797005771134889</v>
+        <v>0.47970057711348879</v>
       </c>
       <c r="C7" s="95">
         <f>C6/Inputs!$B$12</f>
@@ -7708,7 +7838,7 @@
       </c>
       <c r="D7" s="95">
         <f>D6/Inputs!$B$12</f>
-        <v>0.34991367465291412</v>
+        <v>0.34991367465291423</v>
       </c>
       <c r="E7" s="95">
         <f>E6/Inputs!$B$12</f>
@@ -7720,23 +7850,23 @@
       </c>
       <c r="G7" s="95">
         <f>G6/Inputs!$B$12</f>
-        <v>0.31619538739405539</v>
+        <v>0.31619538739405528</v>
       </c>
       <c r="H7" s="95">
         <f>H6/Inputs!$B$12</f>
-        <v>0.30500400838886843</v>
+        <v>0.30500400838886854</v>
       </c>
       <c r="I7" s="95">
         <f>I6/Inputs!$B$12</f>
-        <v>0.3009115000407292</v>
+        <v>0.30091150004072931</v>
       </c>
       <c r="J7" s="95">
         <f>J6/Inputs!$B$12</f>
-        <v>0.29831343985683995</v>
+        <v>0.29831343985684</v>
       </c>
       <c r="K7" s="95">
         <f>K6/Inputs!$B$12</f>
-        <v>0.29366024666240292</v>
+        <v>0.29366024666240287</v>
       </c>
       <c r="L7" s="95">
         <f>L6/Inputs!$B$12</f>
@@ -7755,15 +7885,15 @@
     </row>
     <row r="8" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B8" s="99">
         <f t="shared" ref="B8:M8" si="1">AVERAGE(B21,B29,B37)</f>
-        <v>3.0213110076686536</v>
+        <v>3.0213110076686527</v>
       </c>
       <c r="C8" s="99">
         <f t="shared" si="1"/>
-        <v>1.7011630377944673</v>
+        <v>1.7011630377944675</v>
       </c>
       <c r="D8" s="99">
         <f t="shared" si="1"/>
@@ -7775,31 +7905,31 @@
       </c>
       <c r="F8" s="99">
         <f t="shared" si="1"/>
-        <v>1.2666961818300462</v>
+        <v>1.2666961818300464</v>
       </c>
       <c r="G8" s="99">
         <f t="shared" si="1"/>
-        <v>1.2330540700987074</v>
+        <v>1.2330540700987072</v>
       </c>
       <c r="H8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1603828546847474</v>
+        <v>1.1603828546847477</v>
       </c>
       <c r="I8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1298003100353975</v>
+        <v>1.1298003100353979</v>
       </c>
       <c r="J8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1131934483359249</v>
+        <v>1.1131934483359247</v>
       </c>
       <c r="K8" s="99">
         <f t="shared" si="1"/>
-        <v>1.0855523943372372</v>
+        <v>1.0855523943372374</v>
       </c>
       <c r="L8" s="99">
         <f t="shared" si="1"/>
-        <v>1.0730168017112436</v>
+        <v>1.0730168017112438</v>
       </c>
       <c r="M8" s="99">
         <f t="shared" si="1"/>
@@ -7814,15 +7944,15 @@
     </row>
     <row r="9" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B9" s="95">
         <f>B8/Inputs!$B$12</f>
-        <v>7.5532775191716334E-2</v>
+        <v>7.553277519171632E-2</v>
       </c>
       <c r="C9" s="95">
         <f>C8/Inputs!$B$12</f>
-        <v>4.2529075944861681E-2</v>
+        <v>4.2529075944861688E-2</v>
       </c>
       <c r="D9" s="95">
         <f>D8/Inputs!$B$12</f>
@@ -7834,31 +7964,31 @@
       </c>
       <c r="F9" s="95">
         <f>F8/Inputs!$B$12</f>
-        <v>3.1667404545751156E-2</v>
+        <v>3.1667404545751163E-2</v>
       </c>
       <c r="G9" s="95">
         <f>G8/Inputs!$B$12</f>
-        <v>3.0826351752467684E-2</v>
+        <v>3.082635175246768E-2</v>
       </c>
       <c r="H9" s="95">
         <f>H8/Inputs!$B$12</f>
-        <v>2.9009571367118688E-2</v>
+        <v>2.9009571367118691E-2</v>
       </c>
       <c r="I9" s="95">
         <f>I8/Inputs!$B$12</f>
-        <v>2.8245007750884937E-2</v>
+        <v>2.8245007750884947E-2</v>
       </c>
       <c r="J9" s="95">
         <f>J8/Inputs!$B$12</f>
-        <v>2.7829836208398122E-2</v>
+        <v>2.7829836208398118E-2</v>
       </c>
       <c r="K9" s="95">
         <f>K8/Inputs!$B$12</f>
-        <v>2.713880985843093E-2</v>
+        <v>2.7138809858430934E-2</v>
       </c>
       <c r="L9" s="95">
         <f>L8/Inputs!$B$12</f>
-        <v>2.682542004278109E-2</v>
+        <v>2.6825420042781094E-2</v>
       </c>
       <c r="M9" s="95">
         <f>M8/Inputs!$B$12</f>
@@ -7894,7 +8024,7 @@
     </row>
     <row r="11" spans="1:20" s="88" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B11" s="100">
         <f>AVERAGE(B6:M6)</f>
@@ -7920,11 +8050,11 @@
     </row>
     <row r="12" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B12" s="101">
         <f>AVERAGE(B7:M7)</f>
-        <v>0.32870701172324529</v>
+        <v>0.32870701172324535</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
@@ -7946,7 +8076,7 @@
     </row>
     <row r="13" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B13" s="100">
         <f>AVERAGE(B8:M8)</f>
@@ -7972,7 +8102,7 @@
     </row>
     <row r="14" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B14" s="101">
         <f>AVERAGE(B9:M9)</f>
@@ -8040,7 +8170,7 @@
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -8066,43 +8196,43 @@
         <v>98</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F18" s="86" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H18" s="86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I18" s="86" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J18" s="86" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K18" s="86" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L18" s="86" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M18" s="86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N18" s="90" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O18" s="84"/>
       <c r="P18" s="84"/>
@@ -8112,25 +8242,25 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B19" s="94">
-        <v>24.624198473282444</v>
+        <v>24.624198473282441</v>
       </c>
       <c r="C19" s="94">
         <v>16.530352422907491</v>
       </c>
       <c r="D19" s="94">
-        <v>15.974012853470436</v>
+        <v>15.974012853470439</v>
       </c>
       <c r="E19" s="94">
-        <v>15.090431472081217</v>
+        <v>15.090431472081219</v>
       </c>
       <c r="F19" s="94">
-        <v>13.714533163265305</v>
+        <v>13.714533163265299</v>
       </c>
       <c r="G19" s="94">
-        <v>13.801012264150943</v>
+        <v>13.801012264150939</v>
       </c>
       <c r="H19" s="94">
         <v>12.950509848484851</v>
@@ -8139,19 +8269,19 @@
         <v>12.8020159803319</v>
       </c>
       <c r="J19" s="94">
-        <v>12.693042253521126</v>
+        <v>12.69304225352113</v>
       </c>
       <c r="K19" s="94">
-        <v>12.375528862478777</v>
+        <v>12.375528862478779</v>
       </c>
       <c r="L19" s="94">
-        <v>12.161194323144105</v>
+        <v>12.161194323144111</v>
       </c>
       <c r="M19" s="94">
-        <v>12.070427852876454</v>
+        <v>12.070427852876451</v>
       </c>
       <c r="N19" s="96">
-        <v>10.656411890390471</v>
+        <v>10.656411890390469</v>
       </c>
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
@@ -8161,37 +8291,37 @@
     </row>
     <row r="20" spans="1:19" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B20" s="95">
         <v>0.61560496183206115</v>
       </c>
       <c r="C20" s="95">
-        <v>0.41325881057268726</v>
+        <v>0.41325881057268732</v>
       </c>
       <c r="D20" s="95">
         <v>0.39935032133676091</v>
       </c>
       <c r="E20" s="95">
-        <v>0.37726078680203046</v>
+        <v>0.37726078680203051</v>
       </c>
       <c r="F20" s="95">
-        <v>0.34286332908163264</v>
+        <v>0.34286332908163258</v>
       </c>
       <c r="G20" s="95">
-        <v>0.34502530660377356</v>
+        <v>0.34502530660377362</v>
       </c>
       <c r="H20" s="95">
-        <v>0.32376274621212126</v>
+        <v>0.32376274621212131</v>
       </c>
       <c r="I20" s="95">
         <v>0.3200503995082975</v>
       </c>
       <c r="J20" s="95">
-        <v>0.31732605633802813</v>
+        <v>0.31732605633802807</v>
       </c>
       <c r="K20" s="95">
-        <v>0.30938822156196943</v>
+        <v>0.30938822156196938</v>
       </c>
       <c r="L20" s="95">
         <v>0.30402985807860261</v>
@@ -8210,28 +8340,28 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B21" s="94">
-        <v>3.0277099236641223</v>
+        <v>3.0277099236641218</v>
       </c>
       <c r="C21" s="94">
-        <v>1.4944845814977976</v>
+        <v>1.4944845814977981</v>
       </c>
       <c r="D21" s="94">
-        <v>1.3905655526992289</v>
+        <v>1.3905655526992291</v>
       </c>
       <c r="E21" s="94">
-        <v>1.2684128595600679</v>
+        <v>1.2684128595600681</v>
       </c>
       <c r="F21" s="94">
         <v>1.083311224489796</v>
       </c>
       <c r="G21" s="94">
-        <v>1.1047056603773588</v>
+        <v>1.1047056603773591</v>
       </c>
       <c r="H21" s="94">
-        <v>1.0024575757575758</v>
+        <v>1.002457575757576</v>
       </c>
       <c r="I21" s="94">
         <v>0.98915058389674249</v>
@@ -8260,7 +8390,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B22" s="95">
         <v>7.5692748091603063E-2</v>
@@ -8278,29 +8408,29 @@
         <v>2.7082780612244901E-2</v>
       </c>
       <c r="G22" s="95">
-        <v>2.7617641509433973E-2</v>
+        <v>2.7617641509433969E-2</v>
       </c>
       <c r="H22" s="95">
-        <v>2.5061439393939393E-2</v>
+        <v>2.5061439393939389E-2</v>
       </c>
       <c r="I22" s="95">
-        <v>2.4728764597418563E-2</v>
+        <v>2.4728764597418559E-2</v>
       </c>
       <c r="J22" s="95">
         <v>2.4667957746478879E-2</v>
       </c>
       <c r="K22" s="95">
-        <v>2.3887224108658744E-2</v>
+        <v>2.388722410865874E-2</v>
       </c>
       <c r="L22" s="95">
-        <v>2.3360735080058228E-2</v>
+        <v>2.3360735080058231E-2</v>
       </c>
       <c r="M22" s="95">
-        <v>2.3239798805407105E-2</v>
+        <v>2.3239798805407101E-2</v>
       </c>
       <c r="N22" s="98">
         <f>AVERAGE(B22:M22)</f>
-        <v>3.1597972065764181E-2</v>
+        <v>3.1597972065764188E-2</v>
       </c>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
@@ -8310,7 +8440,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="91" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="84"/>
@@ -8354,7 +8484,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B25" s="84"/>
       <c r="C25" s="84"/>
@@ -8380,43 +8510,43 @@
         <v>98</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C26" s="86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E26" s="86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F26" s="86" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H26" s="86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I26" s="86" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J26" s="86" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K26" s="86" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L26" s="86" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M26" s="86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N26" s="90" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O26" s="84"/>
       <c r="P26" s="84"/>
@@ -8426,37 +8556,37 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B27" s="94">
-        <v>17.621825095057034</v>
+        <v>17.62182509505703</v>
       </c>
       <c r="C27" s="94">
-        <v>14.077445652173912</v>
+        <v>14.07744565217391</v>
       </c>
       <c r="D27" s="94">
-        <v>13.326139387539598</v>
+        <v>13.3261393875396</v>
       </c>
       <c r="E27" s="94">
-        <v>12.868123626373627</v>
+        <v>12.868123626373629</v>
       </c>
       <c r="F27" s="94">
-        <v>12.528604316546762</v>
+        <v>12.52860431654676</v>
       </c>
       <c r="G27" s="94">
-        <v>12.373860529986054</v>
+        <v>12.37386052998605</v>
       </c>
       <c r="H27" s="94">
-        <v>11.995383116883119</v>
+        <v>11.99538311688312</v>
       </c>
       <c r="I27" s="94">
-        <v>11.813958945548835</v>
+        <v>11.813958945548841</v>
       </c>
       <c r="J27" s="94">
-        <v>11.695044151275289</v>
+        <v>11.69504415127529</v>
       </c>
       <c r="K27" s="94">
-        <v>11.563835359601583</v>
+        <v>11.56383535960158</v>
       </c>
       <c r="L27" s="94">
         <v>11.549150245098041</v>
@@ -8476,31 +8606,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B28" s="95">
-        <v>0.44054562737642583</v>
+        <v>0.44054562737642577</v>
       </c>
       <c r="C28" s="95">
         <v>0.3519361413043478</v>
       </c>
       <c r="D28" s="95">
-        <v>0.33315348468848993</v>
+        <v>0.33315348468848988</v>
       </c>
       <c r="E28" s="95">
-        <v>0.32170309065934066</v>
+        <v>0.32170309065934072</v>
       </c>
       <c r="F28" s="95">
         <v>0.31321510791366902</v>
       </c>
       <c r="G28" s="95">
-        <v>0.30934651324965134</v>
+        <v>0.30934651324965129</v>
       </c>
       <c r="H28" s="95">
-        <v>0.29988457792207796</v>
+        <v>0.29988457792207801</v>
       </c>
       <c r="I28" s="95">
-        <v>0.29534897363872087</v>
+        <v>0.29534897363872092</v>
       </c>
       <c r="J28" s="95">
         <v>0.29237610378188222</v>
@@ -8512,7 +8642,7 @@
         <v>0.28872875612745103</v>
       </c>
       <c r="M28" s="95">
-        <v>0.28482346820809246</v>
+        <v>0.28482346820809251</v>
       </c>
       <c r="N28" s="98">
         <f>AVERAGE(B28:M28)</f>
@@ -8526,22 +8656,22 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B29" s="94">
-        <v>3.0161977186311786</v>
+        <v>3.016197718631179</v>
       </c>
       <c r="C29" s="94">
-        <v>1.7276811594202899</v>
+        <v>1.7276811594202901</v>
       </c>
       <c r="D29" s="94">
-        <v>1.5018500527983103</v>
+        <v>1.5018500527983101</v>
       </c>
       <c r="E29" s="94">
-        <v>1.3762142857142858</v>
+        <v>1.3762142857142861</v>
       </c>
       <c r="F29" s="94">
-        <v>1.2963836930455637</v>
+        <v>1.2963836930455639</v>
       </c>
       <c r="G29" s="94">
         <v>1.2586973500697349</v>
@@ -8550,19 +8680,19 @@
         <v>1.183112554112554</v>
       </c>
       <c r="I29" s="94">
-        <v>1.1453483146067416</v>
+        <v>1.145348314606742</v>
       </c>
       <c r="J29" s="94">
-        <v>1.1243159190853123</v>
+        <v>1.124315919085312</v>
       </c>
       <c r="K29" s="94">
         <v>1.0990760216786291</v>
       </c>
       <c r="L29" s="94">
-        <v>1.1000421568627452</v>
+        <v>1.100042156862745</v>
       </c>
       <c r="M29" s="94">
-        <v>1.0697299001576457</v>
+        <v>1.0697299001576459</v>
       </c>
       <c r="N29" s="96">
         <f>AVERAGE(B29:M29)</f>
@@ -8576,13 +8706,13 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B30" s="95">
         <v>7.5404942965779459E-2</v>
       </c>
       <c r="C30" s="95">
-        <v>4.3192028985507246E-2</v>
+        <v>4.3192028985507253E-2</v>
       </c>
       <c r="D30" s="95">
         <v>3.7546251319957757E-2</v>
@@ -8603,16 +8733,16 @@
         <v>2.8633707865168539E-2</v>
       </c>
       <c r="J30" s="95">
-        <v>2.8107897977132805E-2</v>
+        <v>2.8107897977132801E-2</v>
       </c>
       <c r="K30" s="95">
-        <v>2.7476900541965728E-2</v>
+        <v>2.7476900541965731E-2</v>
       </c>
       <c r="L30" s="95">
         <v>2.7501053921568631E-2</v>
       </c>
       <c r="M30" s="95">
-        <v>2.6743247503941144E-2</v>
+        <v>2.674324750394114E-2</v>
       </c>
       <c r="N30" s="98">
         <f>AVERAGE(B30:M30)</f>
@@ -8626,7 +8756,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="84"/>
@@ -8669,7 +8799,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="85" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
@@ -8695,43 +8825,43 @@
         <v>98</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E34" s="86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F34" s="86" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G34" s="86" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H34" s="86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I34" s="86" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J34" s="86" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K34" s="86" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L34" s="86" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M34" s="86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N34" s="90" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
@@ -8741,43 +8871,43 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="87" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B35" s="94">
         <v>15.31804568527919</v>
       </c>
       <c r="C35" s="94">
-        <v>13.404943436499467</v>
+        <v>13.404943436499471</v>
       </c>
       <c r="D35" s="94">
-        <v>12.689488717339666</v>
+        <v>12.689488717339669</v>
       </c>
       <c r="E35" s="94">
-        <v>12.245844553706505</v>
+        <v>12.245844553706499</v>
       </c>
       <c r="F35" s="94">
-        <v>12.064255138746146</v>
+        <v>12.06425513874615</v>
       </c>
       <c r="G35" s="94">
-        <v>11.768573693149651</v>
+        <v>11.76857369314965</v>
       </c>
       <c r="H35" s="94">
-        <v>11.654588041296245</v>
+        <v>11.65458804129625</v>
       </c>
       <c r="I35" s="94">
-        <v>11.493405079006772</v>
+        <v>11.49340507900677</v>
       </c>
       <c r="J35" s="94">
-        <v>11.409526378024378</v>
+        <v>11.409526378024379</v>
       </c>
       <c r="K35" s="94">
-        <v>11.299865377407992</v>
+        <v>11.29986537740799</v>
       </c>
       <c r="L35" s="94">
         <v>11.24181008213681</v>
       </c>
       <c r="M35" s="94">
-        <v>11.154181774477859</v>
+        <v>11.154181774477861</v>
       </c>
       <c r="N35" s="96">
         <f>AVERAGE(B35:M35)</f>
@@ -8791,7 +8921,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="87" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B36" s="95">
         <v>0.38295114213197973</v>
@@ -8800,7 +8930,7 @@
         <v>0.3351235859124867</v>
       </c>
       <c r="D36" s="95">
-        <v>0.31723721793349163</v>
+        <v>0.31723721793349158</v>
       </c>
       <c r="E36" s="95">
         <v>0.3061461138426626</v>
@@ -8812,26 +8942,26 @@
         <v>0.29421434232874127</v>
       </c>
       <c r="H36" s="95">
-        <v>0.29136470103240614</v>
+        <v>0.29136470103240608</v>
       </c>
       <c r="I36" s="95">
         <v>0.28733512697516927</v>
       </c>
       <c r="J36" s="95">
-        <v>0.28523815945060943</v>
+        <v>0.28523815945060937</v>
       </c>
       <c r="K36" s="95">
         <v>0.28249663443519979</v>
       </c>
       <c r="L36" s="95">
-        <v>0.28104525205342024</v>
+        <v>0.28104525205342018</v>
       </c>
       <c r="M36" s="95">
-        <v>0.27885454436194645</v>
+        <v>0.27885454436194651</v>
       </c>
       <c r="N36" s="98">
         <f>AVERAGE(B36:M36)</f>
-        <v>0.30363443324389727</v>
+        <v>0.30363443324389722</v>
       </c>
       <c r="O36" s="84"/>
       <c r="P36" s="84"/>
@@ -8841,16 +8971,16 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B37" s="94">
-        <v>3.0200253807106594</v>
+        <v>3.020025380710659</v>
       </c>
       <c r="C37" s="94">
-        <v>1.8813233724653151</v>
+        <v>1.8813233724653149</v>
       </c>
       <c r="D37" s="94">
-        <v>1.6342482185273162</v>
+        <v>1.6342482185273159</v>
       </c>
       <c r="E37" s="94">
         <v>1.49132223903177</v>
@@ -8859,29 +8989,29 @@
         <v>1.4203936279547791</v>
       </c>
       <c r="G37" s="94">
-        <v>1.3357591998490281</v>
+        <v>1.3357591998490279</v>
       </c>
       <c r="H37" s="94">
-        <v>1.2955784341841126</v>
+        <v>1.295578434184113</v>
       </c>
       <c r="I37" s="94">
-        <v>1.2549020316027089</v>
+        <v>1.2549020316027091</v>
       </c>
       <c r="J37" s="94">
         <v>1.2285461160633071</v>
       </c>
       <c r="K37" s="94">
-        <v>1.2020921969867326</v>
+        <v>1.2020921969867331</v>
       </c>
       <c r="L37" s="94">
-        <v>1.1845788450686565</v>
+        <v>1.184578845068657</v>
       </c>
       <c r="M37" s="94">
-        <v>1.1624712355109235</v>
+        <v>1.162471235510923</v>
       </c>
       <c r="N37" s="96">
         <f>AVERAGE(B37:M37)</f>
-        <v>1.5092700748296093</v>
+        <v>1.5092700748296091</v>
       </c>
       <c r="O37" s="84"/>
       <c r="P37" s="84"/>
@@ -8891,19 +9021,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B38" s="95">
         <v>7.5500634517766479E-2</v>
       </c>
       <c r="C38" s="95">
-        <v>4.7033084311632875E-2</v>
+        <v>4.7033084311632882E-2</v>
       </c>
       <c r="D38" s="95">
         <v>4.0856205463182901E-2</v>
       </c>
       <c r="E38" s="95">
-        <v>3.7283055975794246E-2</v>
+        <v>3.7283055975794253E-2</v>
       </c>
       <c r="F38" s="95">
         <v>3.5509840698869477E-2</v>
@@ -8912,22 +9042,22 @@
         <v>3.3393979996225703E-2</v>
       </c>
       <c r="H38" s="95">
-        <v>3.2389460854602814E-2</v>
+        <v>3.2389460854602807E-2</v>
       </c>
       <c r="I38" s="95">
         <v>3.1372550790067719E-2</v>
       </c>
       <c r="J38" s="95">
-        <v>3.0713652901582678E-2</v>
+        <v>3.0713652901582681E-2</v>
       </c>
       <c r="K38" s="95">
-        <v>3.0052304924668316E-2</v>
+        <v>3.005230492466832E-2</v>
       </c>
       <c r="L38" s="95">
         <v>2.9614471126716412E-2</v>
       </c>
       <c r="M38" s="95">
-        <v>2.9061780887773087E-2</v>
+        <v>2.906178088777309E-2</v>
       </c>
       <c r="N38" s="98">
         <f>AVERAGE(B38:M38)</f>
@@ -8941,7 +9071,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="84"/>
@@ -9730,8 +9860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9743,43 +9873,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G5" s="137" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H5" s="137" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I5" s="137" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9858,21 +9988,21 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9933,7 +10063,7 @@
     </row>
     <row r="17" spans="1:41" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B17" s="104">
         <f>SUM(B13:B16)</f>
@@ -9950,7 +10080,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O19">
         <f>62*40</f>
@@ -9959,16 +10089,16 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D20" s="122" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -10041,7 +10171,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B25" s="104">
         <f>SUM(B21:B24)</f>
@@ -10058,137 +10188,137 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="135" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="89" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O28" s="136" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AC28" s="136" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B29" s="122" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C29" s="122" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D29" s="122" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F29" s="122" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G29" s="122" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I29" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" s="122" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="J29" s="122" t="s">
+      <c r="Q29" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="122" t="s">
+      <c r="R29" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="L29" s="122" t="s">
+      <c r="S29" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="122" t="s">
+      <c r="T29" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="P29" s="122" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="122" t="s">
-        <v>150</v>
-      </c>
-      <c r="R29" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="S29" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="T29" s="122" t="s">
-        <v>153</v>
-      </c>
       <c r="U29" s="122" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="V29" s="122" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="W29" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="X29" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y29" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z29" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA29" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC29" s="122" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD29" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="X29" s="122" t="s">
+      <c r="AE29" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="Y29" s="122" t="s">
+      <c r="AF29" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="Z29" s="122" t="s">
+      <c r="AG29" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="AA29" s="122" t="s">
+      <c r="AH29" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="AC29" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD29" s="122" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE29" s="122" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF29" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG29" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH29" s="122" t="s">
-        <v>153</v>
-      </c>
       <c r="AI29" s="122" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AJ29" s="122" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AK29" s="122" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AL29" s="122" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AM29" s="122" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AN29" s="122" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AO29" s="122" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -10813,7 +10943,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B34" s="130">
         <f t="shared" ref="B34:M34" si="0">SUM(B30:B33)</f>
@@ -10864,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="129" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P34" s="130">
         <f t="shared" ref="P34:AA34" si="1">SUM(P30:P33)</f>
@@ -10915,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="129" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AD34" s="130">
         <f t="shared" ref="AD34:AO34" si="2">SUM(AD30:AD33)</f>
@@ -10968,24 +11098,24 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="121" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B37" s="122" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="122" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -11013,7 +11143,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="131" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="134">
         <v>50</v>
@@ -11030,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="134">
         <v>100</v>
@@ -11047,7 +11177,7 @@
         <v>100</v>
       </c>
       <c r="C41" s="131" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="134">
         <v>200</v>
@@ -11058,21 +11188,21 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="121" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="122" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B44" s="122" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C44" s="122" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D44" s="122" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E010FC-93A4-4871-B2C7-6347FA9F9382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67705AE4-96C0-4E11-BCF3-F2E47583A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="213">
   <si>
     <t>LOYALTY PROGRAM FINANCIAL MODEL - INPUTS DASHBOARD</t>
   </si>
@@ -666,6 +666,24 @@
   </si>
   <si>
     <t>CALCULATION:</t>
+  </si>
+  <si>
+    <t>FLASH SALE</t>
+  </si>
+  <si>
+    <t>Avg 12M Net Revenue</t>
+  </si>
+  <si>
+    <t>Flash Sales per month</t>
+  </si>
+  <si>
+    <t>Flash Sale Discount</t>
+  </si>
+  <si>
+    <t>12M Loyalty Cost</t>
+  </si>
+  <si>
+    <t>Avg 12M Program Cost</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,6 +1617,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1609,6 +1628,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="24" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2100,7 @@
         <v>0.45909090909090911</v>
       </c>
       <c r="Q6" s="18">
-        <v>0.40454545454545449</v>
+        <v>0.40454545454545454</v>
       </c>
       <c r="R6" s="18">
         <v>0.35</v>
@@ -2094,31 +2129,31 @@
         <v>8.9090909090909096E-2</v>
       </c>
       <c r="I7" s="18">
-        <v>0.1281818181818182</v>
+        <v>0.12818181818181817</v>
       </c>
       <c r="J7" s="18">
         <v>0.1672727272727273</v>
       </c>
       <c r="K7" s="18">
-        <v>0.20636363636363639</v>
+        <v>0.20636363636363636</v>
       </c>
       <c r="L7" s="18">
-        <v>0.2454545454545454</v>
+        <v>0.24545454545454543</v>
       </c>
       <c r="M7" s="18">
-        <v>0.28454545454545449</v>
+        <v>0.28454545454545455</v>
       </c>
       <c r="N7" s="18">
         <v>0.32363636363636361</v>
       </c>
       <c r="O7" s="18">
-        <v>0.36272727272727268</v>
+        <v>0.36272727272727273</v>
       </c>
       <c r="P7" s="18">
         <v>0.4018181818181818</v>
       </c>
       <c r="Q7" s="18">
-        <v>0.44090909090909092</v>
+        <v>0.44090909090909086</v>
       </c>
       <c r="R7" s="18">
         <v>0.48</v>
@@ -2135,7 +2170,7 @@
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="I8" s="18">
-        <v>1.8181818181818181E-2</v>
+        <v>1.8181818181818184E-2</v>
       </c>
       <c r="J8" s="18">
         <v>2.7272727272727278E-2</v>
@@ -2144,7 +2179,7 @@
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="L8" s="18">
-        <v>4.5454545454545463E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M8" s="18">
         <v>5.4545454545454557E-2</v>
@@ -2179,19 +2214,19 @@
         <v>6.3636363636363638E-3</v>
       </c>
       <c r="I9" s="18">
-        <v>1.2727272727272729E-2</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="J9" s="18">
-        <v>1.9090909090909089E-2</v>
+        <v>1.9090909090909092E-2</v>
       </c>
       <c r="K9" s="18">
-        <v>2.5454545454545459E-2</v>
+        <v>2.5454545454545455E-2</v>
       </c>
       <c r="L9" s="18">
         <v>3.1818181818181822E-2</v>
       </c>
       <c r="M9" s="18">
-        <v>3.8181818181818178E-2</v>
+        <v>3.8181818181818185E-2</v>
       </c>
       <c r="N9" s="18">
         <v>4.4545454545454548E-2</v>
@@ -2215,40 +2250,40 @@
         <v>34</v>
       </c>
       <c r="G10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
-        <v>0.99999999999999989</v>
+        <v>0</v>
       </c>
       <c r="M10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="18">
-        <v>0.99999999999999989</v>
+        <v>0</v>
       </c>
       <c r="O10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="18">
-        <v>0.99999999999999989</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="18">
-        <v>0.99999999999999978</v>
+        <v>0</v>
       </c>
       <c r="R10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,51 +2304,51 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:R11" si="0">SUM(G6:G10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="R11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2486,7 @@
       </c>
       <c r="Q16" s="61">
         <f>$Q$15*Q6</f>
-        <v>360.0454545454545</v>
+        <v>360.04545454545456</v>
       </c>
       <c r="R16" s="61">
         <f>$R$15*R6</f>
@@ -2472,7 +2507,7 @@
       </c>
       <c r="I17" s="61">
         <f>$I$15*I7</f>
-        <v>32.045454545454554</v>
+        <v>32.045454545454547</v>
       </c>
       <c r="J17" s="61">
         <f>$J$15*J7</f>
@@ -2480,15 +2515,15 @@
       </c>
       <c r="K17" s="61">
         <f>$K$15*K7</f>
-        <v>84.609090909090924</v>
+        <v>84.609090909090909</v>
       </c>
       <c r="L17" s="61">
         <f>$L$15*L7</f>
-        <v>120.27272727272724</v>
+        <v>120.27272727272725</v>
       </c>
       <c r="M17" s="61">
         <f>$M$15*M7</f>
-        <v>162.19090909090906</v>
+        <v>162.19090909090909</v>
       </c>
       <c r="N17" s="61">
         <f>$N$15*N7</f>
@@ -2496,7 +2531,7 @@
       </c>
       <c r="O17" s="61">
         <f>$O$15*O7</f>
-        <v>264.79090909090905</v>
+        <v>264.79090909090911</v>
       </c>
       <c r="P17" s="61">
         <f>$P$15*P7</f>
@@ -2504,7 +2539,7 @@
       </c>
       <c r="Q17" s="61">
         <f>$Q$15*Q7</f>
-        <v>392.40909090909093</v>
+        <v>392.40909090909088</v>
       </c>
       <c r="R17" s="61">
         <f>$R$15*R7</f>
@@ -2525,7 +2560,7 @@
       </c>
       <c r="I18" s="61">
         <f>$I$15*I8</f>
-        <v>4.545454545454545</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="J18" s="61">
         <f>$J$15*J8</f>
@@ -2537,7 +2572,7 @@
       </c>
       <c r="L18" s="61">
         <f>$L$15*L8</f>
-        <v>22.272727272727277</v>
+        <v>22.272727272727273</v>
       </c>
       <c r="M18" s="61">
         <f>$M$15*M8</f>
@@ -2578,11 +2613,11 @@
       </c>
       <c r="I19" s="61">
         <f>$I$15*I9</f>
-        <v>3.1818181818181825</v>
+        <v>3.1818181818181821</v>
       </c>
       <c r="J19" s="61">
         <f>$J$15*J9</f>
-        <v>6.2999999999999989</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="K19" s="61">
         <f>$K$15*K9</f>
@@ -2594,7 +2629,7 @@
       </c>
       <c r="M19" s="61">
         <f>$M$15*M9</f>
-        <v>21.763636363636362</v>
+        <v>21.763636363636365</v>
       </c>
       <c r="N19" s="61">
         <f>$N$15*N9</f>
@@ -3101,7 +3136,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,13 +3714,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="18" customWidth="1"/>
+    <col min="1" max="8" width="18" customWidth="1"/>
+    <col min="9" max="10" width="18" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -3788,7 +3824,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>89</v>
@@ -3796,8 +3832,12 @@
       <c r="G6" s="39">
         <v>20</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="J6" s="43">
         <f>IF(D6="Weekly",4,1)*IF(F6="Gift Card",G6,IF(F6="Spark Ads",G6,IF(F6="Commission Boost",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H6)*Revenue!$B$7,IF(F6="Discount",G6*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A6,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H6)*Inputs!$B$12,0))))</f>
         <v>20</v>
@@ -3899,7 +3939,7 @@
       </c>
       <c r="J9" s="44">
         <f>IF(D9="Weekly",4,1)*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Revenue!$B$7,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Inputs!$B$12,0))))</f>
-        <v>6.6733333333333338</v>
+        <v>6.5722222222222237</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3998,7 +4038,7 @@
       </c>
       <c r="J12" s="46">
         <f>IF(D12="Weekly",4,1)*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Revenue!$B$7,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Inputs!$B$12,0))))</f>
-        <v>20.02</v>
+        <v>19.716666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4097,7 +4137,7 @@
       </c>
       <c r="J15" s="45">
         <f>IF(D15="Weekly",4,1)*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Revenue!$B$7,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Inputs!$B$12,0))))</f>
-        <v>154.44000000000003</v>
+        <v>152.10000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4288,7 +4328,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4297,7 +4337,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,51 +5055,51 @@
       </c>
       <c r="B17" s="8">
         <f>ROUND(B8*Inputs!G$10,0)</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8">
         <f>ROUND(C8*Inputs!G$10,0)</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
         <f>ROUND(D8*Inputs!G$10,0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E17" s="8">
         <f>ROUND(E8*Inputs!G$10,0)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
         <f>ROUND(F8*Inputs!G$10,0)</f>
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <f>ROUND(G8*Inputs!G$10,0)</f>
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
         <f>ROUND(H8*Inputs!G$10,0)</f>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8">
         <f>ROUND(I8*Inputs!G$10,0)</f>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
         <f>ROUND(J8*Inputs!G$10,0)</f>
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <f>ROUND(K8*Inputs!G$10,0)</f>
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="L17" s="8">
         <f>ROUND(L8*Inputs!G$10,0)</f>
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8">
         <f>ROUND(M8*Inputs!G$10,0)</f>
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5285,51 +5325,51 @@
       </c>
       <c r="B23" s="8">
         <f>B17</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ref="C23:M23" si="8">MAX(0,C17-B17)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5386,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,51 +5619,51 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7:M7" si="1">$B$19</f>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5632,51 +5672,51 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" ref="B8:M8" si="2">B4*B7</f>
-        <v>9643.3333333333321</v>
+        <v>9497.2222222222226</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="2"/>
-        <v>20240</v>
+        <v>19933.333333333336</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="2"/>
-        <v>34723.333333333328</v>
+        <v>34197.222222222226</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="2"/>
-        <v>53386.666666666664</v>
+        <v>52577.777777777781</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>76450</v>
+        <v>75291.666666666672</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>105160</v>
+        <v>103566.66666666667</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>135520</v>
+        <v>133466.66666666669</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>169693.33333333331</v>
+        <v>167122.22222222225</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>208450</v>
+        <v>205291.66666666669</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="2"/>
-        <v>250323.33333333331</v>
+        <v>246530.55555555559</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>299200</v>
+        <v>294666.66666666669</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>348883.33333333331</v>
+        <v>343597.22222222225</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -5701,7 +5741,7 @@
       <c r="A12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="147">
+      <c r="B12" s="148">
         <v>40</v>
       </c>
     </row>
@@ -5709,16 +5749,16 @@
       <c r="A13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="92">
-        <v>0.2</v>
+      <c r="B13" s="147">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="147">
-        <v>7.5</v>
+      <c r="B14" s="148">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5728,33 +5768,33 @@
       <c r="A16" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="146">
+      <c r="B17" s="147">
         <f>B12*B14/720</f>
-        <v>0.41666666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="146">
+      <c r="B18" s="147">
         <f>B17*B13</f>
-        <v>8.3333333333333343E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="147">
+      <c r="B19" s="148">
         <f>Inputs!$B$12*(1-B18)</f>
-        <v>36.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
     </row>
   </sheetData>
@@ -5768,19 +5808,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="139" t="s">
         <v>132</v>
       </c>
@@ -5798,7 +5839,7 @@
       <c r="M1" s="140"/>
       <c r="N1" s="140"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -5839,171 +5880,171 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="10">
         <f>Revenue!B8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$6:G$10)</f>
-        <v>1928.6666666666665</v>
+        <v>1899.4444444444446</v>
       </c>
       <c r="C5" s="10">
         <f>Revenue!C8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$6:H$10)</f>
-        <v>4048</v>
+        <v>3986.6666666666674</v>
       </c>
       <c r="D5" s="10">
         <f>Revenue!D8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$6:I$10)</f>
-        <v>6944.6666666666661</v>
+        <v>6839.4444444444453</v>
       </c>
       <c r="E5" s="10">
         <f>Revenue!E8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$6:J$10)</f>
-        <v>10677.333333333334</v>
+        <v>10515.555555555558</v>
       </c>
       <c r="F5" s="10">
         <f>Revenue!F8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$6:K$10)</f>
-        <v>15290</v>
+        <v>15058.333333333334</v>
       </c>
       <c r="G5" s="10">
         <f>Revenue!G8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$6:L$10)</f>
-        <v>21032</v>
+        <v>20713.333333333339</v>
       </c>
       <c r="H5" s="10">
         <f>Revenue!H8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$6:M$10)</f>
-        <v>27104.000000000004</v>
+        <v>26693.333333333343</v>
       </c>
       <c r="I5" s="10">
         <f>Revenue!I8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!N$6:N$10)</f>
-        <v>33938.666666666664</v>
+        <v>33424.444444444453</v>
       </c>
       <c r="J5" s="10">
         <f>Revenue!J8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!O$6:O$10)</f>
-        <v>41690</v>
+        <v>41058.333333333343</v>
       </c>
       <c r="K5" s="10">
         <f>Revenue!K8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!P$6:P$10)</f>
-        <v>50064.666666666664</v>
+        <v>49306.111111111124</v>
       </c>
       <c r="L5" s="10">
         <f>Revenue!L8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!Q$6:Q$10)</f>
-        <v>59840</v>
+        <v>58933.333333333343</v>
       </c>
       <c r="M5" s="10">
         <f>Revenue!M8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!R$6:R$10)</f>
-        <v>69776.666666666672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68719.444444444453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!B7+'Affiliate Projection'!B20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B7+'Affiliate Projection'!B21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B7+'Affiliate Projection'!B22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B7+'Affiliate Projection'!B23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!B7</f>
-        <v>28.599999999999998</v>
+        <v>28.166666666666671</v>
       </c>
       <c r="C6" s="10">
         <f>'Affiliate Projection'!C19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!C7+'Affiliate Projection'!C20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C7+'Affiliate Projection'!C21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C7+'Affiliate Projection'!C22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C7+'Affiliate Projection'!C23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!C7</f>
-        <v>443.3</v>
+        <v>436.58333333333343</v>
       </c>
       <c r="D6" s="10">
         <f>'Affiliate Projection'!D19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!D7+'Affiliate Projection'!D20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D7+'Affiliate Projection'!D21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D7+'Affiliate Projection'!D22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D7+'Affiliate Projection'!D23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!D7</f>
-        <v>812.24</v>
+        <v>799.93333333333351</v>
       </c>
       <c r="E6" s="10">
         <f>'Affiliate Projection'!E19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!E7+'Affiliate Projection'!E20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E7+'Affiliate Projection'!E21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E7+'Affiliate Projection'!E22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E7+'Affiliate Projection'!E23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!E7</f>
-        <v>1192.6199999999999</v>
+        <v>1174.5500000000002</v>
       </c>
       <c r="F6" s="10">
         <f>'Affiliate Projection'!F19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!F7+'Affiliate Projection'!F20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F7+'Affiliate Projection'!F21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F7+'Affiliate Projection'!F22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F7+'Affiliate Projection'!F23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!F7</f>
-        <v>1613.04</v>
+        <v>1588.6000000000004</v>
       </c>
       <c r="G6" s="10">
         <f>'Affiliate Projection'!G19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!G7+'Affiliate Projection'!G20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G7+'Affiliate Projection'!G21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G7+'Affiliate Projection'!G22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G7+'Affiliate Projection'!G23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!G7</f>
-        <v>2282.2799999999997</v>
+        <v>2247.7000000000003</v>
       </c>
       <c r="H6" s="10">
         <f>'Affiliate Projection'!H19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!H7+'Affiliate Projection'!H20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H7+'Affiliate Projection'!H21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H7+'Affiliate Projection'!H22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H7+'Affiliate Projection'!H23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!H7</f>
-        <v>2402.4</v>
+        <v>2366.0000000000005</v>
       </c>
       <c r="I6" s="10">
         <f>'Affiliate Projection'!I19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!I7+'Affiliate Projection'!I20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I7+'Affiliate Projection'!I21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I7+'Affiliate Projection'!I22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I7+'Affiliate Projection'!I23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!I7</f>
-        <v>2777.06</v>
+        <v>2734.983333333334</v>
       </c>
       <c r="J6" s="10">
         <f>'Affiliate Projection'!J19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!J7+'Affiliate Projection'!J20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J7+'Affiliate Projection'!J21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J7+'Affiliate Projection'!J22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J7+'Affiliate Projection'!J23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!J7</f>
-        <v>3197.48</v>
+        <v>3149.0333333333338</v>
       </c>
       <c r="K6" s="10">
         <f>'Affiliate Projection'!K19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!K7+'Affiliate Projection'!K20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K7+'Affiliate Projection'!K21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K7+'Affiliate Projection'!K22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K7+'Affiliate Projection'!K23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!K7</f>
-        <v>3566.42</v>
+        <v>3512.3833333333341</v>
       </c>
       <c r="L6" s="10">
         <f>'Affiliate Projection'!L19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!L7+'Affiliate Projection'!L20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L7+'Affiliate Projection'!L21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L7+'Affiliate Projection'!L22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L7+'Affiliate Projection'!L23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!L7</f>
-        <v>4287.1399999999994</v>
+        <v>4222.1833333333343</v>
       </c>
       <c r="M6" s="10">
         <f>'Affiliate Projection'!M19*'VIP Levels'!$B$15*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$15/30)*'VIP Levels'!$C$15*Revenue!M7+'Affiliate Projection'!M20*'VIP Levels'!$B$16*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M7+'Affiliate Projection'!M21*'VIP Levels'!$B$17*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M7+'Affiliate Projection'!M22*'VIP Levels'!$B$18*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M7+'Affiliate Projection'!M23*'VIP Levels'!$B$19*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!M7</f>
-        <v>4367.2199999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4301.0500000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="10">
         <f t="array" ref="B7">SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>20.020000000000003</v>
+        <v>19.716666666666672</v>
       </c>
       <c r="C7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>200.20000000000005</v>
+        <v>197.16666666666669</v>
       </c>
       <c r="D7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>522.52200000000005</v>
+        <v>514.60500000000002</v>
       </c>
       <c r="E7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>994.99400000000003</v>
+        <v>979.91833333333329</v>
       </c>
       <c r="F7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1631.63</v>
+        <v>1606.9083333333338</v>
       </c>
       <c r="G7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2518.5160000000005</v>
+        <v>2480.356666666667</v>
       </c>
       <c r="H7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3461.4580000000001</v>
+        <v>3409.0116666666672</v>
       </c>
       <c r="I7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4550.5460000000003</v>
+        <v>4481.5983333333334</v>
       </c>
       <c r="J7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>5803.7980000000007</v>
+        <v>5715.8616666666676</v>
       </c>
       <c r="K7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>7199.192</v>
+        <v>7090.1133333333337</v>
       </c>
       <c r="L7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>8866.8580000000002</v>
+        <v>8732.5116666666672</v>
       </c>
       <c r="M7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>10576.565999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10416.315000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>137</v>
       </c>
@@ -6056,7 +6097,7 @@
         <v>3239.6000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>138</v>
       </c>
@@ -6109,68 +6150,69 @@
         <v>6938.88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:M10" si="0">SUM(B5:B9)</f>
-        <v>2770.5466666666666</v>
+        <v>2740.5877777777782</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>5645.1799999999994</v>
+        <v>5574.0966666666673</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>9701.6806666666671</v>
+        <v>9576.2347777777795</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>14868.715333333335</v>
+        <v>14673.791888888891</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>21237.630000000005</v>
+        <v>20956.801666666666</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>29442.739999999998</v>
+        <v>29051.33400000001</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>37340.642000000007</v>
+        <v>36841.129000000008</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>46566.944666666663</v>
+        <v>45941.698111111124</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>57083.014000000003</v>
+        <v>56314.964333333344</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>68333.670666666658</v>
+        <v>67411.99977777779</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>81970.34199999999</v>
+        <v>80864.372333333347</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>94898.932666666689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93615.289444444468</v>
+      </c>
+      <c r="O10" s="67"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>141</v>
       </c>
@@ -6223,234 +6265,239 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="10">
         <f t="array" ref="B14">SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2227.5</v>
+        <v>1912.5</v>
       </c>
       <c r="C14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1602.75</v>
+        <v>1392.75</v>
       </c>
       <c r="D14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1887.75</v>
+        <v>1662.75</v>
       </c>
       <c r="E14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2251.5</v>
+        <v>2011.5</v>
       </c>
       <c r="F14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2602.5</v>
+        <v>2362.5</v>
       </c>
       <c r="G14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3057</v>
+        <v>2817</v>
       </c>
       <c r="H14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3570</v>
+        <v>3330</v>
       </c>
       <c r="I14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4157.25</v>
+        <v>3917.25</v>
       </c>
       <c r="J14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4836.75</v>
+        <v>4596.75</v>
       </c>
       <c r="K14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>5586</v>
+        <v>5346</v>
       </c>
       <c r="L14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>6461.25</v>
+        <v>6221.25</v>
       </c>
       <c r="M14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>7381.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7141.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" ref="B15:M15" si="1">B13+B14</f>
-        <v>2477.5</v>
+        <v>2162.5</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="1"/>
-        <v>2652.75</v>
+        <v>2442.75</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="1"/>
-        <v>3587.75</v>
+        <v>3362.75</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>4701.5</v>
+        <v>4461.5</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>5902.5</v>
+        <v>5662.5</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>7307</v>
+        <v>7067</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>8370</v>
+        <v>8130</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>9657.25</v>
+        <v>9417.25</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>11186.75</v>
+        <v>10946.75</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="1"/>
-        <v>12586</v>
+        <v>12346</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="1"/>
-        <v>14611.25</v>
+        <v>14371.25</v>
       </c>
       <c r="M15" s="10">
         <f t="shared" si="1"/>
-        <v>15981.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15741.5</v>
+      </c>
+      <c r="O15" s="67"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" ref="B16:M16" si="2">B15</f>
-        <v>2477.5</v>
+        <v>2162.5</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="2"/>
-        <v>2652.75</v>
+        <v>2442.75</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="2"/>
-        <v>3587.75</v>
+        <v>3362.75</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="2"/>
-        <v>4701.5</v>
+        <v>4461.5</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>5902.5</v>
+        <v>5662.5</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>7307</v>
+        <v>7067</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>8370</v>
+        <v>8130</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="2"/>
-        <v>9657.25</v>
+        <f>I15</f>
+        <v>9417.25</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="2"/>
-        <v>11186.75</v>
+        <v>10946.75</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="2"/>
-        <v>12586</v>
+        <v>12346</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
-        <v>14611.25</v>
+        <v>14371.25</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="2"/>
-        <v>15981.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15741.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" ref="B21:M21" si="3">B10+B16</f>
-        <v>5248.0466666666671</v>
+        <v>4903.0877777777787</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>8297.93</v>
+        <v>8016.8466666666673</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>13289.430666666667</v>
+        <v>12938.98477777778</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>19570.215333333334</v>
+        <v>19135.291888888889</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>27140.130000000005</v>
+        <v>26619.301666666666</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>36749.74</v>
+        <v>36118.33400000001</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>45710.642000000007</v>
+        <v>44971.129000000008</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>56224.194666666663</v>
+        <v>55358.948111111124</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>68269.763999999996</v>
+        <v>67261.714333333337</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="3"/>
-        <v>80919.670666666658</v>
+        <v>79757.99977777779</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="3"/>
-        <v>96581.59199999999</v>
+        <v>95235.622333333347</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="3"/>
-        <v>110880.43266666669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109356.78944444447</v>
+      </c>
+      <c r="O21" s="67">
+        <f>SUM(B21:M21)</f>
+        <v>559674.04977777787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>148</v>
       </c>
@@ -6503,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>149</v>
       </c>
@@ -6556,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>150</v>
       </c>
@@ -6609,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>151</v>
       </c>
@@ -6662,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>152</v>
       </c>
@@ -6715,7 +6762,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>153</v>
       </c>
@@ -6768,7 +6815,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
     </row>
   </sheetData>
@@ -6781,10 +6828,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A14:M15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,9 +6839,10 @@
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="141" t="s">
         <v>154</v>
       </c>
@@ -6803,12 +6851,12 @@
       <c r="D1" s="140"/>
       <c r="E1" s="140"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>98</v>
       </c>
@@ -6849,7 +6897,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>168</v>
       </c>
@@ -6902,7 +6950,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>105</v>
       </c>
@@ -6955,231 +7003,235 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="23">
         <f>Revenue!B8</f>
-        <v>9643.3333333333321</v>
+        <v>9497.2222222222226</v>
       </c>
       <c r="C6" s="23">
         <f>Revenue!C8</f>
-        <v>20240</v>
+        <v>19933.333333333336</v>
       </c>
       <c r="D6" s="23">
         <f>Revenue!D8</f>
-        <v>34723.333333333328</v>
+        <v>34197.222222222226</v>
       </c>
       <c r="E6" s="23">
         <f>Revenue!E8</f>
-        <v>53386.666666666664</v>
+        <v>52577.777777777781</v>
       </c>
       <c r="F6" s="23">
         <f>Revenue!F8</f>
-        <v>76450</v>
+        <v>75291.666666666672</v>
       </c>
       <c r="G6" s="23">
         <f>Revenue!G8</f>
-        <v>105160</v>
+        <v>103566.66666666667</v>
       </c>
       <c r="H6" s="23">
         <f>Revenue!H8</f>
-        <v>135520</v>
+        <v>133466.66666666669</v>
       </c>
       <c r="I6" s="23">
         <f>Revenue!I8</f>
-        <v>169693.33333333331</v>
+        <v>167122.22222222225</v>
       </c>
       <c r="J6" s="23">
         <f>Revenue!J8</f>
-        <v>208450</v>
+        <v>205291.66666666669</v>
       </c>
       <c r="K6" s="23">
         <f>Revenue!K8</f>
-        <v>250323.33333333331</v>
+        <v>246530.55555555559</v>
       </c>
       <c r="L6" s="23">
         <f>Revenue!L8</f>
-        <v>299200</v>
+        <v>294666.66666666669</v>
       </c>
       <c r="M6" s="23">
         <f>Revenue!M8</f>
-        <v>348883.33333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+        <v>343597.22222222225</v>
+      </c>
+      <c r="N6" s="67">
+        <f>SUM(B6:M6)</f>
+        <v>1685738.888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="139"/>
       <c r="B7" s="140"/>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="70">
         <f>Costs!B5</f>
-        <v>1928.6666666666665</v>
+        <v>1899.4444444444446</v>
       </c>
       <c r="C9" s="70">
         <f>Costs!C5</f>
-        <v>4048</v>
+        <v>3986.6666666666674</v>
       </c>
       <c r="D9" s="70">
         <f>Costs!D5</f>
-        <v>6944.6666666666661</v>
+        <v>6839.4444444444453</v>
       </c>
       <c r="E9" s="70">
         <f>Costs!E5</f>
-        <v>10677.333333333334</v>
+        <v>10515.555555555558</v>
       </c>
       <c r="F9" s="70">
         <f>Costs!F5</f>
-        <v>15290</v>
+        <v>15058.333333333334</v>
       </c>
       <c r="G9" s="70">
         <f>Costs!G5</f>
-        <v>21032</v>
+        <v>20713.333333333339</v>
       </c>
       <c r="H9" s="70">
         <f>Costs!H5</f>
-        <v>27104.000000000004</v>
+        <v>26693.333333333343</v>
       </c>
       <c r="I9" s="70">
         <f>Costs!I5</f>
-        <v>33938.666666666664</v>
+        <v>33424.444444444453</v>
       </c>
       <c r="J9" s="70">
         <f>Costs!J5</f>
-        <v>41690</v>
+        <v>41058.333333333343</v>
       </c>
       <c r="K9" s="70">
         <f>Costs!K5</f>
-        <v>50064.666666666664</v>
+        <v>49306.111111111124</v>
       </c>
       <c r="L9" s="70">
         <f>Costs!L5</f>
-        <v>59840</v>
+        <v>58933.333333333343</v>
       </c>
       <c r="M9" s="70">
         <f>Costs!M5</f>
-        <v>69776.666666666672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68719.444444444453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="70">
         <f>Costs!B6</f>
-        <v>28.599999999999998</v>
+        <v>28.166666666666671</v>
       </c>
       <c r="C10" s="70">
         <f>Costs!C6</f>
-        <v>443.3</v>
+        <v>436.58333333333343</v>
       </c>
       <c r="D10" s="70">
         <f>Costs!D6</f>
-        <v>812.24</v>
+        <v>799.93333333333351</v>
       </c>
       <c r="E10" s="70">
         <f>Costs!E6</f>
-        <v>1192.6199999999999</v>
+        <v>1174.5500000000002</v>
       </c>
       <c r="F10" s="70">
         <f>Costs!F6</f>
-        <v>1613.04</v>
+        <v>1588.6000000000004</v>
       </c>
       <c r="G10" s="70">
         <f>Costs!G6</f>
-        <v>2282.2799999999997</v>
+        <v>2247.7000000000003</v>
       </c>
       <c r="H10" s="70">
         <f>Costs!H6</f>
-        <v>2402.4</v>
+        <v>2366.0000000000005</v>
       </c>
       <c r="I10" s="70">
         <f>Costs!I6</f>
-        <v>2777.06</v>
+        <v>2734.983333333334</v>
       </c>
       <c r="J10" s="70">
         <f>Costs!J6</f>
-        <v>3197.48</v>
+        <v>3149.0333333333338</v>
       </c>
       <c r="K10" s="70">
         <f>Costs!K6</f>
-        <v>3566.42</v>
+        <v>3512.3833333333341</v>
       </c>
       <c r="L10" s="70">
         <f>Costs!L6</f>
-        <v>4287.1399999999994</v>
+        <v>4222.1833333333343</v>
       </c>
       <c r="M10" s="70">
         <f>Costs!M6</f>
-        <v>4367.2199999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4301.0500000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="70">
         <f>Costs!B7</f>
-        <v>20.020000000000003</v>
+        <v>19.716666666666672</v>
       </c>
       <c r="C11" s="70">
         <f>Costs!C7</f>
-        <v>200.20000000000005</v>
+        <v>197.16666666666669</v>
       </c>
       <c r="D11" s="70">
         <f>Costs!D7</f>
-        <v>522.52200000000005</v>
+        <v>514.60500000000002</v>
       </c>
       <c r="E11" s="70">
         <f>Costs!E7</f>
-        <v>994.99400000000003</v>
+        <v>979.91833333333329</v>
       </c>
       <c r="F11" s="70">
         <f>Costs!F7</f>
-        <v>1631.63</v>
+        <v>1606.9083333333338</v>
       </c>
       <c r="G11" s="70">
         <f>Costs!G7</f>
-        <v>2518.5160000000005</v>
+        <v>2480.356666666667</v>
       </c>
       <c r="H11" s="70">
         <f>Costs!H7</f>
-        <v>3461.4580000000001</v>
+        <v>3409.0116666666672</v>
       </c>
       <c r="I11" s="70">
         <f>Costs!I7</f>
-        <v>4550.5460000000003</v>
+        <v>4481.5983333333334</v>
       </c>
       <c r="J11" s="70">
         <f>Costs!J7</f>
-        <v>5803.7980000000007</v>
+        <v>5715.8616666666676</v>
       </c>
       <c r="K11" s="70">
         <f>Costs!K7</f>
-        <v>7199.192</v>
+        <v>7090.1133333333337</v>
       </c>
       <c r="L11" s="70">
         <f>Costs!L7</f>
-        <v>8866.8580000000002</v>
+        <v>8732.5116666666672</v>
       </c>
       <c r="M11" s="70">
         <f>Costs!M7</f>
-        <v>10576.565999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10416.315000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>141</v>
       </c>
@@ -7232,166 +7284,166 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B13" s="70">
         <f>Costs!B14</f>
-        <v>2227.5</v>
+        <v>1912.5</v>
       </c>
       <c r="C13" s="70">
         <f>Costs!C14</f>
-        <v>1602.75</v>
+        <v>1392.75</v>
       </c>
       <c r="D13" s="70">
         <f>Costs!D14</f>
-        <v>1887.75</v>
+        <v>1662.75</v>
       </c>
       <c r="E13" s="70">
         <f>Costs!E14</f>
-        <v>2251.5</v>
+        <v>2011.5</v>
       </c>
       <c r="F13" s="70">
         <f>Costs!F14</f>
-        <v>2602.5</v>
+        <v>2362.5</v>
       </c>
       <c r="G13" s="70">
         <f>Costs!G14</f>
-        <v>3057</v>
+        <v>2817</v>
       </c>
       <c r="H13" s="70">
         <f>Costs!H14</f>
-        <v>3570</v>
+        <v>3330</v>
       </c>
       <c r="I13" s="70">
         <f>Costs!I14</f>
-        <v>4157.25</v>
+        <v>3917.25</v>
       </c>
       <c r="J13" s="70">
         <f>Costs!J14</f>
-        <v>4836.75</v>
+        <v>4596.75</v>
       </c>
       <c r="K13" s="70">
         <f>Costs!K14</f>
-        <v>5586</v>
+        <v>5346</v>
       </c>
       <c r="L13" s="70">
         <f>Costs!L14</f>
-        <v>6461.25</v>
+        <v>6221.25</v>
       </c>
       <c r="M13" s="70">
         <f>Costs!M14</f>
-        <v>7381.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7141.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="73">
         <f t="shared" ref="B14:M14" si="0">IF(B5&gt;0,SUM(B9:B13)/B5,0)</f>
-        <v>16.938352344740178</v>
+        <v>15.626721588508664</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" si="0"/>
-        <v>13.304800724637682</v>
+        <v>12.795591787439616</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" si="0"/>
-        <v>12.531339669130588</v>
+        <v>12.16128065235246</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" si="0"/>
-        <v>12.064867673992676</v>
+        <v>11.76615651709402</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" si="0"/>
-        <v>11.720465227817746</v>
+        <v>11.470667466027178</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" si="0"/>
-        <v>11.555019525801953</v>
+        <v>11.334864016736404</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" si="0"/>
-        <v>11.184485389610392</v>
+        <v>10.984400703463205</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" si="0"/>
-        <v>11.003354076634976</v>
+        <v>10.816395011043891</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" si="0"/>
-        <v>10.884437642919966</v>
+        <v>10.70712019935503</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" si="0"/>
-        <v>10.753812606806308</v>
+        <v>10.583654281203721</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" si="0"/>
-        <v>10.735937254901961</v>
+        <v>10.570989991830068</v>
       </c>
       <c r="M14" s="73">
         <f t="shared" si="0"/>
-        <v>10.583494762655457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10.423364103462371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="74">
         <f>B14/Inputs!$B$12</f>
-        <v>0.42345880861850443</v>
+        <v>0.39066803971271657</v>
       </c>
       <c r="C15" s="74">
         <f>C14/Inputs!$B$12</f>
-        <v>0.33262001811594205</v>
+        <v>0.31988979468599038</v>
       </c>
       <c r="D15" s="74">
         <f>D14/Inputs!$B$12</f>
-        <v>0.3132834917282647</v>
+        <v>0.30403201630881149</v>
       </c>
       <c r="E15" s="74">
         <f>E14/Inputs!$B$12</f>
-        <v>0.30162169184981691</v>
+        <v>0.29415391292735049</v>
       </c>
       <c r="F15" s="74">
         <f>F14/Inputs!$B$12</f>
-        <v>0.29301163069544367</v>
+        <v>0.28676668665067945</v>
       </c>
       <c r="G15" s="74">
         <f>G14/Inputs!$B$12</f>
-        <v>0.28887548814504882</v>
+        <v>0.28337160041841009</v>
       </c>
       <c r="H15" s="74">
         <f>H14/Inputs!$B$12</f>
-        <v>0.27961213474025981</v>
+        <v>0.2746100175865801</v>
       </c>
       <c r="I15" s="74">
         <f>I14/Inputs!$B$12</f>
-        <v>0.27508385191587437</v>
+        <v>0.27040987527609728</v>
       </c>
       <c r="J15" s="74">
         <f>J14/Inputs!$B$12</f>
-        <v>0.27211094107299916</v>
+        <v>0.26767800498387573</v>
       </c>
       <c r="K15" s="74">
         <f>K14/Inputs!$B$12</f>
-        <v>0.26884531517015769</v>
+        <v>0.26459135703009301</v>
       </c>
       <c r="L15" s="74">
         <f>L14/Inputs!$B$12</f>
-        <v>0.26839843137254904</v>
+        <v>0.26427474979575172</v>
       </c>
       <c r="M15" s="74">
         <f>M14/Inputs!$B$12</f>
-        <v>0.26458736906638641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.26058410258655929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="93"/>
       <c r="B16" s="92">
         <v>0.34511802030456862</v>
@@ -7664,10 +7716,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7675,7 +7727,8 @@
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
@@ -7696,8 +7749,8 @@
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>174</v>
       </c>
       <c r="B4" s="84"/>
@@ -7770,52 +7823,52 @@
         <v>175</v>
       </c>
       <c r="B6" s="99">
-        <f t="shared" ref="B6:M6" si="0">AVERAGE(B19,B27,B35)</f>
-        <v>19.188023084539552</v>
+        <f t="shared" ref="B6:M6" si="0">AVERAGE(B21,B30,B39)</f>
+        <v>16.388311990877853</v>
       </c>
       <c r="C6" s="99">
         <f t="shared" si="0"/>
-        <v>14.670913837193623</v>
+        <v>13.03429522442331</v>
       </c>
       <c r="D6" s="99">
         <f t="shared" si="0"/>
-        <v>13.99654698611657</v>
+        <v>12.607873324457008</v>
       </c>
       <c r="E6" s="99">
         <f t="shared" si="0"/>
-        <v>13.40146655072045</v>
+        <v>12.141409422968295</v>
       </c>
       <c r="F6" s="99">
         <f t="shared" si="0"/>
-        <v>12.769130872852736</v>
+        <v>11.596152730026864</v>
       </c>
       <c r="G6" s="99">
         <f t="shared" si="0"/>
-        <v>12.647815495762211</v>
+        <v>11.525793272203478</v>
       </c>
       <c r="H6" s="99">
         <f t="shared" si="0"/>
-        <v>12.200160335554742</v>
+        <v>11.12188127026613</v>
       </c>
       <c r="I6" s="99">
         <f t="shared" si="0"/>
-        <v>12.036460001629171</v>
+        <v>10.984248949290587</v>
       </c>
       <c r="J6" s="99">
         <f t="shared" si="0"/>
-        <v>11.932537594273599</v>
+        <v>10.89902311084488</v>
       </c>
       <c r="K6" s="99">
         <f t="shared" si="0"/>
-        <v>11.746409866496116</v>
+        <v>10.729786240886268</v>
       </c>
       <c r="L6" s="99">
         <f t="shared" si="0"/>
-        <v>11.650718216792987</v>
+        <v>10.645083939694908</v>
       </c>
       <c r="M6" s="99">
         <f t="shared" si="0"/>
-        <v>11.539182785226004</v>
+        <v>10.54404423796405</v>
       </c>
       <c r="N6" s="82"/>
       <c r="O6" s="84"/>
@@ -7830,51 +7883,51 @@
       </c>
       <c r="B7" s="95">
         <f>B6/Inputs!$B$12</f>
-        <v>0.47970057711348879</v>
+        <v>0.40970779977194632</v>
       </c>
       <c r="C7" s="95">
         <f>C6/Inputs!$B$12</f>
-        <v>0.36677284592984061</v>
+        <v>0.32585738061058278</v>
       </c>
       <c r="D7" s="95">
         <f>D6/Inputs!$B$12</f>
-        <v>0.34991367465291423</v>
+        <v>0.31519683311142521</v>
       </c>
       <c r="E7" s="95">
         <f>E6/Inputs!$B$12</f>
-        <v>0.33503666376801122</v>
+        <v>0.30353523557420736</v>
       </c>
       <c r="F7" s="95">
         <f>F6/Inputs!$B$12</f>
-        <v>0.31922827182131841</v>
+        <v>0.28990381825067157</v>
       </c>
       <c r="G7" s="95">
         <f>G6/Inputs!$B$12</f>
-        <v>0.31619538739405528</v>
+        <v>0.28814483180508693</v>
       </c>
       <c r="H7" s="95">
         <f>H6/Inputs!$B$12</f>
-        <v>0.30500400838886854</v>
+        <v>0.27804703175665324</v>
       </c>
       <c r="I7" s="95">
         <f>I6/Inputs!$B$12</f>
-        <v>0.30091150004072931</v>
+        <v>0.27460622373226468</v>
       </c>
       <c r="J7" s="95">
         <f>J6/Inputs!$B$12</f>
-        <v>0.29831343985684</v>
+        <v>0.27247557777112197</v>
       </c>
       <c r="K7" s="95">
         <f>K6/Inputs!$B$12</f>
-        <v>0.29366024666240287</v>
+        <v>0.26824465602215669</v>
       </c>
       <c r="L7" s="95">
         <f>L6/Inputs!$B$12</f>
-        <v>0.29126795541982464</v>
+        <v>0.2661270984923727</v>
       </c>
       <c r="M7" s="95">
         <f>M6/Inputs!$B$12</f>
-        <v>0.28847956963065008</v>
+        <v>0.26360110594910124</v>
       </c>
       <c r="N7" s="84"/>
       <c r="O7" s="84"/>
@@ -7888,12 +7941,12 @@
         <v>177</v>
       </c>
       <c r="B8" s="99">
-        <f t="shared" ref="B8:M8" si="1">AVERAGE(B21,B29,B37)</f>
-        <v>3.0213110076686527</v>
+        <f t="shared" ref="B8:M8" si="1">AVERAGE(B23,B32,B41)</f>
+        <v>3.0213110076686536</v>
       </c>
       <c r="C8" s="99">
         <f t="shared" si="1"/>
-        <v>1.7011630377944675</v>
+        <v>1.7011630377944673</v>
       </c>
       <c r="D8" s="99">
         <f t="shared" si="1"/>
@@ -7905,31 +7958,31 @@
       </c>
       <c r="F8" s="99">
         <f t="shared" si="1"/>
-        <v>1.2666961818300464</v>
+        <v>1.2666961818300462</v>
       </c>
       <c r="G8" s="99">
         <f t="shared" si="1"/>
-        <v>1.2330540700987072</v>
+        <v>1.2330540700987074</v>
       </c>
       <c r="H8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1603828546847477</v>
+        <v>1.1603828546847474</v>
       </c>
       <c r="I8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1298003100353979</v>
+        <v>1.1298003100353975</v>
       </c>
       <c r="J8" s="99">
         <f t="shared" si="1"/>
-        <v>1.1131934483359247</v>
+        <v>1.1131934483359249</v>
       </c>
       <c r="K8" s="99">
         <f t="shared" si="1"/>
-        <v>1.0855523943372374</v>
+        <v>1.0855523943372372</v>
       </c>
       <c r="L8" s="99">
         <f t="shared" si="1"/>
-        <v>1.0730168017112438</v>
+        <v>1.0730168017112436</v>
       </c>
       <c r="M8" s="99">
         <f t="shared" si="1"/>
@@ -7948,11 +8001,11 @@
       </c>
       <c r="B9" s="95">
         <f>B8/Inputs!$B$12</f>
-        <v>7.553277519171632E-2</v>
+        <v>7.5532775191716334E-2</v>
       </c>
       <c r="C9" s="95">
         <f>C8/Inputs!$B$12</f>
-        <v>4.2529075944861688E-2</v>
+        <v>4.2529075944861681E-2</v>
       </c>
       <c r="D9" s="95">
         <f>D8/Inputs!$B$12</f>
@@ -7964,31 +8017,31 @@
       </c>
       <c r="F9" s="95">
         <f>F8/Inputs!$B$12</f>
-        <v>3.1667404545751163E-2</v>
+        <v>3.1667404545751156E-2</v>
       </c>
       <c r="G9" s="95">
         <f>G8/Inputs!$B$12</f>
-        <v>3.082635175246768E-2</v>
+        <v>3.0826351752467684E-2</v>
       </c>
       <c r="H9" s="95">
         <f>H8/Inputs!$B$12</f>
-        <v>2.9009571367118691E-2</v>
+        <v>2.9009571367118688E-2</v>
       </c>
       <c r="I9" s="95">
         <f>I8/Inputs!$B$12</f>
-        <v>2.8245007750884947E-2</v>
+        <v>2.8245007750884937E-2</v>
       </c>
       <c r="J9" s="95">
         <f>J8/Inputs!$B$12</f>
-        <v>2.7829836208398118E-2</v>
+        <v>2.7829836208398122E-2</v>
       </c>
       <c r="K9" s="95">
         <f>K8/Inputs!$B$12</f>
-        <v>2.7138809858430934E-2</v>
+        <v>2.713880985843093E-2</v>
       </c>
       <c r="L9" s="95">
         <f>L8/Inputs!$B$12</f>
-        <v>2.6825420042781094E-2</v>
+        <v>2.682542004278109E-2</v>
       </c>
       <c r="M9" s="95">
         <f>M8/Inputs!$B$12</f>
@@ -8024,15 +8077,19 @@
     </row>
     <row r="11" spans="1:20" s="88" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="100">
-        <f>AVERAGE(B6:M6)</f>
-        <v>13.148280468929812</v>
+        <v>208</v>
+      </c>
+      <c r="B11" s="150">
+        <f>AVERAGE(B25,B34,B43)</f>
+        <v>1838934.2592592593</v>
       </c>
       <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
+      <c r="D11" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="155">
+        <v>7</v>
+      </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
@@ -8050,15 +8107,19 @@
     </row>
     <row r="12" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="101">
-        <f>AVERAGE(B7:M7)</f>
-        <v>0.32870701172324535</v>
+        <v>212</v>
+      </c>
+      <c r="B12" s="150">
+        <f>AVERAGE(B26,B35,B44)</f>
+        <v>607614.94968518522</v>
       </c>
       <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
+      <c r="D12" s="151" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="101">
+        <v>0.25</v>
+      </c>
       <c r="F12" s="84"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -8076,15 +8137,19 @@
     </row>
     <row r="13" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B13" s="100">
-        <f>AVERAGE(B8:M8)</f>
-        <v>1.3938032393251421</v>
+        <f>AVERAGE(B6:M6)</f>
+        <v>11.851491976158634</v>
       </c>
       <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
+      <c r="D13" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0.1</v>
+      </c>
       <c r="F13" s="84"/>
       <c r="G13" s="84"/>
       <c r="H13" s="84"/>
@@ -8105,8 +8170,8 @@
         <v>180</v>
       </c>
       <c r="B14" s="101">
-        <f>AVERAGE(B9:M9)</f>
-        <v>3.4845080983128551E-2</v>
+        <f>AVERAGE(B7:M7)</f>
+        <v>0.29628729940396598</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -8127,8 +8192,13 @@
       <c r="S14" s="84"/>
     </row>
     <row r="15" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="100">
+        <f>AVERAGE(B8:M8)</f>
+        <v>1.3938032393251421</v>
+      </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -8148,8 +8218,13 @@
       <c r="S15" s="84"/>
     </row>
     <row r="16" spans="1:20" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="101">
+        <f>AVERAGE(B9:M9)</f>
+        <v>3.4845080983128551E-2</v>
+      </c>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -8168,11 +8243,9 @@
       <c r="R16" s="84"/>
       <c r="S16" s="84"/>
     </row>
-    <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="84"/>
+    <row r="17" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="153"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -8191,146 +8264,92 @@
       <c r="R17" s="84"/>
       <c r="S17" s="84"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" s="90" t="s">
-        <v>183</v>
-      </c>
+    <row r="18" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="84"/>
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
       <c r="R18" s="84"/>
       <c r="S18" s="84"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="94">
-        <v>24.624198473282441</v>
-      </c>
-      <c r="C19" s="94">
-        <v>16.530352422907491</v>
-      </c>
-      <c r="D19" s="94">
-        <v>15.974012853470439</v>
-      </c>
-      <c r="E19" s="94">
-        <v>15.090431472081219</v>
-      </c>
-      <c r="F19" s="94">
-        <v>13.714533163265299</v>
-      </c>
-      <c r="G19" s="94">
-        <v>13.801012264150939</v>
-      </c>
-      <c r="H19" s="94">
-        <v>12.950509848484851</v>
-      </c>
-      <c r="I19" s="94">
-        <v>12.8020159803319</v>
-      </c>
-      <c r="J19" s="94">
-        <v>12.69304225352113</v>
-      </c>
-      <c r="K19" s="94">
-        <v>12.375528862478779</v>
-      </c>
-      <c r="L19" s="94">
-        <v>12.161194323144111</v>
-      </c>
-      <c r="M19" s="94">
-        <v>12.070427852876451</v>
-      </c>
-      <c r="N19" s="96">
-        <v>10.656411890390469</v>
-      </c>
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
       <c r="R19" s="84"/>
       <c r="S19" s="84"/>
     </row>
-    <row r="20" spans="1:19" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="95">
-        <v>0.61560496183206115</v>
-      </c>
-      <c r="C20" s="95">
-        <v>0.41325881057268732</v>
-      </c>
-      <c r="D20" s="95">
-        <v>0.39935032133676091</v>
-      </c>
-      <c r="E20" s="95">
-        <v>0.37726078680203051</v>
-      </c>
-      <c r="F20" s="95">
-        <v>0.34286332908163258</v>
-      </c>
-      <c r="G20" s="95">
-        <v>0.34502530660377362</v>
-      </c>
-      <c r="H20" s="95">
-        <v>0.32376274621212131</v>
-      </c>
-      <c r="I20" s="95">
-        <v>0.3200503995082975</v>
-      </c>
-      <c r="J20" s="95">
-        <v>0.31732605633802807</v>
-      </c>
-      <c r="K20" s="95">
-        <v>0.30938822156196938</v>
-      </c>
-      <c r="L20" s="95">
-        <v>0.30402985807860261</v>
-      </c>
-      <c r="M20" s="95">
-        <v>0.30176069632191138</v>
-      </c>
-      <c r="N20" s="98">
-        <v>0.26641029725976179</v>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="90" t="s">
+        <v>183</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
@@ -8340,47 +8359,46 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="94">
-        <v>3.0277099236641218</v>
+        <v>19.017578456318915</v>
       </c>
       <c r="C21" s="94">
-        <v>1.4944845814977981</v>
+        <v>13.864604747919724</v>
       </c>
       <c r="D21" s="94">
-        <v>1.3905655526992291</v>
+        <v>13.939572265067124</v>
       </c>
       <c r="E21" s="94">
-        <v>1.2684128595600681</v>
+        <v>13.376135081782289</v>
       </c>
       <c r="F21" s="94">
-        <v>1.083311224489796</v>
+        <v>12.225869118480727</v>
       </c>
       <c r="G21" s="94">
-        <v>1.1047056603773591</v>
+        <v>12.440443134171908</v>
       </c>
       <c r="H21" s="94">
-        <v>1.002457575757576</v>
+        <v>11.694966540404042</v>
       </c>
       <c r="I21" s="94">
-        <v>0.98915058389674249</v>
+        <v>11.607053711671107</v>
       </c>
       <c r="J21" s="94">
-        <v>0.98671830985915521</v>
+        <v>11.54467024368433</v>
       </c>
       <c r="K21" s="94">
-        <v>0.95548896434634978</v>
+        <v>11.266773014525562</v>
       </c>
       <c r="L21" s="94">
-        <v>0.93442940320232915</v>
+        <v>11.08303402474527</v>
       </c>
       <c r="M21" s="94">
-        <v>0.92959195221628421</v>
+        <v>11.012420273149603</v>
       </c>
       <c r="N21" s="96">
-        <f>AVERAGE(B21:M21)</f>
-        <v>1.2639188826305676</v>
+        <v>10.656411890390469</v>
       </c>
       <c r="O21" s="84"/>
       <c r="P21" s="84"/>
@@ -8388,49 +8406,48 @@
       <c r="R21" s="84"/>
       <c r="S21" s="84"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="95">
-        <v>7.5692748091603063E-2</v>
+        <v>0.47543946140797289</v>
       </c>
       <c r="C22" s="95">
-        <v>3.7362114537444938E-2</v>
+        <v>0.34661511869799311</v>
       </c>
       <c r="D22" s="95">
-        <v>3.4764138817480722E-2</v>
+        <v>0.3484893066266781</v>
       </c>
       <c r="E22" s="95">
-        <v>3.17103214890017E-2</v>
+        <v>0.33440337704455725</v>
       </c>
       <c r="F22" s="95">
-        <v>2.7082780612244901E-2</v>
+        <v>0.30564672796201819</v>
       </c>
       <c r="G22" s="95">
-        <v>2.7617641509433969E-2</v>
+        <v>0.3110110783542977</v>
       </c>
       <c r="H22" s="95">
-        <v>2.5061439393939389E-2</v>
+        <v>0.29237416351010104</v>
       </c>
       <c r="I22" s="95">
-        <v>2.4728764597418559E-2</v>
+        <v>0.29017634279177767</v>
       </c>
       <c r="J22" s="95">
-        <v>2.4667957746478879E-2</v>
+        <v>0.28861675609210824</v>
       </c>
       <c r="K22" s="95">
-        <v>2.388722410865874E-2</v>
+        <v>0.28166932536313904</v>
       </c>
       <c r="L22" s="95">
-        <v>2.3360735080058231E-2</v>
+        <v>0.27707585061863177</v>
       </c>
       <c r="M22" s="95">
-        <v>2.3239798805407101E-2</v>
+        <v>0.27531050682874009</v>
       </c>
       <c r="N22" s="98">
-        <f>AVERAGE(B22:M22)</f>
-        <v>3.1597972065764188E-2</v>
+        <v>0.26641029725976179</v>
       </c>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
@@ -8439,22 +8456,49 @@
       <c r="S22" s="84"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
+      <c r="A23" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="94">
+        <v>3.0277099236641223</v>
+      </c>
+      <c r="C23" s="94">
+        <v>1.4944845814977976</v>
+      </c>
+      <c r="D23" s="94">
+        <v>1.3905655526992289</v>
+      </c>
+      <c r="E23" s="94">
+        <v>1.2684128595600679</v>
+      </c>
+      <c r="F23" s="94">
+        <v>1.083311224489796</v>
+      </c>
+      <c r="G23" s="94">
+        <v>1.1047056603773588</v>
+      </c>
+      <c r="H23" s="94">
+        <v>1.0024575757575758</v>
+      </c>
+      <c r="I23" s="94">
+        <v>0.98915058389674249</v>
+      </c>
+      <c r="J23" s="94">
+        <v>0.98671830985915521</v>
+      </c>
+      <c r="K23" s="94">
+        <v>0.95548896434634978</v>
+      </c>
+      <c r="L23" s="94">
+        <v>0.93442940320232915</v>
+      </c>
+      <c r="M23" s="94">
+        <v>0.92959195221628421</v>
+      </c>
+      <c r="N23" s="96">
+        <f>AVERAGE(B23:M23)</f>
+        <v>1.2639188826305676</v>
+      </c>
       <c r="O23" s="84"/>
       <c r="P23" s="84"/>
       <c r="Q23" s="84"/>
@@ -8462,31 +8506,62 @@
       <c r="S23" s="84"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
+      <c r="A24" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="95">
+        <v>7.5692748091603063E-2</v>
+      </c>
+      <c r="C24" s="95">
+        <v>3.7362114537444938E-2</v>
+      </c>
+      <c r="D24" s="95">
+        <v>3.4764138817480722E-2</v>
+      </c>
+      <c r="E24" s="95">
+        <v>3.17103214890017E-2</v>
+      </c>
+      <c r="F24" s="95">
+        <v>2.7082780612244901E-2</v>
+      </c>
+      <c r="G24" s="95">
+        <v>2.7617641509433973E-2</v>
+      </c>
+      <c r="H24" s="95">
+        <v>2.5061439393939393E-2</v>
+      </c>
+      <c r="I24" s="95">
+        <v>2.4728764597418563E-2</v>
+      </c>
+      <c r="J24" s="95">
+        <v>2.4667957746478879E-2</v>
+      </c>
+      <c r="K24" s="95">
+        <v>2.3887224108658744E-2</v>
+      </c>
+      <c r="L24" s="95">
+        <v>2.3360735080058228E-2</v>
+      </c>
+      <c r="M24" s="95">
+        <v>2.3239798805407105E-2</v>
+      </c>
+      <c r="N24" s="98">
+        <f>AVERAGE(B24:M24)</f>
+        <v>3.1597972065764181E-2</v>
+      </c>
       <c r="O24" s="84"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="84"/>
       <c r="S24" s="84"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="84"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="150">
+        <v>592294.44444444461</v>
+      </c>
       <c r="C25" s="84"/>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -8506,148 +8581,68 @@
       <c r="S25" s="84"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="M26" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="90" t="s">
-        <v>183</v>
-      </c>
+      <c r="A26" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="150">
+        <v>207759.25688888889</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
       <c r="O26" s="84"/>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
       <c r="R26" s="84"/>
       <c r="S26" s="84"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="94">
-        <v>17.62182509505703</v>
-      </c>
-      <c r="C27" s="94">
-        <v>14.07744565217391</v>
-      </c>
-      <c r="D27" s="94">
-        <v>13.3261393875396</v>
-      </c>
-      <c r="E27" s="94">
-        <v>12.868123626373629</v>
-      </c>
-      <c r="F27" s="94">
-        <v>12.52860431654676</v>
-      </c>
-      <c r="G27" s="94">
-        <v>12.37386052998605</v>
-      </c>
-      <c r="H27" s="94">
-        <v>11.99538311688312</v>
-      </c>
-      <c r="I27" s="94">
-        <v>11.813958945548841</v>
-      </c>
-      <c r="J27" s="94">
-        <v>11.69504415127529</v>
-      </c>
-      <c r="K27" s="94">
-        <v>11.56383535960158</v>
-      </c>
-      <c r="L27" s="94">
-        <v>11.549150245098041</v>
-      </c>
-      <c r="M27" s="94">
-        <v>11.392938728323699</v>
-      </c>
-      <c r="N27" s="96">
-        <f>AVERAGE(B27:M27)</f>
-        <v>12.733859096200627</v>
-      </c>
+    <row r="27" spans="1:19" s="144" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
       <c r="O27" s="84"/>
       <c r="P27" s="84"/>
       <c r="Q27" s="84"/>
       <c r="R27" s="84"/>
       <c r="S27" s="84"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="95">
-        <v>0.44054562737642577</v>
-      </c>
-      <c r="C28" s="95">
-        <v>0.3519361413043478</v>
-      </c>
-      <c r="D28" s="95">
-        <v>0.33315348468848988</v>
-      </c>
-      <c r="E28" s="95">
-        <v>0.32170309065934072</v>
-      </c>
-      <c r="F28" s="95">
-        <v>0.31321510791366902</v>
-      </c>
-      <c r="G28" s="95">
-        <v>0.30934651324965129</v>
-      </c>
-      <c r="H28" s="95">
-        <v>0.29988457792207801</v>
-      </c>
-      <c r="I28" s="95">
-        <v>0.29534897363872092</v>
-      </c>
-      <c r="J28" s="95">
-        <v>0.29237610378188222</v>
-      </c>
-      <c r="K28" s="95">
-        <v>0.2890958839900396</v>
-      </c>
-      <c r="L28" s="95">
-        <v>0.28872875612745103</v>
-      </c>
-      <c r="M28" s="95">
-        <v>0.28482346820809251</v>
-      </c>
-      <c r="N28" s="98">
-        <f>AVERAGE(B28:M28)</f>
-        <v>0.31834647740501576</v>
-      </c>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
       <c r="O28" s="84"/>
       <c r="P28" s="84"/>
       <c r="Q28" s="84"/>
@@ -8655,48 +8650,47 @@
       <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="94">
-        <v>3.016197718631179</v>
-      </c>
-      <c r="C29" s="94">
-        <v>1.7276811594202901</v>
-      </c>
-      <c r="D29" s="94">
-        <v>1.5018500527983101</v>
-      </c>
-      <c r="E29" s="94">
-        <v>1.3762142857142861</v>
-      </c>
-      <c r="F29" s="94">
-        <v>1.2963836930455639</v>
-      </c>
-      <c r="G29" s="94">
-        <v>1.2586973500697349</v>
-      </c>
-      <c r="H29" s="94">
-        <v>1.183112554112554</v>
-      </c>
-      <c r="I29" s="94">
-        <v>1.145348314606742</v>
-      </c>
-      <c r="J29" s="94">
-        <v>1.124315919085312</v>
-      </c>
-      <c r="K29" s="94">
-        <v>1.0990760216786291</v>
-      </c>
-      <c r="L29" s="94">
-        <v>1.100042156862745</v>
-      </c>
-      <c r="M29" s="94">
-        <v>1.0697299001576459</v>
-      </c>
-      <c r="N29" s="96">
-        <f>AVERAGE(B29:M29)</f>
-        <v>1.4082207605152492</v>
+      <c r="A29" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="90" t="s">
+        <v>183</v>
       </c>
       <c r="O29" s="84"/>
       <c r="P29" s="84"/>
@@ -8706,47 +8700,47 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="95">
-        <v>7.5404942965779459E-2</v>
-      </c>
-      <c r="C30" s="95">
-        <v>4.3192028985507253E-2</v>
-      </c>
-      <c r="D30" s="95">
-        <v>3.7546251319957757E-2</v>
-      </c>
-      <c r="E30" s="95">
-        <v>3.4405357142857147E-2</v>
-      </c>
-      <c r="F30" s="95">
-        <v>3.2409592326139089E-2</v>
-      </c>
-      <c r="G30" s="95">
-        <v>3.1467433751743372E-2</v>
-      </c>
-      <c r="H30" s="95">
-        <v>2.9577813852813849E-2</v>
-      </c>
-      <c r="I30" s="95">
-        <v>2.8633707865168539E-2</v>
-      </c>
-      <c r="J30" s="95">
-        <v>2.8107897977132801E-2</v>
-      </c>
-      <c r="K30" s="95">
-        <v>2.7476900541965731E-2</v>
-      </c>
-      <c r="L30" s="95">
-        <v>2.7501053921568631E-2</v>
-      </c>
-      <c r="M30" s="95">
-        <v>2.674324750394114E-2</v>
-      </c>
-      <c r="N30" s="98">
+        <v>175</v>
+      </c>
+      <c r="B30" s="94">
+        <v>15.626721588508664</v>
+      </c>
+      <c r="C30" s="94">
+        <v>12.795591787439616</v>
+      </c>
+      <c r="D30" s="94">
+        <v>12.16128065235246</v>
+      </c>
+      <c r="E30" s="94">
+        <v>11.76615651709402</v>
+      </c>
+      <c r="F30" s="94">
+        <v>11.470667466027178</v>
+      </c>
+      <c r="G30" s="94">
+        <v>11.334864016736404</v>
+      </c>
+      <c r="H30" s="94">
+        <v>10.984400703463205</v>
+      </c>
+      <c r="I30" s="94">
+        <v>10.816395011043891</v>
+      </c>
+      <c r="J30" s="94">
+        <v>10.70712019935503</v>
+      </c>
+      <c r="K30" s="94">
+        <v>10.583654281203721</v>
+      </c>
+      <c r="L30" s="94">
+        <v>10.570989991830068</v>
+      </c>
+      <c r="M30" s="94">
+        <v>10.423364103462371</v>
+      </c>
+      <c r="N30" s="96">
         <f>AVERAGE(B30:M30)</f>
-        <v>3.5205519012881235E-2</v>
+        <v>11.603433859876388</v>
       </c>
       <c r="O30" s="84"/>
       <c r="P30" s="84"/>
@@ -8755,22 +8749,49 @@
       <c r="S30" s="84"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
+      <c r="A31" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="95">
+        <v>0.39066803971271657</v>
+      </c>
+      <c r="C31" s="95">
+        <v>0.31988979468599038</v>
+      </c>
+      <c r="D31" s="95">
+        <v>0.30403201630881149</v>
+      </c>
+      <c r="E31" s="95">
+        <v>0.29415391292735049</v>
+      </c>
+      <c r="F31" s="95">
+        <v>0.28676668665067945</v>
+      </c>
+      <c r="G31" s="95">
+        <v>0.28337160041841009</v>
+      </c>
+      <c r="H31" s="95">
+        <v>0.2746100175865801</v>
+      </c>
+      <c r="I31" s="95">
+        <v>0.27040987527609728</v>
+      </c>
+      <c r="J31" s="95">
+        <v>0.26767800498387573</v>
+      </c>
+      <c r="K31" s="95">
+        <v>0.26459135703009301</v>
+      </c>
+      <c r="L31" s="95">
+        <v>0.26427474979575172</v>
+      </c>
+      <c r="M31" s="95">
+        <v>0.26058410258655929</v>
+      </c>
+      <c r="N31" s="98">
+        <f>AVERAGE(B31:M31)</f>
+        <v>0.29008584649690961</v>
+      </c>
       <c r="O31" s="84"/>
       <c r="P31" s="84"/>
       <c r="Q31" s="84"/>
@@ -8778,19 +8799,49 @@
       <c r="S31" s="84"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
+      <c r="A32" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="94">
+        <v>3.0161977186311786</v>
+      </c>
+      <c r="C32" s="94">
+        <v>1.7276811594202899</v>
+      </c>
+      <c r="D32" s="94">
+        <v>1.5018500527983103</v>
+      </c>
+      <c r="E32" s="94">
+        <v>1.3762142857142858</v>
+      </c>
+      <c r="F32" s="94">
+        <v>1.2963836930455637</v>
+      </c>
+      <c r="G32" s="94">
+        <v>1.2586973500697349</v>
+      </c>
+      <c r="H32" s="94">
+        <v>1.183112554112554</v>
+      </c>
+      <c r="I32" s="94">
+        <v>1.1453483146067416</v>
+      </c>
+      <c r="J32" s="94">
+        <v>1.1243159190853123</v>
+      </c>
+      <c r="K32" s="94">
+        <v>1.0990760216786291</v>
+      </c>
+      <c r="L32" s="94">
+        <v>1.1000421568627452</v>
+      </c>
+      <c r="M32" s="94">
+        <v>1.0697299001576457</v>
+      </c>
+      <c r="N32" s="96">
+        <f>AVERAGE(B32:M32)</f>
+        <v>1.4082207605152492</v>
+      </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84"/>
       <c r="Q32" s="84"/>
@@ -8798,22 +8849,49 @@
       <c r="S32" s="84"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
+      <c r="A33" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="95">
+        <v>7.5404942965779459E-2</v>
+      </c>
+      <c r="C33" s="95">
+        <v>4.3192028985507246E-2</v>
+      </c>
+      <c r="D33" s="95">
+        <v>3.7546251319957757E-2</v>
+      </c>
+      <c r="E33" s="95">
+        <v>3.4405357142857147E-2</v>
+      </c>
+      <c r="F33" s="95">
+        <v>3.2409592326139089E-2</v>
+      </c>
+      <c r="G33" s="95">
+        <v>3.1467433751743372E-2</v>
+      </c>
+      <c r="H33" s="95">
+        <v>2.9577813852813849E-2</v>
+      </c>
+      <c r="I33" s="95">
+        <v>2.8633707865168539E-2</v>
+      </c>
+      <c r="J33" s="95">
+        <v>2.8107897977132805E-2</v>
+      </c>
+      <c r="K33" s="95">
+        <v>2.7476900541965728E-2</v>
+      </c>
+      <c r="L33" s="95">
+        <v>2.7501053921568631E-2</v>
+      </c>
+      <c r="M33" s="95">
+        <v>2.6743247503941144E-2</v>
+      </c>
+      <c r="N33" s="98">
+        <f>AVERAGE(B33:M33)</f>
+        <v>3.5205519012881235E-2</v>
+      </c>
       <c r="O33" s="84"/>
       <c r="P33" s="84"/>
       <c r="Q33" s="84"/>
@@ -8821,48 +8899,24 @@
       <c r="S33" s="84"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="J34" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="L34" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="M34" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="N34" s="90" t="s">
-        <v>183</v>
-      </c>
+      <c r="A34" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="150">
+        <v>1685738.888888889</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="84"/>
@@ -8870,99 +8924,44 @@
       <c r="S34" s="84"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="94">
-        <v>15.31804568527919</v>
-      </c>
-      <c r="C35" s="94">
-        <v>13.404943436499471</v>
-      </c>
-      <c r="D35" s="94">
-        <v>12.689488717339669</v>
-      </c>
-      <c r="E35" s="94">
-        <v>12.245844553706499</v>
-      </c>
-      <c r="F35" s="94">
-        <v>12.06425513874615</v>
-      </c>
-      <c r="G35" s="94">
-        <v>11.76857369314965</v>
-      </c>
-      <c r="H35" s="94">
-        <v>11.65458804129625</v>
-      </c>
-      <c r="I35" s="94">
-        <v>11.49340507900677</v>
-      </c>
-      <c r="J35" s="94">
-        <v>11.409526378024379</v>
-      </c>
-      <c r="K35" s="94">
-        <v>11.29986537740799</v>
-      </c>
-      <c r="L35" s="94">
-        <v>11.24181008213681</v>
-      </c>
-      <c r="M35" s="94">
-        <v>11.154181774477861</v>
-      </c>
-      <c r="N35" s="96">
-        <f>AVERAGE(B35:M35)</f>
-        <v>12.14537732975589</v>
-      </c>
+      <c r="A35" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="150">
+        <v>559674.04977777787</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
       <c r="O35" s="84"/>
       <c r="P35" s="84"/>
       <c r="Q35" s="84"/>
       <c r="R35" s="84"/>
       <c r="S35" s="84"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="95">
-        <v>0.38295114213197973</v>
-      </c>
-      <c r="C36" s="95">
-        <v>0.3351235859124867</v>
-      </c>
-      <c r="D36" s="95">
-        <v>0.31723721793349158</v>
-      </c>
-      <c r="E36" s="95">
-        <v>0.3061461138426626</v>
-      </c>
-      <c r="F36" s="95">
-        <v>0.30160637846865368</v>
-      </c>
-      <c r="G36" s="95">
-        <v>0.29421434232874127</v>
-      </c>
-      <c r="H36" s="95">
-        <v>0.29136470103240608</v>
-      </c>
-      <c r="I36" s="95">
-        <v>0.28733512697516927</v>
-      </c>
-      <c r="J36" s="95">
-        <v>0.28523815945060937</v>
-      </c>
-      <c r="K36" s="95">
-        <v>0.28249663443519979</v>
-      </c>
-      <c r="L36" s="95">
-        <v>0.28104525205342018</v>
-      </c>
-      <c r="M36" s="95">
-        <v>0.27885454436194651</v>
-      </c>
-      <c r="N36" s="98">
-        <f>AVERAGE(B36:M36)</f>
-        <v>0.30363443324389722</v>
-      </c>
+    <row r="36" spans="1:19" s="144" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
       <c r="O36" s="84"/>
       <c r="P36" s="84"/>
       <c r="Q36" s="84"/>
@@ -8970,49 +8969,22 @@
       <c r="S36" s="84"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="94">
-        <v>3.020025380710659</v>
-      </c>
-      <c r="C37" s="94">
-        <v>1.8813233724653149</v>
-      </c>
-      <c r="D37" s="94">
-        <v>1.6342482185273159</v>
-      </c>
-      <c r="E37" s="94">
-        <v>1.49132223903177</v>
-      </c>
-      <c r="F37" s="94">
-        <v>1.4203936279547791</v>
-      </c>
-      <c r="G37" s="94">
-        <v>1.3357591998490279</v>
-      </c>
-      <c r="H37" s="94">
-        <v>1.295578434184113</v>
-      </c>
-      <c r="I37" s="94">
-        <v>1.2549020316027091</v>
-      </c>
-      <c r="J37" s="94">
-        <v>1.2285461160633071</v>
-      </c>
-      <c r="K37" s="94">
-        <v>1.2020921969867331</v>
-      </c>
-      <c r="L37" s="94">
-        <v>1.184578845068657</v>
-      </c>
-      <c r="M37" s="94">
-        <v>1.162471235510923</v>
-      </c>
-      <c r="N37" s="96">
-        <f>AVERAGE(B37:M37)</f>
-        <v>1.5092700748296091</v>
-      </c>
+      <c r="A37" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
       <c r="O37" s="84"/>
       <c r="P37" s="84"/>
       <c r="Q37" s="84"/>
@@ -9020,48 +8992,47 @@
       <c r="S37" s="84"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="95">
-        <v>7.5500634517766479E-2</v>
-      </c>
-      <c r="C38" s="95">
-        <v>4.7033084311632882E-2</v>
-      </c>
-      <c r="D38" s="95">
-        <v>4.0856205463182901E-2</v>
-      </c>
-      <c r="E38" s="95">
-        <v>3.7283055975794253E-2</v>
-      </c>
-      <c r="F38" s="95">
-        <v>3.5509840698869477E-2</v>
-      </c>
-      <c r="G38" s="95">
-        <v>3.3393979996225703E-2</v>
-      </c>
-      <c r="H38" s="95">
-        <v>3.2389460854602807E-2</v>
-      </c>
-      <c r="I38" s="95">
-        <v>3.1372550790067719E-2</v>
-      </c>
-      <c r="J38" s="95">
-        <v>3.0713652901582681E-2</v>
-      </c>
-      <c r="K38" s="95">
-        <v>3.005230492466832E-2</v>
-      </c>
-      <c r="L38" s="95">
-        <v>2.9614471126716412E-2</v>
-      </c>
-      <c r="M38" s="95">
-        <v>2.906178088777309E-2</v>
-      </c>
-      <c r="N38" s="98">
-        <f>AVERAGE(B38:M38)</f>
-        <v>3.7731751870740231E-2</v>
+      <c r="A38" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="90" t="s">
+        <v>183</v>
       </c>
       <c r="O38" s="84"/>
       <c r="P38" s="84"/>
@@ -9070,22 +9041,49 @@
       <c r="S38" s="84"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
+      <c r="A39" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="94">
+        <v>14.520635927805978</v>
+      </c>
+      <c r="C39" s="94">
+        <v>12.442689137910591</v>
+      </c>
+      <c r="D39" s="94">
+        <v>11.72276705595144</v>
+      </c>
+      <c r="E39" s="94">
+        <v>11.281936670028578</v>
+      </c>
+      <c r="F39" s="94">
+        <v>11.091921605572686</v>
+      </c>
+      <c r="G39" s="94">
+        <v>10.802072665702124</v>
+      </c>
+      <c r="H39" s="94">
+        <v>10.686276566931141</v>
+      </c>
+      <c r="I39" s="94">
+        <v>10.52929812515676</v>
+      </c>
+      <c r="J39" s="94">
+        <v>10.445278889495281</v>
+      </c>
+      <c r="K39" s="94">
+        <v>10.338931426929518</v>
+      </c>
+      <c r="L39" s="94">
+        <v>10.28122780250939</v>
+      </c>
+      <c r="M39" s="94">
+        <v>10.196348337280178</v>
+      </c>
+      <c r="N39" s="96">
+        <f>AVERAGE(B39:M39)</f>
+        <v>11.194948684272807</v>
+      </c>
       <c r="O39" s="84"/>
       <c r="P39" s="84"/>
       <c r="Q39" s="84"/>
@@ -9093,20 +9091,49 @@
       <c r="S39" s="84"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
+      <c r="A40" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="95">
+        <v>0.36301589819514946</v>
+      </c>
+      <c r="C40" s="95">
+        <v>0.3110672284477648</v>
+      </c>
+      <c r="D40" s="95">
+        <v>0.29306917639878599</v>
+      </c>
+      <c r="E40" s="95">
+        <v>0.28204841675071446</v>
+      </c>
+      <c r="F40" s="95">
+        <v>0.27729804013931714</v>
+      </c>
+      <c r="G40" s="95">
+        <v>0.27005181664255307</v>
+      </c>
+      <c r="H40" s="95">
+        <v>0.26715691417327853</v>
+      </c>
+      <c r="I40" s="95">
+        <v>0.26323245312891902</v>
+      </c>
+      <c r="J40" s="95">
+        <v>0.26113197223738205</v>
+      </c>
+      <c r="K40" s="95">
+        <v>0.25847328567323796</v>
+      </c>
+      <c r="L40" s="95">
+        <v>0.25703069506273474</v>
+      </c>
+      <c r="M40" s="95">
+        <v>0.25490870843200442</v>
+      </c>
+      <c r="N40" s="98">
+        <f>AVERAGE(B40:M40)</f>
+        <v>0.27987371710682013</v>
+      </c>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
@@ -9114,20 +9141,49 @@
       <c r="S40" s="84"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
+      <c r="A41" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="94">
+        <v>3.0200253807106594</v>
+      </c>
+      <c r="C41" s="94">
+        <v>1.8813233724653151</v>
+      </c>
+      <c r="D41" s="94">
+        <v>1.6342482185273162</v>
+      </c>
+      <c r="E41" s="94">
+        <v>1.49132223903177</v>
+      </c>
+      <c r="F41" s="94">
+        <v>1.4203936279547791</v>
+      </c>
+      <c r="G41" s="94">
+        <v>1.3357591998490281</v>
+      </c>
+      <c r="H41" s="94">
+        <v>1.2955784341841126</v>
+      </c>
+      <c r="I41" s="94">
+        <v>1.2549020316027089</v>
+      </c>
+      <c r="J41" s="94">
+        <v>1.2285461160633071</v>
+      </c>
+      <c r="K41" s="94">
+        <v>1.2020921969867326</v>
+      </c>
+      <c r="L41" s="94">
+        <v>1.1845788450686565</v>
+      </c>
+      <c r="M41" s="94">
+        <v>1.1624712355109235</v>
+      </c>
+      <c r="N41" s="96">
+        <f>AVERAGE(B41:M41)</f>
+        <v>1.5092700748296093</v>
+      </c>
       <c r="O41" s="84"/>
       <c r="P41" s="84"/>
       <c r="Q41" s="84"/>
@@ -9135,20 +9191,49 @@
       <c r="S41" s="84"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
+      <c r="A42" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="95">
+        <v>7.5500634517766479E-2</v>
+      </c>
+      <c r="C42" s="95">
+        <v>4.7033084311632875E-2</v>
+      </c>
+      <c r="D42" s="95">
+        <v>4.0856205463182901E-2</v>
+      </c>
+      <c r="E42" s="95">
+        <v>3.7283055975794246E-2</v>
+      </c>
+      <c r="F42" s="95">
+        <v>3.5509840698869477E-2</v>
+      </c>
+      <c r="G42" s="95">
+        <v>3.3393979996225703E-2</v>
+      </c>
+      <c r="H42" s="95">
+        <v>3.2389460854602814E-2</v>
+      </c>
+      <c r="I42" s="95">
+        <v>3.1372550790067719E-2</v>
+      </c>
+      <c r="J42" s="95">
+        <v>3.0713652901582678E-2</v>
+      </c>
+      <c r="K42" s="95">
+        <v>3.0052304924668316E-2</v>
+      </c>
+      <c r="L42" s="95">
+        <v>2.9614471126716412E-2</v>
+      </c>
+      <c r="M42" s="95">
+        <v>2.9061780887773087E-2</v>
+      </c>
+      <c r="N42" s="98">
+        <f>AVERAGE(B42:M42)</f>
+        <v>3.7731751870740231E-2</v>
+      </c>
       <c r="O42" s="84"/>
       <c r="P42" s="84"/>
       <c r="Q42" s="84"/>
@@ -9156,8 +9241,12 @@
       <c r="S42" s="84"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
+      <c r="A43" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="150">
+        <v>3238769.4444444445</v>
+      </c>
       <c r="C43" s="84"/>
       <c r="D43" s="84"/>
       <c r="E43" s="84"/>
@@ -9177,8 +9266,12 @@
       <c r="S43" s="84"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="150">
+        <v>1055411.542388889</v>
+      </c>
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
       <c r="E44" s="84"/>
@@ -9219,7 +9312,9 @@
       <c r="S45" s="84"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="86" t="s">
+        <v>207</v>
+      </c>
       <c r="B46" s="84"/>
       <c r="C46" s="84"/>
       <c r="D46" s="84"/>
@@ -9240,8 +9335,12 @@
       <c r="S46" s="84"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
+      <c r="A47" s="152" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="147">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="C47" s="84"/>
       <c r="D47" s="84"/>
       <c r="E47" s="84"/>
@@ -9261,8 +9360,10 @@
       <c r="S47" s="84"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
+      <c r="A48" s="152" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="152"/>
       <c r="C48" s="84"/>
       <c r="D48" s="84"/>
       <c r="E48" s="84"/>
@@ -9282,8 +9383,12 @@
       <c r="S48" s="84"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
+      <c r="A49" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="147">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="C49" s="84"/>
       <c r="D49" s="84"/>
       <c r="E49" s="84"/>
@@ -9848,11 +9953,98 @@
       <c r="R75" s="84"/>
       <c r="S75" s="84"/>
     </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="84"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="84"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="84"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="84"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="84"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:M7" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -9860,8 +10052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10082,10 +10274,6 @@
       <c r="A19" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="O19">
-        <f>62*40</f>
-        <v>2480</v>
-      </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="122" t="s">

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBBD03-F8E0-4D8F-8F12-0179FE82EBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACE7A9-3D9E-4B80-8CB1-A1AA2CE03CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15585" yWindow="3998" windowWidth="14460" windowHeight="11835" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Walkthrough" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="312">
   <si>
     <t>LOYALTY PROGRAM MODEL - USER GUIDE</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>• Affiliate churn not modeled (would reduce costs)</t>
-  </si>
-  <si>
-    <t>• Mission completion dampened by 50%</t>
   </si>
   <si>
     <t>• No referral/flywheel growth included</t>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="7"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,6 +2229,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2537,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" s="194"/>
     </row>
@@ -2728,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="211" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="211" t="s">
         <v>300</v>
-      </c>
-      <c r="C20" s="211" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,10 +2763,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="211" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="211" t="s">
         <v>303</v>
-      </c>
-      <c r="C23" s="211" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,10 +2854,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="189" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="191" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="192"/>
     </row>
@@ -2866,10 +2866,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="190" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34" s="193" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="194"/>
     </row>
@@ -2878,7 +2878,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="191" t="s">
         <v>45</v>
@@ -2890,7 +2890,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="190" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="193" t="s">
         <v>46</v>
@@ -2973,17 +2973,9 @@
       <c r="C48" s="192"/>
       <c r="D48" s="192"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="196" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="192"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="192"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A49:D49"/>
+  <mergeCells count="40">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A1:D1"/>
@@ -2999,7 +2991,6 @@
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A15:D15"/>
@@ -3033,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D49"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,48 +3037,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="C5" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="D5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="F5" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="G5" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="120" t="s">
-        <v>287</v>
-      </c>
       <c r="H5" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="120" t="s">
         <v>284</v>
-      </c>
-      <c r="I5" s="120" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="107">
         <v>1</v>
@@ -3110,7 +3101,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="107">
         <f>B6*$G$6</f>
@@ -3127,7 +3118,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="107">
         <f>B7*$G$6</f>
@@ -3144,7 +3135,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="107">
         <f>B8*$G$6</f>
@@ -3161,26 +3152,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="C12" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="D12" s="105" t="s">
         <v>284</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="111">
         <v>0.95</v>
@@ -3194,7 +3185,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="111">
         <v>0.05</v>
@@ -3208,7 +3199,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="111">
         <v>0</v>
@@ -3222,7 +3213,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="111">
         <v>0</v>
@@ -3236,7 +3227,7 @@
     </row>
     <row r="17" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="99">
         <f>SUM(B13:B16)</f>
@@ -3253,26 +3244,26 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="C20" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="D20" s="105" t="s">
         <v>284</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="111">
         <v>0.5</v>
@@ -3286,7 +3277,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="111">
         <v>0.41</v>
@@ -3300,7 +3291,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="111">
         <v>0.06</v>
@@ -3314,7 +3305,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="111">
         <v>0.03</v>
@@ -3328,7 +3319,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" s="99">
         <f>SUM(B21:B24)</f>
@@ -3345,142 +3336,142 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="118" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="O28" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="O28" s="119" t="s">
+      <c r="AC28" s="119" t="s">
         <v>284</v>
-      </c>
-      <c r="AC28" s="119" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="D29" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="E29" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="F29" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F29" s="105" t="s">
+      <c r="G29" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="H29" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="105" t="s">
+      <c r="I29" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="J29" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="J29" s="105" t="s">
+      <c r="K29" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="K29" s="105" t="s">
+      <c r="L29" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="L29" s="105" t="s">
+      <c r="M29" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="M29" s="105" t="s">
-        <v>229</v>
-      </c>
       <c r="O29" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P29" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q29" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="105" t="s">
+      <c r="R29" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="R29" s="105" t="s">
+      <c r="S29" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="S29" s="105" t="s">
+      <c r="T29" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="T29" s="105" t="s">
+      <c r="U29" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="U29" s="105" t="s">
+      <c r="V29" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="V29" s="105" t="s">
+      <c r="W29" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="W29" s="105" t="s">
+      <c r="X29" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="X29" s="105" t="s">
+      <c r="Y29" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="Y29" s="105" t="s">
+      <c r="Z29" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="Z29" s="105" t="s">
+      <c r="AA29" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="AA29" s="105" t="s">
-        <v>229</v>
-      </c>
       <c r="AC29" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AD29" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE29" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="AE29" s="105" t="s">
+      <c r="AF29" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="AF29" s="105" t="s">
+      <c r="AG29" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="AG29" s="105" t="s">
+      <c r="AH29" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="AH29" s="105" t="s">
+      <c r="AI29" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="AI29" s="105" t="s">
+      <c r="AJ29" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="AJ29" s="105" t="s">
+      <c r="AK29" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="AK29" s="105" t="s">
+      <c r="AL29" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="AL29" s="105" t="s">
+      <c r="AM29" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="AM29" s="105" t="s">
+      <c r="AN29" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="AN29" s="105" t="s">
+      <c r="AO29" s="105" t="s">
         <v>228</v>
-      </c>
-      <c r="AO29" s="105" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="116">
         <f>$B$13</f>
@@ -3531,7 +3522,7 @@
         <v>0.5</v>
       </c>
       <c r="O30" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P30" s="116">
         <f>$C$13</f>
@@ -3582,7 +3573,7 @@
         <v>0.35</v>
       </c>
       <c r="AC30" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD30" s="116">
         <f>$D$13</f>
@@ -3635,7 +3626,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="116">
         <f>$B$14</f>
@@ -3686,7 +3677,7 @@
         <v>0.41</v>
       </c>
       <c r="O31" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P31" s="116">
         <f>$C$14</f>
@@ -3737,7 +3728,7 @@
         <v>0.48</v>
       </c>
       <c r="AC31" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD31" s="116">
         <f>$D$14</f>
@@ -3790,7 +3781,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="116">
         <f>$B$15</f>
@@ -3841,7 +3832,7 @@
         <v>0.06</v>
       </c>
       <c r="O32" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="116">
         <f>$C$15</f>
@@ -3892,7 +3883,7 @@
         <v>0.1</v>
       </c>
       <c r="AC32" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD32" s="116">
         <f>$D$15</f>
@@ -3945,7 +3936,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="116">
         <f>$B$16</f>
@@ -3996,7 +3987,7 @@
         <v>0.03</v>
       </c>
       <c r="O33" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P33" s="116">
         <f>$C$16</f>
@@ -4047,7 +4038,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC33" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD33" s="116">
         <f>$D$16</f>
@@ -4100,7 +4091,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="113">
         <f t="shared" ref="B34:M34" si="0">SUM(B30:B33)</f>
@@ -4151,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P34" s="113">
         <f t="shared" ref="P34:AA34" si="1">SUM(P30:P33)</f>
@@ -4202,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD34" s="113">
         <f t="shared" ref="AD34:AO34" si="2">SUM(AD30:AD33)</f>
@@ -4253,37 +4244,37 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="105" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="105" t="s">
+      <c r="D37" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="105" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C38" s="114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="117">
         <v>20</v>
@@ -4292,15 +4283,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="114">
         <v>20</v>
       </c>
       <c r="C39" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="117">
         <v>50</v>
@@ -4309,15 +4300,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="114">
         <v>50</v>
       </c>
       <c r="C40" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D40" s="117">
         <v>100</v>
@@ -4326,15 +4317,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="114">
         <v>100</v>
       </c>
       <c r="C41" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="117">
         <v>200</v>
@@ -4345,43 +4336,43 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="C44" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="105" t="s">
+      <c r="D44" s="105" t="s">
         <v>284</v>
-      </c>
-      <c r="D44" s="105" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="115">
         <f>MIN(1,IF($C$38="One-time",($B$6*12/$B$38)*$E$38*0.5,($B$6/$B$38)*0.5))</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="C45" s="115">
         <f>MIN(1,IF($C$38="One-time",($C$6*12/$B$38)*$E$38*0.5,($C$6/$B$38)*0.5))</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="115">
         <f>MIN(1,IF($C$38="One-time",($D$6*12/$B$38)*$E$38*0.5,($D$6/$B$38)*0.5))</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="115">
         <f>MIN(1,IF($C$39="One-time",($B$7*12/$B$39)*$E$38*0.5,($B$7/$B$39)*0.5))</f>
@@ -4398,7 +4389,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="115">
         <f>MIN(1,IF($C$40="One-time",($B$8*12/$B$40)*$E$38*0.5,($B$8/$B$40)*0.5))</f>
@@ -4415,7 +4406,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="115">
         <f>MIN(1,IF($C$41="One-time",($B$9*12/$B$41)*$E$38*0.5,($B$9/$B$41)*0.5))</f>
@@ -4440,7 +4431,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -4465,68 +4456,68 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>150</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5">
         <v>0.7</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4534,150 +4525,150 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="207">
+        <v>59.99</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="207">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="205" t="s">
         <v>93</v>
-      </c>
-      <c r="D12" s="205" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="208">
         <v>120</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="205" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="205" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="209" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="208">
         <v>1.3</v>
       </c>
       <c r="C14" s="210" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="206" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" s="206" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="18">
         <v>0.95</v>
@@ -4710,7 +4701,7 @@
         <v>0.45909090909090911</v>
       </c>
       <c r="L23" s="18">
-        <v>0.40454545454545449</v>
+        <v>0.40454545454545454</v>
       </c>
       <c r="M23" s="18">
         <v>0.35</v>
@@ -4718,7 +4709,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="18">
         <v>0.05</v>
@@ -4727,31 +4718,31 @@
         <v>8.9090909090909096E-2</v>
       </c>
       <c r="D24" s="18">
-        <v>0.1281818181818182</v>
+        <v>0.12818181818181817</v>
       </c>
       <c r="E24" s="18">
         <v>0.1672727272727273</v>
       </c>
       <c r="F24" s="18">
-        <v>0.20636363636363639</v>
+        <v>0.20636363636363636</v>
       </c>
       <c r="G24" s="18">
-        <v>0.2454545454545454</v>
+        <v>0.24545454545454543</v>
       </c>
       <c r="H24" s="18">
-        <v>0.28454545454545449</v>
+        <v>0.28454545454545455</v>
       </c>
       <c r="I24" s="18">
         <v>0.32363636363636361</v>
       </c>
       <c r="J24" s="18">
-        <v>0.36272727272727268</v>
+        <v>0.36272727272727273</v>
       </c>
       <c r="K24" s="18">
         <v>0.4018181818181818</v>
       </c>
       <c r="L24" s="18">
-        <v>0.44090909090909092</v>
+        <v>0.44090909090909086</v>
       </c>
       <c r="M24" s="18">
         <v>0.48</v>
@@ -4759,7 +4750,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="18">
         <v>0</v>
@@ -4768,7 +4759,7 @@
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="D25" s="18">
-        <v>1.8181818181818181E-2</v>
+        <v>1.8181818181818184E-2</v>
       </c>
       <c r="E25" s="18">
         <v>2.7272727272727278E-2</v>
@@ -4777,7 +4768,7 @@
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="G25" s="18">
-        <v>4.5454545454545463E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="H25" s="18">
         <v>5.4545454545454557E-2</v>
@@ -4800,7 +4791,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="18">
         <v>0</v>
@@ -4809,19 +4800,19 @@
         <v>6.3636363636363638E-3</v>
       </c>
       <c r="D26" s="18">
-        <v>1.2727272727272729E-2</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="E26" s="18">
-        <v>1.9090909090909089E-2</v>
+        <v>1.9090909090909092E-2</v>
       </c>
       <c r="F26" s="18">
-        <v>2.5454545454545459E-2</v>
+        <v>2.5454545454545455E-2</v>
       </c>
       <c r="G26" s="18">
         <v>3.1818181818181822E-2</v>
       </c>
       <c r="H26" s="18">
-        <v>3.8181818181818178E-2</v>
+        <v>3.8181818181818185E-2</v>
       </c>
       <c r="I26" s="18">
         <v>4.4545454545454548E-2</v>
@@ -4841,7 +4832,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="18">
         <v>0</v>
@@ -4882,7 +4873,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="20">
         <f t="shared" ref="B28:M28" si="0">SUM(B23:B27)</f>
@@ -4918,7 +4909,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="0"/>
@@ -4936,17 +4927,17 @@
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="16">
         <v>105</v>
@@ -4987,7 +4978,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="60">
         <f>$B$32*B23</f>
@@ -5031,7 +5022,7 @@
       </c>
       <c r="L33" s="60">
         <f>$L$32*L23</f>
-        <v>360.0454545454545</v>
+        <v>360.04545454545456</v>
       </c>
       <c r="M33" s="60">
         <f>$M$32*M23</f>
@@ -5040,7 +5031,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="60">
         <f>$B$32*B24</f>
@@ -5052,7 +5043,7 @@
       </c>
       <c r="D34" s="60">
         <f>$D$32*D24</f>
-        <v>32.045454545454554</v>
+        <v>32.045454545454547</v>
       </c>
       <c r="E34" s="60">
         <f>$E$32*E24</f>
@@ -5060,15 +5051,15 @@
       </c>
       <c r="F34" s="60">
         <f>$F$32*F24</f>
-        <v>84.609090909090924</v>
+        <v>84.609090909090909</v>
       </c>
       <c r="G34" s="60">
         <f>$G$32*G24</f>
-        <v>120.27272727272724</v>
+        <v>120.27272727272725</v>
       </c>
       <c r="H34" s="60">
         <f>$H$32*H24</f>
-        <v>162.19090909090906</v>
+        <v>162.19090909090909</v>
       </c>
       <c r="I34" s="60">
         <f>$I$32*I24</f>
@@ -5076,7 +5067,7 @@
       </c>
       <c r="J34" s="60">
         <f>$J$32*J24</f>
-        <v>264.79090909090905</v>
+        <v>264.79090909090911</v>
       </c>
       <c r="K34" s="60">
         <f>$K$32*K24</f>
@@ -5084,7 +5075,7 @@
       </c>
       <c r="L34" s="60">
         <f>$L$32*L24</f>
-        <v>392.40909090909093</v>
+        <v>392.40909090909088</v>
       </c>
       <c r="M34" s="60">
         <f>$M$32*M24</f>
@@ -5098,7 +5089,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="60">
         <f>$B$32*B25</f>
@@ -5110,7 +5101,7 @@
       </c>
       <c r="D35" s="60">
         <f>$D$32*D25</f>
-        <v>4.545454545454545</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="E35" s="60">
         <f>$E$32*E25</f>
@@ -5122,7 +5113,7 @@
       </c>
       <c r="G35" s="60">
         <f>$G$32*G25</f>
-        <v>22.272727272727277</v>
+        <v>22.272727272727273</v>
       </c>
       <c r="H35" s="60">
         <f>$H$32*H25</f>
@@ -5156,7 +5147,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="60">
         <f>$B$32*B26</f>
@@ -5168,11 +5159,11 @@
       </c>
       <c r="D36" s="60">
         <f>$D$32*D26</f>
-        <v>3.1818181818181825</v>
+        <v>3.1818181818181821</v>
       </c>
       <c r="E36" s="60">
         <f>$E$32*E26</f>
-        <v>6.2999999999999989</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="F36" s="60">
         <f>$F$32*F26</f>
@@ -5184,7 +5175,7 @@
       </c>
       <c r="H36" s="60">
         <f>$H$32*H26</f>
-        <v>21.763636363636362</v>
+        <v>21.763636363636365</v>
       </c>
       <c r="I36" s="60">
         <f>$I$32*I26</f>
@@ -5228,7 +5219,7 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N39" s="98"/>
       <c r="O39" s="98"/>
@@ -5238,48 +5229,48 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="F41" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="H41" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="I41" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="J41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="K41" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="L41" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="M41" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="N41" s="98"/>
       <c r="O41" s="98"/>
@@ -5289,7 +5280,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="21">
         <v>0</v>
@@ -5357,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,7 +5367,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -5395,42 +5386,42 @@
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="K4" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="74" t="s">
+      <c r="L4" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="74" t="s">
+      <c r="N4" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="O4" s="74" t="s">
         <v>120</v>
-      </c>
-      <c r="O4" s="74" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5438,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="37">
         <v>0</v>
@@ -5450,10 +5441,10 @@
         <v>2</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M5" s="138">
         <v>0</v>
@@ -5470,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="136">
         <v>15</v>
@@ -5482,19 +5473,19 @@
         <v>6</v>
       </c>
       <c r="K6" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="138">
+        <v>0</v>
+      </c>
+      <c r="N6" s="141">
+        <v>0</v>
+      </c>
+      <c r="O6" s="140" t="s">
         <v>123</v>
-      </c>
-      <c r="L6" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="138">
-        <v>0</v>
-      </c>
-      <c r="N6" s="141">
-        <v>0</v>
-      </c>
-      <c r="O6" s="140" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5502,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="40">
         <v>75</v>
@@ -5514,10 +5505,10 @@
         <v>18</v>
       </c>
       <c r="K7" s="140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" s="138">
         <v>1</v>
@@ -5534,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="137">
         <v>150</v>
@@ -5546,10 +5537,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M8" s="142">
         <v>1</v>
@@ -5566,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -5580,10 +5571,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K10" s="151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M10" s="142">
         <v>1</v>
@@ -5592,15 +5583,15 @@
         <v>50</v>
       </c>
       <c r="O10" s="151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K11" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" s="151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="142">
         <v>1</v>
@@ -5614,10 +5605,10 @@
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K12" s="152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="145">
         <v>1</v>
@@ -5631,13 +5622,13 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K13" s="152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="145">
         <v>1</v>
@@ -5646,21 +5637,21 @@
         <v>100</v>
       </c>
       <c r="O13" s="152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>127</v>
-      </c>
       <c r="K14" s="152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="145">
         <v>1</v>
@@ -5674,31 +5665,31 @@
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="F15" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>130</v>
-      </c>
       <c r="K15" s="153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="148">
         <v>1</v>
@@ -5712,7 +5703,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="75">
         <v>0</v>
@@ -5724,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="75">
         <v>0</v>
@@ -5733,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="148">
         <v>1</v>
@@ -5745,12 +5736,12 @@
         <v>300</v>
       </c>
       <c r="O16" s="153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="75">
         <v>1</v>
@@ -5762,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="75">
         <v>1</v>
@@ -5771,10 +5762,10 @@
         <v>50</v>
       </c>
       <c r="K17" s="153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L17" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" s="148">
         <v>1</v>
@@ -5788,7 +5779,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="75">
         <v>1</v>
@@ -5800,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="75">
         <v>1</v>
@@ -5811,7 +5802,7 @@
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="75">
         <v>1</v>
@@ -5823,7 +5814,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="75">
         <v>1</v>
@@ -5832,7 +5823,7 @@
         <v>300</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="135">
         <v>0</v>
@@ -5840,7 +5831,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="56">
         <v>0</v>
@@ -5853,7 +5844,7 @@
       </c>
       <c r="E20" s="131"/>
       <c r="F20" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="56">
         <v>0</v>
@@ -5876,26 +5867,26 @@
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="74" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="75">
         <v>1</v>
@@ -5909,7 +5900,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="75">
         <v>1</v>
@@ -5923,7 +5914,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="75">
         <v>1</v>
@@ -5937,7 +5928,7 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="75">
         <v>1</v>
@@ -5951,7 +5942,7 @@
     </row>
     <row r="28" spans="1:15" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="56">
         <v>0</v>
@@ -5984,35 +5975,35 @@
     <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="70" t="s">
         <v>132</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>135</v>
-      </c>
       <c r="F33" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="75">
         <v>0</v>
@@ -6021,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="75">
         <v>0</v>
@@ -6032,7 +6023,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="75">
         <v>0</v>
@@ -6041,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" s="75">
         <v>0</v>
@@ -6052,7 +6043,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="75">
         <v>0</v>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="75">
         <v>0</v>
@@ -6072,7 +6063,7 @@
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="75">
         <v>0</v>
@@ -6081,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" s="75">
         <v>0</v>
@@ -6093,7 +6084,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="56">
         <v>0</v>
@@ -6107,23 +6098,23 @@
     <row r="41" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="74" t="s">
         <v>137</v>
-      </c>
-      <c r="C44" s="74" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="75">
         <v>0</v>
@@ -6134,7 +6125,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="75">
         <v>0</v>
@@ -6145,7 +6136,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="75">
         <v>0</v>
@@ -6156,7 +6147,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="75">
         <v>0</v>
@@ -6180,8 +6171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6192,7 +6183,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -6208,59 +6199,59 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="37">
         <v>3</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="38">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="39">
         <v>20</v>
@@ -6269,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="43">
         <f>IF(D5="Weekly",4,1)*IF(F5="Gift Card",G5,IF(F5="Spark Ads",G5,IF(F5="Commission Boost",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H5)*Revenue!$B$7,IF(F5="Discount",G5*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A5,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H5)*Inputs!$B$12,0))))</f>
@@ -6290,22 +6281,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="37">
         <v>1500</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="38">
         <v>0.9</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="38">
         <v>0.15</v>
@@ -6314,31 +6305,31 @@
         <v>7</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="43">
         <f>IF(D7="Weekly",4,1)*IF(F7="Gift Card",G7,IF(F7="Spark Ads",G7,IF(F7="Commission Boost",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H7)*Revenue!$B$7,IF(F7="Discount",G7*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A7,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H7)*Inputs!$B$12,0))))</f>
-        <v>3.6399999999999997</v>
+        <v>5.4590899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="29">
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="30">
         <v>0.15</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="31">
         <v>30</v>
@@ -6347,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="44">
         <f>IF(D8="Weekly",4,1)*IF(F8="Gift Card",G8,IF(F8="Spark Ads",G8,IF(F8="Commission Boost",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H8)*Revenue!$B$7,IF(F8="Discount",G8*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A8,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H8)*Inputs!$B$12,0))))</f>
@@ -6356,22 +6347,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="29">
         <v>15</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="30">
         <v>0.6</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="30">
         <v>0.1</v>
@@ -6380,31 +6371,31 @@
         <v>7</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="44">
         <f>IF(D9="Weekly",4,1)*IF(F9="Gift Card",G9,IF(F9="Spark Ads",G9,IF(F9="Commission Boost",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Revenue!$B$7,IF(F9="Discount",G9*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A9,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H9)*Inputs!$B$12,0))))</f>
-        <v>6.8755555555555565</v>
+        <v>10.311614444444446</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="29">
         <v>10000</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30">
         <v>0.8</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="30">
         <v>0.15</v>
@@ -6413,31 +6404,31 @@
         <v>2</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="44">
         <f>IF(D10="Weekly",4,1)*IF(F10="Gift Card",G10,IF(F10="Spark Ads",G10,IF(F10="Commission Boost",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H10)*Revenue!$B$7,IF(F10="Discount",G10*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A10,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H10)*Inputs!$B$12,0))))</f>
-        <v>3.12</v>
+        <v>4.6792199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="40">
         <v>50</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="41">
         <v>0.18</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="42">
         <v>75</v>
@@ -6446,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="46">
         <f>IF(D11="Weekly",4,1)*IF(F11="Gift Card",G11,IF(F11="Spark Ads",G11,IF(F11="Commission Boost",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H11)*Revenue!$B$7,IF(F11="Discount",G11*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A11,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H11)*Inputs!$B$12,0))))</f>
@@ -6455,22 +6446,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="40">
         <v>20</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="41">
         <v>0.7</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="41">
         <v>0.1</v>
@@ -6479,31 +6470,31 @@
         <v>7</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J12" s="46">
         <f>IF(D12="Weekly",4,1)*IF(F12="Gift Card",G12,IF(F12="Spark Ads",G12,IF(F12="Commission Boost",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Revenue!$B$7,IF(F12="Discount",G12*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A12,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H12)*Inputs!$B$12,0))))</f>
-        <v>20.626666666666669</v>
+        <v>30.934843333333337</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="40">
         <v>20000</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="41">
         <v>0.7</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="41">
         <v>0.1</v>
@@ -6512,31 +6503,31 @@
         <v>2</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13" s="46">
         <f>IF(D13="Weekly",4,1)*IF(F13="Gift Card",G13,IF(F13="Spark Ads",G13,IF(F13="Commission Boost",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H13)*Revenue!$B$7,IF(F13="Discount",G13*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A13,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H13)*Inputs!$B$12,0))))</f>
-        <v>24.960000000000004</v>
+        <v>37.433760000000007</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="26">
         <v>100</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="27">
         <v>0.27</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="28">
         <v>125</v>
@@ -6545,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="45">
         <f>IF(D14="Weekly",4,1)*IF(F14="Gift Card",G14,IF(F14="Spark Ads",G14,IF(F14="Commission Boost",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H14)*Revenue!$B$7,IF(F14="Discount",G14*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A14,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H14)*Inputs!$B$12,0))))</f>
@@ -6554,22 +6545,22 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="26">
         <v>5</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="27">
         <v>0.7</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" s="27">
         <v>0.15</v>
@@ -6578,31 +6569,31 @@
         <v>3</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J15" s="45">
         <f>IF(D15="Weekly",4,1)*IF(F15="Gift Card",G15,IF(F15="Spark Ads",G15,IF(F15="Commission Boost",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Revenue!$B$7,IF(F15="Discount",G15*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A15,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H15)*Inputs!$B$12,0))))</f>
-        <v>159.12000000000003</v>
+        <v>238.64022000000006</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="26">
         <v>20000</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="27">
         <v>0.5</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="27">
         <v>0.15</v>
@@ -6611,11 +6602,11 @@
         <v>2</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J16" s="45">
         <f>IF(D16="Weekly",4,1)*IF(F16="Gift Card",G16,IF(F16="Spark Ads",G16,IF(F16="Commission Boost",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H16)*Revenue!$B$7,IF(F16="Discount",G16*(INDEX('VIP Levels'!$E$5:$E$9,MATCH(A16,'VIP Levels'!$B$5:$B$9,0))*Inputs!$B$14/30*H16)*Inputs!$B$12,0))))</f>
-        <v>112.32000000000001</v>
+        <v>168.45192000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6784,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -6811,48 +6802,48 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="8">
         <f>Inputs!$B$5</f>
@@ -6905,7 +6896,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="8">
         <f t="array" ref="B5">ROUND(B4*SampleAffConv,0)</f>
@@ -6958,7 +6949,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="8">
         <f>Inputs!B$42</f>
@@ -7011,7 +7002,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" ref="B7:M7" si="1">B5+B6</f>
@@ -7062,12 +7053,12 @@
         <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8">
         <f>B7</f>
@@ -7120,7 +7111,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" ref="B9:M9" si="3">B10+B11</f>
@@ -7173,7 +7164,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="8">
         <f>ROUND(B13*'VIP Levels'!$E$5+B14*'VIP Levels'!$E$6+B15*'VIP Levels'!$E$7+B16*'VIP Levels'!$E$8+B17*'VIP Levels'!$E$9,0)</f>
@@ -7226,7 +7217,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="8">
         <f>ROUND(B19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*(Inputs!$B$14-1)*('VIP Levels'!$D$16/30)+B20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*(Inputs!$B$14-1)*('VIP Levels'!$D$17/30)+B21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*(Inputs!$B$14-1)*('VIP Levels'!$D$18/30)+B22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*(Inputs!$B$14-1)*('VIP Levels'!$D$19/30)+B23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*(Inputs!$B$14-1)*('VIP Levels'!$D$20/30)+B19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*(Inputs!$B$14-1)*('VIP Levels'!$D$24/30)+B20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*(Inputs!$B$14-1)*('VIP Levels'!$D$25/30)+B21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*(Inputs!$B$14-1)*('VIP Levels'!$D$26/30)+B22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*(Inputs!$B$14-1)*('VIP Levels'!$D$27/30)+B23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*(Inputs!$B$14-1)*('VIP Levels'!$D$28/30)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*B19*Missions!$E$5:$E$26*'VIP Levels'!$E$5*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B13*Missions!$E$5:$E$26*'VIP Levels'!$E$5*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*B20*Missions!$E$5:$E$26*'VIP Levels'!$E$6*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B14*Missions!$E$5:$E$26*'VIP Levels'!$E$6*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*B21*Missions!$E$5:$E$26*'VIP Levels'!$E$7*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B15*Missions!$E$5:$E$26*'VIP Levels'!$E$7*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*B22*Missions!$E$5:$E$26*'VIP Levels'!$E$8*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B16*Missions!$E$5:$E$26*'VIP Levels'!$E$8*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*B23*Missions!$E$5:$E$26*'VIP Levels'!$E$9*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B17*Missions!$E$5:$E$26*'VIP Levels'!$E$9*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*B19*Missions!$E$5:$E$26*'VIP Levels'!$E$5*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B13*Missions!$E$5:$E$26*'VIP Levels'!$E$5*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*B20*Missions!$E$5:$E$26*'VIP Levels'!$E$6*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B14*Missions!$E$5:$E$26*'VIP Levels'!$E$6*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*B21*Missions!$E$5:$E$26*'VIP Levels'!$E$7*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B15*Missions!$E$5:$E$26*'VIP Levels'!$E$7*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*B22*Missions!$E$5:$E$26*'VIP Levels'!$E$8*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B16*Missions!$E$5:$E$26*'VIP Levels'!$E$8*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*B23*Missions!$E$5:$E$26*'VIP Levels'!$E$9*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30))+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*B17*Missions!$E$5:$E$26*'VIP Levels'!$E$9*(Inputs!$B$14-1)*(Missions!$H$5:$H$26/30)),0)</f>
@@ -7279,12 +7270,12 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="8">
         <f>ROUND(B8*Inputs!B$23,0)</f>
@@ -7337,7 +7328,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="8">
         <f>ROUND(B8*Inputs!B$24,0)</f>
@@ -7390,7 +7381,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="8">
         <f>ROUND(B8*Inputs!B$25,0)</f>
@@ -7443,7 +7434,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="8">
         <f>ROUND(B8*Inputs!B$26,0)</f>
@@ -7496,7 +7487,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="8">
         <f>ROUND(B8*Inputs!B$27,0)</f>
@@ -7549,12 +7540,12 @@
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" ref="B19:M19" si="4">B7</f>
@@ -7607,7 +7598,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="8">
         <f>B14</f>
@@ -7660,7 +7651,7 @@
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="8">
         <f>B15</f>
@@ -7713,7 +7704,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="8">
         <f>B16</f>
@@ -7766,7 +7757,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="8">
         <f>B17</f>
@@ -7831,7 +7822,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7842,7 +7833,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -7860,48 +7851,48 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8">
         <f>'Affiliate Projection'!B9</f>
@@ -7954,219 +7945,219 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="C5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="D5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="E5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="F5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="G5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="H5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="I5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="J5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="K5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="L5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="M5" s="7">
         <f>Inputs!$B$12</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="10">
         <f t="shared" ref="B6:M6" si="0">B4*B5</f>
-        <v>10520</v>
+        <v>15777.37</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>21920</v>
+        <v>32874.520000000004</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
-        <v>36040</v>
+        <v>54050.990000000005</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>56280</v>
+        <v>84405.930000000008</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>78760</v>
+        <v>118120.31</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>103880</v>
+        <v>155794.03</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="0"/>
-        <v>135080</v>
+        <v>202586.23</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="0"/>
-        <v>170200</v>
+        <v>255257.45</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>206160</v>
+        <v>309188.46000000002</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>247120</v>
+        <v>370618.22000000003</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="0"/>
-        <v>292040</v>
+        <v>437986.99</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="0"/>
-        <v>341320</v>
+        <v>511894.67000000004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7:M7" si="1">$B$19</f>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="10">
         <f t="shared" ref="B8:M8" si="2">B4*B7</f>
-        <v>9935.5555555555566</v>
+        <v>14900.849444444444</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="2"/>
-        <v>20702.222222222223</v>
+        <v>31048.157777777778</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="2"/>
-        <v>34037.777777777781</v>
+        <v>51048.157222222224</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="2"/>
-        <v>53153.333333333336</v>
+        <v>79716.71166666667</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>74384.444444444453</v>
+        <v>111558.07055555556</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>98108.888888888891</v>
+        <v>147138.8061111111</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>127575.55555555556</v>
+        <v>191331.43944444446</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>160744.44444444444</v>
+        <v>241076.48055555555</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>194706.66666666666</v>
+        <v>292011.32333333336</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="2"/>
-        <v>233391.11111111112</v>
+        <v>350028.31888888893</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>275815.55555555556</v>
+        <v>413654.37944444444</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>322357.77777777781</v>
+        <v>483456.07722222223</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="216"/>
       <c r="C11" s="216"/>
@@ -8184,7 +8175,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="125">
         <v>40</v>
@@ -8192,7 +8183,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="124">
         <v>0.25</v>
@@ -8200,7 +8191,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="125">
         <v>4</v>
@@ -8211,13 +8202,13 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="214"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="124">
         <f>B12*B14/720</f>
@@ -8226,7 +8217,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="124">
         <f>B17*B13</f>
@@ -8235,11 +8226,11 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="163">
         <f>Inputs!$B$12*(1-B18)</f>
-        <v>37.777777777777779</v>
+        <v>56.657222222222224</v>
       </c>
     </row>
   </sheetData>
@@ -8268,7 +8259,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -8286,366 +8277,366 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="10">
         <f>Revenue!B8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!B$23:B$27)</f>
-        <v>1987.1111111111113</v>
+        <v>2980.1698888888891</v>
       </c>
       <c r="C5" s="10">
         <f>Revenue!C8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!C$23:C$27)</f>
-        <v>4140.4444444444443</v>
+        <v>6209.6315555555557</v>
       </c>
       <c r="D5" s="10">
         <f>Revenue!D8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!D$23:D$27)</f>
-        <v>6807.5555555555566</v>
+        <v>10209.631444444445</v>
       </c>
       <c r="E5" s="10">
         <f>Revenue!E8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!E$23:E$27)</f>
-        <v>10630.666666666668</v>
+        <v>15943.342333333338</v>
       </c>
       <c r="F5" s="10">
         <f>Revenue!F8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!F$23:F$27)</f>
-        <v>14876.888888888891</v>
+        <v>22311.61411111111</v>
       </c>
       <c r="G5" s="10">
         <f>Revenue!G8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!G$23:G$27)</f>
-        <v>19621.777777777777</v>
+        <v>29427.761222222227</v>
       </c>
       <c r="H5" s="10">
         <f>Revenue!H8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!H$23:H$27)</f>
-        <v>25515.111111111117</v>
+        <v>38266.287888888903</v>
       </c>
       <c r="I5" s="10">
         <f>Revenue!I8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!I$23:I$27)</f>
-        <v>32148.888888888891</v>
+        <v>48215.296111111114</v>
       </c>
       <c r="J5" s="10">
         <f>Revenue!J8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!J$23:J$27)</f>
-        <v>38941.333333333336</v>
+        <v>58402.264666666684</v>
       </c>
       <c r="K5" s="10">
         <f>Revenue!K8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!K$23:K$27)</f>
-        <v>46678.222222222226</v>
+        <v>70005.663777777794</v>
       </c>
       <c r="L5" s="10">
         <f>Revenue!L8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!L$23:L$27)</f>
-        <v>55163.111111111117</v>
+        <v>82730.875888888899</v>
       </c>
       <c r="M5" s="10">
         <f>Revenue!M8*SUMPRODUCT('VIP Levels'!$D$5:$D$9,Inputs!M$23:M$27)</f>
-        <v>64471.555555555562</v>
+        <v>96691.215444444446</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!B7+'Affiliate Projection'!B20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!B7+'Affiliate Projection'!B21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!B7+'Affiliate Projection'!B22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!B7+'Affiliate Projection'!B23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!B7</f>
-        <v>29.466666666666669</v>
+        <v>44.192633333333333</v>
       </c>
       <c r="C6" s="10">
         <f>'Affiliate Projection'!C19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!C7+'Affiliate Projection'!C20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!C7+'Affiliate Projection'!C21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!C7+'Affiliate Projection'!C22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!C7+'Affiliate Projection'!C23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!C7</f>
-        <v>302.03333333333342</v>
+        <v>452.97449166666678</v>
       </c>
       <c r="D6" s="10">
         <f>'Affiliate Projection'!D19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!D7+'Affiliate Projection'!D20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!D7+'Affiliate Projection'!D21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!D7+'Affiliate Projection'!D22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!D7+'Affiliate Projection'!D23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!D7</f>
-        <v>480.30666666666673</v>
+        <v>720.33992333333345</v>
       </c>
       <c r="E6" s="10">
         <f>'Affiliate Projection'!E19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!E7+'Affiliate Projection'!E20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!E7+'Affiliate Projection'!E21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!E7+'Affiliate Projection'!E22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!E7+'Affiliate Projection'!E23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!E7</f>
-        <v>800.0200000000001</v>
+        <v>1199.8299950000001</v>
       </c>
       <c r="F6" s="10">
         <f>'Affiliate Projection'!F19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!F7+'Affiliate Projection'!F20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!F7+'Affiliate Projection'!F21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!F7+'Affiliate Projection'!F22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!F7+'Affiliate Projection'!F23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!F7</f>
-        <v>978.29333333333341</v>
+        <v>1467.1954266666669</v>
       </c>
       <c r="G6" s="10">
         <f>'Affiliate Projection'!G19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!G7+'Affiliate Projection'!G20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!G7+'Affiliate Projection'!G21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!G7+'Affiliate Projection'!G22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!G7+'Affiliate Projection'!G23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!G7</f>
-        <v>1102.0533333333335</v>
+        <v>1652.8044866666671</v>
       </c>
       <c r="H6" s="10">
         <f>'Affiliate Projection'!H19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!H7+'Affiliate Projection'!H20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!H7+'Affiliate Projection'!H21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!H7+'Affiliate Projection'!H22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!H7+'Affiliate Projection'!H23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!H7</f>
-        <v>1476.2800000000002</v>
+        <v>2214.0509300000003</v>
       </c>
       <c r="I6" s="10">
         <f>'Affiliate Projection'!I19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!I7+'Affiliate Projection'!I20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!I7+'Affiliate Projection'!I21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!I7+'Affiliate Projection'!I22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!I7+'Affiliate Projection'!I23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!I7</f>
-        <v>1713.4866666666667</v>
+        <v>2569.8016283333336</v>
       </c>
       <c r="J6" s="10">
         <f>'Affiliate Projection'!J19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!J7+'Affiliate Projection'!J20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!J7+'Affiliate Projection'!J21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!J7+'Affiliate Projection'!J22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!J7+'Affiliate Projection'!J23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!J7</f>
-        <v>1778.3133333333335</v>
+        <v>2667.0254216666672</v>
       </c>
       <c r="K6" s="10">
         <f>'Affiliate Projection'!K19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!K7+'Affiliate Projection'!K20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!K7+'Affiliate Projection'!K21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!K7+'Affiliate Projection'!K22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!K7+'Affiliate Projection'!K23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!K7</f>
-        <v>2050.88</v>
+        <v>3075.8072800000009</v>
       </c>
       <c r="L6" s="10">
         <f>'Affiliate Projection'!L19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!L7+'Affiliate Projection'!L20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!L7+'Affiliate Projection'!L21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!L7+'Affiliate Projection'!L22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!L7+'Affiliate Projection'!L23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!L7</f>
-        <v>2282.1933333333336</v>
+        <v>3422.7194516666673</v>
       </c>
       <c r="M6" s="10">
         <f>'Affiliate Projection'!M19*'VIP Levels'!$B$16*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$16/30)*'VIP Levels'!$C$16*Revenue!M7+'Affiliate Projection'!M20*'VIP Levels'!$B$17*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$17/30)*'VIP Levels'!$C$17*Revenue!M7+'Affiliate Projection'!M21*'VIP Levels'!$B$18*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$18/30)*'VIP Levels'!$C$18*Revenue!M7+'Affiliate Projection'!M22*'VIP Levels'!$B$19*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$19/30)*'VIP Levels'!$C$19*Revenue!M7+'Affiliate Projection'!M23*'VIP Levels'!$B$20*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$20/30)*'VIP Levels'!$C$20*Revenue!M7</f>
-        <v>2548.8666666666668</v>
+        <v>3822.6627833333341</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="10">
         <f t="array" ref="B7">SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>20.626666666666669</v>
+        <v>30.93484333333334</v>
       </c>
       <c r="C7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>206.26666666666668</v>
+        <v>309.34843333333339</v>
       </c>
       <c r="D7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>519.79199999999992</v>
+        <v>779.55805200000009</v>
       </c>
       <c r="E7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1016.8946666666667</v>
+        <v>1525.0877763333333</v>
       </c>
       <c r="F7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1641.8826666666669</v>
+        <v>2462.4135293333338</v>
       </c>
       <c r="G7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2324.6253333333334</v>
+        <v>3486.3568436666674</v>
       </c>
       <c r="H7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3261.076</v>
+        <v>4890.7987310000008</v>
       </c>
       <c r="I7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4352.2266666666674</v>
+        <v>6527.2519433333346</v>
       </c>
       <c r="J7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>5474.3173333333343</v>
+        <v>8210.1074206666672</v>
       </c>
       <c r="K7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>6761.4213333333337</v>
+        <v>10140.441644666669</v>
       </c>
       <c r="L7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>8199.1000000000022</v>
+        <v>12296.600225000002</v>
       </c>
       <c r="M7" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Commission Boost")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>9797.6666666666679</v>
+        <v>14694.050583333334</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="23">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!B20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!B21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!B22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!B23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>436.8</v>
+        <v>655.09079999999994</v>
       </c>
       <c r="C8" s="23">
         <f>'Affiliate Projection'!C19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!C20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!C21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!C22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!C23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>593.32000000000005</v>
+        <v>889.83167000000014</v>
       </c>
       <c r="D8" s="23">
         <f>'Affiliate Projection'!D19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!D20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!D21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!D22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!D23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>768.04000000000008</v>
+        <v>1151.8679900000002</v>
       </c>
       <c r="E8" s="23">
         <f>'Affiliate Projection'!E19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!E20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!E21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!E22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!E23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>1106.5600000000002</v>
+        <v>1659.5633600000001</v>
       </c>
       <c r="F8" s="23">
         <f>'Affiliate Projection'!F19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!F20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!F21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!F22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!F23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>1281.2800000000002</v>
+        <v>1921.5996800000003</v>
       </c>
       <c r="G8" s="23">
         <f>'Affiliate Projection'!G19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!G20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!G21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!G22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!G23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>1445.0800000000004</v>
+        <v>2167.2587300000005</v>
       </c>
       <c r="H8" s="23">
         <f>'Affiliate Projection'!H19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!H20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!H21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!H22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!H23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>1794.5200000000004</v>
+        <v>2691.3313700000008</v>
       </c>
       <c r="I8" s="23">
         <f>'Affiliate Projection'!I19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!I20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!I21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!I22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!I23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>2045.6800000000003</v>
+        <v>3068.0085800000002</v>
       </c>
       <c r="J8" s="23">
         <f>'Affiliate Projection'!J19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!J20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!J21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!J22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!J23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>2133.0400000000004</v>
+        <v>3199.0267400000002</v>
       </c>
       <c r="K8" s="23">
         <f>'Affiliate Projection'!K19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!K20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!K21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!K22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!K23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>2416.96</v>
+        <v>3624.8357599999999</v>
       </c>
       <c r="L8" s="23">
         <f>'Affiliate Projection'!L19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!L20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!L21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!L22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!L23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>2657.2000000000003</v>
+        <v>3985.1357000000007</v>
       </c>
       <c r="M8" s="23">
         <f>'Affiliate Projection'!M19*'VIP Levels'!$B$24*'VIP Levels'!$E$5*Inputs!$B$14*('VIP Levels'!$D$24/30)*'VIP Levels'!$C$24*Inputs!$B$12+'Affiliate Projection'!M20*'VIP Levels'!$B$25*'VIP Levels'!$E$6*Inputs!$B$14*('VIP Levels'!$D$25/30)*'VIP Levels'!$C$25*Inputs!$B$12+'Affiliate Projection'!M21*'VIP Levels'!$B$26*'VIP Levels'!$E$7*Inputs!$B$14*('VIP Levels'!$D$26/30)*'VIP Levels'!$C$26*Inputs!$B$12+'Affiliate Projection'!M22*'VIP Levels'!$B$27*'VIP Levels'!$E$8*Inputs!$B$14*('VIP Levels'!$D$27/30)*'VIP Levels'!$C$27*Inputs!$B$12+'Affiliate Projection'!M23*'VIP Levels'!$B$28*'VIP Levels'!$E$9*Inputs!$B$14*('VIP Levels'!$D$28/30)*'VIP Levels'!$C$28*Inputs!$B$12</f>
-        <v>2930.2</v>
+        <v>4394.5674500000005</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="10">
         <f t="array" ref="B9">SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>356.46</v>
+        <v>534.60088499999995</v>
       </c>
       <c r="C9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>360.36</v>
+        <v>540.44991000000005</v>
       </c>
       <c r="D9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>545.06400000000008</v>
+        <v>817.45973400000003</v>
       </c>
       <c r="E9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>855.81600000000003</v>
+        <v>1283.5100460000001</v>
       </c>
       <c r="F9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1232.712</v>
+        <v>1848.759822</v>
       </c>
       <c r="G9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1662.0240000000001</v>
+        <v>2492.6204940000002</v>
       </c>
       <c r="H9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2231.1120000000001</v>
+        <v>3346.1102220000002</v>
       </c>
       <c r="I9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2891.3040000000001</v>
+        <v>4336.2331740000009</v>
       </c>
       <c r="J9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3578.9520000000002</v>
+        <v>5367.5332620000008</v>
       </c>
       <c r="K9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4372.68</v>
+        <v>6557.9268300000012</v>
       </c>
       <c r="L9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>5255.0160000000005</v>
+        <v>7881.2102460000006</v>
       </c>
       <c r="M9" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Discount")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>6240.9359999999997</v>
+        <v>9359.8437660000018</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:M10" si="0">SUM(B5:B9)</f>
-        <v>2830.4644444444448</v>
+        <v>4244.9890505555559</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>5602.4244444444439</v>
+        <v>8402.2360605555568</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>9120.7582222222245</v>
+        <v>13678.857143777779</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>14409.957333333336</v>
+        <v>21611.333510666671</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>20011.056888888888</v>
+        <v>30011.582569111109</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>26155.560444444447</v>
+        <v>39226.801776555563</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>34278.099111111114</v>
+        <v>51408.579141888906</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>43151.58622222222</v>
+        <v>64716.591436777788</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>51905.955999999998</v>
+        <v>77845.957511000015</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>62280.163555555555</v>
+        <v>93404.675292444459</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>73556.620444444459</v>
+        <v>110316.54151155557</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>85989.224888888901</v>
+        <v>128962.34002711112</v>
       </c>
       <c r="O10" s="66"/>
     </row>
@@ -8654,12 +8645,12 @@
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$G$16*'VIP Levels'!$H$16+'Affiliate Projection'!B20*'VIP Levels'!$G$17*'VIP Levels'!$H$17+'Affiliate Projection'!B21*'VIP Levels'!$G$18*'VIP Levels'!$H$18+'Affiliate Projection'!B22*'VIP Levels'!$G$19*'VIP Levels'!$H$19+'Affiliate Projection'!B23*'VIP Levels'!$G$20*'VIP Levels'!$H$20</f>
@@ -8712,162 +8703,162 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="10">
         <f t="array" ref="B14">SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>652.5</v>
+        <v>1807.5</v>
       </c>
       <c r="C14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!C23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!C17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>552.75</v>
+        <v>1322.75</v>
       </c>
       <c r="D14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!D23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!D17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>714.75</v>
+        <v>1484.75</v>
       </c>
       <c r="E14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!E23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!E17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>982.5</v>
+        <v>1752.5</v>
       </c>
       <c r="F14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!F23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!F17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1302</v>
+        <v>2072</v>
       </c>
       <c r="G14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!G23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!G17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>1680</v>
+        <v>2450</v>
       </c>
       <c r="H14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!H23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!H17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2157</v>
+        <v>2927</v>
       </c>
       <c r="I14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!I23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!I17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>2712.75</v>
+        <v>3482.75</v>
       </c>
       <c r="J14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!J23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!J17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3300</v>
+        <v>4070</v>
       </c>
       <c r="K14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!K23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!K17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>3975</v>
+        <v>4745</v>
       </c>
       <c r="L14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!L23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!L17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>4724.25</v>
+        <v>5494.25</v>
       </c>
       <c r="M14" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!M23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Gift Card")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!M17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
-        <v>5556.75</v>
+        <v>6326.75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" ref="B15:M15" si="1">B13+B14</f>
-        <v>902.5</v>
+        <v>2057.5</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="1"/>
-        <v>1602.75</v>
+        <v>2372.75</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="1"/>
-        <v>2264.75</v>
+        <v>3034.75</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>3482.5</v>
+        <v>4252.5</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>4302</v>
+        <v>5072</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>5230</v>
+        <v>6000</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>6607</v>
+        <v>7377</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>7912.75</v>
+        <v>8682.75</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>8800</v>
+        <v>9570</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="1"/>
-        <v>10275</v>
+        <v>11045</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="1"/>
-        <v>11724.25</v>
+        <v>12494.25</v>
       </c>
       <c r="M15" s="10">
         <f t="shared" si="1"/>
-        <v>13306.75</v>
+        <v>14076.75</v>
       </c>
       <c r="O15" s="66"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" ref="B16:M16" si="2">B15</f>
-        <v>902.5</v>
+        <v>2057.5</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="2"/>
-        <v>1602.75</v>
+        <v>2372.75</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="2"/>
-        <v>2264.75</v>
+        <v>3034.75</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="2"/>
-        <v>3482.5</v>
+        <v>4252.5</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>4302</v>
+        <v>5072</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>5230</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>6607</v>
+        <v>7377</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
-        <v>7912.75</v>
+        <v>8682.75</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="2"/>
-        <v>8800</v>
+        <v>9570</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="2"/>
-        <v>10275</v>
+        <v>11045</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
-        <v>11724.25</v>
+        <v>12494.25</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="2"/>
-        <v>13306.75</v>
+        <v>14076.75</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8877,71 +8868,71 @@
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" ref="B21:M21" si="3">B10+B16</f>
-        <v>3732.9644444444448</v>
+        <v>6302.4890505555559</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>7205.1744444444439</v>
+        <v>10774.986060555557</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>11385.508222222225</v>
+        <v>16713.607143777779</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>17892.457333333336</v>
+        <v>25863.833510666671</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>24313.056888888888</v>
+        <v>35083.582569111109</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>31385.560444444447</v>
+        <v>45226.801776555563</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>40885.099111111114</v>
+        <v>58785.579141888906</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>51064.33622222222</v>
+        <v>73399.341436777788</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>60705.955999999998</v>
+        <v>87415.957511000015</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="3"/>
-        <v>72555.163555555555</v>
+        <v>104449.67529244446</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="3"/>
-        <v>85280.870444444459</v>
+        <v>122810.79151155557</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="3"/>
-        <v>99295.974888888901</v>
+        <v>143039.09002711112</v>
       </c>
       <c r="O21" s="66"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="10" t="e">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$45*'VIP Levels'!$C$45+'Affiliate Projection'!B20*'VIP Levels'!$B$46*'VIP Levels'!$C$46+'Affiliate Projection'!B21*'VIP Levels'!$B$47*'VIP Levels'!$C$47+'Affiliate Projection'!B22*'VIP Levels'!$B$48*'VIP Levels'!$C$48+'Affiliate Projection'!B23*'VIP Levels'!$K$19*'VIP Levels'!#REF!</f>
@@ -8994,7 +8985,7 @@
     </row>
     <row r="25" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="10">
         <f>SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B19*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Bronze")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B13*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B20*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Silver")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B14*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B21*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Gold")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B15*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B22*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Platinum")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B16*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26="One-time")*'Affiliate Projection'!B23*Missions!$E$5:$E$26*Missions!$J$5:$J$26)+SUMPRODUCT((Missions!$F$5:$F$26="Spark Ads")*(Missions!$A$5:$A$26="Diamond")*(Missions!$D$5:$D$26&lt;&gt;"One-time")*'Affiliate Projection'!B17*Missions!$E$5:$E$26*Missions!$J$5:$J$26)</f>
@@ -9047,7 +9038,7 @@
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$G$34*'VIP Levels'!$H$34+'Affiliate Projection'!B20*'VIP Levels'!$G$35*'VIP Levels'!$H$35+'Affiliate Projection'!B21*'VIP Levels'!$G$36*'VIP Levels'!$H$36+'Affiliate Projection'!B22*'VIP Levels'!$G$37*'VIP Levels'!$H$37+'Affiliate Projection'!B23*'VIP Levels'!$G$28*'VIP Levels'!$H$28</f>
@@ -9100,7 +9091,7 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="10">
         <f>'Affiliate Projection'!B19*'VIP Levels'!$B$34*'VIP Levels'!$C$34+'Affiliate Projection'!B20*'VIP Levels'!$B$35*'VIP Levels'!$C$35+'Affiliate Projection'!B21*'VIP Levels'!$B$36*'VIP Levels'!$C$36+'Affiliate Projection'!B22*'VIP Levels'!$B$37*'VIP Levels'!$C$37+'Affiliate Projection'!B23*'VIP Levels'!$B$38*'VIP Levels'!$C$38</f>
@@ -9153,7 +9144,7 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="10">
         <f>'Affiliate Projection'!B4*Inputs!$B$18</f>
@@ -9206,7 +9197,7 @@
     </row>
     <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="11" t="e">
         <f t="shared" ref="B29:M29" si="4">SUM(B24:B28)</f>
@@ -9273,7 +9264,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9286,7 +9277,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="201" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -9295,53 +9286,53 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="E3" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="F3" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="G3" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="H3" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="I3" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="J3" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="K3" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>228</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="65">
         <f>'Affiliate Projection'!B8</f>
@@ -9394,7 +9385,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="219">
         <f>'Affiliate Projection'!B9</f>
@@ -9447,109 +9438,109 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="220">
         <f>Revenue!B8</f>
-        <v>9935.5555555555566</v>
+        <v>14900.849444444444</v>
       </c>
       <c r="C6" s="220">
         <f>Revenue!C8</f>
-        <v>20702.222222222223</v>
+        <v>31048.157777777778</v>
       </c>
       <c r="D6" s="220">
         <f>Revenue!D8</f>
-        <v>34037.777777777781</v>
+        <v>51048.157222222224</v>
       </c>
       <c r="E6" s="220">
         <f>Revenue!E8</f>
-        <v>53153.333333333336</v>
+        <v>79716.71166666667</v>
       </c>
       <c r="F6" s="220">
         <f>Revenue!F8</f>
-        <v>74384.444444444453</v>
+        <v>111558.07055555556</v>
       </c>
       <c r="G6" s="220">
         <f>Revenue!G8</f>
-        <v>98108.888888888891</v>
+        <v>147138.8061111111</v>
       </c>
       <c r="H6" s="220">
         <f>Revenue!H8</f>
-        <v>127575.55555555556</v>
+        <v>191331.43944444446</v>
       </c>
       <c r="I6" s="220">
         <f>Revenue!I8</f>
-        <v>160744.44444444444</v>
+        <v>241076.48055555555</v>
       </c>
       <c r="J6" s="220">
         <f>Revenue!J8</f>
-        <v>194706.66666666666</v>
+        <v>292011.32333333336</v>
       </c>
       <c r="K6" s="220">
         <f>Revenue!K8</f>
-        <v>233391.11111111112</v>
+        <v>350028.31888888893</v>
       </c>
       <c r="L6" s="220">
         <f>Revenue!L8</f>
-        <v>275815.55555555556</v>
+        <v>413654.37944444444</v>
       </c>
       <c r="M6" s="220">
         <f>Revenue!M8</f>
-        <v>322357.77777777781</v>
+        <v>483456.07722222223</v>
       </c>
       <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14" s="212" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="221" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="222">
         <f>SUM(B10:B13)+SUM(B18:B19)+B24</f>
-        <v>3732.9644444444448</v>
+        <v>6302.4890505555559</v>
       </c>
       <c r="C7" s="222">
         <f t="shared" ref="C7:L7" si="0">SUM(C10:C13)+SUM(C18:C19)+C24</f>
-        <v>7205.1744444444448</v>
+        <v>10774.986060555557</v>
       </c>
       <c r="D7" s="222">
         <f t="shared" si="0"/>
-        <v>11385.508222222223</v>
+        <v>16713.607143777779</v>
       </c>
       <c r="E7" s="222">
         <f t="shared" si="0"/>
-        <v>17892.457333333336</v>
+        <v>25863.833510666671</v>
       </c>
       <c r="F7" s="222">
         <f t="shared" si="0"/>
-        <v>24313.056888888892</v>
+        <v>35083.582569111109</v>
       </c>
       <c r="G7" s="222">
         <f t="shared" si="0"/>
-        <v>31385.560444444443</v>
+        <v>45226.801776555563</v>
       </c>
       <c r="H7" s="222">
         <f t="shared" si="0"/>
-        <v>40885.099111111122</v>
+        <v>58785.579141888906</v>
       </c>
       <c r="I7" s="222">
         <f t="shared" si="0"/>
-        <v>51064.33622222222</v>
+        <v>73399.341436777788</v>
       </c>
       <c r="J7" s="222">
         <f t="shared" si="0"/>
-        <v>60705.956000000006</v>
+        <v>87415.957511000015</v>
       </c>
       <c r="K7" s="222">
         <f t="shared" si="0"/>
-        <v>72555.163555555555</v>
+        <v>104449.67529244447</v>
       </c>
       <c r="L7" s="222">
         <f t="shared" si="0"/>
-        <v>85280.870444444445</v>
+        <v>122810.79151155557</v>
       </c>
       <c r="M7" s="222">
         <f>SUM(M10:M13)+SUM(M18:M19)+M24</f>
-        <v>99295.974888888886</v>
+        <v>143039.09002711112</v>
       </c>
       <c r="N7" s="217"/>
     </row>
@@ -9562,118 +9553,118 @@
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="69">
         <f>'Affiliate Costs'!B6</f>
-        <v>29.466666666666669</v>
+        <v>44.192633333333333</v>
       </c>
       <c r="C10" s="69">
         <f>'Affiliate Costs'!C6</f>
-        <v>302.03333333333342</v>
+        <v>452.97449166666678</v>
       </c>
       <c r="D10" s="69">
         <f>'Affiliate Costs'!D6</f>
-        <v>480.30666666666673</v>
+        <v>720.33992333333345</v>
       </c>
       <c r="E10" s="69">
         <f>'Affiliate Costs'!E6</f>
-        <v>800.0200000000001</v>
+        <v>1199.8299950000001</v>
       </c>
       <c r="F10" s="69">
         <f>'Affiliate Costs'!F6</f>
-        <v>978.29333333333341</v>
+        <v>1467.1954266666669</v>
       </c>
       <c r="G10" s="69">
         <f>'Affiliate Costs'!G6</f>
-        <v>1102.0533333333335</v>
+        <v>1652.8044866666671</v>
       </c>
       <c r="H10" s="69">
         <f>'Affiliate Costs'!H6</f>
-        <v>1476.2800000000002</v>
+        <v>2214.0509300000003</v>
       </c>
       <c r="I10" s="69">
         <f>'Affiliate Costs'!I6</f>
-        <v>1713.4866666666667</v>
+        <v>2569.8016283333336</v>
       </c>
       <c r="J10" s="69">
         <f>'Affiliate Costs'!J6</f>
-        <v>1778.3133333333335</v>
+        <v>2667.0254216666672</v>
       </c>
       <c r="K10" s="69">
         <f>'Affiliate Costs'!K6</f>
-        <v>2050.88</v>
+        <v>3075.8072800000009</v>
       </c>
       <c r="L10" s="69">
         <f>'Affiliate Costs'!L6</f>
-        <v>2282.1933333333336</v>
+        <v>3422.7194516666673</v>
       </c>
       <c r="M10" s="69">
         <f>'Affiliate Costs'!M6</f>
-        <v>2548.8666666666668</v>
+        <v>3822.6627833333341</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="69">
         <f>'Affiliate Costs'!B7</f>
-        <v>20.626666666666669</v>
+        <v>30.93484333333334</v>
       </c>
       <c r="C11" s="69">
         <f>'Affiliate Costs'!C7</f>
-        <v>206.26666666666668</v>
+        <v>309.34843333333339</v>
       </c>
       <c r="D11" s="69">
         <f>'Affiliate Costs'!D7</f>
-        <v>519.79199999999992</v>
+        <v>779.55805200000009</v>
       </c>
       <c r="E11" s="69">
         <f>'Affiliate Costs'!E7</f>
-        <v>1016.8946666666667</v>
+        <v>1525.0877763333333</v>
       </c>
       <c r="F11" s="69">
         <f>'Affiliate Costs'!F7</f>
-        <v>1641.8826666666669</v>
+        <v>2462.4135293333338</v>
       </c>
       <c r="G11" s="69">
         <f>'Affiliate Costs'!G7</f>
-        <v>2324.6253333333334</v>
+        <v>3486.3568436666674</v>
       </c>
       <c r="H11" s="69">
         <f>'Affiliate Costs'!H7</f>
-        <v>3261.076</v>
+        <v>4890.7987310000008</v>
       </c>
       <c r="I11" s="69">
         <f>'Affiliate Costs'!I7</f>
-        <v>4352.2266666666674</v>
+        <v>6527.2519433333346</v>
       </c>
       <c r="J11" s="69">
         <f>'Affiliate Costs'!J7</f>
-        <v>5474.3173333333343</v>
+        <v>8210.1074206666672</v>
       </c>
       <c r="K11" s="69">
         <f>'Affiliate Costs'!K7</f>
-        <v>6761.4213333333337</v>
+        <v>10140.441644666669</v>
       </c>
       <c r="L11" s="69">
         <f>'Affiliate Costs'!L7</f>
-        <v>8199.1000000000022</v>
+        <v>12296.600225000002</v>
       </c>
       <c r="M11" s="69">
         <f>'Affiliate Costs'!M7</f>
-        <v>9797.6666666666679</v>
+        <v>14694.050583333334</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="69">
         <f>'Affiliate Costs'!B13</f>
@@ -9726,161 +9717,161 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="69">
         <f>'Affiliate Costs'!B14</f>
-        <v>652.5</v>
+        <v>1807.5</v>
       </c>
       <c r="C13" s="69">
         <f>'Affiliate Costs'!C14</f>
-        <v>552.75</v>
+        <v>1322.75</v>
       </c>
       <c r="D13" s="69">
         <f>'Affiliate Costs'!D14</f>
-        <v>714.75</v>
+        <v>1484.75</v>
       </c>
       <c r="E13" s="69">
         <f>'Affiliate Costs'!E14</f>
-        <v>982.5</v>
+        <v>1752.5</v>
       </c>
       <c r="F13" s="69">
         <f>'Affiliate Costs'!F14</f>
-        <v>1302</v>
+        <v>2072</v>
       </c>
       <c r="G13" s="69">
         <f>'Affiliate Costs'!G14</f>
-        <v>1680</v>
+        <v>2450</v>
       </c>
       <c r="H13" s="69">
         <f>'Affiliate Costs'!H14</f>
-        <v>2157</v>
+        <v>2927</v>
       </c>
       <c r="I13" s="69">
         <f>'Affiliate Costs'!I14</f>
-        <v>2712.75</v>
+        <v>3482.75</v>
       </c>
       <c r="J13" s="69">
         <f>'Affiliate Costs'!J14</f>
-        <v>3300</v>
+        <v>4070</v>
       </c>
       <c r="K13" s="69">
         <f>'Affiliate Costs'!K14</f>
-        <v>3975</v>
+        <v>4745</v>
       </c>
       <c r="L13" s="69">
         <f>'Affiliate Costs'!L14</f>
-        <v>4724.25</v>
+        <v>5494.25</v>
       </c>
       <c r="M13" s="69">
         <f>'Affiliate Costs'!M14</f>
-        <v>5556.75</v>
+        <v>6326.75</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="164">
         <f t="shared" ref="B14:M14" si="1">IF(B5&gt;0,SUM(B10:B13)/B5,0)</f>
-        <v>3.6220278833967048</v>
+        <v>8.1088497211660329</v>
       </c>
       <c r="C14" s="164">
         <f t="shared" si="1"/>
-        <v>3.8522810218978107</v>
+        <v>5.720935994525548</v>
       </c>
       <c r="D14" s="164">
         <f t="shared" si="1"/>
-        <v>3.6235834258231594</v>
+        <v>5.0329056330003699</v>
       </c>
       <c r="E14" s="164">
         <f t="shared" si="1"/>
-        <v>3.7664638711205876</v>
+        <v>4.9590744643449423</v>
       </c>
       <c r="F14" s="164">
         <f t="shared" si="1"/>
-        <v>3.5155794819705437</v>
+        <v>4.5716652899949217</v>
       </c>
       <c r="G14" s="164">
         <f t="shared" si="1"/>
-        <v>3.3333379540495445</v>
+        <v>4.2892419446797589</v>
       </c>
       <c r="H14" s="164">
         <f t="shared" si="1"/>
-        <v>3.3592999703879181</v>
+        <v>4.2883771575362752</v>
       </c>
       <c r="I14" s="164">
         <f t="shared" si="1"/>
-        <v>3.2851852722287505</v>
+        <v>4.1785672318840579</v>
       </c>
       <c r="J14" s="164">
         <f t="shared" si="1"/>
-        <v>3.1145965593066878</v>
+        <v>3.9672357086405379</v>
       </c>
       <c r="K14" s="164">
         <f t="shared" si="1"/>
-        <v>3.0895599438869104</v>
+        <v>3.9270393209237082</v>
       </c>
       <c r="L14" s="164">
         <f t="shared" si="1"/>
-        <v>3.0414386157147426</v>
+        <v>3.864343196365795</v>
       </c>
       <c r="M14" s="164">
         <f t="shared" si="1"/>
-        <v>3.0063615766240868</v>
+        <v>3.8196956951443415</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="72">
         <f>B14/Inputs!$B$12</f>
-        <v>9.0550697084917614E-2</v>
+        <v>0.13517002369004888</v>
       </c>
       <c r="C15" s="72">
         <f>C14/Inputs!$B$12</f>
-        <v>9.6307025547445274E-2</v>
+        <v>9.5364827379989123E-2</v>
       </c>
       <c r="D15" s="72">
         <f>D14/Inputs!$B$12</f>
-        <v>9.0589585645578979E-2</v>
+        <v>8.389574317386847E-2</v>
       </c>
       <c r="E15" s="72">
         <f>E14/Inputs!$B$12</f>
-        <v>9.4161596778014695E-2</v>
+        <v>8.2665018575511617E-2</v>
       </c>
       <c r="F15" s="72">
         <f>F14/Inputs!$B$12</f>
-        <v>8.7889487049263595E-2</v>
+        <v>7.6207122687029866E-2</v>
       </c>
       <c r="G15" s="72">
         <f>G14/Inputs!$B$12</f>
-        <v>8.3333448851238612E-2</v>
+        <v>7.1499282291711264E-2</v>
       </c>
       <c r="H15" s="72">
         <f>H14/Inputs!$B$12</f>
-        <v>8.3982499259697946E-2</v>
+        <v>7.1484866770066269E-2</v>
       </c>
       <c r="I15" s="72">
         <f>I14/Inputs!$B$12</f>
-        <v>8.2129631805718764E-2</v>
+        <v>6.9654396264111643E-2</v>
       </c>
       <c r="J15" s="72">
         <f>J14/Inputs!$B$12</f>
-        <v>7.7864913982667192E-2</v>
+        <v>6.6131617080188998E-2</v>
       </c>
       <c r="K15" s="72">
         <f>K14/Inputs!$B$12</f>
-        <v>7.7238998597172759E-2</v>
+        <v>6.5461565609663416E-2</v>
       </c>
       <c r="L15" s="72">
         <f>L14/Inputs!$B$12</f>
-        <v>7.6035965392868568E-2</v>
+        <v>6.4416456015432486E-2</v>
       </c>
       <c r="M15" s="72">
         <f>M14/Inputs!$B$12</f>
-        <v>7.5159039415602175E-2</v>
+        <v>6.3672206953564611E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9923,183 +9914,183 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="69">
         <f>'Affiliate Costs'!B8</f>
-        <v>436.8</v>
+        <v>655.09079999999994</v>
       </c>
       <c r="C18" s="69">
         <f>'Affiliate Costs'!C8</f>
-        <v>593.32000000000005</v>
+        <v>889.83167000000014</v>
       </c>
       <c r="D18" s="69">
         <f>'Affiliate Costs'!D8</f>
-        <v>768.04000000000008</v>
+        <v>1151.8679900000002</v>
       </c>
       <c r="E18" s="69">
         <f>'Affiliate Costs'!E8</f>
-        <v>1106.5600000000002</v>
+        <v>1659.5633600000001</v>
       </c>
       <c r="F18" s="69">
         <f>'Affiliate Costs'!F8</f>
-        <v>1281.2800000000002</v>
+        <v>1921.5996800000003</v>
       </c>
       <c r="G18" s="69">
         <f>'Affiliate Costs'!G8</f>
-        <v>1445.0800000000004</v>
+        <v>2167.2587300000005</v>
       </c>
       <c r="H18" s="69">
         <f>'Affiliate Costs'!H8</f>
-        <v>1794.5200000000004</v>
+        <v>2691.3313700000008</v>
       </c>
       <c r="I18" s="69">
         <f>'Affiliate Costs'!I8</f>
-        <v>2045.6800000000003</v>
+        <v>3068.0085800000002</v>
       </c>
       <c r="J18" s="69">
         <f>'Affiliate Costs'!J8</f>
-        <v>2133.0400000000004</v>
+        <v>3199.0267400000002</v>
       </c>
       <c r="K18" s="69">
         <f>'Affiliate Costs'!K8</f>
-        <v>2416.96</v>
+        <v>3624.8357599999999</v>
       </c>
       <c r="L18" s="69">
         <f>'Affiliate Costs'!L8</f>
-        <v>2657.2000000000003</v>
+        <v>3985.1357000000007</v>
       </c>
       <c r="M18" s="69">
         <f>'Affiliate Costs'!M8</f>
-        <v>2930.2</v>
+        <v>4394.5674500000005</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="69">
         <f>'Affiliate Costs'!B9</f>
-        <v>356.46</v>
+        <v>534.60088499999995</v>
       </c>
       <c r="C19" s="69">
         <f>'Affiliate Costs'!C9</f>
-        <v>360.36</v>
+        <v>540.44991000000005</v>
       </c>
       <c r="D19" s="69">
         <f>'Affiliate Costs'!D9</f>
-        <v>545.06400000000008</v>
+        <v>817.45973400000003</v>
       </c>
       <c r="E19" s="69">
         <f>'Affiliate Costs'!E9</f>
-        <v>855.81600000000003</v>
+        <v>1283.5100460000001</v>
       </c>
       <c r="F19" s="69">
         <f>'Affiliate Costs'!F9</f>
-        <v>1232.712</v>
+        <v>1848.759822</v>
       </c>
       <c r="G19" s="69">
         <f>'Affiliate Costs'!G9</f>
-        <v>1662.0240000000001</v>
+        <v>2492.6204940000002</v>
       </c>
       <c r="H19" s="69">
         <f>'Affiliate Costs'!H9</f>
-        <v>2231.1120000000001</v>
+        <v>3346.1102220000002</v>
       </c>
       <c r="I19" s="69">
         <f>'Affiliate Costs'!I9</f>
-        <v>2891.3040000000001</v>
+        <v>4336.2331740000009</v>
       </c>
       <c r="J19" s="69">
         <f>'Affiliate Costs'!J9</f>
-        <v>3578.9520000000002</v>
+        <v>5367.5332620000008</v>
       </c>
       <c r="K19" s="69">
         <f>'Affiliate Costs'!K9</f>
-        <v>4372.68</v>
+        <v>6557.9268300000012</v>
       </c>
       <c r="L19" s="69">
         <f>'Affiliate Costs'!L9</f>
-        <v>5255.0160000000005</v>
+        <v>7881.2102460000006</v>
       </c>
       <c r="M19" s="69">
         <f>'Affiliate Costs'!M9</f>
-        <v>6240.9359999999997</v>
+        <v>9359.8437660000018</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="164">
         <f t="shared" ref="B20:M20" si="2">IF(B5&gt;0,SUM(B18:B19)/B5,0)</f>
-        <v>3.0161977186311786</v>
+        <v>4.5235425285171091</v>
       </c>
       <c r="C20" s="164">
         <f t="shared" si="2"/>
-        <v>1.7402919708029199</v>
+        <v>2.6100028832116795</v>
       </c>
       <c r="D20" s="164">
         <f t="shared" si="2"/>
-        <v>1.4573851276359604</v>
+        <v>2.1857133451720312</v>
       </c>
       <c r="E20" s="164">
         <f t="shared" si="2"/>
-        <v>1.394723525230988</v>
+        <v>2.0917366069651746</v>
       </c>
       <c r="F20" s="164">
         <f t="shared" si="2"/>
-        <v>1.276786185881158</v>
+        <v>1.9148600822752668</v>
       </c>
       <c r="G20" s="164">
         <f t="shared" si="2"/>
-        <v>1.1964204851752023</v>
+        <v>1.7943316226415096</v>
       </c>
       <c r="H20" s="164">
         <f t="shared" si="2"/>
-        <v>1.1920734379626889</v>
+        <v>1.7878121385845429</v>
       </c>
       <c r="I20" s="164">
         <f t="shared" si="2"/>
-        <v>1.1602782608695652</v>
+        <v>1.7401273217391307</v>
       </c>
       <c r="J20" s="164">
         <f t="shared" si="2"/>
-        <v>1.1082638727202174</v>
+        <v>1.6621187431121462</v>
       </c>
       <c r="K20" s="164">
         <f t="shared" si="2"/>
-        <v>1.0990029135642603</v>
+        <v>1.6482296196179997</v>
       </c>
       <c r="L20" s="164">
         <f t="shared" si="2"/>
-        <v>1.0837167511299823</v>
+        <v>1.6253041975071909</v>
       </c>
       <c r="M20" s="164">
         <f t="shared" si="2"/>
-        <v>1.0747844837688971</v>
+        <v>1.611908029532404</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="72">
         <f>B20/Inputs!$B$12</f>
-        <v>7.5404942965779459E-2</v>
+        <v>7.5404942965779445E-2</v>
       </c>
       <c r="C21" s="72">
         <f>C20/Inputs!$B$12</f>
-        <v>4.3507299270072998E-2</v>
+        <v>4.3507299270073005E-2</v>
       </c>
       <c r="D21" s="72">
         <f>D20/Inputs!$B$12</f>
-        <v>3.6434628190899009E-2</v>
+        <v>3.6434628190899002E-2</v>
       </c>
       <c r="E21" s="72">
         <f>E20/Inputs!$B$12</f>
@@ -10115,7 +10106,7 @@
       </c>
       <c r="H21" s="72">
         <f>H20/Inputs!$B$12</f>
-        <v>2.9801835949067223E-2</v>
+        <v>2.9801835949067226E-2</v>
       </c>
       <c r="I21" s="72">
         <f>I20/Inputs!$B$12</f>
@@ -10123,135 +10114,135 @@
       </c>
       <c r="J21" s="72">
         <f>J20/Inputs!$B$12</f>
-        <v>2.7706596818005434E-2</v>
+        <v>2.7706596818005438E-2</v>
       </c>
       <c r="K21" s="72">
         <f>K20/Inputs!$B$12</f>
-        <v>2.7475072839106506E-2</v>
+        <v>2.7475072839106513E-2</v>
       </c>
       <c r="L21" s="72">
         <f>L20/Inputs!$B$12</f>
-        <v>2.7092918778249559E-2</v>
+        <v>2.7092918778249556E-2</v>
       </c>
       <c r="M21" s="72">
         <f>M20/Inputs!$B$12</f>
-        <v>2.686961209422243E-2</v>
+        <v>2.6869612094222436E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="69">
         <f>'Affiliate Costs'!B5</f>
-        <v>1987.1111111111113</v>
+        <v>2980.1698888888891</v>
       </c>
       <c r="C24" s="69">
         <f>'Affiliate Costs'!C5</f>
-        <v>4140.4444444444443</v>
+        <v>6209.6315555555557</v>
       </c>
       <c r="D24" s="69">
         <f>'Affiliate Costs'!D5</f>
-        <v>6807.5555555555566</v>
+        <v>10209.631444444445</v>
       </c>
       <c r="E24" s="69">
         <f>'Affiliate Costs'!E5</f>
-        <v>10630.666666666668</v>
+        <v>15943.342333333338</v>
       </c>
       <c r="F24" s="69">
         <f>'Affiliate Costs'!F5</f>
-        <v>14876.888888888891</v>
+        <v>22311.61411111111</v>
       </c>
       <c r="G24" s="69">
         <f>'Affiliate Costs'!G5</f>
-        <v>19621.777777777777</v>
+        <v>29427.761222222227</v>
       </c>
       <c r="H24" s="69">
         <f>'Affiliate Costs'!H5</f>
-        <v>25515.111111111117</v>
+        <v>38266.287888888903</v>
       </c>
       <c r="I24" s="69">
         <f>'Affiliate Costs'!I5</f>
-        <v>32148.888888888891</v>
+        <v>48215.296111111114</v>
       </c>
       <c r="J24" s="69">
         <f>'Affiliate Costs'!J5</f>
-        <v>38941.333333333336</v>
+        <v>58402.264666666684</v>
       </c>
       <c r="K24" s="69">
         <f>'Affiliate Costs'!K5</f>
-        <v>46678.222222222226</v>
+        <v>70005.663777777794</v>
       </c>
       <c r="L24" s="69">
         <f>'Affiliate Costs'!L5</f>
-        <v>55163.111111111117</v>
+        <v>82730.875888888899</v>
       </c>
       <c r="M24" s="69">
         <f>'Affiliate Costs'!M5</f>
-        <v>64471.555555555562</v>
+        <v>96691.215444444446</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="164">
         <f t="shared" ref="B25:M25" si="3">IF(B5&gt;0,B24/B5,0)</f>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444445</v>
       </c>
       <c r="C25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555554</v>
+        <v>11.331444444444445</v>
       </c>
       <c r="D25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444445</v>
       </c>
       <c r="E25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444447</v>
       </c>
       <c r="F25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444443</v>
       </c>
       <c r="G25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555554</v>
+        <v>11.331444444444447</v>
       </c>
       <c r="H25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555571</v>
+        <v>11.331444444444449</v>
       </c>
       <c r="I25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444445</v>
       </c>
       <c r="J25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444449</v>
       </c>
       <c r="K25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444447</v>
       </c>
       <c r="L25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444445</v>
       </c>
       <c r="M25" s="164">
         <f t="shared" si="3"/>
-        <v>7.5555555555555562</v>
+        <v>11.331444444444445</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="72">
         <f t="shared" ref="B26:M26" si="4">B24/B6</f>
@@ -10259,7 +10250,7 @@
       </c>
       <c r="C26" s="72">
         <f t="shared" si="4"/>
-        <v>0.19999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="72">
         <f t="shared" si="4"/>
@@ -10267,19 +10258,19 @@
       </c>
       <c r="E26" s="72">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="F26" s="72">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="G26" s="72">
         <f t="shared" si="4"/>
-        <v>0.19999999999999998</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="H26" s="72">
         <f t="shared" si="4"/>
-        <v>0.20000000000000004</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="I26" s="72">
         <f t="shared" si="4"/>
@@ -10287,7 +10278,7 @@
       </c>
       <c r="J26" s="72">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K26" s="72">
         <f t="shared" si="4"/>
@@ -10295,7 +10286,7 @@
       </c>
       <c r="L26" s="72">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="M26" s="72">
         <f t="shared" si="4"/>
@@ -10324,8 +10315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10348,7 +10339,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="202" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -10364,7 +10355,7 @@
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -10387,43 +10378,43 @@
     </row>
     <row r="5" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="D5" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="E5" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="F5" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="G5" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="H5" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="I5" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="J5" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="K5" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="L5" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="M5" s="83" t="s">
         <v>228</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>229</v>
       </c>
       <c r="O5" s="82"/>
       <c r="P5" s="82"/>
@@ -10433,55 +10424,55 @@
     </row>
     <row r="6" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="95">
         <f t="shared" ref="B6:M6" si="0">AVERAGE(B24,B34,B44)</f>
-        <v>8.5439220130094089</v>
+        <v>8.2470943385941595</v>
       </c>
       <c r="C6" s="95">
         <f t="shared" si="0"/>
-        <v>5.3852219516970266</v>
+        <v>5.7221089096133175</v>
       </c>
       <c r="D6" s="95">
         <f t="shared" si="0"/>
-        <v>4.9919705851258334</v>
+        <v>5.2949525425011492</v>
       </c>
       <c r="E6" s="95">
         <f t="shared" si="0"/>
-        <v>4.5649123561234894</v>
+        <v>5.2234134974652946</v>
       </c>
       <c r="F6" s="95">
         <f t="shared" si="0"/>
-        <v>4.0912939575396416</v>
+        <v>4.5702029622349292</v>
       </c>
       <c r="G6" s="95">
         <f t="shared" si="0"/>
-        <v>4.0102192491522262</v>
+        <v>4.4842215349311045</v>
       </c>
       <c r="H6" s="95">
         <f t="shared" si="0"/>
-        <v>3.6678185898217279</v>
+        <v>4.4405540978162348</v>
       </c>
       <c r="I6" s="95">
         <f t="shared" si="0"/>
-        <v>3.5450709759690278</v>
+        <v>4.1889604425038582</v>
       </c>
       <c r="J6" s="95">
         <f t="shared" si="0"/>
-        <v>3.4694047050188428</v>
+        <v>4.1392905983613124</v>
       </c>
       <c r="K6" s="95">
         <f t="shared" si="0"/>
-        <v>3.3220470176457035</v>
+        <v>3.98940963793877</v>
       </c>
       <c r="L6" s="95">
         <f t="shared" si="0"/>
-        <v>3.2471938674495235</v>
+        <v>3.9571434348070706</v>
       </c>
       <c r="M6" s="95">
         <f t="shared" si="0"/>
-        <v>3.1598192607145723</v>
+        <v>3.8861295108246225</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="82"/>
@@ -10492,54 +10483,54 @@
     </row>
     <row r="7" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="91">
         <v>0.1</v>
       </c>
       <c r="C7" s="91">
         <f>C6/Inputs!$B$12</f>
-        <v>0.13463054879242567</v>
+        <v>9.5384379223425866E-2</v>
       </c>
       <c r="D7" s="91">
         <f>D6/Inputs!$B$12</f>
-        <v>0.12479926462814583</v>
+        <v>8.8263919694968315E-2</v>
       </c>
       <c r="E7" s="91">
         <f>E6/Inputs!$B$12</f>
-        <v>0.11412280890308724</v>
+        <v>8.707140352500907E-2</v>
       </c>
       <c r="F7" s="91">
         <f>F6/Inputs!$B$12</f>
-        <v>0.10228234893849104</v>
+        <v>7.6182746494997983E-2</v>
       </c>
       <c r="G7" s="91">
         <f>G6/Inputs!$B$12</f>
-        <v>0.10025548122880565</v>
+        <v>7.4749483829489982E-2</v>
       </c>
       <c r="H7" s="91">
         <f>H6/Inputs!$B$12</f>
-        <v>9.1695464745543201E-2</v>
+        <v>7.4021571892252613E-2</v>
       </c>
       <c r="I7" s="91">
         <f>I6/Inputs!$B$12</f>
-        <v>8.86267743992257E-2</v>
+        <v>6.9827645315950287E-2</v>
       </c>
       <c r="J7" s="91">
         <f>J6/Inputs!$B$12</f>
-        <v>8.6735117625471064E-2</v>
+        <v>6.8999676585452779E-2</v>
       </c>
       <c r="K7" s="91">
         <f>K6/Inputs!$B$12</f>
-        <v>8.3051175441142586E-2</v>
+        <v>6.6501244173008331E-2</v>
       </c>
       <c r="L7" s="91">
         <f>L6/Inputs!$B$12</f>
-        <v>8.1179846686238094E-2</v>
+        <v>6.5963384477530765E-2</v>
       </c>
       <c r="M7" s="91">
         <f>M6/Inputs!$B$12</f>
-        <v>7.8995481517864313E-2</v>
+        <v>6.477962178404105E-2</v>
       </c>
       <c r="N7" s="82"/>
       <c r="O7" s="82"/>
@@ -10550,55 +10541,55 @@
     </row>
     <row r="8" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="95">
         <f t="shared" ref="B8:M8" si="1">AVERAGE(B26,B36,B46)</f>
-        <v>3.0213110076686527</v>
+        <v>4.5312111837510622</v>
       </c>
       <c r="C8" s="95">
         <f t="shared" si="1"/>
-        <v>1.7135020940101493</v>
+        <v>2.5698247654917208</v>
       </c>
       <c r="D8" s="95">
         <f t="shared" si="1"/>
-        <v>1.5211038408510689</v>
+        <v>2.1867418267002616</v>
       </c>
       <c r="E8" s="95">
         <f t="shared" si="1"/>
-        <v>1.389385293231413</v>
+        <v>2.089341851120627</v>
       </c>
       <c r="F8" s="95">
         <f t="shared" si="1"/>
-        <v>1.2749236574142211</v>
+        <v>1.8485080454662917</v>
       </c>
       <c r="G8" s="95">
         <f t="shared" si="1"/>
-        <v>1.2414924869395907</v>
+        <v>1.7912684206149405</v>
       </c>
       <c r="H8" s="95">
         <f t="shared" si="1"/>
-        <v>1.1670494312949271</v>
+        <v>1.7629718482111656</v>
       </c>
       <c r="I8" s="95">
         <f t="shared" si="1"/>
-        <v>1.1357656359048374</v>
+        <v>1.6849082701559415</v>
       </c>
       <c r="J8" s="95">
         <f t="shared" si="1"/>
-        <v>1.119059237453977</v>
+        <v>1.6563351204112278</v>
       </c>
       <c r="K8" s="95">
         <f t="shared" si="1"/>
-        <v>1.0905701812835076</v>
+        <v>1.6160304244688204</v>
       </c>
       <c r="L8" s="95">
         <f t="shared" si="1"/>
-        <v>1.0779389886691499</v>
+        <v>1.6023536634942903</v>
       </c>
       <c r="M8" s="95">
         <f t="shared" si="1"/>
-        <v>1.0582460812413699</v>
+        <v>1.5851952559951747</v>
       </c>
       <c r="N8" s="82"/>
       <c r="O8" s="82"/>
@@ -10609,7 +10600,7 @@
     </row>
     <row r="9" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="91">
         <f>B8/Inputs!$B$12</f>
@@ -10617,47 +10608,47 @@
       </c>
       <c r="C9" s="91">
         <f>C8/Inputs!$B$12</f>
-        <v>4.283755235025373E-2</v>
+        <v>4.2837552350253723E-2</v>
       </c>
       <c r="D9" s="91">
         <f>D8/Inputs!$B$12</f>
-        <v>3.802759602127672E-2</v>
+        <v>3.6451772407072203E-2</v>
       </c>
       <c r="E9" s="91">
         <f>E8/Inputs!$B$12</f>
-        <v>3.4734632330785324E-2</v>
+        <v>3.4828168880157141E-2</v>
       </c>
       <c r="F9" s="91">
         <f>F8/Inputs!$B$12</f>
-        <v>3.1873091435355529E-2</v>
+        <v>3.0813603024942349E-2</v>
       </c>
       <c r="G9" s="91">
         <f>G8/Inputs!$B$12</f>
-        <v>3.1037312173489769E-2</v>
+        <v>2.9859450251957666E-2</v>
       </c>
       <c r="H9" s="91">
         <f>H8/Inputs!$B$12</f>
-        <v>2.9176235782373178E-2</v>
+        <v>2.9387762097202293E-2</v>
       </c>
       <c r="I9" s="91">
         <f>I8/Inputs!$B$12</f>
-        <v>2.8394140897620934E-2</v>
+        <v>2.8086485583529611E-2</v>
       </c>
       <c r="J9" s="91">
         <f>J8/Inputs!$B$12</f>
-        <v>2.7976480936349423E-2</v>
+        <v>2.7610187038026798E-2</v>
       </c>
       <c r="K9" s="91">
         <f>K8/Inputs!$B$12</f>
-        <v>2.7264254532087688E-2</v>
+        <v>2.6938330129501923E-2</v>
       </c>
       <c r="L9" s="91">
         <f>L8/Inputs!$B$12</f>
-        <v>2.6948474716728749E-2</v>
+        <v>2.6710346115924159E-2</v>
       </c>
       <c r="M9" s="91">
         <f>M8/Inputs!$B$12</f>
-        <v>2.6456152031034248E-2</v>
+        <v>2.642432498741748E-2</v>
       </c>
       <c r="N9" s="82"/>
       <c r="O9" s="82"/>
@@ -10668,7 +10659,7 @@
     </row>
     <row r="10" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="175">
         <f t="shared" ref="B10:M10" si="2">AVERAGE(B28,B38,B48)</f>
@@ -10748,7 +10739,7 @@
     </row>
     <row r="12" spans="1:20" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="171" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="172">
         <f>AVERAGE(B29,B39,B49)</f>
@@ -10756,7 +10747,7 @@
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="171" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" s="173">
         <v>0.2</v>
@@ -10779,11 +10770,11 @@
     <row r="13" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="82"/>
       <c r="D13" s="88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="97">
         <f>AVERAGE(B7:M7)</f>
-        <v>9.886452607553671E-2</v>
+        <v>7.764542308301059E-2</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -10803,11 +10794,11 @@
     <row r="14" spans="1:20" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="82"/>
       <c r="D14" s="88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="96">
         <f>E12/(E12+E13)*AVERAGE(B6:M6)</f>
-        <v>2.8998029760661819</v>
+        <v>3.490271924406263</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
@@ -10827,11 +10818,11 @@
     <row r="15" spans="1:20" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="82"/>
       <c r="D15" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="96">
         <f>E13/(E12+E13)*AVERAGE(B6:M6)</f>
-        <v>1.4334382347060699</v>
+        <v>1.3550182012263892</v>
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
@@ -10851,11 +10842,11 @@
     <row r="16" spans="1:20" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="82"/>
       <c r="D16" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="96">
         <f>AVERAGE(B8:M8)</f>
-        <v>1.4008623279969052</v>
+        <v>2.0770575563234606</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
@@ -10874,11 +10865,11 @@
     <row r="17" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="82"/>
       <c r="D17" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" s="97">
         <f>AVERAGE(B9:M9)</f>
-        <v>3.5021558199922635E-2</v>
+        <v>3.4623396504808474E-2</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
@@ -10970,7 +10961,7 @@
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="82"/>
@@ -10993,46 +10984,46 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="D23" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="E23" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="F23" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="G23" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="H23" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="I23" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="I23" s="83" t="s">
+      <c r="J23" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="J23" s="83" t="s">
+      <c r="K23" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="L23" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="L23" s="83" t="s">
+      <c r="M23" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="M23" s="83" t="s">
-        <v>229</v>
-      </c>
       <c r="N23" s="87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O23" s="82"/>
       <c r="P23" s="82"/>
@@ -11042,43 +11033,43 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="90">
-        <v>10.99382951653944</v>
+        <v>10.296288078880407</v>
       </c>
       <c r="C24" s="90">
-        <v>6.3340124816446393</v>
+        <v>6.2250845337738623</v>
       </c>
       <c r="D24" s="90">
-        <v>6.3672136089577949</v>
+        <v>6.4445732445030783</v>
       </c>
       <c r="E24" s="90">
-        <v>5.8076448040885857</v>
+        <v>6.1165326022927688</v>
       </c>
       <c r="F24" s="90">
-        <v>4.819592924126173</v>
+        <v>4.9819932545167127</v>
       </c>
       <c r="G24" s="90">
-        <v>4.9568736176935229</v>
+        <v>5.0590724923611115</v>
       </c>
       <c r="H24" s="90">
-        <v>4.3131819908814588</v>
+        <v>5.0697732688346884</v>
       </c>
       <c r="I24" s="90">
-        <v>4.2122739416358401</v>
+        <v>4.5298430057239054</v>
       </c>
       <c r="J24" s="90">
-        <v>4.1501397306397303</v>
+        <v>4.6924103634105965</v>
       </c>
       <c r="K24" s="90">
-        <v>3.8966418334042849</v>
+        <v>4.3185813071664318</v>
       </c>
       <c r="L24" s="90">
-        <v>3.7349492092457419</v>
+        <v>4.3434524528504355</v>
       </c>
       <c r="M24" s="90">
-        <v>3.659184268600252</v>
+        <v>4.1913955083275098</v>
       </c>
       <c r="N24" s="92">
         <v>10.656411890390469</v>
@@ -11091,43 +11082,43 @@
     </row>
     <row r="25" spans="1:19" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="91">
-        <v>0.27484573791348599</v>
+        <v>0.17163340688248718</v>
       </c>
       <c r="C25" s="91">
-        <v>0.15835031204111599</v>
+        <v>0.10376870368017774</v>
       </c>
       <c r="D25" s="91">
-        <v>0.15918034022394489</v>
+        <v>0.10742745865149322</v>
       </c>
       <c r="E25" s="91">
-        <v>0.1451911201022146</v>
+        <v>0.1019592032387526</v>
       </c>
       <c r="F25" s="91">
-        <v>0.1204898231031543</v>
+        <v>8.304706208562615E-2</v>
       </c>
       <c r="G25" s="91">
-        <v>0.1239218404423381</v>
+        <v>8.4331930194384258E-2</v>
       </c>
       <c r="H25" s="91">
-        <v>0.1078295497720365</v>
+        <v>8.4510306198277846E-2</v>
       </c>
       <c r="I25" s="91">
-        <v>0.105306848540896</v>
+        <v>7.5509968423468993E-2</v>
       </c>
       <c r="J25" s="91">
-        <v>0.1037534932659933</v>
+        <v>7.8219876036182634E-2</v>
       </c>
       <c r="K25" s="91">
-        <v>9.7416045835107129E-2</v>
+        <v>7.1988353178303585E-2</v>
       </c>
       <c r="L25" s="91">
-        <v>9.3373730231143565E-2</v>
+        <v>7.2402941371069104E-2</v>
       </c>
       <c r="M25" s="91">
-        <v>9.1479606715006309E-2</v>
+        <v>6.9868236511543752E-2</v>
       </c>
       <c r="N25" s="94">
         <v>0.26641029725976179</v>
@@ -11140,47 +11131,47 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="90">
-        <v>3.0277099236641218</v>
+        <v>4.5408079580152663</v>
       </c>
       <c r="C26" s="90">
-        <v>1.4944845814977981</v>
+        <v>2.2413532511013217</v>
       </c>
       <c r="D26" s="90">
-        <v>1.397751937984496</v>
+        <v>2.0455640290237467</v>
       </c>
       <c r="E26" s="90">
-        <v>1.2770562180579219</v>
+        <v>1.8703125679012349</v>
       </c>
       <c r="F26" s="90">
-        <v>1.0860818414322251</v>
+        <v>1.5612194281842819</v>
       </c>
       <c r="G26" s="90">
-        <v>1.109941232227488</v>
+        <v>1.5657514979166669</v>
       </c>
       <c r="H26" s="90">
-        <v>1.005504559270517</v>
+        <v>1.5665242349593498</v>
       </c>
       <c r="I26" s="90">
-        <v>0.99219975339087541</v>
+        <v>1.4372715259259261</v>
       </c>
       <c r="J26" s="90">
-        <v>0.99070505050505075</v>
+        <v>1.4831302538631348</v>
       </c>
       <c r="K26" s="90">
-        <v>0.95833631332481906</v>
+        <v>1.3988757260726075</v>
       </c>
       <c r="L26" s="90">
-        <v>0.93715766423357683</v>
+        <v>1.4115490084507045</v>
       </c>
       <c r="M26" s="90">
-        <v>0.93222950819672135</v>
+        <v>1.3845281167016072</v>
       </c>
       <c r="N26" s="92">
         <f>AVERAGE(B26:M26)</f>
-        <v>1.2674298819821344</v>
+        <v>1.875573966509654</v>
       </c>
       <c r="O26" s="82"/>
       <c r="P26" s="82"/>
@@ -11190,47 +11181,47 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="91">
-        <v>7.5692748091603063E-2</v>
+        <v>7.5692748091603035E-2</v>
       </c>
       <c r="C27" s="91">
-        <v>3.7362114537444938E-2</v>
+        <v>3.7362114537444931E-2</v>
       </c>
       <c r="D27" s="91">
-        <v>3.4943798449612408E-2</v>
+        <v>3.4098416886543532E-2</v>
       </c>
       <c r="E27" s="91">
-        <v>3.1926405451448037E-2</v>
+        <v>3.1177072310405649E-2</v>
       </c>
       <c r="F27" s="91">
-        <v>2.7152046035805628E-2</v>
+        <v>2.6024661246612468E-2</v>
       </c>
       <c r="G27" s="91">
-        <v>2.7748530805687208E-2</v>
+        <v>2.6100208333333336E-2</v>
       </c>
       <c r="H27" s="91">
-        <v>2.5137613981762921E-2</v>
+        <v>2.6113089430894312E-2</v>
       </c>
       <c r="I27" s="91">
-        <v>2.4804993834771881E-2</v>
+        <v>2.3958518518518521E-2</v>
       </c>
       <c r="J27" s="91">
-        <v>2.4767626262626269E-2</v>
+        <v>2.4722958057395144E-2</v>
       </c>
       <c r="K27" s="91">
-        <v>2.395840783312048E-2</v>
+        <v>2.331848184818482E-2</v>
       </c>
       <c r="L27" s="91">
-        <v>2.3428941605839419E-2</v>
+        <v>2.3529738430583504E-2</v>
       </c>
       <c r="M27" s="91">
-        <v>2.330573770491803E-2</v>
+        <v>2.3079315164220824E-2</v>
       </c>
       <c r="N27" s="94">
         <f>AVERAGE(B27:M27)</f>
-        <v>3.1685747049553348E-2</v>
+        <v>3.1264776904645006E-2</v>
       </c>
       <c r="O27" s="82"/>
       <c r="P27" s="82"/>
@@ -11240,7 +11231,7 @@
     </row>
     <row r="28" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="169">
         <v>4730.5555555555557</v>
@@ -11287,7 +11278,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="126">
         <f>SUM(B28:M28)</f>
@@ -11354,7 +11345,7 @@
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="82"/>
@@ -11377,46 +11368,46 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="D33" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="E33" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="F33" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="G33" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="G33" s="83" t="s">
+      <c r="H33" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="I33" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="I33" s="83" t="s">
+      <c r="J33" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="K33" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K33" s="83" t="s">
+      <c r="L33" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="L33" s="83" t="s">
+      <c r="M33" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="M33" s="83" t="s">
-        <v>229</v>
-      </c>
       <c r="N33" s="87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O33" s="82"/>
       <c r="P33" s="82"/>
@@ -11426,47 +11417,47 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="90">
-        <v>7.6060202788339666</v>
+        <v>8.1088497211660329</v>
       </c>
       <c r="C34" s="90">
-        <v>5.0887317518248176</v>
+        <v>5.720935994525548</v>
       </c>
       <c r="D34" s="90">
-        <v>4.5064305999290033</v>
+        <v>5.0329056330003699</v>
       </c>
       <c r="E34" s="90">
-        <v>4.1607912341407154</v>
+        <v>4.9590744643449423</v>
       </c>
       <c r="F34" s="90">
-        <v>3.9161876006441232</v>
+        <v>4.5716652899949217</v>
       </c>
       <c r="G34" s="90">
-        <v>3.7777879320445229</v>
+        <v>4.2892419446797589</v>
       </c>
       <c r="H34" s="90">
-        <v>3.5006157546056809</v>
+        <v>4.2883771575362752</v>
       </c>
       <c r="I34" s="90">
-        <v>3.355511120770847</v>
+        <v>4.1785672318840579</v>
       </c>
       <c r="J34" s="90">
-        <v>3.2658965517241381</v>
+        <v>3.9672357086405379</v>
       </c>
       <c r="K34" s="90">
-        <v>3.1587842877471912</v>
+        <v>3.9270393209237082</v>
       </c>
       <c r="L34" s="90">
-        <v>3.146011332840601</v>
+        <v>3.864343196365795</v>
       </c>
       <c r="M34" s="90">
-        <v>3.0264133417774959</v>
+        <v>3.8196956951443415</v>
       </c>
       <c r="N34" s="92">
         <f>AVERAGE(B34:M34)</f>
-        <v>4.0424318155735923</v>
+        <v>4.7273276131838573</v>
       </c>
       <c r="O34" s="82"/>
       <c r="P34" s="82"/>
@@ -11476,47 +11467,47 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="91">
-        <v>0.1901505069708492</v>
+        <v>0.13517002369004888</v>
       </c>
       <c r="C35" s="91">
-        <v>0.12721829379562041</v>
+        <v>9.5364827379989123E-2</v>
       </c>
       <c r="D35" s="91">
-        <v>0.1126607649982251</v>
+        <v>8.389574317386847E-2</v>
       </c>
       <c r="E35" s="91">
-        <v>0.1040197808535179</v>
+        <v>8.2665018575511617E-2</v>
       </c>
       <c r="F35" s="91">
-        <v>9.7904690016103066E-2</v>
+        <v>7.6207122687029866E-2</v>
       </c>
       <c r="G35" s="91">
-        <v>9.4444698301113073E-2</v>
+        <v>7.1499282291711264E-2</v>
       </c>
       <c r="H35" s="91">
-        <v>8.7515393865142038E-2</v>
+        <v>7.1484866770066269E-2</v>
       </c>
       <c r="I35" s="91">
-        <v>8.3887778019271178E-2</v>
+        <v>6.9654396264111643E-2</v>
       </c>
       <c r="J35" s="91">
-        <v>8.1647413793103446E-2</v>
+        <v>6.6131617080188998E-2</v>
       </c>
       <c r="K35" s="91">
-        <v>7.8969607193679764E-2</v>
+        <v>6.5461565609663416E-2</v>
       </c>
       <c r="L35" s="91">
-        <v>7.8650283321015022E-2</v>
+        <v>6.4416456015432486E-2</v>
       </c>
       <c r="M35" s="91">
-        <v>7.5660333544437408E-2</v>
+        <v>6.3672206953564611E-2</v>
       </c>
       <c r="N35" s="94">
         <f>AVERAGE(B35:M35)</f>
-        <v>0.10106079538933981</v>
+        <v>7.8801927207598876E-2</v>
       </c>
       <c r="O35" s="82"/>
       <c r="P35" s="82"/>
@@ -11526,47 +11517,47 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="90">
-        <v>3.016197718631179</v>
+        <v>4.5235425285171091</v>
       </c>
       <c r="C36" s="90">
-        <v>1.7402919708029201</v>
+        <v>2.6100028832116795</v>
       </c>
       <c r="D36" s="90">
-        <v>1.514645367412141</v>
+        <v>2.1857133451720312</v>
       </c>
       <c r="E36" s="90">
-        <v>1.386690657439446</v>
+        <v>2.0917366069651746</v>
       </c>
       <c r="F36" s="90">
-        <v>1.3057777777777779</v>
+        <v>1.9148600822752668</v>
       </c>
       <c r="G36" s="90">
-        <v>1.268873110720562</v>
+        <v>1.7943316226415096</v>
       </c>
       <c r="H36" s="90">
-        <v>1.1905210999183229</v>
+        <v>1.7878121385845429</v>
       </c>
       <c r="I36" s="90">
-        <v>1.1520695500978051</v>
+        <v>1.7401273217391307</v>
       </c>
       <c r="J36" s="90">
-        <v>1.130280459770115</v>
+        <v>1.6621187431121462</v>
       </c>
       <c r="K36" s="90">
-        <v>1.1045770646253501</v>
+        <v>1.6482296196179997</v>
       </c>
       <c r="L36" s="90">
-        <v>1.1057334318797729</v>
+        <v>1.6253041975071909</v>
       </c>
       <c r="M36" s="90">
-        <v>1.074359299134473</v>
+        <v>1.611908029532404</v>
       </c>
       <c r="N36" s="92">
         <f>AVERAGE(B36:M36)</f>
-        <v>1.4158347923508223</v>
+        <v>2.0996405932396818</v>
       </c>
       <c r="O36" s="82"/>
       <c r="P36" s="82"/>
@@ -11576,47 +11567,47 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="91">
-        <v>7.5404942965779459E-2</v>
+        <v>7.5404942965779445E-2</v>
       </c>
       <c r="C37" s="91">
-        <v>4.3507299270072998E-2</v>
+        <v>4.3507299270073005E-2</v>
       </c>
       <c r="D37" s="91">
-        <v>3.7866134185303511E-2</v>
+        <v>3.6434628190899002E-2</v>
       </c>
       <c r="E37" s="91">
-        <v>3.4667266435986159E-2</v>
+        <v>3.4868088130774702E-2</v>
       </c>
       <c r="F37" s="91">
-        <v>3.2644444444444441E-2</v>
+        <v>3.191965464702895E-2</v>
       </c>
       <c r="G37" s="91">
-        <v>3.1721827768014063E-2</v>
+        <v>2.9910512129380055E-2</v>
       </c>
       <c r="H37" s="91">
-        <v>2.9763027497958072E-2</v>
+        <v>2.9801835949067226E-2</v>
       </c>
       <c r="I37" s="91">
-        <v>2.880173875244512E-2</v>
+        <v>2.9006956521739131E-2</v>
       </c>
       <c r="J37" s="91">
-        <v>2.825701149425288E-2</v>
+        <v>2.7706596818005438E-2</v>
       </c>
       <c r="K37" s="91">
-        <v>2.7614426615633739E-2</v>
+        <v>2.7475072839106513E-2</v>
       </c>
       <c r="L37" s="91">
-        <v>2.764333579699433E-2</v>
+        <v>2.7092918778249556E-2</v>
       </c>
       <c r="M37" s="91">
-        <v>2.6858982478361829E-2</v>
+        <v>2.6869612094222436E-2</v>
       </c>
       <c r="N37" s="94">
         <f>AVERAGE(B37:M37)</f>
-        <v>3.5395869808770554E-2</v>
+        <v>3.4999843194527112E-2</v>
       </c>
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
@@ -11626,7 +11617,7 @@
     </row>
     <row r="38" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="169">
         <v>9497.2222222222226</v>
@@ -11673,7 +11664,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="126">
         <f>SUM(B38:M38)</f>
@@ -11740,7 +11731,7 @@
     </row>
     <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="82"/>
       <c r="C42" s="82"/>
@@ -11763,46 +11754,46 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="D43" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="E43" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="F43" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="G43" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="H43" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="I43" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="I43" s="83" t="s">
+      <c r="J43" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="K43" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="L43" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="L43" s="83" t="s">
+      <c r="M43" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="M43" s="83" t="s">
-        <v>229</v>
-      </c>
       <c r="N43" s="87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O43" s="82"/>
       <c r="P43" s="82"/>
@@ -11812,47 +11803,47 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="90">
-        <v>7.0319162436548206</v>
+        <v>6.3361452157360398</v>
       </c>
       <c r="C44" s="90">
-        <v>4.7329216216216219</v>
+        <v>5.2203062005405405</v>
       </c>
       <c r="D44" s="90">
-        <v>4.1022675464907019</v>
+        <v>4.4073787500000003</v>
       </c>
       <c r="E44" s="90">
-        <v>3.7263010301411681</v>
+        <v>4.5946334257581727</v>
       </c>
       <c r="F44" s="90">
-        <v>3.538101347848627</v>
+        <v>4.1569503421931531</v>
       </c>
       <c r="G44" s="90">
-        <v>3.2959961977186309</v>
+        <v>4.1043501677524432</v>
       </c>
       <c r="H44" s="90">
-        <v>3.189658023978045</v>
+        <v>3.9635118670777398</v>
       </c>
       <c r="I44" s="90">
-        <v>3.0674278655003979</v>
+        <v>3.8584710899036088</v>
       </c>
       <c r="J44" s="90">
-        <v>2.99217783269266</v>
+        <v>3.7582257230328033</v>
       </c>
       <c r="K44" s="90">
-        <v>2.910714931785634</v>
+        <v>3.7226082857261686</v>
       </c>
       <c r="L44" s="90">
-        <v>2.8606210602622291</v>
+        <v>3.6636346552049814</v>
       </c>
       <c r="M44" s="90">
-        <v>2.793860171765969</v>
+        <v>3.6472973290020176</v>
       </c>
       <c r="N44" s="92">
         <f>AVERAGE(B44:M44)</f>
-        <v>3.6868303227883756</v>
+        <v>4.2861260876606382</v>
       </c>
       <c r="O44" s="82"/>
       <c r="P44" s="82"/>
@@ -11862,47 +11853,47 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" s="91">
-        <v>0.1757979060913705</v>
+        <v>0.10562002359953392</v>
       </c>
       <c r="C45" s="91">
-        <v>0.11832304054054051</v>
+        <v>8.7019606610110697E-2</v>
       </c>
       <c r="D45" s="91">
-        <v>0.10255668866226759</v>
+        <v>7.3468557259543266E-2</v>
       </c>
       <c r="E45" s="91">
-        <v>9.3157525753529188E-2</v>
+        <v>7.6589988760763006E-2</v>
       </c>
       <c r="F45" s="91">
-        <v>8.8452533696215668E-2</v>
+        <v>6.9294054712337932E-2</v>
       </c>
       <c r="G45" s="91">
-        <v>8.2399904942965771E-2</v>
+        <v>6.8417239002374453E-2</v>
       </c>
       <c r="H45" s="91">
-        <v>7.9741450599451119E-2</v>
+        <v>6.6069542708413725E-2</v>
       </c>
       <c r="I45" s="91">
-        <v>7.6685696637509945E-2</v>
+        <v>6.4318571260270185E-2</v>
       </c>
       <c r="J45" s="91">
-        <v>7.4804445817316503E-2</v>
+        <v>6.264753663998672E-2</v>
       </c>
       <c r="K45" s="91">
-        <v>7.2767873294640836E-2</v>
+        <v>6.2053813731057984E-2</v>
       </c>
       <c r="L45" s="91">
-        <v>7.1515526506555724E-2</v>
+        <v>6.1070756046090705E-2</v>
       </c>
       <c r="M45" s="91">
-        <v>6.9846504294149209E-2</v>
+        <v>6.0798421887014793E-2</v>
       </c>
       <c r="N45" s="94">
         <f>AVERAGE(B45:M45)</f>
-        <v>9.2170758069709383E-2</v>
+        <v>7.1447342684791443E-2</v>
       </c>
       <c r="O45" s="82"/>
       <c r="P45" s="82"/>
@@ -11912,47 +11903,47 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="90">
-        <v>3.020025380710659</v>
+        <v>4.5292830647208122</v>
       </c>
       <c r="C46" s="90">
-        <v>1.90572972972973</v>
+        <v>2.8581181621621625</v>
       </c>
       <c r="D46" s="90">
-        <v>1.6509142171565689</v>
+        <v>2.328948105905007</v>
       </c>
       <c r="E46" s="90">
-        <v>1.504409004196871</v>
+        <v>2.3059763784954712</v>
       </c>
       <c r="F46" s="90">
-        <v>1.43291135303266</v>
+        <v>2.0694446259393264</v>
       </c>
       <c r="G46" s="90">
-        <v>1.3456631178707219</v>
+        <v>2.0137221412866451</v>
       </c>
       <c r="H46" s="90">
-        <v>1.305122634695941</v>
+        <v>1.9345791710896039</v>
       </c>
       <c r="I46" s="90">
-        <v>1.2630276042258319</v>
+        <v>1.8773259628027681</v>
       </c>
       <c r="J46" s="90">
-        <v>1.2361922020867651</v>
+        <v>1.823756364258402</v>
       </c>
       <c r="K46" s="90">
-        <v>1.208797165900354</v>
+        <v>1.8009859277158542</v>
       </c>
       <c r="L46" s="90">
-        <v>1.1909258698941001</v>
+        <v>1.7702077845249755</v>
       </c>
       <c r="M46" s="90">
-        <v>1.168149436392915</v>
+        <v>1.759149621751513</v>
       </c>
       <c r="N46" s="92">
         <f>AVERAGE(B46:M46)</f>
-        <v>1.5193223096577599</v>
+        <v>2.2559581092210443</v>
       </c>
       <c r="O46" s="82"/>
       <c r="P46" s="82"/>
@@ -11962,47 +11953,47 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="91">
-        <v>7.5500634517766479E-2</v>
+        <v>7.5500634517766493E-2</v>
       </c>
       <c r="C47" s="91">
         <v>4.7643243243243247E-2</v>
       </c>
       <c r="D47" s="91">
-        <v>4.1272855428914221E-2</v>
+        <v>3.8822272143774081E-2</v>
       </c>
       <c r="E47" s="91">
-        <v>3.7610225104921777E-2</v>
+        <v>3.8439346199291069E-2</v>
       </c>
       <c r="F47" s="91">
-        <v>3.5822783825816489E-2</v>
+        <v>3.4496493181185639E-2</v>
       </c>
       <c r="G47" s="91">
-        <v>3.3641577946768059E-2</v>
+        <v>3.3567630293159609E-2</v>
       </c>
       <c r="H47" s="91">
-        <v>3.2628065867398533E-2</v>
+        <v>3.2248360911645339E-2</v>
       </c>
       <c r="I47" s="91">
-        <v>3.1575690105645801E-2</v>
+        <v>3.1293981710331188E-2</v>
       </c>
       <c r="J47" s="91">
-        <v>3.0904805052169131E-2</v>
+        <v>3.0401006238679813E-2</v>
       </c>
       <c r="K47" s="91">
-        <v>3.0219929147508859E-2</v>
+        <v>3.0021435701214436E-2</v>
       </c>
       <c r="L47" s="91">
-        <v>2.97731467473525E-2</v>
+        <v>2.9508381138939416E-2</v>
       </c>
       <c r="M47" s="91">
-        <v>2.9203735909822861E-2</v>
+        <v>2.9324047703809183E-2</v>
       </c>
       <c r="N47" s="94">
         <f>AVERAGE(B47:M47)</f>
-        <v>3.7983057741443997E-2</v>
+        <v>3.7605569415253295E-2</v>
       </c>
       <c r="O47" s="82"/>
       <c r="P47" s="82"/>
@@ -12012,7 +12003,7 @@
     </row>
     <row r="48" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="169">
         <v>14227.777777777779</v>
@@ -12059,7 +12050,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="126">
         <v>3238769.444444444</v>
@@ -12147,12 +12138,12 @@
     </row>
     <row r="53" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="203" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="204"/>
       <c r="C53" s="82"/>
       <c r="D53" s="203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E53" s="204"/>
       <c r="F53" s="82"/>
@@ -12172,25 +12163,25 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B54" s="160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="82"/>
       <c r="D54" s="160" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="154" t="s">
         <v>254</v>
-      </c>
-      <c r="E54" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="154" t="s">
-        <v>255</v>
       </c>
       <c r="G54" s="82"/>
       <c r="H54" s="82"/>
       <c r="I54" s="86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J54" s="82"/>
       <c r="K54" s="82"/>
@@ -12205,14 +12196,14 @@
     </row>
     <row r="55" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="124">
         <v>0.2</v>
       </c>
       <c r="C55" s="82"/>
       <c r="D55" s="127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E55" s="124">
         <v>0.2</v>
@@ -12224,10 +12215,10 @@
       <c r="G55" s="82"/>
       <c r="H55" s="82"/>
       <c r="I55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L55" s="82"/>
       <c r="M55" s="82"/>
@@ -12240,31 +12231,31 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="124">
         <f>AVERAGE(B7:E7)</f>
-        <v>0.11838815558091469</v>
+        <v>9.2679925610850825E-2</v>
       </c>
       <c r="C56" s="82"/>
       <c r="D56" s="127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E56" s="124">
         <f>AVERAGE(E7:M7)</f>
-        <v>9.1882722165096534E-2</v>
+        <v>7.2010753119748097E-2</v>
       </c>
       <c r="F56" s="187">
         <f>E56-B56</f>
-        <v>-2.6505433415818153E-2</v>
+        <v>-2.0669172491102727E-2</v>
       </c>
       <c r="G56" s="82"/>
       <c r="H56" s="82"/>
       <c r="I56" t="s">
+        <v>258</v>
+      </c>
+      <c r="J56" t="s">
         <v>259</v>
-      </c>
-      <c r="J56" t="s">
-        <v>260</v>
       </c>
       <c r="L56" s="82"/>
       <c r="M56" s="82"/>
@@ -12277,19 +12268,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="124">
         <f>E17</f>
-        <v>3.5021558199922635E-2</v>
+        <v>3.4623396504808474E-2</v>
       </c>
       <c r="C57" s="82"/>
       <c r="D57" s="127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E57" s="124">
         <f>E17</f>
-        <v>3.5021558199922635E-2</v>
+        <v>3.4623396504808474E-2</v>
       </c>
       <c r="F57" s="130">
         <f>E57-B57</f>
@@ -12308,14 +12299,14 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="124">
         <v>0.06</v>
       </c>
       <c r="C58" s="82"/>
       <c r="D58" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" s="124">
         <v>0.03</v>
@@ -12327,7 +12318,7 @@
       <c r="G58" s="82"/>
       <c r="H58" s="82"/>
       <c r="I58" s="86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J58" s="82"/>
       <c r="L58" s="82"/>
@@ -12341,14 +12332,14 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B59" s="157">
         <v>0.08</v>
       </c>
       <c r="C59" s="82"/>
       <c r="D59" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="157">
         <v>0.08</v>
@@ -12359,11 +12350,11 @@
       </c>
       <c r="G59" s="82"/>
       <c r="H59" s="82"/>
-      <c r="I59" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="J59" s="90">
-        <v>40</v>
+      <c r="I59" s="127" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="223">
+        <v>59.99</v>
       </c>
       <c r="L59" s="82"/>
       <c r="M59" s="82"/>
@@ -12376,19 +12367,19 @@
     </row>
     <row r="60" spans="1:19" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B60" s="157">
         <f>0.5/J59</f>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3347224537422895E-3</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E60" s="157">
         <f>0.5/J59</f>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3347224537422895E-3</v>
       </c>
       <c r="F60" s="130">
         <f>E60-B60</f>
@@ -12396,10 +12387,10 @@
       </c>
       <c r="G60" s="82"/>
       <c r="H60" s="82"/>
-      <c r="I60" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="J60" s="90">
+      <c r="I60" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="J60" s="223">
         <v>0</v>
       </c>
       <c r="L60" s="82"/>
@@ -12413,30 +12404,30 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="178">
         <f>J61/J59</f>
-        <v>0.16250000000000001</v>
+        <v>0.10835139189864977</v>
       </c>
       <c r="C61" s="82"/>
       <c r="D61" s="161" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E61" s="162">
         <f>J62/J59</f>
-        <v>0.1125</v>
+        <v>7.5012502083680613E-2</v>
       </c>
       <c r="F61" s="187">
         <f>E61-B61</f>
-        <v>-0.05</v>
+        <v>-3.3338889814969158E-2</v>
       </c>
       <c r="G61" s="82"/>
       <c r="H61" s="82"/>
-      <c r="I61" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="J61" s="90">
+      <c r="I61" s="127" t="s">
+        <v>270</v>
+      </c>
+      <c r="J61" s="223">
         <v>6.5</v>
       </c>
       <c r="L61" s="82"/>
@@ -12450,14 +12441,14 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" s="162">
         <v>0</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="185" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E62" s="186">
         <v>0</v>
@@ -12468,10 +12459,10 @@
       </c>
       <c r="G62" s="82"/>
       <c r="H62" s="82"/>
-      <c r="I62" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="J62" s="176">
+      <c r="I62" s="127" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" s="223">
         <v>4.5</v>
       </c>
       <c r="L62" s="82"/>
@@ -12506,7 +12497,6 @@
       <c r="C64" s="82"/>
       <c r="F64" s="82"/>
       <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
       <c r="I64" s="82"/>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
@@ -12521,28 +12511,28 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B65" s="158">
         <f>SUM(B55:B63)</f>
-        <v>0.66840971378083736</v>
+        <v>0.58398943646805135</v>
       </c>
       <c r="C65" s="82"/>
       <c r="D65" s="159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" s="158">
         <f>SUM(E55:E62)</f>
-        <v>0.56190428036501927</v>
+        <v>0.49998137416197952</v>
       </c>
       <c r="F65" s="130">
         <f>E65-B65</f>
-        <v>-0.10650543341581808</v>
+        <v>-8.4008062306071829E-2</v>
       </c>
       <c r="G65" s="82"/>
       <c r="H65" s="82"/>
       <c r="I65" s="82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J65" s="82"/>
       <c r="K65" s="82"/>
@@ -12618,17 +12608,19 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="181" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" s="184">
-        <v>40</v>
+        <f>J59</f>
+        <v>59.99</v>
       </c>
       <c r="C69" s="82"/>
       <c r="D69" s="181" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E69" s="184">
-        <v>40</v>
+        <f>J59</f>
+        <v>59.99</v>
       </c>
       <c r="F69" s="82"/>
       <c r="G69" s="82"/>
@@ -12647,14 +12639,14 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="176">
         <v>0</v>
       </c>
       <c r="C70" s="82"/>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E70" s="176">
         <v>0</v>
@@ -12697,19 +12689,19 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="181" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B72" s="184">
         <f>B69-B70</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="C72" s="82"/>
       <c r="D72" s="181" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E72" s="184">
         <f>E69-E70</f>
-        <v>40</v>
+        <v>59.99</v>
       </c>
       <c r="F72" s="82"/>
       <c r="G72" s="82"/>
@@ -12728,19 +12720,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B73" s="182">
         <f>B65*B69</f>
-        <v>26.736388551233496</v>
+        <v>35.033526293718403</v>
       </c>
       <c r="C73" s="82"/>
       <c r="D73" s="82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E73" s="182">
         <f>E65*E69</f>
-        <v>22.476171214600772</v>
+        <v>29.993882635977151</v>
       </c>
       <c r="F73" s="130"/>
       <c r="G73" s="82"/>
@@ -12780,19 +12772,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B75" s="184">
         <f>B72-B73</f>
-        <v>13.263611448766504</v>
+        <v>24.956473706281599</v>
       </c>
       <c r="C75" s="82"/>
       <c r="D75" s="183" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E75" s="184">
         <f>E72-E73</f>
-        <v>17.523828785399228</v>
+        <v>29.996117364022851</v>
       </c>
       <c r="F75" s="82"/>
       <c r="G75" s="82"/>
@@ -12811,19 +12803,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B76" s="89">
         <f>B75/J59</f>
-        <v>0.33159028621916259</v>
+        <v>0.41601056353194865</v>
       </c>
       <c r="C76" s="82"/>
       <c r="D76" s="82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E76" s="89">
         <f>E75/J59</f>
-        <v>0.43809571963498073</v>
+        <v>0.50001862583802048</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82"/>

--- a/Rumi/LoyaltyProgramModel_v3.xlsx
+++ b/Rumi/LoyaltyProgramModel_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACE7A9-3D9E-4B80-8CB1-A1AA2CE03CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE90B269-8391-44F0-92E4-2E50B37D0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1684,7 +1684,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="7"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,77 +2162,75 @@
     <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="41" border